--- a/UCATS/pages/猫咪档案.xlsx
+++ b/UCATS/pages/猫咪档案.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DBA76A1-C2AA-4528-BF19-5C0F70259063}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD6EAE88-9EFB-4320-B833-0A96C8486112}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="195">
   <si>
     <t>ID</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -577,199 +577,232 @@
     <t>失踪</t>
   </si>
   <si>
-    <t>玳瑁 阴阳脸</t>
-  </si>
-  <si>
-    <t xml:space="preserve">玳瑁猫 白围脖 白手套 </t>
-  </si>
-  <si>
-    <t>玳瑁 白围脖</t>
-  </si>
-  <si>
-    <t>白围脖 白手套 花臂大佬，现在小三花圆滚滚像个球</t>
-  </si>
-  <si>
-    <t xml:space="preserve">标准橘猫 与不亲人小橘难解难分。 颜色较浅，背部斑点较少 尾部狸花纹路较多 从中部开始 约6段 </t>
-  </si>
-  <si>
     <t>橘猫 显著白围巾特征</t>
   </si>
   <si>
     <t>长毛橘白，白色橘色基本一半一半，刘海左半部分较长</t>
   </si>
   <si>
-    <t>标准橘猫 与亲人小橘难分难解。颜色较重， 背部斑点较多 尾部狸花纹路较少 从下部开始 约4段</t>
-  </si>
-  <si>
-    <t>狸花猫 白围脖 白手套，超级亲人</t>
+    <t>短毛橘白，头顶至尾巴橘色，其它地方白色</t>
+  </si>
+  <si>
+    <t>超肥橘白，最近不见了，人靠近会跑，干饭能力一猫更比六猫强</t>
+  </si>
+  <si>
+    <t>背上有一串糖葫芦，话唠，叫声像防空警报</t>
+  </si>
+  <si>
+    <t>长毛橘，白围脖，白手套，尾巴长毛巨好看</t>
+  </si>
+  <si>
+    <t>玳瑁 左眼一圈黄色眼影</t>
+  </si>
+  <si>
+    <t>简州狸花，眼部到脚部都是白色，花臂</t>
+  </si>
+  <si>
+    <t>耳朵两侧各有一块黑点，背部两块黑块，尾巴黑色 远看像一个露馅的黑芝麻汤圆</t>
+  </si>
+  <si>
+    <t>全身基本白色，头部有标志性的一撮黑</t>
+  </si>
+  <si>
+    <t>东西区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>平刘海 小公主 没猫德 平贵人</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022年12月28号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022年12月01号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>疑似菜菜 格力高 憨八嘎的兄弟</t>
+  </si>
+  <si>
+    <t>爆米花、一点白的兄弟</t>
+  </si>
+  <si>
+    <t>爆米花、脸谱的兄弟</t>
+  </si>
+  <si>
+    <t>脸谱、一点白的兄弟</t>
+  </si>
+  <si>
+    <t>大黑被送到救助站，随时接受领养</t>
+  </si>
+  <si>
+    <t>2022年11月01号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022年11月1号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022年12月1号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022年6月1号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>纯黑色，有点像猎犬。长毛，耷拉耳朵，尾巴扫帚状。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>健康</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>纯白色，最近出现</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>纯白色，异瞳狮子猫，绝美</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>一撮黑</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>与大橘有四个孩子：大三花、丑丑、刘海妈、小狸</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>标准橘猫</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>神出鬼没</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>玳瑁，白围脖</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">玳瑁， 白围脖， 白手套 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>玳瑁，阴阳脸</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>白围脖，白手套，花臂大佬。现在小三花圆滚滚像个球</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">标准橘猫。 与不亲人小橘难解难分， 颜色较浅，背部斑点较少，尾部狸花纹路较多。 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>长毛橘白，白色橘色基本一半一半，刘海基本是平的。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>没猫德的时候让好多果壳er打了疫苗，真气人。好在现在有了猫德也找到了长期饭票。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>😸 脸脸的老公 |  😸😸 疑似东区众多猫猫的生父</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>😸 脸脸和大橘的孩子 | 😸😸大三花，丑丑，刘海妈，小狸是不同窝的兄弟姐妹</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>😸脸脸和大橘的孩子 | 😸😸大三花，丑丑，刘海妈，小狸是不同窝的兄弟姐妹 | 😸😸😸也是小三花、亲人小橘、白围巾的妈妈</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>😸丑丑的孩子 | 😸😸是亲人小橘、白围巾的妹妹</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>😸丑丑的孩子 | 😸😸亲人小橘、白围巾是同一窝的兄弟姐妹 | 😸😸😸是小三花的姐姐</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>😸丑丑的孩子 | 😸😸亲人小橘、白围巾是同一窝的兄弟姐妹 | 😸😸😸小三花的姐姐</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>😸脸脸和大橘的孩子 | 😸😸大三花，丑丑，刘海妈，小狸是不同窝的兄弟姐妹 | 😸😸😸齐刘海 斜刘海 不亲人小橘的妈妈</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>😸刘海妈的孩子 | 😸😸齐刘海、斜刘海、不亲人小橘是同一窝的兄弟姐妹</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>😸刘海妈的孩子 | 😸😸齐刘海、斜刘海、不亲人小橘是同一窝的兄弟姐妹 | 😸😸😸与亲人小橘傻傻分不清</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>标准橘猫。与亲人小橘难分难解。颜色较重， 背部斑点较多，尾部狸花纹路较少</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>狸花猫。白围脖、白手套、超级亲人</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>短毛橘白，头顶至尾巴橘色，其它地方白色，和格力高的区别是背部花色</t>
-  </si>
-  <si>
-    <t>短毛橘白，头顶至尾巴橘色，其它地方白色</t>
-  </si>
-  <si>
-    <t>超肥橘白，最近不见了，人靠近会跑，干饭能力一猫更比六猫强</t>
-  </si>
-  <si>
-    <t>背上有一串糖葫芦，话唠，叫声像防空警报</t>
-  </si>
-  <si>
-    <t>花纹橘猫 白围脖 与一点白的区别是嘴巴两侧都是橘色</t>
-  </si>
-  <si>
-    <t>花纹橘猫 白围脖 与脸谱的区别是嘴巴一侧是橘色，一侧是白色</t>
-  </si>
-  <si>
-    <t>长毛橘，白围脖，白手套，尾巴长毛巨好看</t>
-  </si>
-  <si>
-    <t>长毛奶牛，白微博白手套白口罩，鼻子左侧标志性一个黑点</t>
-  </si>
-  <si>
-    <t>短毛奶牛，白微博白手套白口罩，相比较长毛黑点，白色较少。下巴标志性一个黑点</t>
-  </si>
-  <si>
-    <t>玳瑁 左眼一圈黄色眼影</t>
-  </si>
-  <si>
-    <t>简州狸花，眼部到脚部都是白色，花臂</t>
-  </si>
-  <si>
-    <t>耳朵两侧各有一块黑点，背部两块黑块，尾巴黑色 远看像一个露馅的黑芝麻汤圆</t>
-  </si>
-  <si>
-    <t>全身基本白色，头部有标志性的一撮黑</t>
-  </si>
-  <si>
-    <t>纯黑色，经常搞同性恋情</t>
-  </si>
-  <si>
-    <t>东西区</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>平刘海 小公主 没猫德 平贵人</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2022年12月28号</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2022年12月01号</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>格力高的兄弟 也疑似 憨八嘎 蛋卷的兄弟</t>
-  </si>
-  <si>
-    <t>菜菜的兄弟 也疑似 憨八嘎 蛋卷的兄弟</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>疑似菜菜 格力高 蛋卷的兄弟</t>
-  </si>
-  <si>
-    <t>疑似菜菜 格力高 憨八嘎的兄弟</t>
-  </si>
-  <si>
-    <t>爆米花、一点白的兄弟</t>
-  </si>
-  <si>
-    <t>爆米花、脸谱的兄弟</t>
-  </si>
-  <si>
-    <t>脸谱、一点白的兄弟</t>
-  </si>
-  <si>
-    <t>神出鬼没</t>
-  </si>
-  <si>
-    <t>大黑被送到救助站，随时接受领养</t>
-  </si>
-  <si>
-    <t>2022年11月01号</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2022年11月1号</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2022年12月1号</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2022年6月1号</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>纯黑色，有点像猎犬。长毛，耷拉耳朵，尾巴扫帚状。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>八九月份的时候活跃在东区女生公寓，很壮实，大概三岁多，看起来很成熟稳重，不怕人随便摸，眼睛不好经常发炎，九月末不见了到现在也没出来</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>与大橘有四个孩子：大三花 丑丑 刘海妈 小狸</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>丑丑的孩子，是亲人小橘、白围巾的妹妹</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>丑丑的孩子; 亲人小橘、白围巾是同一窝的兄弟姐妹，是小三花的姐姐</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>脸脸老公，疑似东区众多猫猫的生父</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>刘海妈的孩子;齐刘海、斜刘海、不亲人小橘是同一窝的兄弟姐妹</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>刘海妈的孩子;齐刘海、斜刘海、不亲人小橘是同一窝的兄弟姐妹；与亲人小橘傻傻分不清</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>长毛橘白，白色橘色基本一半一半，刘海基本是平的。没猫德的时候让好多果壳er打了疫苗，真气人。好在现在有了猫德也找到了长期饭票。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>脸脸和大橘的孩子；大三花，丑丑，刘海妈，小狸是不同窝的兄弟姐妹</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>健康</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>脸脸和大橘的孩子; 大三花，丑丑，刘海妈，小狸是不同窝的兄弟姐妹; 小三花 亲人小橘 白围巾的妈妈</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>脸脸和大橘的孩子;大三花，丑丑，刘海妈，小狸是不同窝的兄弟姐妹； 齐刘海 斜刘海 不亲人小橘的妈妈</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>纯白色，最近出现</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>纯白色，异瞳狮子猫，绝美</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>一撮黑</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>正宗美短，帅帅最帅</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>花纹橘猫。白围脖，与一点白的区别是嘴巴两侧都是橘色</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>花纹橘猫。白围脖，与脸谱的区别是嘴巴一侧是橘色，一侧是白色</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>长毛奶牛，白围脖、白手套、白口罩，鼻子左侧标志性一个黑点 ·</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>短毛奶牛，白围脖、白手套、白口罩，相比较长毛黑点，白色较少。下巴标志性一个黑点  ·</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>22年八九月份的时候活跃在东区女生公寓，很壮实。看起来很成熟稳重，不怕人随便摸，眼睛不好经常发炎，九月末不见了到现在也没出来。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>😸脸脸和大橘的孩子 | 😸😸大三花，丑丑，刘海妈，小狸是不同窝的兄弟姐妹</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>😸格力高的兄弟 | 😸😸也疑似 憨八嘎 蛋卷的兄弟</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>😸菜菜的兄弟 | 😸😸也疑似 憨八嘎 蛋卷的兄弟</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>正宗美短，帅帅最帅 🤩🤩🤩</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>纯黑色，经常搞同性恋情 🤣🤣🤣</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -780,7 +813,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="19">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -840,29 +873,11 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color rgb="FF9C0006"/>
       <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Sim sum"/>
     </font>
     <font>
       <b/>
@@ -887,34 +902,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="等线"/>
-      <family val="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="等线"/>
-      <family val="3"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="SimSun"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="等线"/>
-      <family val="3"/>
+      <sz val="11"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="8">
@@ -1141,8 +1153,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1222,19 +1234,19 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1243,66 +1255,57 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="18" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="18" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" xfId="19" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="19" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="57" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="57" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="57" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="57" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1346,6 +1349,15 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="20">
@@ -1649,11 +1661,11 @@
   <dimension ref="A1:AC595"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="111" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="12" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H51" sqref="H51"/>
+      <pane ySplit="12" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4.75" style="1" customWidth="1"/>
     <col min="2" max="2" width="8.875" style="2"/>
@@ -1672,8 +1684,8 @@
     <col min="15" max="15" width="7.125" style="3" customWidth="1"/>
     <col min="16" max="16" width="7.625" style="4" customWidth="1"/>
     <col min="17" max="17" width="7.125" style="3" customWidth="1"/>
-    <col min="18" max="18" width="22.375" style="3" customWidth="1"/>
-    <col min="19" max="19" width="20.5" style="3" customWidth="1"/>
+    <col min="18" max="18" width="29" style="3" customWidth="1"/>
+    <col min="19" max="19" width="33" style="3" customWidth="1"/>
     <col min="20" max="20" width="18.875" style="3" customWidth="1"/>
     <col min="21" max="21" width="20.125" style="3" customWidth="1"/>
     <col min="22" max="23" width="17.625" style="3" customWidth="1"/>
@@ -1686,7 +1698,7 @@
     <col min="30" max="16384" width="8.875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>43</v>
       </c>
@@ -1700,30 +1712,30 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:29">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.2">
       <c r="E2" s="1"/>
       <c r="I2" s="5"/>
       <c r="K2" s="1"/>
     </row>
-    <row r="3" spans="1:29">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="62" t="s">
+      <c r="B3" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="63"/>
+      <c r="C3" s="60"/>
       <c r="D3" s="2"/>
-      <c r="F3" s="59" t="s">
+      <c r="F3" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="60"/>
-      <c r="H3" s="61"/>
+      <c r="G3" s="57"/>
+      <c r="H3" s="58"/>
       <c r="I3" s="5"/>
-      <c r="J3" s="64" t="s">
+      <c r="J3" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="K3" s="65"/>
+      <c r="K3" s="62"/>
       <c r="L3" s="4"/>
       <c r="M3" s="13" t="s">
         <v>20</v>
@@ -1746,7 +1758,7 @@
       <c r="T3" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="U3" s="57" t="s">
+      <c r="U3" s="54" t="s">
         <v>36</v>
       </c>
       <c r="V3" s="7" t="s">
@@ -1769,7 +1781,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:29">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.2">
       <c r="E4" s="1"/>
       <c r="I4" s="5"/>
       <c r="L4" s="4"/>
@@ -1786,7 +1798,7 @@
       <c r="T4" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="U4" s="58"/>
+      <c r="U4" s="55"/>
       <c r="X4" s="23" t="s">
         <v>52</v>
       </c>
@@ -1794,19 +1806,19 @@
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="15" customHeight="1">
-      <c r="B5" s="66" t="s">
+    <row r="5" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="63" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="67"/>
-      <c r="D5" s="67"/>
-      <c r="E5" s="68"/>
-      <c r="H5" s="62" t="s">
+      <c r="C5" s="64"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="65"/>
+      <c r="H5" s="59" t="s">
         <v>41</v>
       </c>
-      <c r="I5" s="69"/>
-      <c r="J5" s="69"/>
-      <c r="K5" s="63"/>
+      <c r="I5" s="66"/>
+      <c r="J5" s="66"/>
+      <c r="K5" s="60"/>
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
       <c r="N5" s="25" t="s">
@@ -1821,10 +1833,10 @@
       <c r="T5" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="U5" s="58"/>
+      <c r="U5" s="55"/>
       <c r="X5" s="3"/>
     </row>
-    <row r="6" spans="1:29">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.15">
       <c r="F6" s="11"/>
       <c r="G6" s="11"/>
       <c r="L6" s="4"/>
@@ -1835,7 +1847,7 @@
       <c r="T6" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="U6" s="58" t="s">
+      <c r="U6" s="55" t="s">
         <v>37</v>
       </c>
       <c r="V6" s="7" t="s">
@@ -1858,7 +1870,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="7" spans="1:29">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.15">
       <c r="C7" s="11"/>
       <c r="D7" s="11"/>
       <c r="E7" s="11"/>
@@ -1882,7 +1894,7 @@
       <c r="T7" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="U7" s="58"/>
+      <c r="U7" s="55"/>
       <c r="X7" s="21">
         <v>2</v>
       </c>
@@ -1890,7 +1902,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="1:29">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.15">
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
@@ -1911,7 +1923,7 @@
       <c r="T8" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="U8" s="58" t="s">
+      <c r="U8" s="55" t="s">
         <v>38</v>
       </c>
       <c r="X8" s="21">
@@ -1921,7 +1933,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="9" spans="1:29">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.15">
       <c r="C9" s="11"/>
       <c r="D9" s="11"/>
       <c r="E9" s="11"/>
@@ -1942,7 +1954,7 @@
       <c r="T9" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="U9" s="58"/>
+      <c r="U9" s="55"/>
       <c r="X9" s="21">
         <v>4</v>
       </c>
@@ -1950,7 +1962,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="10" spans="1:29" ht="15.75">
+    <row r="10" spans="1:29" ht="15.75" x14ac:dyDescent="0.15">
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
       <c r="E10" s="11"/>
@@ -1964,7 +1976,7 @@
         <v>80</v>
       </c>
       <c r="M10" s="4"/>
-      <c r="P10" s="55" t="s">
+      <c r="P10" s="52" t="s">
         <v>73</v>
       </c>
       <c r="Q10" s="31" t="s">
@@ -1984,7 +1996,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="11" spans="1:29" ht="15.75">
+    <row r="11" spans="1:29" ht="15.75" x14ac:dyDescent="0.2">
       <c r="F11" s="34" t="s">
         <v>67</v>
       </c>
@@ -1998,14 +2010,14 @@
         <v>81</v>
       </c>
       <c r="M11" s="4"/>
-      <c r="P11" s="56"/>
+      <c r="P11" s="53"/>
       <c r="Q11" s="4"/>
       <c r="U11" s="34" t="s">
         <v>76</v>
       </c>
       <c r="X11" s="3"/>
     </row>
-    <row r="12" spans="1:29">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
@@ -2082,1801 +2094,4305 @@
         <v>78</v>
       </c>
     </row>
-    <row r="13" spans="1:29" ht="27">
-      <c r="B13" s="2">
+    <row r="13" spans="1:29" ht="33" x14ac:dyDescent="0.3">
+      <c r="A13" s="67"/>
+      <c r="B13" s="68">
         <v>1</v>
       </c>
-      <c r="C13" s="38" t="s">
+      <c r="C13" s="39" t="s">
         <v>82</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="38">
         <v>2</v>
       </c>
-      <c r="F13" s="42" t="s">
+      <c r="E13" s="38"/>
+      <c r="F13" s="43" t="s">
         <v>113</v>
       </c>
-      <c r="G13" s="3">
+      <c r="G13" s="38">
         <v>4</v>
       </c>
-      <c r="H13" s="38" t="s">
+      <c r="H13" s="39" t="s">
         <v>128</v>
       </c>
-      <c r="I13" s="43">
+      <c r="I13" s="40">
         <v>0</v>
       </c>
-      <c r="J13" s="44" t="s">
+      <c r="J13" s="39" t="s">
         <v>131</v>
       </c>
-      <c r="K13" s="3">
+      <c r="K13" s="38">
         <v>0</v>
       </c>
-      <c r="L13" s="52"/>
-      <c r="M13" s="4"/>
-      <c r="N13" s="38" t="s">
-        <v>134</v>
-      </c>
-      <c r="O13" s="11">
+      <c r="L13" s="41"/>
+      <c r="M13" s="42"/>
+      <c r="N13" s="39" t="s">
+        <v>167</v>
+      </c>
+      <c r="O13" s="43">
         <v>2</v>
       </c>
-      <c r="P13" s="45"/>
-      <c r="Q13" s="11"/>
-      <c r="R13" s="38" t="s">
-        <v>176</v>
+      <c r="P13" s="44"/>
+      <c r="Q13" s="43"/>
+      <c r="R13" s="39" t="s">
+        <v>162</v>
       </c>
       <c r="S13" s="39"/>
-      <c r="X13" s="3"/>
-    </row>
-    <row r="14" spans="1:29" ht="38.25">
-      <c r="B14" s="2">
+      <c r="T13" s="38"/>
+      <c r="U13" s="38"/>
+      <c r="V13" s="38"/>
+      <c r="W13" s="38"/>
+      <c r="X13" s="38"/>
+      <c r="Y13" s="38"/>
+      <c r="Z13" s="38"/>
+      <c r="AA13" s="38"/>
+    </row>
+    <row r="14" spans="1:29" ht="66" x14ac:dyDescent="0.3">
+      <c r="A14" s="67"/>
+      <c r="B14" s="68">
         <v>2</v>
       </c>
       <c r="C14" s="39" t="s">
         <v>83</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="38">
         <v>1</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E14" s="38" t="s">
         <v>112</v>
       </c>
-      <c r="F14" s="11" t="s">
+      <c r="F14" s="43" t="s">
         <v>114</v>
       </c>
-      <c r="G14" s="11">
+      <c r="G14" s="43">
         <v>2</v>
       </c>
-      <c r="H14" s="38" t="s">
+      <c r="H14" s="39" t="s">
         <v>128</v>
       </c>
-      <c r="I14" s="43">
+      <c r="I14" s="40">
         <v>1</v>
       </c>
-      <c r="J14" s="46" t="s">
+      <c r="J14" s="39" t="s">
         <v>132</v>
       </c>
-      <c r="K14" s="3">
+      <c r="K14" s="38">
         <v>0</v>
       </c>
-      <c r="L14" s="4"/>
-      <c r="M14" s="53">
+      <c r="L14" s="42"/>
+      <c r="M14" s="45">
         <v>43831</v>
       </c>
       <c r="N14" s="39" t="s">
-        <v>175</v>
-      </c>
-      <c r="O14" s="11">
+        <v>163</v>
+      </c>
+      <c r="O14" s="43">
         <v>6</v>
       </c>
-      <c r="P14" s="47"/>
-      <c r="Q14" s="11"/>
+      <c r="P14" s="44"/>
+      <c r="Q14" s="43"/>
       <c r="R14" s="39" t="s">
-        <v>179</v>
-      </c>
-      <c r="S14" s="39"/>
-      <c r="X14" s="3"/>
-    </row>
-    <row r="15" spans="1:29" ht="38.25">
-      <c r="B15" s="2">
+        <v>172</v>
+      </c>
+      <c r="S14" s="39" t="s">
+        <v>189</v>
+      </c>
+      <c r="T14" s="38"/>
+      <c r="U14" s="38"/>
+      <c r="V14" s="38"/>
+      <c r="W14" s="38"/>
+      <c r="X14" s="38"/>
+      <c r="Y14" s="38"/>
+      <c r="Z14" s="38"/>
+      <c r="AA14" s="38"/>
+    </row>
+    <row r="15" spans="1:29" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A15" s="67"/>
+      <c r="B15" s="68">
         <v>3</v>
       </c>
       <c r="C15" s="39" t="s">
         <v>84</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="38">
         <v>1</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="E15" s="38"/>
+      <c r="F15" s="38" t="s">
         <v>113</v>
       </c>
-      <c r="G15" s="3">
+      <c r="G15" s="38">
         <v>4</v>
       </c>
-      <c r="H15" s="38" t="s">
+      <c r="H15" s="39" t="s">
         <v>128</v>
       </c>
-      <c r="I15" s="6">
+      <c r="I15" s="46">
         <v>-1</v>
       </c>
-      <c r="J15" s="46" t="s">
+      <c r="J15" s="39" t="s">
         <v>131</v>
       </c>
-      <c r="K15" s="48">
+      <c r="K15" s="47">
         <v>0</v>
       </c>
-      <c r="L15" s="49"/>
-      <c r="M15" s="4"/>
+      <c r="L15" s="48"/>
+      <c r="M15" s="42"/>
       <c r="N15" s="39" t="s">
-        <v>135</v>
-      </c>
-      <c r="O15" s="3">
+        <v>166</v>
+      </c>
+      <c r="O15" s="38">
         <v>-1</v>
       </c>
-      <c r="P15" s="45"/>
-      <c r="Q15" s="11"/>
+      <c r="P15" s="44"/>
+      <c r="Q15" s="43"/>
       <c r="R15" s="39" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="S15" s="39"/>
-      <c r="X15" s="3"/>
-    </row>
-    <row r="16" spans="1:29" ht="51">
-      <c r="B16" s="2">
+      <c r="T15" s="38"/>
+      <c r="U15" s="38"/>
+      <c r="V15" s="38"/>
+      <c r="W15" s="38"/>
+      <c r="X15" s="38"/>
+      <c r="Y15" s="38"/>
+      <c r="Z15" s="38"/>
+      <c r="AA15" s="38"/>
+    </row>
+    <row r="16" spans="1:29" ht="66" x14ac:dyDescent="0.3">
+      <c r="A16" s="67"/>
+      <c r="B16" s="68">
         <v>4</v>
       </c>
-      <c r="C16" s="38" t="s">
+      <c r="C16" s="39" t="s">
         <v>85</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16" s="38">
         <v>1</v>
       </c>
-      <c r="F16" s="50" t="s">
+      <c r="E16" s="38"/>
+      <c r="F16" s="49" t="s">
         <v>113</v>
       </c>
-      <c r="G16" s="50">
+      <c r="G16" s="49">
         <v>4</v>
       </c>
-      <c r="H16" s="38" t="s">
+      <c r="H16" s="39" t="s">
         <v>128</v>
       </c>
-      <c r="I16" s="6">
+      <c r="I16" s="46">
         <v>0</v>
       </c>
-      <c r="J16" s="46" t="s">
-        <v>184</v>
-      </c>
-      <c r="K16" s="3">
+      <c r="J16" s="39" t="s">
+        <v>158</v>
+      </c>
+      <c r="K16" s="38">
         <v>0</v>
       </c>
-      <c r="L16" s="4"/>
-      <c r="M16" s="4"/>
-      <c r="N16" s="38" t="s">
-        <v>136</v>
-      </c>
-      <c r="O16" s="3">
+      <c r="L16" s="42"/>
+      <c r="M16" s="42"/>
+      <c r="N16" s="39" t="s">
+        <v>165</v>
+      </c>
+      <c r="O16" s="38">
         <v>0</v>
       </c>
-      <c r="P16" s="47"/>
-      <c r="Q16" s="11"/>
+      <c r="P16" s="44"/>
+      <c r="Q16" s="43"/>
       <c r="R16" s="39" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="S16" s="39" t="s">
+        <v>164</v>
+      </c>
+      <c r="T16" s="38"/>
+      <c r="U16" s="38"/>
+      <c r="V16" s="38"/>
+      <c r="W16" s="38"/>
+      <c r="X16" s="38"/>
+      <c r="Y16" s="38"/>
+      <c r="Z16" s="38"/>
+      <c r="AA16" s="38"/>
+    </row>
+    <row r="17" spans="1:27" ht="33" x14ac:dyDescent="0.3">
+      <c r="A17" s="67"/>
+      <c r="B17" s="68">
+        <v>5</v>
+      </c>
+      <c r="C17" s="39" t="s">
+        <v>86</v>
+      </c>
+      <c r="D17" s="38">
+        <v>1</v>
+      </c>
+      <c r="E17" s="38"/>
+      <c r="F17" s="38" t="s">
+        <v>115</v>
+      </c>
+      <c r="G17" s="38">
+        <v>4</v>
+      </c>
+      <c r="H17" s="39" t="s">
+        <v>128</v>
+      </c>
+      <c r="I17" s="46">
+        <v>0</v>
+      </c>
+      <c r="J17" s="39" t="s">
+        <v>131</v>
+      </c>
+      <c r="K17" s="38">
+        <v>0</v>
+      </c>
+      <c r="L17" s="42"/>
+      <c r="M17" s="42"/>
+      <c r="N17" s="39" t="s">
         <v>168</v>
       </c>
-      <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="2:24" ht="27">
-      <c r="B17" s="2">
-        <v>5</v>
-      </c>
-      <c r="C17" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="D17" s="3">
-        <v>1</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="G17" s="3">
-        <v>4</v>
-      </c>
-      <c r="H17" s="38" t="s">
-        <v>128</v>
-      </c>
-      <c r="I17" s="6">
-        <v>0</v>
-      </c>
-      <c r="J17" s="44" t="s">
-        <v>131</v>
-      </c>
-      <c r="K17" s="3">
-        <v>0</v>
-      </c>
-      <c r="L17" s="4"/>
-      <c r="M17" s="4"/>
-      <c r="N17" s="38" t="s">
-        <v>137</v>
-      </c>
-      <c r="O17" s="48">
+      <c r="O17" s="47">
         <v>6</v>
       </c>
-      <c r="P17" s="45"/>
-      <c r="Q17" s="11"/>
-      <c r="R17" s="38" t="s">
-        <v>177</v>
+      <c r="P17" s="44"/>
+      <c r="Q17" s="43"/>
+      <c r="R17" s="39" t="s">
+        <v>175</v>
       </c>
       <c r="S17" s="39"/>
-      <c r="X17" s="3"/>
-    </row>
-    <row r="18" spans="2:24" ht="38.25">
-      <c r="B18" s="2">
+      <c r="T17" s="38"/>
+      <c r="U17" s="38"/>
+      <c r="V17" s="38"/>
+      <c r="W17" s="38"/>
+      <c r="X17" s="38"/>
+      <c r="Y17" s="38"/>
+      <c r="Z17" s="38"/>
+      <c r="AA17" s="38"/>
+    </row>
+    <row r="18" spans="1:27" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A18" s="67"/>
+      <c r="B18" s="68">
         <v>6</v>
       </c>
       <c r="C18" s="39" t="s">
         <v>87</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="38">
         <v>1</v>
       </c>
-      <c r="F18" s="11" t="s">
+      <c r="E18" s="38"/>
+      <c r="F18" s="43" t="s">
         <v>116</v>
       </c>
-      <c r="G18" s="11">
+      <c r="G18" s="43">
         <v>2</v>
       </c>
-      <c r="H18" s="38" t="s">
+      <c r="H18" s="39" t="s">
         <v>128</v>
       </c>
-      <c r="I18" s="6">
+      <c r="I18" s="46">
         <v>0</v>
       </c>
-      <c r="J18" s="44" t="s">
+      <c r="J18" s="39" t="s">
         <v>50</v>
       </c>
-      <c r="K18" s="3">
+      <c r="K18" s="38">
         <v>1</v>
       </c>
-      <c r="L18" t="s">
-        <v>160</v>
-      </c>
-      <c r="M18" s="4"/>
+      <c r="L18" s="43" t="s">
+        <v>147</v>
+      </c>
+      <c r="M18" s="42"/>
       <c r="N18" s="39" t="s">
-        <v>138</v>
-      </c>
-      <c r="O18" s="48">
+        <v>169</v>
+      </c>
+      <c r="O18" s="47">
         <v>6</v>
       </c>
-      <c r="P18" s="45"/>
-      <c r="Q18" s="11"/>
+      <c r="P18" s="44"/>
+      <c r="Q18" s="43"/>
       <c r="R18" s="39" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="S18" s="39"/>
-      <c r="U18" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="X18" s="3"/>
-    </row>
-    <row r="19" spans="2:24" customFormat="1" ht="38.25">
-      <c r="B19" s="2">
+      <c r="T18" s="38"/>
+      <c r="U18" s="38" t="s">
+        <v>153</v>
+      </c>
+      <c r="V18" s="38"/>
+      <c r="W18" s="38"/>
+      <c r="X18" s="38"/>
+      <c r="Y18" s="38"/>
+      <c r="Z18" s="38"/>
+      <c r="AA18" s="38"/>
+    </row>
+    <row r="19" spans="1:27" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A19" s="43"/>
+      <c r="B19" s="68">
         <v>7</v>
       </c>
       <c r="C19" s="39" t="s">
         <v>88</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D19" s="38">
         <v>2</v>
       </c>
-      <c r="F19" t="s">
+      <c r="E19" s="43"/>
+      <c r="F19" s="43" t="s">
         <v>116</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="43">
         <v>2</v>
       </c>
-      <c r="H19" s="38" t="s">
+      <c r="H19" s="39" t="s">
         <v>128</v>
       </c>
-      <c r="I19" s="6">
+      <c r="I19" s="46">
         <v>0</v>
       </c>
-      <c r="J19" s="46" t="s">
+      <c r="J19" s="39" t="s">
         <v>133</v>
       </c>
-      <c r="K19" s="3">
+      <c r="K19" s="38">
         <v>0</v>
       </c>
+      <c r="L19" s="43"/>
+      <c r="M19" s="43"/>
       <c r="N19" s="39" t="s">
-        <v>139</v>
-      </c>
-      <c r="O19">
+        <v>134</v>
+      </c>
+      <c r="O19" s="43">
         <v>6</v>
       </c>
+      <c r="P19" s="43"/>
+      <c r="Q19" s="43"/>
       <c r="R19" s="39" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="S19" s="39"/>
-    </row>
-    <row r="20" spans="2:24" customFormat="1" ht="51">
-      <c r="B20" s="2">
+      <c r="T19" s="43"/>
+      <c r="U19" s="43"/>
+      <c r="V19" s="43"/>
+      <c r="W19" s="43"/>
+      <c r="X19" s="43"/>
+      <c r="Y19" s="43"/>
+      <c r="Z19" s="43"/>
+      <c r="AA19" s="43"/>
+    </row>
+    <row r="20" spans="1:27" customFormat="1" ht="66" x14ac:dyDescent="0.3">
+      <c r="A20" s="43"/>
+      <c r="B20" s="68">
         <v>8</v>
       </c>
       <c r="C20" s="39" t="s">
         <v>89</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="38">
         <v>1</v>
       </c>
-      <c r="F20" t="s">
+      <c r="E20" s="43"/>
+      <c r="F20" s="43" t="s">
         <v>117</v>
       </c>
-      <c r="G20">
+      <c r="G20" s="43">
         <v>2</v>
       </c>
-      <c r="H20" s="38" t="s">
+      <c r="H20" s="39" t="s">
         <v>128</v>
       </c>
-      <c r="I20" s="6">
+      <c r="I20" s="46">
         <v>0</v>
       </c>
-      <c r="J20" s="44" t="s">
-        <v>184</v>
-      </c>
-      <c r="K20" s="3">
+      <c r="J20" s="39" t="s">
+        <v>158</v>
+      </c>
+      <c r="K20" s="38">
         <v>0</v>
       </c>
+      <c r="L20" s="43"/>
+      <c r="M20" s="43"/>
       <c r="N20" s="39" t="s">
         <v>117</v>
       </c>
-      <c r="O20">
+      <c r="O20" s="43">
         <v>4</v>
       </c>
+      <c r="P20" s="43"/>
+      <c r="Q20" s="43"/>
       <c r="R20" s="39" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="S20" s="39"/>
-    </row>
-    <row r="21" spans="2:24" customFormat="1" ht="40.5">
-      <c r="B21" s="2">
+      <c r="T20" s="43"/>
+      <c r="U20" s="43"/>
+      <c r="V20" s="43"/>
+      <c r="W20" s="43"/>
+      <c r="X20" s="43"/>
+      <c r="Y20" s="43"/>
+      <c r="Z20" s="43"/>
+      <c r="AA20" s="43"/>
+    </row>
+    <row r="21" spans="1:27" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A21" s="43"/>
+      <c r="B21" s="68">
         <v>9</v>
       </c>
-      <c r="C21" s="38" t="s">
+      <c r="C21" s="39" t="s">
         <v>90</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="38">
         <v>2</v>
       </c>
-      <c r="F21" t="s">
+      <c r="E21" s="43"/>
+      <c r="F21" s="43" t="s">
         <v>118</v>
       </c>
-      <c r="G21">
+      <c r="G21" s="43">
         <v>2</v>
       </c>
-      <c r="H21" s="38" t="s">
+      <c r="H21" s="39" t="s">
         <v>128</v>
       </c>
-      <c r="I21" s="6">
+      <c r="I21" s="46">
         <v>0</v>
       </c>
-      <c r="J21" s="44" t="s">
+      <c r="J21" s="39" t="s">
         <v>50</v>
       </c>
-      <c r="K21" s="3">
+      <c r="K21" s="38">
         <v>1</v>
       </c>
-      <c r="N21" s="38" t="s">
-        <v>140</v>
-      </c>
-      <c r="O21">
+      <c r="L21" s="43"/>
+      <c r="M21" s="43"/>
+      <c r="N21" s="39" t="s">
+        <v>135</v>
+      </c>
+      <c r="O21" s="43">
         <v>6</v>
       </c>
-      <c r="R21" s="38" t="s">
-        <v>180</v>
-      </c>
-      <c r="S21" s="41"/>
-      <c r="U21" s="3" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="22" spans="2:24" customFormat="1" ht="42.75">
-      <c r="B22" s="2">
+      <c r="P21" s="43"/>
+      <c r="Q21" s="43"/>
+      <c r="R21" s="39" t="s">
+        <v>179</v>
+      </c>
+      <c r="S21" s="39"/>
+      <c r="T21" s="43"/>
+      <c r="U21" s="38" t="s">
+        <v>147</v>
+      </c>
+      <c r="V21" s="43"/>
+      <c r="W21" s="43"/>
+      <c r="X21" s="43"/>
+      <c r="Y21" s="43"/>
+      <c r="Z21" s="43"/>
+      <c r="AA21" s="43"/>
+    </row>
+    <row r="22" spans="1:27" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A22" s="43"/>
+      <c r="B22" s="68">
         <v>10</v>
       </c>
-      <c r="C22" s="38" t="s">
+      <c r="C22" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22" s="38">
         <v>1</v>
       </c>
-      <c r="E22" s="51" t="s">
-        <v>158</v>
-      </c>
-      <c r="F22" t="s">
+      <c r="E22" s="69" t="s">
+        <v>145</v>
+      </c>
+      <c r="F22" s="43" t="s">
         <v>118</v>
       </c>
-      <c r="G22">
+      <c r="G22" s="43">
         <v>2</v>
       </c>
-      <c r="H22" s="38" t="s">
+      <c r="H22" s="39" t="s">
         <v>128</v>
       </c>
-      <c r="I22" s="6">
+      <c r="I22" s="46">
         <v>0</v>
       </c>
-      <c r="J22" s="44" t="s">
+      <c r="J22" s="39" t="s">
         <v>50</v>
       </c>
-      <c r="K22" s="3">
+      <c r="K22" s="38">
         <v>1</v>
       </c>
-      <c r="L22" t="s">
-        <v>159</v>
-      </c>
-      <c r="N22" s="38" t="s">
-        <v>182</v>
-      </c>
-      <c r="O22">
+      <c r="L22" s="43" t="s">
+        <v>146</v>
+      </c>
+      <c r="M22" s="43"/>
+      <c r="N22" s="39" t="s">
+        <v>170</v>
+      </c>
+      <c r="O22" s="43">
         <v>6</v>
       </c>
-      <c r="R22" s="38" t="s">
-        <v>180</v>
-      </c>
-      <c r="S22" s="41"/>
-      <c r="U22" s="3" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="23" spans="2:24" customFormat="1" ht="54">
-      <c r="B23" s="2">
+      <c r="P22" s="43"/>
+      <c r="Q22" s="43"/>
+      <c r="R22" s="39" t="s">
+        <v>179</v>
+      </c>
+      <c r="S22" s="39" t="s">
+        <v>171</v>
+      </c>
+      <c r="T22" s="43"/>
+      <c r="U22" s="38" t="s">
+        <v>147</v>
+      </c>
+      <c r="V22" s="43"/>
+      <c r="W22" s="43"/>
+      <c r="X22" s="43"/>
+      <c r="Y22" s="43"/>
+      <c r="Z22" s="43"/>
+      <c r="AA22" s="43"/>
+    </row>
+    <row r="23" spans="1:27" customFormat="1" ht="66" x14ac:dyDescent="0.3">
+      <c r="A23" s="43"/>
+      <c r="B23" s="68">
         <v>11</v>
       </c>
       <c r="C23" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="38">
         <v>1</v>
       </c>
-      <c r="F23" t="s">
+      <c r="E23" s="43"/>
+      <c r="F23" s="43" t="s">
         <v>116</v>
       </c>
-      <c r="G23">
+      <c r="G23" s="43">
         <v>2</v>
       </c>
-      <c r="H23" s="38" t="s">
+      <c r="H23" s="39" t="s">
         <v>128</v>
       </c>
-      <c r="I23" s="6">
+      <c r="I23" s="46">
         <v>-1</v>
       </c>
-      <c r="J23" s="46" t="s">
+      <c r="J23" s="39" t="s">
         <v>133</v>
       </c>
-      <c r="K23" s="3">
+      <c r="K23" s="38">
         <v>0</v>
       </c>
+      <c r="L23" s="43"/>
+      <c r="M23" s="43"/>
       <c r="N23" s="39" t="s">
-        <v>141</v>
-      </c>
-      <c r="O23">
+        <v>181</v>
+      </c>
+      <c r="O23" s="43">
         <v>0</v>
       </c>
-      <c r="R23" s="38" t="s">
-        <v>181</v>
+      <c r="P23" s="43"/>
+      <c r="Q23" s="43"/>
+      <c r="R23" s="39" t="s">
+        <v>180</v>
       </c>
       <c r="S23" s="39"/>
-    </row>
-    <row r="24" spans="2:24" customFormat="1" ht="38.25">
-      <c r="B24" s="2">
+      <c r="T23" s="43"/>
+      <c r="U23" s="43"/>
+      <c r="V23" s="43"/>
+      <c r="W23" s="43"/>
+      <c r="X23" s="43"/>
+      <c r="Y23" s="43"/>
+      <c r="Z23" s="43"/>
+      <c r="AA23" s="43"/>
+    </row>
+    <row r="24" spans="1:27" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A24" s="43"/>
+      <c r="B24" s="68">
         <v>12</v>
       </c>
       <c r="C24" s="39" t="s">
         <v>93</v>
       </c>
-      <c r="D24" s="3">
+      <c r="D24" s="38">
         <v>2</v>
       </c>
-      <c r="F24" t="s">
+      <c r="E24" s="43"/>
+      <c r="F24" s="43" t="s">
         <v>51</v>
       </c>
-      <c r="G24">
+      <c r="G24" s="43">
         <v>1</v>
       </c>
-      <c r="H24" s="38" t="s">
+      <c r="H24" s="39" t="s">
         <v>128</v>
       </c>
-      <c r="I24" s="6">
+      <c r="I24" s="46">
         <v>0</v>
       </c>
-      <c r="J24" s="46" t="s">
+      <c r="J24" s="39" t="s">
         <v>50</v>
       </c>
-      <c r="K24" s="3">
+      <c r="K24" s="38">
         <v>1</v>
       </c>
-      <c r="L24" t="s">
-        <v>159</v>
-      </c>
-      <c r="M24" s="54">
+      <c r="L24" s="43" t="s">
+        <v>146</v>
+      </c>
+      <c r="M24" s="50">
         <v>44713</v>
       </c>
       <c r="N24" s="39" t="s">
-        <v>142</v>
-      </c>
-      <c r="O24">
+        <v>182</v>
+      </c>
+      <c r="O24" s="43">
         <v>6</v>
       </c>
+      <c r="P24" s="43"/>
+      <c r="Q24" s="43"/>
       <c r="R24" s="39" t="s">
+        <v>190</v>
+      </c>
+      <c r="S24" s="39"/>
+      <c r="T24" s="43"/>
+      <c r="U24" s="38" t="s">
+        <v>147</v>
+      </c>
+      <c r="V24" s="43"/>
+      <c r="W24" s="43"/>
+      <c r="X24" s="43"/>
+      <c r="Y24" s="43"/>
+      <c r="Z24" s="43"/>
+      <c r="AA24" s="43"/>
+    </row>
+    <row r="25" spans="1:27" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+      <c r="A25" s="43"/>
+      <c r="B25" s="68">
+        <v>13</v>
+      </c>
+      <c r="C25" s="51" t="s">
+        <v>94</v>
+      </c>
+      <c r="D25" s="38">
+        <v>2</v>
+      </c>
+      <c r="E25" s="43"/>
+      <c r="F25" s="43" t="s">
+        <v>119</v>
+      </c>
+      <c r="G25" s="43">
+        <v>2</v>
+      </c>
+      <c r="H25" s="39" t="s">
+        <v>128</v>
+      </c>
+      <c r="I25" s="46">
+        <v>1</v>
+      </c>
+      <c r="J25" s="39" t="s">
+        <v>131</v>
+      </c>
+      <c r="K25" s="38">
+        <v>1</v>
+      </c>
+      <c r="L25" s="43"/>
+      <c r="M25" s="43"/>
+      <c r="N25" s="39" t="s">
         <v>183</v>
       </c>
-      <c r="S24" s="39"/>
-      <c r="U24" s="3" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="25" spans="2:24" customFormat="1" ht="28.5">
-      <c r="B25" s="2">
-        <v>13</v>
-      </c>
-      <c r="C25" s="40" t="s">
-        <v>94</v>
-      </c>
-      <c r="D25" s="3">
-        <v>2</v>
-      </c>
-      <c r="F25" t="s">
-        <v>119</v>
-      </c>
-      <c r="G25">
-        <v>2</v>
-      </c>
-      <c r="H25" s="38" t="s">
-        <v>128</v>
-      </c>
-      <c r="I25" s="6">
-        <v>1</v>
-      </c>
-      <c r="J25" s="44" t="s">
-        <v>131</v>
-      </c>
-      <c r="K25" s="3">
-        <v>1</v>
-      </c>
-      <c r="N25" s="39" t="s">
-        <v>143</v>
-      </c>
-      <c r="O25">
+      <c r="O25" s="43">
         <v>6</v>
       </c>
-      <c r="R25" s="40" t="s">
-        <v>161</v>
-      </c>
-      <c r="S25" s="40"/>
-    </row>
-    <row r="26" spans="2:24" customFormat="1" ht="28.5">
-      <c r="B26" s="2">
+      <c r="P25" s="43"/>
+      <c r="Q25" s="43"/>
+      <c r="R25" s="51" t="s">
+        <v>191</v>
+      </c>
+      <c r="S25" s="51"/>
+      <c r="T25" s="43"/>
+      <c r="U25" s="43"/>
+      <c r="V25" s="43"/>
+      <c r="W25" s="43"/>
+      <c r="X25" s="43"/>
+      <c r="Y25" s="43"/>
+      <c r="Z25" s="43"/>
+      <c r="AA25" s="43"/>
+    </row>
+    <row r="26" spans="1:27" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+      <c r="A26" s="43"/>
+      <c r="B26" s="68">
         <v>14</v>
       </c>
       <c r="C26" s="39" t="s">
         <v>95</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="38">
         <v>0</v>
       </c>
-      <c r="F26" t="s">
+      <c r="E26" s="43"/>
+      <c r="F26" s="43" t="s">
         <v>119</v>
       </c>
-      <c r="G26">
+      <c r="G26" s="43">
         <v>2</v>
       </c>
-      <c r="H26" s="38" t="s">
+      <c r="H26" s="39" t="s">
         <v>128</v>
       </c>
-      <c r="I26" s="6">
+      <c r="I26" s="46">
         <v>1</v>
       </c>
-      <c r="J26" s="44" t="s">
+      <c r="J26" s="39" t="s">
         <v>50</v>
       </c>
-      <c r="K26" s="3">
+      <c r="K26" s="38">
         <v>1</v>
       </c>
+      <c r="L26" s="43"/>
+      <c r="M26" s="43"/>
       <c r="N26" s="39" t="s">
-        <v>144</v>
-      </c>
-      <c r="O26">
+        <v>136</v>
+      </c>
+      <c r="O26" s="43">
         <v>4</v>
       </c>
-      <c r="R26" s="40" t="s">
-        <v>162</v>
+      <c r="P26" s="43"/>
+      <c r="Q26" s="43"/>
+      <c r="R26" s="51" t="s">
+        <v>192</v>
       </c>
       <c r="S26" s="39"/>
-      <c r="U26" s="3" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="27" spans="2:24" customFormat="1" ht="28.5">
-      <c r="B27" s="2">
+      <c r="T26" s="43"/>
+      <c r="U26" s="38" t="s">
+        <v>147</v>
+      </c>
+      <c r="V26" s="43"/>
+      <c r="W26" s="43"/>
+      <c r="X26" s="43"/>
+      <c r="Y26" s="43"/>
+      <c r="Z26" s="43"/>
+      <c r="AA26" s="43"/>
+    </row>
+    <row r="27" spans="1:27" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+      <c r="A27" s="43"/>
+      <c r="B27" s="68">
         <v>15</v>
       </c>
       <c r="C27" s="39" t="s">
         <v>96</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="38">
         <v>0</v>
       </c>
-      <c r="F27" t="s">
+      <c r="E27" s="43"/>
+      <c r="F27" s="43" t="s">
         <v>119</v>
       </c>
-      <c r="G27">
+      <c r="G27" s="43">
         <v>2</v>
       </c>
-      <c r="H27" s="38" t="s">
+      <c r="H27" s="39" t="s">
         <v>129</v>
       </c>
-      <c r="I27" s="6">
+      <c r="I27" s="46">
         <v>-1</v>
       </c>
-      <c r="J27" s="46" t="s">
+      <c r="J27" s="39" t="s">
         <v>132</v>
       </c>
-      <c r="K27" s="3">
+      <c r="K27" s="38">
         <v>0</v>
       </c>
+      <c r="L27" s="43"/>
+      <c r="M27" s="43"/>
       <c r="N27" s="39" t="s">
-        <v>145</v>
-      </c>
-      <c r="O27">
+        <v>137</v>
+      </c>
+      <c r="O27" s="43">
         <v>0</v>
       </c>
-      <c r="R27" s="40" t="s">
-        <v>163</v>
+      <c r="P27" s="43"/>
+      <c r="Q27" s="43"/>
+      <c r="R27" s="51" t="s">
+        <v>184</v>
       </c>
       <c r="S27" s="39"/>
-    </row>
-    <row r="28" spans="2:24" customFormat="1" ht="28.5">
-      <c r="B28" s="2">
+      <c r="T27" s="43"/>
+      <c r="U27" s="43"/>
+      <c r="V27" s="43"/>
+      <c r="W27" s="43"/>
+      <c r="X27" s="43"/>
+      <c r="Y27" s="43"/>
+      <c r="Z27" s="43"/>
+      <c r="AA27" s="43"/>
+    </row>
+    <row r="28" spans="1:27" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A28" s="43"/>
+      <c r="B28" s="68">
         <v>16</v>
       </c>
       <c r="C28" s="39" t="s">
         <v>97</v>
       </c>
-      <c r="D28" s="3">
+      <c r="D28" s="38">
         <v>1</v>
       </c>
-      <c r="F28" t="s">
+      <c r="E28" s="43"/>
+      <c r="F28" s="43" t="s">
         <v>119</v>
       </c>
-      <c r="G28">
+      <c r="G28" s="43">
         <v>2</v>
       </c>
-      <c r="H28" s="38" t="s">
+      <c r="H28" s="39" t="s">
         <v>128</v>
       </c>
-      <c r="I28" s="6">
+      <c r="I28" s="46">
         <v>1</v>
       </c>
-      <c r="J28" s="46" t="s">
+      <c r="J28" s="39" t="s">
         <v>131</v>
       </c>
-      <c r="K28" s="3">
+      <c r="K28" s="38">
         <v>0</v>
       </c>
+      <c r="L28" s="43"/>
+      <c r="M28" s="43"/>
       <c r="N28" s="39" t="s">
-        <v>146</v>
-      </c>
-      <c r="O28">
+        <v>138</v>
+      </c>
+      <c r="O28" s="43">
         <v>1</v>
       </c>
-      <c r="R28" s="40" t="s">
-        <v>164</v>
+      <c r="P28" s="43"/>
+      <c r="Q28" s="43"/>
+      <c r="R28" s="51" t="s">
+        <v>148</v>
       </c>
       <c r="S28" s="39"/>
-    </row>
-    <row r="29" spans="2:24" customFormat="1" ht="27">
-      <c r="B29" s="2">
+      <c r="T28" s="43"/>
+      <c r="U28" s="43"/>
+      <c r="V28" s="43"/>
+      <c r="W28" s="43"/>
+      <c r="X28" s="43"/>
+      <c r="Y28" s="43"/>
+      <c r="Z28" s="43"/>
+      <c r="AA28" s="43"/>
+    </row>
+    <row r="29" spans="1:27" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+      <c r="A29" s="43"/>
+      <c r="B29" s="68">
         <v>17</v>
       </c>
-      <c r="C29" s="38" t="s">
+      <c r="C29" s="39" t="s">
         <v>98</v>
       </c>
-      <c r="D29" s="3">
+      <c r="D29" s="38">
         <v>1</v>
       </c>
-      <c r="F29" t="s">
+      <c r="E29" s="43"/>
+      <c r="F29" s="43" t="s">
         <v>120</v>
       </c>
-      <c r="G29">
+      <c r="G29" s="43">
         <v>2</v>
       </c>
-      <c r="H29" s="38" t="s">
+      <c r="H29" s="39" t="s">
         <v>130</v>
       </c>
-      <c r="I29" s="6">
+      <c r="I29" s="46">
         <v>1</v>
       </c>
-      <c r="J29" s="46" t="s">
+      <c r="J29" s="39" t="s">
         <v>131</v>
       </c>
-      <c r="K29" s="3">
+      <c r="K29" s="38">
         <v>0</v>
       </c>
-      <c r="N29" s="38" t="s">
+      <c r="L29" s="43"/>
+      <c r="M29" s="43"/>
+      <c r="N29" s="39" t="s">
+        <v>185</v>
+      </c>
+      <c r="O29" s="43">
+        <v>6</v>
+      </c>
+      <c r="P29" s="43"/>
+      <c r="Q29" s="43"/>
+      <c r="R29" s="39" t="s">
+        <v>149</v>
+      </c>
+      <c r="S29" s="39"/>
+      <c r="T29" s="43"/>
+      <c r="U29" s="43"/>
+      <c r="V29" s="43"/>
+      <c r="W29" s="43"/>
+      <c r="X29" s="43"/>
+      <c r="Y29" s="43"/>
+      <c r="Z29" s="43"/>
+      <c r="AA29" s="43"/>
+    </row>
+    <row r="30" spans="1:27" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+      <c r="A30" s="43"/>
+      <c r="B30" s="68">
+        <v>18</v>
+      </c>
+      <c r="C30" s="39" t="s">
+        <v>99</v>
+      </c>
+      <c r="D30" s="38">
+        <v>1</v>
+      </c>
+      <c r="E30" s="43"/>
+      <c r="F30" s="43" t="s">
+        <v>120</v>
+      </c>
+      <c r="G30" s="43">
+        <v>2</v>
+      </c>
+      <c r="H30" s="39" t="s">
+        <v>130</v>
+      </c>
+      <c r="I30" s="46">
+        <v>-1</v>
+      </c>
+      <c r="J30" s="39" t="s">
+        <v>131</v>
+      </c>
+      <c r="K30" s="38">
+        <v>0</v>
+      </c>
+      <c r="L30" s="43"/>
+      <c r="M30" s="43"/>
+      <c r="N30" s="39" t="s">
+        <v>186</v>
+      </c>
+      <c r="O30" s="43">
+        <v>6</v>
+      </c>
+      <c r="P30" s="43"/>
+      <c r="Q30" s="43"/>
+      <c r="R30" s="39" t="s">
+        <v>150</v>
+      </c>
+      <c r="S30" s="39"/>
+      <c r="T30" s="43"/>
+      <c r="U30" s="43"/>
+      <c r="V30" s="43"/>
+      <c r="W30" s="43"/>
+      <c r="X30" s="43"/>
+      <c r="Y30" s="43"/>
+      <c r="Z30" s="43"/>
+      <c r="AA30" s="43"/>
+    </row>
+    <row r="31" spans="1:27" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A31" s="43"/>
+      <c r="B31" s="68">
+        <v>19</v>
+      </c>
+      <c r="C31" s="39" t="s">
+        <v>100</v>
+      </c>
+      <c r="D31" s="38">
+        <v>1</v>
+      </c>
+      <c r="E31" s="43"/>
+      <c r="F31" s="43" t="s">
+        <v>117</v>
+      </c>
+      <c r="G31" s="43">
+        <v>2</v>
+      </c>
+      <c r="H31" s="39" t="s">
+        <v>130</v>
+      </c>
+      <c r="I31" s="46">
+        <v>1</v>
+      </c>
+      <c r="J31" s="39" t="s">
+        <v>50</v>
+      </c>
+      <c r="K31" s="38">
+        <v>1</v>
+      </c>
+      <c r="L31" s="43"/>
+      <c r="M31" s="43"/>
+      <c r="N31" s="39" t="s">
+        <v>139</v>
+      </c>
+      <c r="O31" s="43">
+        <v>6</v>
+      </c>
+      <c r="P31" s="43"/>
+      <c r="Q31" s="43"/>
+      <c r="R31" s="39" t="s">
+        <v>151</v>
+      </c>
+      <c r="S31" s="39"/>
+      <c r="T31" s="43"/>
+      <c r="U31" s="43" t="s">
         <v>147</v>
       </c>
-      <c r="O29">
-        <v>6</v>
-      </c>
-      <c r="R29" s="38" t="s">
-        <v>165</v>
-      </c>
-      <c r="S29" s="41"/>
-    </row>
-    <row r="30" spans="2:24" customFormat="1" ht="27">
-      <c r="B30" s="2">
-        <v>18</v>
-      </c>
-      <c r="C30" s="38" t="s">
-        <v>99</v>
-      </c>
-      <c r="D30" s="3">
-        <v>1</v>
-      </c>
-      <c r="F30" t="s">
-        <v>120</v>
-      </c>
-      <c r="G30">
-        <v>2</v>
-      </c>
-      <c r="H30" s="38" t="s">
-        <v>130</v>
-      </c>
-      <c r="I30" s="6">
-        <v>-1</v>
-      </c>
-      <c r="J30" s="46" t="s">
-        <v>131</v>
-      </c>
-      <c r="K30" s="3">
-        <v>0</v>
-      </c>
-      <c r="N30" s="38" t="s">
-        <v>148</v>
-      </c>
-      <c r="O30">
-        <v>6</v>
-      </c>
-      <c r="R30" s="38" t="s">
-        <v>166</v>
-      </c>
-      <c r="S30" s="41"/>
-    </row>
-    <row r="31" spans="2:24" customFormat="1" ht="14.25">
-      <c r="B31" s="2">
-        <v>19</v>
-      </c>
-      <c r="C31" s="38" t="s">
-        <v>100</v>
-      </c>
-      <c r="D31" s="3">
-        <v>1</v>
-      </c>
-      <c r="F31" t="s">
-        <v>117</v>
-      </c>
-      <c r="G31">
-        <v>2</v>
-      </c>
-      <c r="H31" s="38" t="s">
-        <v>130</v>
-      </c>
-      <c r="I31" s="6">
-        <v>1</v>
-      </c>
-      <c r="J31" s="44" t="s">
-        <v>50</v>
-      </c>
-      <c r="K31" s="3">
-        <v>1</v>
-      </c>
-      <c r="N31" s="38" t="s">
-        <v>149</v>
-      </c>
-      <c r="O31">
-        <v>6</v>
-      </c>
-      <c r="R31" s="38" t="s">
-        <v>167</v>
-      </c>
-      <c r="S31" s="41"/>
-      <c r="U31" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="32" spans="2:24" customFormat="1" ht="14.25">
-      <c r="B32" s="2">
+      <c r="V31" s="43"/>
+      <c r="W31" s="43"/>
+      <c r="X31" s="43"/>
+      <c r="Y31" s="43"/>
+      <c r="Z31" s="43"/>
+      <c r="AA31" s="43"/>
+    </row>
+    <row r="32" spans="1:27" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A32" s="43"/>
+      <c r="B32" s="68">
         <v>20</v>
       </c>
       <c r="C32" s="39" t="s">
         <v>101</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" s="38">
         <v>0</v>
       </c>
-      <c r="F32" t="s">
+      <c r="E32" s="43"/>
+      <c r="F32" s="43" t="s">
         <v>121</v>
       </c>
-      <c r="G32">
+      <c r="G32" s="43">
         <v>5</v>
       </c>
-      <c r="H32" s="38" t="s">
+      <c r="H32" s="39" t="s">
         <v>130</v>
       </c>
-      <c r="I32" s="6">
+      <c r="I32" s="46">
         <v>-1</v>
       </c>
-      <c r="J32" s="46" t="s">
-        <v>184</v>
-      </c>
-      <c r="K32" s="3">
+      <c r="J32" s="39" t="s">
+        <v>158</v>
+      </c>
+      <c r="K32" s="38">
         <v>-1</v>
       </c>
+      <c r="L32" s="43"/>
+      <c r="M32" s="43"/>
       <c r="N32" s="39" t="s">
-        <v>187</v>
-      </c>
-      <c r="O32">
+        <v>159</v>
+      </c>
+      <c r="O32" s="43">
         <v>-1</v>
       </c>
+      <c r="P32" s="43"/>
+      <c r="Q32" s="43"/>
+      <c r="R32" s="43"/>
       <c r="S32" s="39"/>
-    </row>
-    <row r="33" spans="2:21" customFormat="1" ht="14.25">
-      <c r="B33" s="2">
+      <c r="T32" s="43"/>
+      <c r="U32" s="43"/>
+      <c r="V32" s="43"/>
+      <c r="W32" s="43"/>
+      <c r="X32" s="43"/>
+      <c r="Y32" s="43"/>
+      <c r="Z32" s="43"/>
+      <c r="AA32" s="43"/>
+    </row>
+    <row r="33" spans="1:27" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A33" s="43"/>
+      <c r="B33" s="68">
         <v>21</v>
       </c>
       <c r="C33" s="39" t="s">
         <v>102</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="38">
         <v>1</v>
       </c>
-      <c r="F33" t="s">
+      <c r="E33" s="43"/>
+      <c r="F33" s="43" t="s">
         <v>121</v>
       </c>
-      <c r="G33">
+      <c r="G33" s="43">
         <v>5</v>
       </c>
-      <c r="H33" s="38" t="s">
+      <c r="H33" s="39" t="s">
         <v>130</v>
       </c>
-      <c r="I33" s="6">
+      <c r="I33" s="46">
         <v>-1</v>
       </c>
-      <c r="J33" s="46" t="s">
-        <v>184</v>
-      </c>
-      <c r="K33" s="3">
+      <c r="J33" s="39" t="s">
+        <v>158</v>
+      </c>
+      <c r="K33" s="38">
         <v>-1</v>
       </c>
+      <c r="L33" s="43"/>
+      <c r="M33" s="43"/>
       <c r="N33" s="39" t="s">
-        <v>188</v>
-      </c>
-      <c r="O33">
+        <v>160</v>
+      </c>
+      <c r="O33" s="43">
         <v>-1</v>
       </c>
+      <c r="P33" s="43"/>
+      <c r="Q33" s="43"/>
+      <c r="R33" s="43"/>
       <c r="S33" s="39"/>
-    </row>
-    <row r="34" spans="2:21" customFormat="1" ht="25.5">
-      <c r="B34" s="2">
+      <c r="T33" s="43"/>
+      <c r="U33" s="43"/>
+      <c r="V33" s="43"/>
+      <c r="W33" s="43"/>
+      <c r="X33" s="43"/>
+      <c r="Y33" s="43"/>
+      <c r="Z33" s="43"/>
+      <c r="AA33" s="43"/>
+    </row>
+    <row r="34" spans="1:27" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+      <c r="A34" s="43"/>
+      <c r="B34" s="68">
         <v>22</v>
       </c>
       <c r="C34" s="39" t="s">
         <v>103</v>
       </c>
-      <c r="D34" s="3">
+      <c r="D34" s="38">
         <v>1</v>
       </c>
-      <c r="F34" t="s">
+      <c r="E34" s="43"/>
+      <c r="F34" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="G34">
+      <c r="G34" s="43">
         <v>3</v>
       </c>
-      <c r="H34" s="38" t="s">
+      <c r="H34" s="39" t="s">
         <v>128</v>
       </c>
-      <c r="I34" s="6">
+      <c r="I34" s="46">
         <v>-1</v>
       </c>
-      <c r="J34" s="44" t="s">
+      <c r="J34" s="39" t="s">
         <v>50</v>
       </c>
-      <c r="K34" s="3">
+      <c r="K34" s="38">
         <v>1</v>
       </c>
+      <c r="L34" s="43"/>
+      <c r="M34" s="43"/>
       <c r="N34" s="39" t="s">
-        <v>150</v>
-      </c>
-      <c r="O34">
+        <v>187</v>
+      </c>
+      <c r="O34" s="43">
         <v>6</v>
       </c>
+      <c r="P34" s="43"/>
+      <c r="Q34" s="43"/>
+      <c r="R34" s="43"/>
       <c r="S34" s="39"/>
-      <c r="U34" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="35" spans="2:21" customFormat="1" ht="25.5">
-      <c r="B35" s="2">
+      <c r="T34" s="43"/>
+      <c r="U34" s="43" t="s">
+        <v>154</v>
+      </c>
+      <c r="V34" s="43"/>
+      <c r="W34" s="43"/>
+      <c r="X34" s="43"/>
+      <c r="Y34" s="43"/>
+      <c r="Z34" s="43"/>
+      <c r="AA34" s="43"/>
+    </row>
+    <row r="35" spans="1:27" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+      <c r="A35" s="43"/>
+      <c r="B35" s="68">
         <v>23</v>
       </c>
       <c r="C35" s="39" t="s">
         <v>104</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="38">
         <v>0</v>
       </c>
-      <c r="F35" t="s">
+      <c r="E35" s="43"/>
+      <c r="F35" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="G35">
+      <c r="G35" s="43">
         <v>3</v>
       </c>
-      <c r="H35" s="38" t="s">
+      <c r="H35" s="39" t="s">
         <v>128</v>
       </c>
-      <c r="I35" s="6">
+      <c r="I35" s="46">
         <v>-1</v>
       </c>
-      <c r="J35" s="44" t="s">
+      <c r="J35" s="39" t="s">
         <v>50</v>
       </c>
-      <c r="K35" s="3">
+      <c r="K35" s="38">
         <v>1</v>
       </c>
+      <c r="L35" s="43"/>
+      <c r="M35" s="43"/>
       <c r="N35" s="39" t="s">
-        <v>151</v>
-      </c>
-      <c r="O35">
+        <v>188</v>
+      </c>
+      <c r="O35" s="43">
         <v>6</v>
       </c>
+      <c r="P35" s="43"/>
+      <c r="Q35" s="43"/>
+      <c r="R35" s="43"/>
       <c r="S35" s="39"/>
-      <c r="U35" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="36" spans="2:21" customFormat="1" ht="14.25">
-      <c r="B36" s="2">
+      <c r="T35" s="43"/>
+      <c r="U35" s="43" t="s">
+        <v>155</v>
+      </c>
+      <c r="V35" s="43"/>
+      <c r="W35" s="43"/>
+      <c r="X35" s="43"/>
+      <c r="Y35" s="43"/>
+      <c r="Z35" s="43"/>
+      <c r="AA35" s="43"/>
+    </row>
+    <row r="36" spans="1:27" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A36" s="43"/>
+      <c r="B36" s="68">
         <v>24</v>
       </c>
-      <c r="C36" s="38" t="s">
+      <c r="C36" s="39" t="s">
         <v>105</v>
       </c>
-      <c r="D36" s="3">
+      <c r="D36" s="38">
         <v>0</v>
       </c>
-      <c r="F36" t="s">
+      <c r="E36" s="43"/>
+      <c r="F36" s="43" t="s">
         <v>113</v>
       </c>
-      <c r="G36">
+      <c r="G36" s="43">
         <v>4</v>
       </c>
-      <c r="H36" s="38" t="s">
+      <c r="H36" s="39" t="s">
         <v>130</v>
       </c>
-      <c r="I36" s="6">
+      <c r="I36" s="46">
         <v>0</v>
       </c>
-      <c r="J36" s="44" t="s">
+      <c r="J36" s="39" t="s">
         <v>131</v>
       </c>
-      <c r="K36" s="3">
+      <c r="K36" s="38">
         <v>0</v>
       </c>
-      <c r="N36" s="38" t="s">
-        <v>152</v>
-      </c>
-      <c r="O36">
+      <c r="L36" s="43"/>
+      <c r="M36" s="43"/>
+      <c r="N36" s="39" t="s">
+        <v>140</v>
+      </c>
+      <c r="O36" s="43">
         <v>6</v>
       </c>
-      <c r="S36" s="41"/>
-    </row>
-    <row r="37" spans="2:21" customFormat="1" ht="14.25">
-      <c r="B37" s="2">
+      <c r="P36" s="43"/>
+      <c r="Q36" s="43"/>
+      <c r="R36" s="43"/>
+      <c r="S36" s="39"/>
+      <c r="T36" s="43"/>
+      <c r="U36" s="43"/>
+      <c r="V36" s="43"/>
+      <c r="W36" s="43"/>
+      <c r="X36" s="43"/>
+      <c r="Y36" s="43"/>
+      <c r="Z36" s="43"/>
+      <c r="AA36" s="43"/>
+    </row>
+    <row r="37" spans="1:27" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A37" s="43"/>
+      <c r="B37" s="68">
         <v>25</v>
       </c>
       <c r="C37" s="39" t="s">
         <v>106</v>
       </c>
-      <c r="D37" s="3">
+      <c r="D37" s="38">
         <v>1</v>
       </c>
-      <c r="F37" t="s">
+      <c r="E37" s="43"/>
+      <c r="F37" s="43" t="s">
         <v>122</v>
       </c>
-      <c r="G37">
+      <c r="G37" s="43">
         <v>1</v>
       </c>
-      <c r="H37" s="38" t="s">
+      <c r="H37" s="39" t="s">
         <v>128</v>
       </c>
-      <c r="I37" s="6">
+      <c r="I37" s="46">
         <v>0</v>
       </c>
-      <c r="J37" s="44" t="s">
+      <c r="J37" s="39" t="s">
         <v>50</v>
       </c>
-      <c r="K37" s="3">
+      <c r="K37" s="38">
         <v>1</v>
       </c>
-      <c r="L37" t="s">
-        <v>159</v>
-      </c>
+      <c r="L37" s="43" t="s">
+        <v>146</v>
+      </c>
+      <c r="M37" s="43"/>
       <c r="N37" s="39" t="s">
-        <v>153</v>
-      </c>
-      <c r="O37">
+        <v>141</v>
+      </c>
+      <c r="O37" s="43">
         <v>6</v>
       </c>
+      <c r="P37" s="43"/>
+      <c r="Q37" s="43"/>
+      <c r="R37" s="43"/>
       <c r="S37" s="39"/>
-      <c r="U37" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="38" spans="2:21" customFormat="1" ht="25.5">
-      <c r="B38" s="2">
+      <c r="T37" s="43"/>
+      <c r="U37" s="43" t="s">
+        <v>156</v>
+      </c>
+      <c r="V37" s="43"/>
+      <c r="W37" s="43"/>
+      <c r="X37" s="43"/>
+      <c r="Y37" s="43"/>
+      <c r="Z37" s="43"/>
+      <c r="AA37" s="43"/>
+    </row>
+    <row r="38" spans="1:27" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+      <c r="A38" s="43"/>
+      <c r="B38" s="68">
         <v>26</v>
       </c>
       <c r="C38" s="39" t="s">
         <v>107</v>
       </c>
-      <c r="D38" s="3">
+      <c r="D38" s="38">
         <v>0</v>
       </c>
-      <c r="E38" t="s">
+      <c r="E38" s="43" t="s">
         <v>123</v>
       </c>
-      <c r="F38" t="s">
+      <c r="F38" s="43" t="s">
         <v>57</v>
       </c>
-      <c r="G38">
+      <c r="G38" s="43">
         <v>3</v>
       </c>
-      <c r="H38" s="38" t="s">
+      <c r="H38" s="39" t="s">
         <v>128</v>
       </c>
-      <c r="I38" s="6">
+      <c r="I38" s="46">
         <v>0</v>
       </c>
-      <c r="J38" s="44" t="s">
+      <c r="J38" s="39" t="s">
         <v>50</v>
       </c>
-      <c r="K38" s="3">
+      <c r="K38" s="38">
         <v>1</v>
       </c>
+      <c r="L38" s="43"/>
+      <c r="M38" s="43"/>
       <c r="N38" s="39" t="s">
+        <v>142</v>
+      </c>
+      <c r="O38" s="43">
+        <v>6</v>
+      </c>
+      <c r="P38" s="43"/>
+      <c r="Q38" s="43"/>
+      <c r="R38" s="43"/>
+      <c r="S38" s="39"/>
+      <c r="T38" s="43"/>
+      <c r="U38" s="43" t="s">
         <v>154</v>
       </c>
-      <c r="O38">
-        <v>6</v>
-      </c>
-      <c r="S38" s="39"/>
-      <c r="U38" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="39" spans="2:21" customFormat="1" ht="14.25">
-      <c r="B39" s="2">
+      <c r="V38" s="43"/>
+      <c r="W38" s="43"/>
+      <c r="X38" s="43"/>
+      <c r="Y38" s="43"/>
+      <c r="Z38" s="43"/>
+      <c r="AA38" s="43"/>
+    </row>
+    <row r="39" spans="1:27" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A39" s="43"/>
+      <c r="B39" s="68">
         <v>27</v>
       </c>
       <c r="C39" s="39" t="s">
         <v>108</v>
       </c>
-      <c r="D39" s="3">
+      <c r="D39" s="38">
         <v>0</v>
       </c>
-      <c r="E39" t="s">
-        <v>189</v>
-      </c>
-      <c r="F39" t="s">
+      <c r="E39" s="43" t="s">
+        <v>161</v>
+      </c>
+      <c r="F39" s="43" t="s">
         <v>124</v>
       </c>
-      <c r="G39">
+      <c r="G39" s="43">
         <v>5</v>
       </c>
-      <c r="H39" s="38" t="s">
+      <c r="H39" s="39" t="s">
         <v>128</v>
       </c>
-      <c r="I39" s="6">
+      <c r="I39" s="46">
         <v>0</v>
       </c>
-      <c r="J39" s="44" t="s">
+      <c r="J39" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="K39" s="3">
+      <c r="K39" s="38">
         <v>1</v>
       </c>
+      <c r="L39" s="43"/>
+      <c r="M39" s="43"/>
       <c r="N39" s="39" t="s">
-        <v>155</v>
-      </c>
-      <c r="O39">
+        <v>143</v>
+      </c>
+      <c r="O39" s="43">
         <v>6</v>
       </c>
+      <c r="P39" s="43"/>
+      <c r="Q39" s="43"/>
+      <c r="R39" s="43"/>
       <c r="S39" s="39"/>
-      <c r="U39" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="40" spans="2:21" customFormat="1" ht="14.25">
-      <c r="B40" s="2">
+      <c r="T39" s="43"/>
+      <c r="U39" s="43" t="s">
+        <v>154</v>
+      </c>
+      <c r="V39" s="43"/>
+      <c r="W39" s="43"/>
+      <c r="X39" s="43"/>
+      <c r="Y39" s="43"/>
+      <c r="Z39" s="43"/>
+      <c r="AA39" s="43"/>
+    </row>
+    <row r="40" spans="1:27" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A40" s="43"/>
+      <c r="B40" s="68">
         <v>28</v>
       </c>
       <c r="C40" s="39" t="s">
         <v>109</v>
       </c>
-      <c r="D40" s="3">
+      <c r="D40" s="38">
         <v>0</v>
       </c>
-      <c r="F40" t="s">
+      <c r="E40" s="43"/>
+      <c r="F40" s="43" t="s">
         <v>125</v>
       </c>
-      <c r="G40">
+      <c r="G40" s="43">
         <v>1</v>
       </c>
-      <c r="H40" s="38" t="s">
+      <c r="H40" s="39" t="s">
         <v>128</v>
       </c>
-      <c r="I40" s="6">
+      <c r="I40" s="46">
         <v>1</v>
       </c>
-      <c r="J40" s="44" t="s">
+      <c r="J40" s="39" t="s">
         <v>50</v>
       </c>
-      <c r="K40" s="3">
+      <c r="K40" s="38">
         <v>1</v>
       </c>
+      <c r="L40" s="43"/>
+      <c r="M40" s="43"/>
       <c r="N40" s="39" t="s">
-        <v>190</v>
-      </c>
-      <c r="O40">
+        <v>193</v>
+      </c>
+      <c r="O40" s="43">
         <v>6</v>
       </c>
+      <c r="P40" s="43"/>
+      <c r="Q40" s="43"/>
+      <c r="R40" s="43"/>
       <c r="S40" s="39"/>
-    </row>
-    <row r="41" spans="2:21" customFormat="1" ht="14.25">
-      <c r="B41" s="2">
+      <c r="T40" s="43"/>
+      <c r="U40" s="43"/>
+      <c r="V40" s="43"/>
+      <c r="W40" s="43"/>
+      <c r="X40" s="43"/>
+      <c r="Y40" s="43"/>
+      <c r="Z40" s="43"/>
+      <c r="AA40" s="43"/>
+    </row>
+    <row r="41" spans="1:27" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A41" s="43"/>
+      <c r="B41" s="68">
         <v>29</v>
       </c>
       <c r="C41" s="39" t="s">
         <v>110</v>
       </c>
-      <c r="D41" s="3">
+      <c r="D41" s="38">
         <v>0</v>
       </c>
-      <c r="F41" t="s">
+      <c r="E41" s="43"/>
+      <c r="F41" s="43" t="s">
         <v>126</v>
       </c>
-      <c r="G41">
+      <c r="G41" s="43">
         <v>5</v>
       </c>
-      <c r="H41" s="38" t="s">
+      <c r="H41" s="39" t="s">
         <v>130</v>
       </c>
-      <c r="I41" s="6">
+      <c r="I41" s="46">
         <v>1</v>
       </c>
-      <c r="J41" s="44" t="s">
+      <c r="J41" s="39" t="s">
         <v>131</v>
       </c>
-      <c r="K41" s="3">
+      <c r="K41" s="38">
         <v>0</v>
       </c>
+      <c r="L41" s="43"/>
+      <c r="M41" s="43"/>
       <c r="N41" s="39" t="s">
-        <v>156</v>
-      </c>
-      <c r="O41">
+        <v>194</v>
+      </c>
+      <c r="O41" s="43">
         <v>0</v>
       </c>
+      <c r="P41" s="43"/>
+      <c r="Q41" s="43"/>
+      <c r="R41" s="43"/>
       <c r="S41" s="39"/>
-    </row>
-    <row r="42" spans="2:21" customFormat="1" ht="25.5">
-      <c r="B42" s="2">
+      <c r="T41" s="43"/>
+      <c r="U41" s="43"/>
+      <c r="V41" s="43"/>
+      <c r="W41" s="43"/>
+      <c r="X41" s="43"/>
+      <c r="Y41" s="43"/>
+      <c r="Z41" s="43"/>
+      <c r="AA41" s="43"/>
+    </row>
+    <row r="42" spans="1:27" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+      <c r="A42" s="43"/>
+      <c r="B42" s="68">
         <v>30</v>
       </c>
       <c r="C42" s="39" t="s">
         <v>111</v>
       </c>
-      <c r="D42" s="3">
+      <c r="D42" s="38">
         <v>1</v>
       </c>
-      <c r="F42" t="s">
+      <c r="E42" s="43"/>
+      <c r="F42" s="43" t="s">
         <v>127</v>
       </c>
-      <c r="G42">
+      <c r="G42" s="43">
         <v>5</v>
       </c>
-      <c r="H42" s="38" t="s">
+      <c r="H42" s="39" t="s">
+        <v>144</v>
+      </c>
+      <c r="I42" s="46">
+        <v>0</v>
+      </c>
+      <c r="J42" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="K42" s="38">
+        <v>1</v>
+      </c>
+      <c r="L42" s="43"/>
+      <c r="M42" s="43"/>
+      <c r="N42" s="39" t="s">
         <v>157</v>
       </c>
-      <c r="I42" s="6">
-        <v>0</v>
-      </c>
-      <c r="J42" s="44" t="s">
-        <v>44</v>
-      </c>
-      <c r="K42" s="3">
-        <v>1</v>
-      </c>
-      <c r="N42" s="39" t="s">
-        <v>174</v>
-      </c>
-      <c r="O42">
+      <c r="O42" s="43">
         <v>5</v>
       </c>
+      <c r="P42" s="43"/>
+      <c r="Q42" s="43"/>
+      <c r="R42" s="43"/>
       <c r="S42" s="39" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="43" spans="2:21" customFormat="1" ht="14.25">
+        <v>152</v>
+      </c>
+      <c r="T42" s="43"/>
+      <c r="U42" s="43"/>
+      <c r="V42" s="43"/>
+      <c r="W42" s="43"/>
+      <c r="X42" s="43"/>
+      <c r="Y42" s="43"/>
+      <c r="Z42" s="43"/>
+      <c r="AA42" s="43"/>
+    </row>
+    <row r="43" spans="1:27" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A43" s="43"/>
+      <c r="B43" s="43"/>
+      <c r="C43" s="43"/>
+      <c r="D43" s="43"/>
+      <c r="E43" s="43"/>
+      <c r="F43" s="43"/>
+      <c r="G43" s="43"/>
+      <c r="H43" s="43"/>
+      <c r="I43" s="43"/>
+      <c r="J43" s="43"/>
+      <c r="K43" s="43"/>
+      <c r="L43" s="43"/>
+      <c r="M43" s="43"/>
+      <c r="N43" s="43"/>
+      <c r="O43" s="43"/>
+      <c r="P43" s="43"/>
+      <c r="Q43" s="43"/>
+      <c r="R43" s="43"/>
       <c r="S43" s="39"/>
-    </row>
-    <row r="44" spans="2:21" customFormat="1" ht="14.25">
+      <c r="T43" s="43"/>
+      <c r="U43" s="43"/>
+      <c r="V43" s="43"/>
+      <c r="W43" s="43"/>
+      <c r="X43" s="43"/>
+      <c r="Y43" s="43"/>
+      <c r="Z43" s="43"/>
+      <c r="AA43" s="43"/>
+    </row>
+    <row r="44" spans="1:27" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A44" s="43"/>
+      <c r="B44" s="43"/>
+      <c r="C44" s="43"/>
+      <c r="D44" s="43"/>
+      <c r="E44" s="43"/>
+      <c r="F44" s="43"/>
+      <c r="G44" s="43"/>
+      <c r="H44" s="43"/>
+      <c r="I44" s="43"/>
+      <c r="J44" s="43"/>
+      <c r="K44" s="43"/>
+      <c r="L44" s="43"/>
+      <c r="M44" s="43"/>
+      <c r="N44" s="43"/>
+      <c r="O44" s="43"/>
+      <c r="P44" s="43"/>
+      <c r="Q44" s="43"/>
+      <c r="R44" s="43"/>
       <c r="S44" s="39"/>
-    </row>
-    <row r="45" spans="2:21" customFormat="1" ht="14.25">
+      <c r="T44" s="43"/>
+      <c r="U44" s="43"/>
+      <c r="V44" s="43"/>
+      <c r="W44" s="43"/>
+      <c r="X44" s="43"/>
+      <c r="Y44" s="43"/>
+      <c r="Z44" s="43"/>
+      <c r="AA44" s="43"/>
+    </row>
+    <row r="45" spans="1:27" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A45" s="43"/>
+      <c r="B45" s="43"/>
+      <c r="C45" s="43"/>
+      <c r="D45" s="43"/>
+      <c r="E45" s="43"/>
+      <c r="F45" s="43"/>
+      <c r="G45" s="43"/>
+      <c r="H45" s="43"/>
+      <c r="I45" s="43"/>
+      <c r="J45" s="43"/>
+      <c r="K45" s="43"/>
+      <c r="L45" s="43"/>
+      <c r="M45" s="43"/>
+      <c r="N45" s="43"/>
+      <c r="O45" s="43"/>
+      <c r="P45" s="43"/>
+      <c r="Q45" s="43"/>
+      <c r="R45" s="43"/>
       <c r="S45" s="39"/>
-    </row>
-    <row r="46" spans="2:21" customFormat="1" ht="14.25">
+      <c r="T45" s="43"/>
+      <c r="U45" s="43"/>
+      <c r="V45" s="43"/>
+      <c r="W45" s="43"/>
+      <c r="X45" s="43"/>
+      <c r="Y45" s="43"/>
+      <c r="Z45" s="43"/>
+      <c r="AA45" s="43"/>
+    </row>
+    <row r="46" spans="1:27" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A46" s="43"/>
+      <c r="B46" s="43"/>
+      <c r="C46" s="43"/>
+      <c r="D46" s="43"/>
+      <c r="E46" s="43"/>
+      <c r="F46" s="43"/>
+      <c r="G46" s="43"/>
+      <c r="H46" s="43"/>
+      <c r="I46" s="43"/>
+      <c r="J46" s="43"/>
+      <c r="K46" s="43"/>
+      <c r="L46" s="43"/>
+      <c r="M46" s="43"/>
+      <c r="N46" s="43"/>
+      <c r="O46" s="43"/>
+      <c r="P46" s="43"/>
+      <c r="Q46" s="43"/>
+      <c r="R46" s="43"/>
       <c r="S46" s="39"/>
-    </row>
-    <row r="47" spans="2:21" customFormat="1" ht="14.25">
-      <c r="S47" s="3"/>
-    </row>
-    <row r="48" spans="2:21" customFormat="1" ht="14.25"/>
-    <row r="49" customFormat="1" ht="14.25"/>
-    <row r="50" customFormat="1" ht="14.25"/>
-    <row r="51" customFormat="1" ht="14.25"/>
-    <row r="52" customFormat="1" ht="14.25"/>
-    <row r="53" customFormat="1" ht="14.25"/>
-    <row r="54" customFormat="1" ht="14.25"/>
-    <row r="55" customFormat="1" ht="14.25"/>
-    <row r="56" customFormat="1" ht="14.25"/>
-    <row r="57" customFormat="1" ht="14.25"/>
-    <row r="58" customFormat="1" ht="14.25"/>
-    <row r="59" customFormat="1" ht="14.25"/>
-    <row r="60" customFormat="1" ht="14.25"/>
-    <row r="61" customFormat="1" ht="14.25"/>
-    <row r="62" customFormat="1" ht="14.25"/>
-    <row r="63" customFormat="1" ht="14.25"/>
-    <row r="64" customFormat="1" ht="14.25"/>
-    <row r="65" customFormat="1" ht="14.25"/>
-    <row r="66" customFormat="1" ht="14.25"/>
-    <row r="67" customFormat="1" ht="14.25"/>
-    <row r="68" customFormat="1" ht="14.25"/>
-    <row r="69" customFormat="1" ht="14.25"/>
-    <row r="70" customFormat="1" ht="14.25"/>
-    <row r="71" customFormat="1" ht="14.25"/>
-    <row r="72" customFormat="1" ht="14.25"/>
-    <row r="73" customFormat="1" ht="14.25"/>
-    <row r="74" customFormat="1" ht="14.25"/>
-    <row r="75" customFormat="1" ht="14.25"/>
-    <row r="76" customFormat="1" ht="14.25"/>
-    <row r="77" customFormat="1" ht="14.25"/>
-    <row r="78" customFormat="1" ht="14.25"/>
-    <row r="79" customFormat="1" ht="14.25"/>
-    <row r="80" customFormat="1" ht="14.25"/>
-    <row r="81" customFormat="1" ht="14.25"/>
-    <row r="82" customFormat="1" ht="14.25"/>
-    <row r="83" customFormat="1" ht="14.25"/>
-    <row r="84" customFormat="1" ht="14.25"/>
-    <row r="85" customFormat="1" ht="14.25"/>
-    <row r="86" customFormat="1" ht="14.25"/>
-    <row r="87" customFormat="1" ht="14.25"/>
-    <row r="88" customFormat="1" ht="14.25"/>
-    <row r="89" customFormat="1" ht="14.25"/>
-    <row r="90" customFormat="1" ht="14.25"/>
-    <row r="91" customFormat="1" ht="14.25"/>
-    <row r="92" customFormat="1" ht="14.25"/>
-    <row r="93" customFormat="1" ht="14.25"/>
-    <row r="94" customFormat="1" ht="14.25"/>
-    <row r="95" customFormat="1" ht="14.25"/>
-    <row r="96" customFormat="1" ht="14.25"/>
-    <row r="97" customFormat="1" ht="14.25"/>
-    <row r="98" customFormat="1" ht="14.25"/>
-    <row r="99" customFormat="1" ht="14.25"/>
-    <row r="100" customFormat="1" ht="14.25"/>
-    <row r="101" customFormat="1" ht="14.25"/>
-    <row r="102" customFormat="1" ht="14.25"/>
-    <row r="103" customFormat="1" ht="14.25"/>
-    <row r="104" customFormat="1" ht="14.25"/>
-    <row r="105" customFormat="1" ht="14.25"/>
-    <row r="106" customFormat="1" ht="14.25"/>
-    <row r="107" customFormat="1" ht="14.25"/>
-    <row r="108" customFormat="1" ht="14.25"/>
-    <row r="109" customFormat="1" ht="14.25"/>
-    <row r="110" customFormat="1" ht="14.25"/>
-    <row r="111" customFormat="1" ht="14.25"/>
-    <row r="112" customFormat="1" ht="14.25"/>
-    <row r="113" customFormat="1" ht="14.25"/>
-    <row r="114" customFormat="1" ht="14.25"/>
-    <row r="115" customFormat="1" ht="14.25"/>
-    <row r="116" customFormat="1" ht="14.25"/>
-    <row r="117" customFormat="1" ht="14.25"/>
-    <row r="118" customFormat="1" ht="14.25"/>
-    <row r="119" customFormat="1" ht="14.25"/>
-    <row r="120" customFormat="1" ht="14.25"/>
-    <row r="121" customFormat="1" ht="14.25"/>
-    <row r="122" customFormat="1" ht="14.25"/>
-    <row r="123" customFormat="1" ht="14.25"/>
-    <row r="124" customFormat="1" ht="14.25"/>
-    <row r="125" customFormat="1" ht="14.25"/>
-    <row r="126" customFormat="1" ht="14.25"/>
-    <row r="127" customFormat="1" ht="14.25"/>
-    <row r="128" customFormat="1" ht="14.25"/>
-    <row r="129" customFormat="1" ht="14.25"/>
-    <row r="130" customFormat="1" ht="14.25"/>
-    <row r="131" customFormat="1" ht="14.25"/>
-    <row r="132" customFormat="1" ht="14.25"/>
-    <row r="133" customFormat="1" ht="14.25"/>
-    <row r="134" customFormat="1" ht="14.25"/>
-    <row r="135" customFormat="1" ht="14.25"/>
-    <row r="136" customFormat="1" ht="14.25"/>
-    <row r="137" customFormat="1" ht="14.25"/>
-    <row r="138" customFormat="1" ht="14.25"/>
-    <row r="139" customFormat="1" ht="14.25"/>
-    <row r="140" customFormat="1" ht="14.25"/>
-    <row r="141" customFormat="1" ht="14.25"/>
-    <row r="142" customFormat="1" ht="14.25"/>
-    <row r="143" customFormat="1" ht="14.25"/>
-    <row r="144" customFormat="1" ht="14.25"/>
-    <row r="145" customFormat="1" ht="14.25"/>
-    <row r="146" customFormat="1" ht="14.25"/>
-    <row r="147" customFormat="1" ht="14.25"/>
-    <row r="148" customFormat="1" ht="14.25"/>
-    <row r="149" customFormat="1" ht="14.25"/>
-    <row r="150" customFormat="1" ht="14.25"/>
-    <row r="151" customFormat="1" ht="14.25"/>
-    <row r="152" customFormat="1" ht="14.25"/>
-    <row r="153" customFormat="1" ht="14.25"/>
-    <row r="154" customFormat="1" ht="14.25"/>
-    <row r="155" customFormat="1" ht="14.25"/>
-    <row r="156" customFormat="1" ht="14.25"/>
-    <row r="157" customFormat="1" ht="14.25"/>
-    <row r="158" customFormat="1" ht="14.25"/>
-    <row r="159" customFormat="1" ht="14.25"/>
-    <row r="160" customFormat="1" ht="14.25"/>
-    <row r="161" customFormat="1" ht="14.25"/>
-    <row r="162" customFormat="1" ht="14.25"/>
-    <row r="163" customFormat="1" ht="14.25"/>
-    <row r="164" customFormat="1" ht="14.25"/>
-    <row r="165" customFormat="1" ht="14.25"/>
-    <row r="166" customFormat="1" ht="14.25"/>
-    <row r="167" customFormat="1" ht="14.25"/>
-    <row r="168" customFormat="1" ht="14.25"/>
-    <row r="169" customFormat="1" ht="14.25"/>
-    <row r="170" customFormat="1" ht="14.25"/>
-    <row r="171" customFormat="1" ht="14.25"/>
-    <row r="172" customFormat="1" ht="14.25"/>
-    <row r="173" customFormat="1" ht="14.25"/>
-    <row r="174" customFormat="1" ht="14.25"/>
-    <row r="175" customFormat="1" ht="14.25"/>
-    <row r="176" customFormat="1" ht="14.25"/>
-    <row r="177" customFormat="1" ht="14.25"/>
-    <row r="178" customFormat="1" ht="14.25"/>
-    <row r="179" customFormat="1" ht="14.25"/>
-    <row r="180" customFormat="1" ht="14.25"/>
-    <row r="181" customFormat="1" ht="14.25"/>
-    <row r="182" customFormat="1" ht="14.25"/>
-    <row r="183" customFormat="1" ht="14.25"/>
-    <row r="184" customFormat="1" ht="14.25"/>
-    <row r="185" customFormat="1" ht="14.25"/>
-    <row r="186" customFormat="1" ht="14.25"/>
-    <row r="187" customFormat="1" ht="14.25"/>
-    <row r="188" customFormat="1" ht="14.25"/>
-    <row r="189" customFormat="1" ht="14.25"/>
-    <row r="190" customFormat="1" ht="14.25"/>
-    <row r="191" customFormat="1" ht="14.25"/>
-    <row r="192" customFormat="1" ht="14.25"/>
-    <row r="193" customFormat="1" ht="14.25"/>
-    <row r="194" customFormat="1" ht="14.25"/>
-    <row r="195" customFormat="1" ht="14.25"/>
-    <row r="196" customFormat="1" ht="14.25"/>
-    <row r="197" customFormat="1" ht="14.25"/>
-    <row r="198" customFormat="1" ht="14.25"/>
-    <row r="199" customFormat="1" ht="14.25"/>
-    <row r="200" customFormat="1" ht="14.25"/>
-    <row r="201" customFormat="1" ht="14.25"/>
-    <row r="202" customFormat="1" ht="14.25"/>
-    <row r="203" customFormat="1" ht="14.25"/>
-    <row r="204" customFormat="1" ht="14.25"/>
-    <row r="205" customFormat="1" ht="14.25"/>
-    <row r="206" customFormat="1" ht="14.25"/>
-    <row r="207" customFormat="1" ht="14.25"/>
-    <row r="208" customFormat="1" ht="14.25"/>
-    <row r="209" customFormat="1" ht="14.25"/>
-    <row r="210" customFormat="1" ht="14.25"/>
-    <row r="211" customFormat="1" ht="14.25"/>
-    <row r="212" customFormat="1" ht="14.25"/>
-    <row r="213" customFormat="1" ht="14.25"/>
-    <row r="214" customFormat="1" ht="14.25"/>
-    <row r="215" customFormat="1" ht="14.25"/>
-    <row r="216" customFormat="1" ht="14.25"/>
-    <row r="217" customFormat="1" ht="14.25"/>
-    <row r="218" customFormat="1" ht="14.25"/>
-    <row r="219" customFormat="1" ht="14.25"/>
-    <row r="220" customFormat="1" ht="14.25"/>
-    <row r="221" customFormat="1" ht="14.25"/>
-    <row r="222" customFormat="1" ht="14.25"/>
-    <row r="223" customFormat="1" ht="14.25"/>
-    <row r="224" customFormat="1" ht="14.25"/>
-    <row r="225" customFormat="1" ht="14.25"/>
-    <row r="226" customFormat="1" ht="14.25"/>
-    <row r="227" customFormat="1" ht="14.25"/>
-    <row r="228" customFormat="1" ht="14.25"/>
-    <row r="229" customFormat="1" ht="14.25"/>
-    <row r="230" customFormat="1" ht="14.25"/>
-    <row r="231" customFormat="1" ht="14.25"/>
-    <row r="232" customFormat="1" ht="14.25"/>
-    <row r="233" customFormat="1" ht="14.25"/>
-    <row r="234" customFormat="1" ht="14.25"/>
-    <row r="235" customFormat="1" ht="14.25"/>
-    <row r="236" customFormat="1" ht="14.25"/>
-    <row r="237" customFormat="1" ht="14.25"/>
-    <row r="238" customFormat="1" ht="14.25"/>
-    <row r="239" customFormat="1" ht="14.25"/>
-    <row r="240" customFormat="1" ht="14.25"/>
-    <row r="241" customFormat="1" ht="14.25"/>
-    <row r="242" customFormat="1" ht="14.25"/>
-    <row r="243" customFormat="1" ht="14.25"/>
-    <row r="244" customFormat="1" ht="14.25"/>
-    <row r="245" customFormat="1" ht="14.25"/>
-    <row r="246" customFormat="1" ht="14.25"/>
-    <row r="247" customFormat="1" ht="14.25"/>
-    <row r="248" customFormat="1" ht="14.25"/>
-    <row r="249" customFormat="1" ht="14.25"/>
-    <row r="250" customFormat="1" ht="14.25"/>
-    <row r="251" customFormat="1" ht="14.25"/>
-    <row r="252" customFormat="1" ht="14.25"/>
-    <row r="253" customFormat="1" ht="14.25"/>
-    <row r="254" customFormat="1" ht="14.25"/>
-    <row r="255" customFormat="1" ht="14.25"/>
-    <row r="256" customFormat="1" ht="14.25"/>
-    <row r="257" customFormat="1" ht="14.25"/>
-    <row r="258" customFormat="1" ht="14.25"/>
-    <row r="259" customFormat="1" ht="14.25"/>
-    <row r="260" customFormat="1" ht="14.25"/>
-    <row r="261" customFormat="1" ht="14.25"/>
-    <row r="262" customFormat="1" ht="14.25"/>
-    <row r="263" customFormat="1" ht="14.25"/>
-    <row r="264" customFormat="1" ht="14.25"/>
-    <row r="265" customFormat="1" ht="14.25"/>
-    <row r="266" customFormat="1" ht="14.25"/>
-    <row r="267" customFormat="1" ht="14.25"/>
-    <row r="268" customFormat="1" ht="14.25"/>
-    <row r="269" customFormat="1" ht="14.25"/>
-    <row r="270" customFormat="1" ht="14.25"/>
-    <row r="271" customFormat="1" ht="14.25"/>
-    <row r="272" customFormat="1" ht="14.25"/>
-    <row r="273" customFormat="1" ht="14.25"/>
-    <row r="274" customFormat="1" ht="14.25"/>
-    <row r="275" customFormat="1" ht="14.25"/>
-    <row r="276" customFormat="1" ht="14.25"/>
-    <row r="277" customFormat="1" ht="14.25"/>
-    <row r="278" customFormat="1" ht="14.25"/>
-    <row r="279" customFormat="1" ht="14.25"/>
-    <row r="280" customFormat="1" ht="14.25"/>
-    <row r="281" customFormat="1" ht="14.25"/>
-    <row r="282" customFormat="1" ht="14.25"/>
-    <row r="283" customFormat="1" ht="14.25"/>
-    <row r="284" customFormat="1" ht="14.25"/>
-    <row r="285" customFormat="1" ht="14.25"/>
-    <row r="286" customFormat="1" ht="14.25"/>
-    <row r="287" customFormat="1" ht="14.25"/>
-    <row r="288" customFormat="1" ht="14.25"/>
-    <row r="289" customFormat="1" ht="14.25"/>
-    <row r="290" customFormat="1" ht="14.25"/>
-    <row r="291" customFormat="1" ht="14.25"/>
-    <row r="292" customFormat="1" ht="14.25"/>
-    <row r="293" customFormat="1" ht="14.25"/>
-    <row r="294" customFormat="1" ht="14.25"/>
-    <row r="295" customFormat="1" ht="14.25"/>
-    <row r="296" customFormat="1" ht="14.25"/>
-    <row r="297" customFormat="1" ht="14.25"/>
-    <row r="298" customFormat="1" ht="14.25"/>
-    <row r="299" customFormat="1" ht="14.25"/>
-    <row r="300" customFormat="1" ht="14.25"/>
-    <row r="301" customFormat="1" ht="14.25"/>
-    <row r="302" customFormat="1" ht="14.25"/>
-    <row r="303" customFormat="1" ht="14.25"/>
-    <row r="304" customFormat="1" ht="14.25"/>
-    <row r="305" customFormat="1" ht="14.25"/>
-    <row r="306" customFormat="1" ht="14.25"/>
-    <row r="307" customFormat="1" ht="14.25"/>
-    <row r="308" customFormat="1" ht="14.25"/>
-    <row r="309" customFormat="1" ht="14.25"/>
-    <row r="310" customFormat="1" ht="14.25"/>
-    <row r="311" customFormat="1" ht="14.25"/>
-    <row r="312" customFormat="1" ht="14.25"/>
-    <row r="313" customFormat="1" ht="14.25"/>
-    <row r="314" customFormat="1" ht="14.25"/>
-    <row r="315" customFormat="1" ht="14.25"/>
-    <row r="316" customFormat="1" ht="14.25"/>
-    <row r="317" customFormat="1" ht="14.25"/>
-    <row r="318" customFormat="1" ht="14.25"/>
-    <row r="319" customFormat="1" ht="14.25"/>
-    <row r="320" customFormat="1" ht="14.25"/>
-    <row r="321" customFormat="1" ht="14.25"/>
-    <row r="322" customFormat="1" ht="14.25"/>
-    <row r="323" customFormat="1" ht="14.25"/>
-    <row r="324" customFormat="1" ht="14.25"/>
-    <row r="325" customFormat="1" ht="14.25"/>
-    <row r="326" customFormat="1" ht="14.25"/>
-    <row r="327" customFormat="1" ht="14.25"/>
-    <row r="328" customFormat="1" ht="14.25"/>
-    <row r="329" customFormat="1" ht="14.25"/>
-    <row r="330" customFormat="1" ht="14.25"/>
-    <row r="331" customFormat="1" ht="14.25"/>
-    <row r="332" customFormat="1" ht="14.25"/>
-    <row r="333" customFormat="1" ht="14.25"/>
-    <row r="334" customFormat="1" ht="14.25"/>
-    <row r="335" customFormat="1" ht="14.25"/>
-    <row r="336" customFormat="1" ht="14.25"/>
-    <row r="337" customFormat="1" ht="14.25"/>
-    <row r="338" customFormat="1" ht="14.25"/>
-    <row r="339" customFormat="1" ht="14.25"/>
-    <row r="340" customFormat="1" ht="14.25"/>
-    <row r="341" customFormat="1" ht="14.25"/>
-    <row r="342" customFormat="1" ht="14.25"/>
-    <row r="343" customFormat="1" ht="14.25"/>
-    <row r="344" customFormat="1" ht="14.25"/>
-    <row r="345" customFormat="1" ht="14.25"/>
-    <row r="346" customFormat="1" ht="14.25"/>
-    <row r="347" customFormat="1" ht="14.25"/>
-    <row r="348" customFormat="1" ht="14.25"/>
-    <row r="349" customFormat="1" ht="14.25"/>
-    <row r="350" customFormat="1" ht="14.25"/>
-    <row r="351" customFormat="1" ht="14.25"/>
-    <row r="352" customFormat="1" ht="14.25"/>
-    <row r="353" customFormat="1" ht="14.25"/>
-    <row r="354" customFormat="1" ht="14.25"/>
-    <row r="355" customFormat="1" ht="14.25"/>
-    <row r="356" customFormat="1" ht="14.25"/>
-    <row r="357" customFormat="1" ht="14.25"/>
-    <row r="358" customFormat="1" ht="14.25"/>
-    <row r="359" customFormat="1" ht="14.25"/>
-    <row r="360" customFormat="1" ht="14.25"/>
-    <row r="361" customFormat="1" ht="14.25"/>
-    <row r="362" customFormat="1" ht="14.25"/>
-    <row r="363" customFormat="1" ht="14.25"/>
-    <row r="364" customFormat="1" ht="14.25"/>
-    <row r="365" customFormat="1" ht="14.25"/>
-    <row r="366" customFormat="1" ht="14.25"/>
-    <row r="367" customFormat="1" ht="14.25"/>
-    <row r="368" customFormat="1" ht="14.25"/>
-    <row r="369" customFormat="1" ht="14.25"/>
-    <row r="370" customFormat="1" ht="14.25"/>
-    <row r="371" customFormat="1" ht="14.25"/>
-    <row r="372" customFormat="1" ht="14.25"/>
-    <row r="373" customFormat="1" ht="14.25"/>
-    <row r="374" customFormat="1" ht="14.25"/>
-    <row r="375" customFormat="1" ht="14.25"/>
-    <row r="376" customFormat="1" ht="14.25"/>
-    <row r="377" customFormat="1" ht="14.25"/>
-    <row r="378" customFormat="1" ht="14.25"/>
-    <row r="379" customFormat="1" ht="14.25"/>
-    <row r="380" customFormat="1" ht="14.25"/>
-    <row r="381" customFormat="1" ht="14.25"/>
-    <row r="382" customFormat="1" ht="14.25"/>
-    <row r="383" customFormat="1" ht="14.25"/>
-    <row r="384" customFormat="1" ht="14.25"/>
-    <row r="385" customFormat="1" ht="14.25"/>
-    <row r="386" customFormat="1" ht="14.25"/>
-    <row r="387" customFormat="1" ht="14.25"/>
-    <row r="388" customFormat="1" ht="14.25"/>
-    <row r="389" customFormat="1" ht="14.25"/>
-    <row r="390" customFormat="1" ht="14.25"/>
-    <row r="391" customFormat="1" ht="14.25"/>
-    <row r="392" customFormat="1" ht="14.25"/>
-    <row r="393" customFormat="1" ht="14.25"/>
-    <row r="394" customFormat="1" ht="14.25"/>
-    <row r="395" customFormat="1" ht="14.25"/>
-    <row r="396" customFormat="1" ht="14.25"/>
-    <row r="397" customFormat="1" ht="14.25"/>
-    <row r="398" customFormat="1" ht="14.25"/>
-    <row r="399" customFormat="1" ht="14.25"/>
-    <row r="400" customFormat="1" ht="14.25"/>
-    <row r="401" customFormat="1" ht="14.25"/>
-    <row r="402" customFormat="1" ht="14.25"/>
-    <row r="403" customFormat="1" ht="14.25"/>
-    <row r="404" customFormat="1" ht="14.25"/>
-    <row r="405" customFormat="1" ht="14.25"/>
-    <row r="406" customFormat="1" ht="14.25"/>
-    <row r="407" customFormat="1" ht="14.25"/>
-    <row r="408" customFormat="1" ht="14.25"/>
-    <row r="409" customFormat="1" ht="14.25"/>
-    <row r="410" customFormat="1" ht="14.25"/>
-    <row r="411" customFormat="1" ht="14.25"/>
-    <row r="412" customFormat="1" ht="14.25"/>
-    <row r="413" customFormat="1" ht="14.25"/>
-    <row r="414" customFormat="1" ht="14.25"/>
-    <row r="415" customFormat="1" ht="14.25"/>
-    <row r="416" customFormat="1" ht="14.25"/>
-    <row r="417" customFormat="1" ht="14.25"/>
-    <row r="418" customFormat="1" ht="14.25"/>
-    <row r="419" customFormat="1" ht="14.25"/>
-    <row r="420" customFormat="1" ht="14.25"/>
-    <row r="421" customFormat="1" ht="14.25"/>
-    <row r="422" customFormat="1" ht="14.25"/>
-    <row r="423" customFormat="1" ht="14.25"/>
-    <row r="424" customFormat="1" ht="14.25"/>
-    <row r="425" customFormat="1" ht="14.25"/>
-    <row r="426" customFormat="1" ht="14.25"/>
-    <row r="427" customFormat="1" ht="14.25"/>
-    <row r="428" customFormat="1" ht="14.25"/>
-    <row r="429" customFormat="1" ht="14.25"/>
-    <row r="430" customFormat="1" ht="14.25"/>
-    <row r="431" customFormat="1" ht="14.25"/>
-    <row r="432" customFormat="1" ht="14.25"/>
-    <row r="433" customFormat="1" ht="14.25"/>
-    <row r="434" customFormat="1" ht="14.25"/>
-    <row r="435" customFormat="1" ht="14.25"/>
-    <row r="436" customFormat="1" ht="14.25"/>
-    <row r="437" customFormat="1" ht="14.25"/>
-    <row r="438" customFormat="1" ht="14.25"/>
-    <row r="439" customFormat="1" ht="14.25"/>
-    <row r="440" customFormat="1" ht="14.25"/>
-    <row r="441" customFormat="1" ht="14.25"/>
-    <row r="442" customFormat="1" ht="14.25"/>
-    <row r="443" customFormat="1" ht="14.25"/>
-    <row r="444" customFormat="1" ht="14.25"/>
-    <row r="445" customFormat="1" ht="14.25"/>
-    <row r="446" customFormat="1" ht="14.25"/>
-    <row r="447" customFormat="1" ht="14.25"/>
-    <row r="448" customFormat="1" ht="14.25"/>
-    <row r="449" customFormat="1" ht="14.25"/>
-    <row r="450" customFormat="1" ht="14.25"/>
-    <row r="451" customFormat="1" ht="14.25"/>
-    <row r="452" customFormat="1" ht="14.25"/>
-    <row r="453" customFormat="1" ht="14.25"/>
-    <row r="454" customFormat="1" ht="14.25"/>
-    <row r="455" customFormat="1" ht="14.25"/>
-    <row r="456" customFormat="1" ht="14.25"/>
-    <row r="457" customFormat="1" ht="14.25"/>
-    <row r="458" customFormat="1" ht="14.25"/>
-    <row r="459" customFormat="1" ht="14.25"/>
-    <row r="460" customFormat="1" ht="14.25"/>
-    <row r="461" customFormat="1" ht="14.25"/>
-    <row r="462" customFormat="1" ht="14.25"/>
-    <row r="463" customFormat="1" ht="14.25"/>
-    <row r="464" customFormat="1" ht="14.25"/>
-    <row r="465" customFormat="1" ht="14.25"/>
-    <row r="466" customFormat="1" ht="14.25"/>
-    <row r="467" customFormat="1" ht="14.25"/>
-    <row r="468" customFormat="1" ht="14.25"/>
-    <row r="469" customFormat="1" ht="14.25"/>
-    <row r="470" customFormat="1" ht="14.25"/>
-    <row r="471" customFormat="1" ht="14.25"/>
-    <row r="472" customFormat="1" ht="14.25"/>
-    <row r="473" customFormat="1" ht="14.25"/>
-    <row r="474" customFormat="1" ht="14.25"/>
-    <row r="475" customFormat="1" ht="14.25"/>
-    <row r="476" customFormat="1" ht="14.25"/>
-    <row r="477" customFormat="1" ht="14.25"/>
-    <row r="478" customFormat="1" ht="14.25"/>
-    <row r="479" customFormat="1" ht="14.25"/>
-    <row r="480" customFormat="1" ht="14.25"/>
-    <row r="481" customFormat="1" ht="14.25"/>
-    <row r="482" customFormat="1" ht="14.25"/>
-    <row r="483" customFormat="1" ht="14.25"/>
-    <row r="484" customFormat="1" ht="14.25"/>
-    <row r="485" customFormat="1" ht="14.25"/>
-    <row r="486" customFormat="1" ht="14.25"/>
-    <row r="487" customFormat="1" ht="14.25"/>
-    <row r="488" customFormat="1" ht="14.25"/>
-    <row r="489" customFormat="1" ht="14.25"/>
-    <row r="490" customFormat="1" ht="14.25"/>
-    <row r="491" customFormat="1" ht="14.25"/>
-    <row r="492" customFormat="1" ht="14.25"/>
-    <row r="493" customFormat="1" ht="14.25"/>
-    <row r="494" customFormat="1" ht="14.25"/>
-    <row r="495" customFormat="1" ht="14.25"/>
-    <row r="496" customFormat="1" ht="14.25"/>
-    <row r="497" customFormat="1" ht="14.25"/>
-    <row r="498" customFormat="1" ht="14.25"/>
-    <row r="499" customFormat="1" ht="14.25"/>
-    <row r="500" customFormat="1" ht="14.25"/>
-    <row r="501" customFormat="1" ht="14.25"/>
-    <row r="502" customFormat="1" ht="14.25"/>
-    <row r="503" customFormat="1" ht="14.25"/>
-    <row r="504" customFormat="1" ht="14.25"/>
-    <row r="505" customFormat="1" ht="14.25"/>
-    <row r="506" customFormat="1" ht="14.25"/>
-    <row r="507" customFormat="1" ht="14.25"/>
-    <row r="508" customFormat="1" ht="14.25"/>
-    <row r="509" customFormat="1" ht="14.25"/>
-    <row r="510" customFormat="1" ht="14.25"/>
-    <row r="511" customFormat="1" ht="14.25"/>
-    <row r="512" customFormat="1" ht="14.25"/>
-    <row r="513" customFormat="1" ht="14.25"/>
-    <row r="514" customFormat="1" ht="14.25"/>
-    <row r="515" customFormat="1" ht="14.25"/>
-    <row r="516" customFormat="1" ht="14.25"/>
-    <row r="517" customFormat="1" ht="14.25"/>
-    <row r="518" customFormat="1" ht="14.25"/>
-    <row r="519" customFormat="1" ht="14.25"/>
-    <row r="520" customFormat="1" ht="14.25"/>
-    <row r="521" customFormat="1" ht="14.25"/>
-    <row r="522" customFormat="1" ht="14.25"/>
-    <row r="523" customFormat="1" ht="14.25"/>
-    <row r="524" customFormat="1" ht="14.25"/>
-    <row r="525" customFormat="1" ht="14.25"/>
-    <row r="526" customFormat="1" ht="14.25"/>
-    <row r="527" customFormat="1" ht="14.25"/>
-    <row r="528" customFormat="1" ht="14.25"/>
-    <row r="529" customFormat="1" ht="14.25"/>
-    <row r="530" customFormat="1" ht="14.25"/>
-    <row r="531" customFormat="1" ht="14.25"/>
-    <row r="532" customFormat="1" ht="14.25"/>
-    <row r="533" customFormat="1" ht="14.25"/>
-    <row r="534" customFormat="1" ht="14.25"/>
-    <row r="535" customFormat="1" ht="14.25"/>
-    <row r="536" customFormat="1" ht="14.25"/>
-    <row r="537" customFormat="1" ht="14.25"/>
-    <row r="538" customFormat="1" ht="14.25"/>
-    <row r="539" customFormat="1" ht="14.25"/>
-    <row r="540" customFormat="1" ht="14.25"/>
-    <row r="541" customFormat="1" ht="14.25"/>
-    <row r="542" customFormat="1" ht="14.25"/>
-    <row r="543" customFormat="1" ht="14.25"/>
-    <row r="544" customFormat="1" ht="14.25"/>
-    <row r="545" customFormat="1" ht="14.25"/>
-    <row r="546" customFormat="1" ht="14.25"/>
-    <row r="547" customFormat="1" ht="14.25"/>
-    <row r="548" customFormat="1" ht="14.25"/>
-    <row r="549" customFormat="1" ht="14.25"/>
-    <row r="550" customFormat="1" ht="14.25"/>
-    <row r="551" customFormat="1" ht="14.25"/>
-    <row r="552" customFormat="1" ht="14.25"/>
-    <row r="553" customFormat="1" ht="14.25"/>
-    <row r="554" customFormat="1" ht="14.25"/>
-    <row r="555" customFormat="1" ht="14.25"/>
-    <row r="556" customFormat="1" ht="14.25"/>
-    <row r="557" customFormat="1" ht="14.25"/>
-    <row r="558" customFormat="1" ht="14.25"/>
-    <row r="559" customFormat="1" ht="14.25"/>
-    <row r="560" customFormat="1" ht="14.25"/>
-    <row r="561" customFormat="1" ht="14.25"/>
-    <row r="562" customFormat="1" ht="14.25"/>
-    <row r="563" customFormat="1" ht="14.25"/>
-    <row r="564" customFormat="1" ht="14.25"/>
-    <row r="565" customFormat="1" ht="14.25"/>
-    <row r="566" customFormat="1" ht="14.25"/>
-    <row r="567" customFormat="1" ht="14.25"/>
-    <row r="568" customFormat="1" ht="14.25"/>
-    <row r="569" customFormat="1" ht="14.25"/>
-    <row r="570" customFormat="1" ht="14.25"/>
-    <row r="571" customFormat="1" ht="14.25"/>
-    <row r="572" customFormat="1" ht="14.25"/>
-    <row r="573" customFormat="1" ht="14.25"/>
-    <row r="574" customFormat="1" ht="14.25"/>
-    <row r="575" customFormat="1" ht="14.25"/>
-    <row r="576" customFormat="1" ht="14.25"/>
-    <row r="577" customFormat="1" ht="14.25"/>
-    <row r="578" customFormat="1" ht="14.25"/>
-    <row r="579" customFormat="1" ht="14.25"/>
-    <row r="580" customFormat="1" ht="14.25"/>
-    <row r="581" customFormat="1" ht="14.25"/>
-    <row r="582" customFormat="1" ht="14.25"/>
-    <row r="583" customFormat="1" ht="14.25"/>
-    <row r="584" customFormat="1" ht="14.25"/>
-    <row r="585" customFormat="1" ht="14.25"/>
-    <row r="586" customFormat="1" ht="14.25"/>
-    <row r="587" customFormat="1" ht="14.25"/>
-    <row r="588" customFormat="1" ht="14.25"/>
-    <row r="589" customFormat="1" ht="14.25"/>
-    <row r="590" customFormat="1" ht="14.25"/>
-    <row r="591" customFormat="1" ht="14.25"/>
-    <row r="592" customFormat="1" ht="14.25"/>
-    <row r="593" customFormat="1" ht="14.25"/>
-    <row r="594" customFormat="1" ht="14.25"/>
-    <row r="595" customFormat="1" ht="14.25"/>
+      <c r="T46" s="43"/>
+      <c r="U46" s="43"/>
+      <c r="V46" s="43"/>
+      <c r="W46" s="43"/>
+      <c r="X46" s="43"/>
+      <c r="Y46" s="43"/>
+      <c r="Z46" s="43"/>
+      <c r="AA46" s="43"/>
+    </row>
+    <row r="47" spans="1:27" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A47" s="43"/>
+      <c r="B47" s="43"/>
+      <c r="C47" s="43"/>
+      <c r="D47" s="43"/>
+      <c r="E47" s="43"/>
+      <c r="F47" s="43"/>
+      <c r="G47" s="43"/>
+      <c r="H47" s="43"/>
+      <c r="I47" s="43"/>
+      <c r="J47" s="43"/>
+      <c r="K47" s="43"/>
+      <c r="L47" s="43"/>
+      <c r="M47" s="43"/>
+      <c r="N47" s="43"/>
+      <c r="O47" s="43"/>
+      <c r="P47" s="43"/>
+      <c r="Q47" s="43"/>
+      <c r="R47" s="43"/>
+      <c r="S47" s="38"/>
+      <c r="T47" s="43"/>
+      <c r="U47" s="43"/>
+      <c r="V47" s="43"/>
+      <c r="W47" s="43"/>
+      <c r="X47" s="43"/>
+      <c r="Y47" s="43"/>
+      <c r="Z47" s="43"/>
+      <c r="AA47" s="43"/>
+    </row>
+    <row r="48" spans="1:27" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A48" s="43"/>
+      <c r="B48" s="43"/>
+      <c r="C48" s="43"/>
+      <c r="D48" s="43"/>
+      <c r="E48" s="43"/>
+      <c r="F48" s="43"/>
+      <c r="G48" s="43"/>
+      <c r="H48" s="43"/>
+      <c r="I48" s="43"/>
+      <c r="J48" s="43"/>
+      <c r="K48" s="43"/>
+      <c r="L48" s="43"/>
+      <c r="M48" s="43"/>
+      <c r="N48" s="43"/>
+      <c r="O48" s="43"/>
+      <c r="P48" s="43"/>
+      <c r="Q48" s="43"/>
+      <c r="R48" s="43"/>
+      <c r="S48" s="43"/>
+      <c r="T48" s="43"/>
+      <c r="U48" s="43"/>
+      <c r="V48" s="43"/>
+      <c r="W48" s="43"/>
+      <c r="X48" s="43"/>
+      <c r="Y48" s="43"/>
+      <c r="Z48" s="43"/>
+      <c r="AA48" s="43"/>
+    </row>
+    <row r="49" spans="1:27" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A49" s="43"/>
+      <c r="B49" s="43"/>
+      <c r="C49" s="43"/>
+      <c r="D49" s="43"/>
+      <c r="E49" s="43"/>
+      <c r="F49" s="43"/>
+      <c r="G49" s="43"/>
+      <c r="H49" s="43"/>
+      <c r="I49" s="43"/>
+      <c r="J49" s="43"/>
+      <c r="K49" s="43"/>
+      <c r="L49" s="43"/>
+      <c r="M49" s="43"/>
+      <c r="N49" s="43"/>
+      <c r="O49" s="43"/>
+      <c r="P49" s="43"/>
+      <c r="Q49" s="43"/>
+      <c r="R49" s="43"/>
+      <c r="S49" s="43"/>
+      <c r="T49" s="43"/>
+      <c r="U49" s="43"/>
+      <c r="V49" s="43"/>
+      <c r="W49" s="43"/>
+      <c r="X49" s="43"/>
+      <c r="Y49" s="43"/>
+      <c r="Z49" s="43"/>
+      <c r="AA49" s="43"/>
+    </row>
+    <row r="50" spans="1:27" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A50" s="43"/>
+      <c r="B50" s="43"/>
+      <c r="C50" s="43"/>
+      <c r="D50" s="43"/>
+      <c r="E50" s="43"/>
+      <c r="F50" s="43"/>
+      <c r="G50" s="43"/>
+      <c r="H50" s="43"/>
+      <c r="I50" s="43"/>
+      <c r="J50" s="43"/>
+      <c r="K50" s="43"/>
+      <c r="L50" s="43"/>
+      <c r="M50" s="43"/>
+      <c r="N50" s="43"/>
+      <c r="O50" s="43"/>
+      <c r="P50" s="43"/>
+      <c r="Q50" s="43"/>
+      <c r="R50" s="43"/>
+      <c r="S50" s="43"/>
+      <c r="T50" s="43"/>
+      <c r="U50" s="43"/>
+      <c r="V50" s="43"/>
+      <c r="W50" s="43"/>
+      <c r="X50" s="43"/>
+      <c r="Y50" s="43"/>
+      <c r="Z50" s="43"/>
+      <c r="AA50" s="43"/>
+    </row>
+    <row r="51" spans="1:27" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A51" s="43"/>
+      <c r="B51" s="43"/>
+      <c r="C51" s="43"/>
+      <c r="D51" s="43"/>
+      <c r="E51" s="43"/>
+      <c r="F51" s="43"/>
+      <c r="G51" s="43"/>
+      <c r="H51" s="43"/>
+      <c r="I51" s="43"/>
+      <c r="J51" s="43"/>
+      <c r="K51" s="43"/>
+      <c r="L51" s="43"/>
+      <c r="M51" s="43"/>
+      <c r="N51" s="43"/>
+      <c r="O51" s="43"/>
+      <c r="P51" s="43"/>
+      <c r="Q51" s="43"/>
+      <c r="R51" s="43"/>
+      <c r="S51" s="43"/>
+      <c r="T51" s="43"/>
+      <c r="U51" s="43"/>
+      <c r="V51" s="43"/>
+      <c r="W51" s="43"/>
+      <c r="X51" s="43"/>
+      <c r="Y51" s="43"/>
+      <c r="Z51" s="43"/>
+      <c r="AA51" s="43"/>
+    </row>
+    <row r="52" spans="1:27" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A52" s="43"/>
+      <c r="B52" s="43"/>
+      <c r="C52" s="43"/>
+      <c r="D52" s="43"/>
+      <c r="E52" s="43"/>
+      <c r="F52" s="43"/>
+      <c r="G52" s="43"/>
+      <c r="H52" s="43"/>
+      <c r="I52" s="43"/>
+      <c r="J52" s="43"/>
+      <c r="K52" s="43"/>
+      <c r="L52" s="43"/>
+      <c r="M52" s="43"/>
+      <c r="N52" s="43"/>
+      <c r="O52" s="43"/>
+      <c r="P52" s="43"/>
+      <c r="Q52" s="43"/>
+      <c r="R52" s="43"/>
+      <c r="S52" s="43"/>
+      <c r="T52" s="43"/>
+      <c r="U52" s="43"/>
+      <c r="V52" s="43"/>
+      <c r="W52" s="43"/>
+      <c r="X52" s="43"/>
+      <c r="Y52" s="43"/>
+      <c r="Z52" s="43"/>
+      <c r="AA52" s="43"/>
+    </row>
+    <row r="53" spans="1:27" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A53" s="43"/>
+      <c r="B53" s="43"/>
+      <c r="C53" s="43"/>
+      <c r="D53" s="43"/>
+      <c r="E53" s="43"/>
+      <c r="F53" s="43"/>
+      <c r="G53" s="43"/>
+      <c r="H53" s="43"/>
+      <c r="I53" s="43"/>
+      <c r="J53" s="43"/>
+      <c r="K53" s="43"/>
+      <c r="L53" s="43"/>
+      <c r="M53" s="43"/>
+      <c r="N53" s="43"/>
+      <c r="O53" s="43"/>
+      <c r="P53" s="43"/>
+      <c r="Q53" s="43"/>
+      <c r="R53" s="43"/>
+      <c r="S53" s="43"/>
+      <c r="T53" s="43"/>
+      <c r="U53" s="43"/>
+      <c r="V53" s="43"/>
+      <c r="W53" s="43"/>
+      <c r="X53" s="43"/>
+      <c r="Y53" s="43"/>
+      <c r="Z53" s="43"/>
+      <c r="AA53" s="43"/>
+    </row>
+    <row r="54" spans="1:27" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A54" s="43"/>
+      <c r="B54" s="43"/>
+      <c r="C54" s="43"/>
+      <c r="D54" s="43"/>
+      <c r="E54" s="43"/>
+      <c r="F54" s="43"/>
+      <c r="G54" s="43"/>
+      <c r="H54" s="43"/>
+      <c r="I54" s="43"/>
+      <c r="J54" s="43"/>
+      <c r="K54" s="43"/>
+      <c r="L54" s="43"/>
+      <c r="M54" s="43"/>
+      <c r="N54" s="43"/>
+      <c r="O54" s="43"/>
+      <c r="P54" s="43"/>
+      <c r="Q54" s="43"/>
+      <c r="R54" s="43"/>
+      <c r="S54" s="43"/>
+      <c r="T54" s="43"/>
+      <c r="U54" s="43"/>
+      <c r="V54" s="43"/>
+      <c r="W54" s="43"/>
+      <c r="X54" s="43"/>
+      <c r="Y54" s="43"/>
+      <c r="Z54" s="43"/>
+      <c r="AA54" s="43"/>
+    </row>
+    <row r="55" spans="1:27" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A55" s="43"/>
+      <c r="B55" s="43"/>
+      <c r="C55" s="43"/>
+      <c r="D55" s="43"/>
+      <c r="E55" s="43"/>
+      <c r="F55" s="43"/>
+      <c r="G55" s="43"/>
+      <c r="H55" s="43"/>
+      <c r="I55" s="43"/>
+      <c r="J55" s="43"/>
+      <c r="K55" s="43"/>
+      <c r="L55" s="43"/>
+      <c r="M55" s="43"/>
+      <c r="N55" s="43"/>
+      <c r="O55" s="43"/>
+      <c r="P55" s="43"/>
+      <c r="Q55" s="43"/>
+      <c r="R55" s="43"/>
+      <c r="S55" s="43"/>
+      <c r="T55" s="43"/>
+      <c r="U55" s="43"/>
+      <c r="V55" s="43"/>
+      <c r="W55" s="43"/>
+      <c r="X55" s="43"/>
+      <c r="Y55" s="43"/>
+      <c r="Z55" s="43"/>
+      <c r="AA55" s="43"/>
+    </row>
+    <row r="56" spans="1:27" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A56" s="43"/>
+      <c r="B56" s="43"/>
+      <c r="C56" s="43"/>
+      <c r="D56" s="43"/>
+      <c r="E56" s="43"/>
+      <c r="F56" s="43"/>
+      <c r="G56" s="43"/>
+      <c r="H56" s="43"/>
+      <c r="I56" s="43"/>
+      <c r="J56" s="43"/>
+      <c r="K56" s="43"/>
+      <c r="L56" s="43"/>
+      <c r="M56" s="43"/>
+      <c r="N56" s="43"/>
+      <c r="O56" s="43"/>
+      <c r="P56" s="43"/>
+      <c r="Q56" s="43"/>
+      <c r="R56" s="43"/>
+      <c r="S56" s="43"/>
+      <c r="T56" s="43"/>
+      <c r="U56" s="43"/>
+      <c r="V56" s="43"/>
+      <c r="W56" s="43"/>
+      <c r="X56" s="43"/>
+      <c r="Y56" s="43"/>
+      <c r="Z56" s="43"/>
+      <c r="AA56" s="43"/>
+    </row>
+    <row r="57" spans="1:27" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A57" s="43"/>
+      <c r="B57" s="43"/>
+      <c r="C57" s="43"/>
+      <c r="D57" s="43"/>
+      <c r="E57" s="43"/>
+      <c r="F57" s="43"/>
+      <c r="G57" s="43"/>
+      <c r="H57" s="43"/>
+      <c r="I57" s="43"/>
+      <c r="J57" s="43"/>
+      <c r="K57" s="43"/>
+      <c r="L57" s="43"/>
+      <c r="M57" s="43"/>
+      <c r="N57" s="43"/>
+      <c r="O57" s="43"/>
+      <c r="P57" s="43"/>
+      <c r="Q57" s="43"/>
+      <c r="R57" s="43"/>
+      <c r="S57" s="43"/>
+      <c r="T57" s="43"/>
+      <c r="U57" s="43"/>
+      <c r="V57" s="43"/>
+      <c r="W57" s="43"/>
+      <c r="X57" s="43"/>
+      <c r="Y57" s="43"/>
+      <c r="Z57" s="43"/>
+      <c r="AA57" s="43"/>
+    </row>
+    <row r="58" spans="1:27" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A58" s="43"/>
+      <c r="B58" s="43"/>
+      <c r="C58" s="43"/>
+      <c r="D58" s="43"/>
+      <c r="E58" s="43"/>
+      <c r="F58" s="43"/>
+      <c r="G58" s="43"/>
+      <c r="H58" s="43"/>
+      <c r="I58" s="43"/>
+      <c r="J58" s="43"/>
+      <c r="K58" s="43"/>
+      <c r="L58" s="43"/>
+      <c r="M58" s="43"/>
+      <c r="N58" s="43"/>
+      <c r="O58" s="43"/>
+      <c r="P58" s="43"/>
+      <c r="Q58" s="43"/>
+      <c r="R58" s="43"/>
+      <c r="S58" s="43"/>
+      <c r="T58" s="43"/>
+      <c r="U58" s="43"/>
+      <c r="V58" s="43"/>
+      <c r="W58" s="43"/>
+      <c r="X58" s="43"/>
+      <c r="Y58" s="43"/>
+      <c r="Z58" s="43"/>
+      <c r="AA58" s="43"/>
+    </row>
+    <row r="59" spans="1:27" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A59" s="43"/>
+      <c r="B59" s="43"/>
+      <c r="C59" s="43"/>
+      <c r="D59" s="43"/>
+      <c r="E59" s="43"/>
+      <c r="F59" s="43"/>
+      <c r="G59" s="43"/>
+      <c r="H59" s="43"/>
+      <c r="I59" s="43"/>
+      <c r="J59" s="43"/>
+      <c r="K59" s="43"/>
+      <c r="L59" s="43"/>
+      <c r="M59" s="43"/>
+      <c r="N59" s="43"/>
+      <c r="O59" s="43"/>
+      <c r="P59" s="43"/>
+      <c r="Q59" s="43"/>
+      <c r="R59" s="43"/>
+      <c r="S59" s="43"/>
+      <c r="T59" s="43"/>
+      <c r="U59" s="43"/>
+      <c r="V59" s="43"/>
+      <c r="W59" s="43"/>
+      <c r="X59" s="43"/>
+      <c r="Y59" s="43"/>
+      <c r="Z59" s="43"/>
+      <c r="AA59" s="43"/>
+    </row>
+    <row r="60" spans="1:27" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A60" s="43"/>
+      <c r="B60" s="43"/>
+      <c r="C60" s="43"/>
+      <c r="D60" s="43"/>
+      <c r="E60" s="43"/>
+      <c r="F60" s="43"/>
+      <c r="G60" s="43"/>
+      <c r="H60" s="43"/>
+      <c r="I60" s="43"/>
+      <c r="J60" s="43"/>
+      <c r="K60" s="43"/>
+      <c r="L60" s="43"/>
+      <c r="M60" s="43"/>
+      <c r="N60" s="43"/>
+      <c r="O60" s="43"/>
+      <c r="P60" s="43"/>
+      <c r="Q60" s="43"/>
+      <c r="R60" s="43"/>
+      <c r="S60" s="43"/>
+      <c r="T60" s="43"/>
+      <c r="U60" s="43"/>
+      <c r="V60" s="43"/>
+      <c r="W60" s="43"/>
+      <c r="X60" s="43"/>
+      <c r="Y60" s="43"/>
+      <c r="Z60" s="43"/>
+      <c r="AA60" s="43"/>
+    </row>
+    <row r="61" spans="1:27" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A61" s="43"/>
+      <c r="B61" s="43"/>
+      <c r="C61" s="43"/>
+      <c r="D61" s="43"/>
+      <c r="E61" s="43"/>
+      <c r="F61" s="43"/>
+      <c r="G61" s="43"/>
+      <c r="H61" s="43"/>
+      <c r="I61" s="43"/>
+      <c r="J61" s="43"/>
+      <c r="K61" s="43"/>
+      <c r="L61" s="43"/>
+      <c r="M61" s="43"/>
+      <c r="N61" s="43"/>
+      <c r="O61" s="43"/>
+      <c r="P61" s="43"/>
+      <c r="Q61" s="43"/>
+      <c r="R61" s="43"/>
+      <c r="S61" s="43"/>
+      <c r="T61" s="43"/>
+      <c r="U61" s="43"/>
+      <c r="V61" s="43"/>
+      <c r="W61" s="43"/>
+      <c r="X61" s="43"/>
+      <c r="Y61" s="43"/>
+      <c r="Z61" s="43"/>
+      <c r="AA61" s="43"/>
+    </row>
+    <row r="62" spans="1:27" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A62" s="43"/>
+      <c r="B62" s="43"/>
+      <c r="C62" s="43"/>
+      <c r="D62" s="43"/>
+      <c r="E62" s="43"/>
+      <c r="F62" s="43"/>
+      <c r="G62" s="43"/>
+      <c r="H62" s="43"/>
+      <c r="I62" s="43"/>
+      <c r="J62" s="43"/>
+      <c r="K62" s="43"/>
+      <c r="L62" s="43"/>
+      <c r="M62" s="43"/>
+      <c r="N62" s="43"/>
+      <c r="O62" s="43"/>
+      <c r="P62" s="43"/>
+      <c r="Q62" s="43"/>
+      <c r="R62" s="43"/>
+      <c r="S62" s="43"/>
+      <c r="T62" s="43"/>
+      <c r="U62" s="43"/>
+      <c r="V62" s="43"/>
+      <c r="W62" s="43"/>
+      <c r="X62" s="43"/>
+      <c r="Y62" s="43"/>
+      <c r="Z62" s="43"/>
+      <c r="AA62" s="43"/>
+    </row>
+    <row r="63" spans="1:27" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A63" s="43"/>
+      <c r="B63" s="43"/>
+      <c r="C63" s="43"/>
+      <c r="D63" s="43"/>
+      <c r="E63" s="43"/>
+      <c r="F63" s="43"/>
+      <c r="G63" s="43"/>
+      <c r="H63" s="43"/>
+      <c r="I63" s="43"/>
+      <c r="J63" s="43"/>
+      <c r="K63" s="43"/>
+      <c r="L63" s="43"/>
+      <c r="M63" s="43"/>
+      <c r="N63" s="43"/>
+      <c r="O63" s="43"/>
+      <c r="P63" s="43"/>
+      <c r="Q63" s="43"/>
+      <c r="R63" s="43"/>
+      <c r="S63" s="43"/>
+      <c r="T63" s="43"/>
+      <c r="U63" s="43"/>
+      <c r="V63" s="43"/>
+      <c r="W63" s="43"/>
+      <c r="X63" s="43"/>
+      <c r="Y63" s="43"/>
+      <c r="Z63" s="43"/>
+      <c r="AA63" s="43"/>
+    </row>
+    <row r="64" spans="1:27" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A64" s="43"/>
+      <c r="B64" s="43"/>
+      <c r="C64" s="43"/>
+      <c r="D64" s="43"/>
+      <c r="E64" s="43"/>
+      <c r="F64" s="43"/>
+      <c r="G64" s="43"/>
+      <c r="H64" s="43"/>
+      <c r="I64" s="43"/>
+      <c r="J64" s="43"/>
+      <c r="K64" s="43"/>
+      <c r="L64" s="43"/>
+      <c r="M64" s="43"/>
+      <c r="N64" s="43"/>
+      <c r="O64" s="43"/>
+      <c r="P64" s="43"/>
+      <c r="Q64" s="43"/>
+      <c r="R64" s="43"/>
+      <c r="S64" s="43"/>
+      <c r="T64" s="43"/>
+      <c r="U64" s="43"/>
+      <c r="V64" s="43"/>
+      <c r="W64" s="43"/>
+      <c r="X64" s="43"/>
+      <c r="Y64" s="43"/>
+      <c r="Z64" s="43"/>
+      <c r="AA64" s="43"/>
+    </row>
+    <row r="65" spans="1:27" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A65" s="43"/>
+      <c r="B65" s="43"/>
+      <c r="C65" s="43"/>
+      <c r="D65" s="43"/>
+      <c r="E65" s="43"/>
+      <c r="F65" s="43"/>
+      <c r="G65" s="43"/>
+      <c r="H65" s="43"/>
+      <c r="I65" s="43"/>
+      <c r="J65" s="43"/>
+      <c r="K65" s="43"/>
+      <c r="L65" s="43"/>
+      <c r="M65" s="43"/>
+      <c r="N65" s="43"/>
+      <c r="O65" s="43"/>
+      <c r="P65" s="43"/>
+      <c r="Q65" s="43"/>
+      <c r="R65" s="43"/>
+      <c r="S65" s="43"/>
+      <c r="T65" s="43"/>
+      <c r="U65" s="43"/>
+      <c r="V65" s="43"/>
+      <c r="W65" s="43"/>
+      <c r="X65" s="43"/>
+      <c r="Y65" s="43"/>
+      <c r="Z65" s="43"/>
+      <c r="AA65" s="43"/>
+    </row>
+    <row r="66" spans="1:27" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A66" s="43"/>
+      <c r="B66" s="43"/>
+      <c r="C66" s="43"/>
+      <c r="D66" s="43"/>
+      <c r="E66" s="43"/>
+      <c r="F66" s="43"/>
+      <c r="G66" s="43"/>
+      <c r="H66" s="43"/>
+      <c r="I66" s="43"/>
+      <c r="J66" s="43"/>
+      <c r="K66" s="43"/>
+      <c r="L66" s="43"/>
+      <c r="M66" s="43"/>
+      <c r="N66" s="43"/>
+      <c r="O66" s="43"/>
+      <c r="P66" s="43"/>
+      <c r="Q66" s="43"/>
+      <c r="R66" s="43"/>
+      <c r="S66" s="43"/>
+      <c r="T66" s="43"/>
+      <c r="U66" s="43"/>
+      <c r="V66" s="43"/>
+      <c r="W66" s="43"/>
+      <c r="X66" s="43"/>
+      <c r="Y66" s="43"/>
+      <c r="Z66" s="43"/>
+      <c r="AA66" s="43"/>
+    </row>
+    <row r="67" spans="1:27" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A67" s="43"/>
+      <c r="B67" s="43"/>
+      <c r="C67" s="43"/>
+      <c r="D67" s="43"/>
+      <c r="E67" s="43"/>
+      <c r="F67" s="43"/>
+      <c r="G67" s="43"/>
+      <c r="H67" s="43"/>
+      <c r="I67" s="43"/>
+      <c r="J67" s="43"/>
+      <c r="K67" s="43"/>
+      <c r="L67" s="43"/>
+      <c r="M67" s="43"/>
+      <c r="N67" s="43"/>
+      <c r="O67" s="43"/>
+      <c r="P67" s="43"/>
+      <c r="Q67" s="43"/>
+      <c r="R67" s="43"/>
+      <c r="S67" s="43"/>
+      <c r="T67" s="43"/>
+      <c r="U67" s="43"/>
+      <c r="V67" s="43"/>
+      <c r="W67" s="43"/>
+      <c r="X67" s="43"/>
+      <c r="Y67" s="43"/>
+      <c r="Z67" s="43"/>
+      <c r="AA67" s="43"/>
+    </row>
+    <row r="68" spans="1:27" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A68" s="43"/>
+      <c r="B68" s="43"/>
+      <c r="C68" s="43"/>
+      <c r="D68" s="43"/>
+      <c r="E68" s="43"/>
+      <c r="F68" s="43"/>
+      <c r="G68" s="43"/>
+      <c r="H68" s="43"/>
+      <c r="I68" s="43"/>
+      <c r="J68" s="43"/>
+      <c r="K68" s="43"/>
+      <c r="L68" s="43"/>
+      <c r="M68" s="43"/>
+      <c r="N68" s="43"/>
+      <c r="O68" s="43"/>
+      <c r="P68" s="43"/>
+      <c r="Q68" s="43"/>
+      <c r="R68" s="43"/>
+      <c r="S68" s="43"/>
+      <c r="T68" s="43"/>
+      <c r="U68" s="43"/>
+      <c r="V68" s="43"/>
+      <c r="W68" s="43"/>
+      <c r="X68" s="43"/>
+      <c r="Y68" s="43"/>
+      <c r="Z68" s="43"/>
+      <c r="AA68" s="43"/>
+    </row>
+    <row r="69" spans="1:27" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A69" s="43"/>
+      <c r="B69" s="43"/>
+      <c r="C69" s="43"/>
+      <c r="D69" s="43"/>
+      <c r="E69" s="43"/>
+      <c r="F69" s="43"/>
+      <c r="G69" s="43"/>
+      <c r="H69" s="43"/>
+      <c r="I69" s="43"/>
+      <c r="J69" s="43"/>
+      <c r="K69" s="43"/>
+      <c r="L69" s="43"/>
+      <c r="M69" s="43"/>
+      <c r="N69" s="43"/>
+      <c r="O69" s="43"/>
+      <c r="P69" s="43"/>
+      <c r="Q69" s="43"/>
+      <c r="R69" s="43"/>
+      <c r="S69" s="43"/>
+      <c r="T69" s="43"/>
+      <c r="U69" s="43"/>
+      <c r="V69" s="43"/>
+      <c r="W69" s="43"/>
+      <c r="X69" s="43"/>
+      <c r="Y69" s="43"/>
+      <c r="Z69" s="43"/>
+      <c r="AA69" s="43"/>
+    </row>
+    <row r="70" spans="1:27" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A70" s="43"/>
+      <c r="B70" s="43"/>
+      <c r="C70" s="43"/>
+      <c r="D70" s="43"/>
+      <c r="E70" s="43"/>
+      <c r="F70" s="43"/>
+      <c r="G70" s="43"/>
+      <c r="H70" s="43"/>
+      <c r="I70" s="43"/>
+      <c r="J70" s="43"/>
+      <c r="K70" s="43"/>
+      <c r="L70" s="43"/>
+      <c r="M70" s="43"/>
+      <c r="N70" s="43"/>
+      <c r="O70" s="43"/>
+      <c r="P70" s="43"/>
+      <c r="Q70" s="43"/>
+      <c r="R70" s="43"/>
+      <c r="S70" s="43"/>
+      <c r="T70" s="43"/>
+      <c r="U70" s="43"/>
+      <c r="V70" s="43"/>
+      <c r="W70" s="43"/>
+      <c r="X70" s="43"/>
+      <c r="Y70" s="43"/>
+      <c r="Z70" s="43"/>
+      <c r="AA70" s="43"/>
+    </row>
+    <row r="71" spans="1:27" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A71" s="43"/>
+      <c r="B71" s="43"/>
+      <c r="C71" s="43"/>
+      <c r="D71" s="43"/>
+      <c r="E71" s="43"/>
+      <c r="F71" s="43"/>
+      <c r="G71" s="43"/>
+      <c r="H71" s="43"/>
+      <c r="I71" s="43"/>
+      <c r="J71" s="43"/>
+      <c r="K71" s="43"/>
+      <c r="L71" s="43"/>
+      <c r="M71" s="43"/>
+      <c r="N71" s="43"/>
+      <c r="O71" s="43"/>
+      <c r="P71" s="43"/>
+      <c r="Q71" s="43"/>
+      <c r="R71" s="43"/>
+      <c r="S71" s="43"/>
+      <c r="T71" s="43"/>
+      <c r="U71" s="43"/>
+      <c r="V71" s="43"/>
+      <c r="W71" s="43"/>
+      <c r="X71" s="43"/>
+      <c r="Y71" s="43"/>
+      <c r="Z71" s="43"/>
+      <c r="AA71" s="43"/>
+    </row>
+    <row r="72" spans="1:27" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A72" s="43"/>
+      <c r="B72" s="43"/>
+      <c r="C72" s="43"/>
+      <c r="D72" s="43"/>
+      <c r="E72" s="43"/>
+      <c r="F72" s="43"/>
+      <c r="G72" s="43"/>
+      <c r="H72" s="43"/>
+      <c r="I72" s="43"/>
+      <c r="J72" s="43"/>
+      <c r="K72" s="43"/>
+      <c r="L72" s="43"/>
+      <c r="M72" s="43"/>
+      <c r="N72" s="43"/>
+      <c r="O72" s="43"/>
+      <c r="P72" s="43"/>
+      <c r="Q72" s="43"/>
+      <c r="R72" s="43"/>
+      <c r="S72" s="43"/>
+      <c r="T72" s="43"/>
+      <c r="U72" s="43"/>
+      <c r="V72" s="43"/>
+      <c r="W72" s="43"/>
+      <c r="X72" s="43"/>
+      <c r="Y72" s="43"/>
+      <c r="Z72" s="43"/>
+      <c r="AA72" s="43"/>
+    </row>
+    <row r="73" spans="1:27" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A73" s="43"/>
+      <c r="B73" s="43"/>
+      <c r="C73" s="43"/>
+      <c r="D73" s="43"/>
+      <c r="E73" s="43"/>
+      <c r="F73" s="43"/>
+      <c r="G73" s="43"/>
+      <c r="H73" s="43"/>
+      <c r="I73" s="43"/>
+      <c r="J73" s="43"/>
+      <c r="K73" s="43"/>
+      <c r="L73" s="43"/>
+      <c r="M73" s="43"/>
+      <c r="N73" s="43"/>
+      <c r="O73" s="43"/>
+      <c r="P73" s="43"/>
+      <c r="Q73" s="43"/>
+      <c r="R73" s="43"/>
+      <c r="S73" s="43"/>
+      <c r="T73" s="43"/>
+      <c r="U73" s="43"/>
+      <c r="V73" s="43"/>
+      <c r="W73" s="43"/>
+      <c r="X73" s="43"/>
+      <c r="Y73" s="43"/>
+      <c r="Z73" s="43"/>
+      <c r="AA73" s="43"/>
+    </row>
+    <row r="74" spans="1:27" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A74" s="43"/>
+      <c r="B74" s="43"/>
+      <c r="C74" s="43"/>
+      <c r="D74" s="43"/>
+      <c r="E74" s="43"/>
+      <c r="F74" s="43"/>
+      <c r="G74" s="43"/>
+      <c r="H74" s="43"/>
+      <c r="I74" s="43"/>
+      <c r="J74" s="43"/>
+      <c r="K74" s="43"/>
+      <c r="L74" s="43"/>
+      <c r="M74" s="43"/>
+      <c r="N74" s="43"/>
+      <c r="O74" s="43"/>
+      <c r="P74" s="43"/>
+      <c r="Q74" s="43"/>
+      <c r="R74" s="43"/>
+      <c r="S74" s="43"/>
+      <c r="T74" s="43"/>
+      <c r="U74" s="43"/>
+      <c r="V74" s="43"/>
+      <c r="W74" s="43"/>
+      <c r="X74" s="43"/>
+      <c r="Y74" s="43"/>
+      <c r="Z74" s="43"/>
+      <c r="AA74" s="43"/>
+    </row>
+    <row r="75" spans="1:27" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A75" s="43"/>
+      <c r="B75" s="43"/>
+      <c r="C75" s="43"/>
+      <c r="D75" s="43"/>
+      <c r="E75" s="43"/>
+      <c r="F75" s="43"/>
+      <c r="G75" s="43"/>
+      <c r="H75" s="43"/>
+      <c r="I75" s="43"/>
+      <c r="J75" s="43"/>
+      <c r="K75" s="43"/>
+      <c r="L75" s="43"/>
+      <c r="M75" s="43"/>
+      <c r="N75" s="43"/>
+      <c r="O75" s="43"/>
+      <c r="P75" s="43"/>
+      <c r="Q75" s="43"/>
+      <c r="R75" s="43"/>
+      <c r="S75" s="43"/>
+      <c r="T75" s="43"/>
+      <c r="U75" s="43"/>
+      <c r="V75" s="43"/>
+      <c r="W75" s="43"/>
+      <c r="X75" s="43"/>
+      <c r="Y75" s="43"/>
+      <c r="Z75" s="43"/>
+      <c r="AA75" s="43"/>
+    </row>
+    <row r="76" spans="1:27" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A76" s="43"/>
+      <c r="B76" s="43"/>
+      <c r="C76" s="43"/>
+      <c r="D76" s="43"/>
+      <c r="E76" s="43"/>
+      <c r="F76" s="43"/>
+      <c r="G76" s="43"/>
+      <c r="H76" s="43"/>
+      <c r="I76" s="43"/>
+      <c r="J76" s="43"/>
+      <c r="K76" s="43"/>
+      <c r="L76" s="43"/>
+      <c r="M76" s="43"/>
+      <c r="N76" s="43"/>
+      <c r="O76" s="43"/>
+      <c r="P76" s="43"/>
+      <c r="Q76" s="43"/>
+      <c r="R76" s="43"/>
+      <c r="S76" s="43"/>
+      <c r="T76" s="43"/>
+      <c r="U76" s="43"/>
+      <c r="V76" s="43"/>
+      <c r="W76" s="43"/>
+      <c r="X76" s="43"/>
+      <c r="Y76" s="43"/>
+      <c r="Z76" s="43"/>
+      <c r="AA76" s="43"/>
+    </row>
+    <row r="77" spans="1:27" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A77" s="43"/>
+      <c r="B77" s="43"/>
+      <c r="C77" s="43"/>
+      <c r="D77" s="43"/>
+      <c r="E77" s="43"/>
+      <c r="F77" s="43"/>
+      <c r="G77" s="43"/>
+      <c r="H77" s="43"/>
+      <c r="I77" s="43"/>
+      <c r="J77" s="43"/>
+      <c r="K77" s="43"/>
+      <c r="L77" s="43"/>
+      <c r="M77" s="43"/>
+      <c r="N77" s="43"/>
+      <c r="O77" s="43"/>
+      <c r="P77" s="43"/>
+      <c r="Q77" s="43"/>
+      <c r="R77" s="43"/>
+      <c r="S77" s="43"/>
+      <c r="T77" s="43"/>
+      <c r="U77" s="43"/>
+      <c r="V77" s="43"/>
+      <c r="W77" s="43"/>
+      <c r="X77" s="43"/>
+      <c r="Y77" s="43"/>
+      <c r="Z77" s="43"/>
+      <c r="AA77" s="43"/>
+    </row>
+    <row r="78" spans="1:27" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A78" s="43"/>
+      <c r="B78" s="43"/>
+      <c r="C78" s="43"/>
+      <c r="D78" s="43"/>
+      <c r="E78" s="43"/>
+      <c r="F78" s="43"/>
+      <c r="G78" s="43"/>
+      <c r="H78" s="43"/>
+      <c r="I78" s="43"/>
+      <c r="J78" s="43"/>
+      <c r="K78" s="43"/>
+      <c r="L78" s="43"/>
+      <c r="M78" s="43"/>
+      <c r="N78" s="43"/>
+      <c r="O78" s="43"/>
+      <c r="P78" s="43"/>
+      <c r="Q78" s="43"/>
+      <c r="R78" s="43"/>
+      <c r="S78" s="43"/>
+      <c r="T78" s="43"/>
+      <c r="U78" s="43"/>
+      <c r="V78" s="43"/>
+      <c r="W78" s="43"/>
+      <c r="X78" s="43"/>
+      <c r="Y78" s="43"/>
+      <c r="Z78" s="43"/>
+      <c r="AA78" s="43"/>
+    </row>
+    <row r="79" spans="1:27" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A79" s="43"/>
+      <c r="B79" s="43"/>
+      <c r="C79" s="43"/>
+      <c r="D79" s="43"/>
+      <c r="E79" s="43"/>
+      <c r="F79" s="43"/>
+      <c r="G79" s="43"/>
+      <c r="H79" s="43"/>
+      <c r="I79" s="43"/>
+      <c r="J79" s="43"/>
+      <c r="K79" s="43"/>
+      <c r="L79" s="43"/>
+      <c r="M79" s="43"/>
+      <c r="N79" s="43"/>
+      <c r="O79" s="43"/>
+      <c r="P79" s="43"/>
+      <c r="Q79" s="43"/>
+      <c r="R79" s="43"/>
+      <c r="S79" s="43"/>
+      <c r="T79" s="43"/>
+      <c r="U79" s="43"/>
+      <c r="V79" s="43"/>
+      <c r="W79" s="43"/>
+      <c r="X79" s="43"/>
+      <c r="Y79" s="43"/>
+      <c r="Z79" s="43"/>
+      <c r="AA79" s="43"/>
+    </row>
+    <row r="80" spans="1:27" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A80" s="43"/>
+      <c r="B80" s="43"/>
+      <c r="C80" s="43"/>
+      <c r="D80" s="43"/>
+      <c r="E80" s="43"/>
+      <c r="F80" s="43"/>
+      <c r="G80" s="43"/>
+      <c r="H80" s="43"/>
+      <c r="I80" s="43"/>
+      <c r="J80" s="43"/>
+      <c r="K80" s="43"/>
+      <c r="L80" s="43"/>
+      <c r="M80" s="43"/>
+      <c r="N80" s="43"/>
+      <c r="O80" s="43"/>
+      <c r="P80" s="43"/>
+      <c r="Q80" s="43"/>
+      <c r="R80" s="43"/>
+      <c r="S80" s="43"/>
+      <c r="T80" s="43"/>
+      <c r="U80" s="43"/>
+      <c r="V80" s="43"/>
+      <c r="W80" s="43"/>
+      <c r="X80" s="43"/>
+      <c r="Y80" s="43"/>
+      <c r="Z80" s="43"/>
+      <c r="AA80" s="43"/>
+    </row>
+    <row r="81" spans="1:27" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A81" s="43"/>
+      <c r="B81" s="43"/>
+      <c r="C81" s="43"/>
+      <c r="D81" s="43"/>
+      <c r="E81" s="43"/>
+      <c r="F81" s="43"/>
+      <c r="G81" s="43"/>
+      <c r="H81" s="43"/>
+      <c r="I81" s="43"/>
+      <c r="J81" s="43"/>
+      <c r="K81" s="43"/>
+      <c r="L81" s="43"/>
+      <c r="M81" s="43"/>
+      <c r="N81" s="43"/>
+      <c r="O81" s="43"/>
+      <c r="P81" s="43"/>
+      <c r="Q81" s="43"/>
+      <c r="R81" s="43"/>
+      <c r="S81" s="43"/>
+      <c r="T81" s="43"/>
+      <c r="U81" s="43"/>
+      <c r="V81" s="43"/>
+      <c r="W81" s="43"/>
+      <c r="X81" s="43"/>
+      <c r="Y81" s="43"/>
+      <c r="Z81" s="43"/>
+      <c r="AA81" s="43"/>
+    </row>
+    <row r="82" spans="1:27" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A82" s="43"/>
+      <c r="B82" s="43"/>
+      <c r="C82" s="43"/>
+      <c r="D82" s="43"/>
+      <c r="E82" s="43"/>
+      <c r="F82" s="43"/>
+      <c r="G82" s="43"/>
+      <c r="H82" s="43"/>
+      <c r="I82" s="43"/>
+      <c r="J82" s="43"/>
+      <c r="K82" s="43"/>
+      <c r="L82" s="43"/>
+      <c r="M82" s="43"/>
+      <c r="N82" s="43"/>
+      <c r="O82" s="43"/>
+      <c r="P82" s="43"/>
+      <c r="Q82" s="43"/>
+      <c r="R82" s="43"/>
+      <c r="S82" s="43"/>
+      <c r="T82" s="43"/>
+      <c r="U82" s="43"/>
+      <c r="V82" s="43"/>
+      <c r="W82" s="43"/>
+      <c r="X82" s="43"/>
+      <c r="Y82" s="43"/>
+      <c r="Z82" s="43"/>
+      <c r="AA82" s="43"/>
+    </row>
+    <row r="83" spans="1:27" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A83" s="43"/>
+      <c r="B83" s="43"/>
+      <c r="C83" s="43"/>
+      <c r="D83" s="43"/>
+      <c r="E83" s="43"/>
+      <c r="F83" s="43"/>
+      <c r="G83" s="43"/>
+      <c r="H83" s="43"/>
+      <c r="I83" s="43"/>
+      <c r="J83" s="43"/>
+      <c r="K83" s="43"/>
+      <c r="L83" s="43"/>
+      <c r="M83" s="43"/>
+      <c r="N83" s="43"/>
+      <c r="O83" s="43"/>
+      <c r="P83" s="43"/>
+      <c r="Q83" s="43"/>
+      <c r="R83" s="43"/>
+      <c r="S83" s="43"/>
+      <c r="T83" s="43"/>
+      <c r="U83" s="43"/>
+      <c r="V83" s="43"/>
+      <c r="W83" s="43"/>
+      <c r="X83" s="43"/>
+      <c r="Y83" s="43"/>
+      <c r="Z83" s="43"/>
+      <c r="AA83" s="43"/>
+    </row>
+    <row r="84" spans="1:27" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A84" s="43"/>
+      <c r="B84" s="43"/>
+      <c r="C84" s="43"/>
+      <c r="D84" s="43"/>
+      <c r="E84" s="43"/>
+      <c r="F84" s="43"/>
+      <c r="G84" s="43"/>
+      <c r="H84" s="43"/>
+      <c r="I84" s="43"/>
+      <c r="J84" s="43"/>
+      <c r="K84" s="43"/>
+      <c r="L84" s="43"/>
+      <c r="M84" s="43"/>
+      <c r="N84" s="43"/>
+      <c r="O84" s="43"/>
+      <c r="P84" s="43"/>
+      <c r="Q84" s="43"/>
+      <c r="R84" s="43"/>
+      <c r="S84" s="43"/>
+      <c r="T84" s="43"/>
+      <c r="U84" s="43"/>
+      <c r="V84" s="43"/>
+      <c r="W84" s="43"/>
+      <c r="X84" s="43"/>
+      <c r="Y84" s="43"/>
+      <c r="Z84" s="43"/>
+      <c r="AA84" s="43"/>
+    </row>
+    <row r="85" spans="1:27" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A85" s="43"/>
+      <c r="B85" s="43"/>
+      <c r="C85" s="43"/>
+      <c r="D85" s="43"/>
+      <c r="E85" s="43"/>
+      <c r="F85" s="43"/>
+      <c r="G85" s="43"/>
+      <c r="H85" s="43"/>
+      <c r="I85" s="43"/>
+      <c r="J85" s="43"/>
+      <c r="K85" s="43"/>
+      <c r="L85" s="43"/>
+      <c r="M85" s="43"/>
+      <c r="N85" s="43"/>
+      <c r="O85" s="43"/>
+      <c r="P85" s="43"/>
+      <c r="Q85" s="43"/>
+      <c r="R85" s="43"/>
+      <c r="S85" s="43"/>
+      <c r="T85" s="43"/>
+      <c r="U85" s="43"/>
+      <c r="V85" s="43"/>
+      <c r="W85" s="43"/>
+      <c r="X85" s="43"/>
+      <c r="Y85" s="43"/>
+      <c r="Z85" s="43"/>
+      <c r="AA85" s="43"/>
+    </row>
+    <row r="86" spans="1:27" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A86" s="43"/>
+      <c r="B86" s="43"/>
+      <c r="C86" s="43"/>
+      <c r="D86" s="43"/>
+      <c r="E86" s="43"/>
+      <c r="F86" s="43"/>
+      <c r="G86" s="43"/>
+      <c r="H86" s="43"/>
+      <c r="I86" s="43"/>
+      <c r="J86" s="43"/>
+      <c r="K86" s="43"/>
+      <c r="L86" s="43"/>
+      <c r="M86" s="43"/>
+      <c r="N86" s="43"/>
+      <c r="O86" s="43"/>
+      <c r="P86" s="43"/>
+      <c r="Q86" s="43"/>
+      <c r="R86" s="43"/>
+      <c r="S86" s="43"/>
+      <c r="T86" s="43"/>
+      <c r="U86" s="43"/>
+      <c r="V86" s="43"/>
+      <c r="W86" s="43"/>
+      <c r="X86" s="43"/>
+      <c r="Y86" s="43"/>
+      <c r="Z86" s="43"/>
+      <c r="AA86" s="43"/>
+    </row>
+    <row r="87" spans="1:27" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A87" s="43"/>
+      <c r="B87" s="43"/>
+      <c r="C87" s="43"/>
+      <c r="D87" s="43"/>
+      <c r="E87" s="43"/>
+      <c r="F87" s="43"/>
+      <c r="G87" s="43"/>
+      <c r="H87" s="43"/>
+      <c r="I87" s="43"/>
+      <c r="J87" s="43"/>
+      <c r="K87" s="43"/>
+      <c r="L87" s="43"/>
+      <c r="M87" s="43"/>
+      <c r="N87" s="43"/>
+      <c r="O87" s="43"/>
+      <c r="P87" s="43"/>
+      <c r="Q87" s="43"/>
+      <c r="R87" s="43"/>
+      <c r="S87" s="43"/>
+      <c r="T87" s="43"/>
+      <c r="U87" s="43"/>
+      <c r="V87" s="43"/>
+      <c r="W87" s="43"/>
+      <c r="X87" s="43"/>
+      <c r="Y87" s="43"/>
+      <c r="Z87" s="43"/>
+      <c r="AA87" s="43"/>
+    </row>
+    <row r="88" spans="1:27" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A88" s="43"/>
+      <c r="B88" s="43"/>
+      <c r="C88" s="43"/>
+      <c r="D88" s="43"/>
+      <c r="E88" s="43"/>
+      <c r="F88" s="43"/>
+      <c r="G88" s="43"/>
+      <c r="H88" s="43"/>
+      <c r="I88" s="43"/>
+      <c r="J88" s="43"/>
+      <c r="K88" s="43"/>
+      <c r="L88" s="43"/>
+      <c r="M88" s="43"/>
+      <c r="N88" s="43"/>
+      <c r="O88" s="43"/>
+      <c r="P88" s="43"/>
+      <c r="Q88" s="43"/>
+      <c r="R88" s="43"/>
+      <c r="S88" s="43"/>
+      <c r="T88" s="43"/>
+      <c r="U88" s="43"/>
+      <c r="V88" s="43"/>
+      <c r="W88" s="43"/>
+      <c r="X88" s="43"/>
+      <c r="Y88" s="43"/>
+      <c r="Z88" s="43"/>
+      <c r="AA88" s="43"/>
+    </row>
+    <row r="89" spans="1:27" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A89" s="43"/>
+      <c r="B89" s="43"/>
+      <c r="C89" s="43"/>
+      <c r="D89" s="43"/>
+      <c r="E89" s="43"/>
+      <c r="F89" s="43"/>
+      <c r="G89" s="43"/>
+      <c r="H89" s="43"/>
+      <c r="I89" s="43"/>
+      <c r="J89" s="43"/>
+      <c r="K89" s="43"/>
+      <c r="L89" s="43"/>
+      <c r="M89" s="43"/>
+      <c r="N89" s="43"/>
+      <c r="O89" s="43"/>
+      <c r="P89" s="43"/>
+      <c r="Q89" s="43"/>
+      <c r="R89" s="43"/>
+      <c r="S89" s="43"/>
+      <c r="T89" s="43"/>
+      <c r="U89" s="43"/>
+      <c r="V89" s="43"/>
+      <c r="W89" s="43"/>
+      <c r="X89" s="43"/>
+      <c r="Y89" s="43"/>
+      <c r="Z89" s="43"/>
+      <c r="AA89" s="43"/>
+    </row>
+    <row r="90" spans="1:27" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A90" s="43"/>
+      <c r="B90" s="43"/>
+      <c r="C90" s="43"/>
+      <c r="D90" s="43"/>
+      <c r="E90" s="43"/>
+      <c r="F90" s="43"/>
+      <c r="G90" s="43"/>
+      <c r="H90" s="43"/>
+      <c r="I90" s="43"/>
+      <c r="J90" s="43"/>
+      <c r="K90" s="43"/>
+      <c r="L90" s="43"/>
+      <c r="M90" s="43"/>
+      <c r="N90" s="43"/>
+      <c r="O90" s="43"/>
+      <c r="P90" s="43"/>
+      <c r="Q90" s="43"/>
+      <c r="R90" s="43"/>
+      <c r="S90" s="43"/>
+      <c r="T90" s="43"/>
+      <c r="U90" s="43"/>
+      <c r="V90" s="43"/>
+      <c r="W90" s="43"/>
+      <c r="X90" s="43"/>
+      <c r="Y90" s="43"/>
+      <c r="Z90" s="43"/>
+      <c r="AA90" s="43"/>
+    </row>
+    <row r="91" spans="1:27" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A91" s="43"/>
+      <c r="B91" s="43"/>
+      <c r="C91" s="43"/>
+      <c r="D91" s="43"/>
+      <c r="E91" s="43"/>
+      <c r="F91" s="43"/>
+      <c r="G91" s="43"/>
+      <c r="H91" s="43"/>
+      <c r="I91" s="43"/>
+      <c r="J91" s="43"/>
+      <c r="K91" s="43"/>
+      <c r="L91" s="43"/>
+      <c r="M91" s="43"/>
+      <c r="N91" s="43"/>
+      <c r="O91" s="43"/>
+      <c r="P91" s="43"/>
+      <c r="Q91" s="43"/>
+      <c r="R91" s="43"/>
+      <c r="S91" s="43"/>
+      <c r="T91" s="43"/>
+      <c r="U91" s="43"/>
+      <c r="V91" s="43"/>
+      <c r="W91" s="43"/>
+      <c r="X91" s="43"/>
+      <c r="Y91" s="43"/>
+      <c r="Z91" s="43"/>
+      <c r="AA91" s="43"/>
+    </row>
+    <row r="92" spans="1:27" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A92" s="43"/>
+      <c r="B92" s="43"/>
+      <c r="C92" s="43"/>
+      <c r="D92" s="43"/>
+      <c r="E92" s="43"/>
+      <c r="F92" s="43"/>
+      <c r="G92" s="43"/>
+      <c r="H92" s="43"/>
+      <c r="I92" s="43"/>
+      <c r="J92" s="43"/>
+      <c r="K92" s="43"/>
+      <c r="L92" s="43"/>
+      <c r="M92" s="43"/>
+      <c r="N92" s="43"/>
+      <c r="O92" s="43"/>
+      <c r="P92" s="43"/>
+      <c r="Q92" s="43"/>
+      <c r="R92" s="43"/>
+      <c r="S92" s="43"/>
+      <c r="T92" s="43"/>
+      <c r="U92" s="43"/>
+      <c r="V92" s="43"/>
+      <c r="W92" s="43"/>
+      <c r="X92" s="43"/>
+      <c r="Y92" s="43"/>
+      <c r="Z92" s="43"/>
+      <c r="AA92" s="43"/>
+    </row>
+    <row r="93" spans="1:27" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A93" s="43"/>
+      <c r="B93" s="43"/>
+      <c r="C93" s="43"/>
+      <c r="D93" s="43"/>
+      <c r="E93" s="43"/>
+      <c r="F93" s="43"/>
+      <c r="G93" s="43"/>
+      <c r="H93" s="43"/>
+      <c r="I93" s="43"/>
+      <c r="J93" s="43"/>
+      <c r="K93" s="43"/>
+      <c r="L93" s="43"/>
+      <c r="M93" s="43"/>
+      <c r="N93" s="43"/>
+      <c r="O93" s="43"/>
+      <c r="P93" s="43"/>
+      <c r="Q93" s="43"/>
+      <c r="R93" s="43"/>
+      <c r="S93" s="43"/>
+      <c r="T93" s="43"/>
+      <c r="U93" s="43"/>
+      <c r="V93" s="43"/>
+      <c r="W93" s="43"/>
+      <c r="X93" s="43"/>
+      <c r="Y93" s="43"/>
+      <c r="Z93" s="43"/>
+      <c r="AA93" s="43"/>
+    </row>
+    <row r="94" spans="1:27" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A94" s="43"/>
+      <c r="B94" s="43"/>
+      <c r="C94" s="43"/>
+      <c r="D94" s="43"/>
+      <c r="E94" s="43"/>
+      <c r="F94" s="43"/>
+      <c r="G94" s="43"/>
+      <c r="H94" s="43"/>
+      <c r="I94" s="43"/>
+      <c r="J94" s="43"/>
+      <c r="K94" s="43"/>
+      <c r="L94" s="43"/>
+      <c r="M94" s="43"/>
+      <c r="N94" s="43"/>
+      <c r="O94" s="43"/>
+      <c r="P94" s="43"/>
+      <c r="Q94" s="43"/>
+      <c r="R94" s="43"/>
+      <c r="S94" s="43"/>
+      <c r="T94" s="43"/>
+      <c r="U94" s="43"/>
+      <c r="V94" s="43"/>
+      <c r="W94" s="43"/>
+      <c r="X94" s="43"/>
+      <c r="Y94" s="43"/>
+      <c r="Z94" s="43"/>
+      <c r="AA94" s="43"/>
+    </row>
+    <row r="95" spans="1:27" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A95" s="43"/>
+      <c r="B95" s="43"/>
+      <c r="C95" s="43"/>
+      <c r="D95" s="43"/>
+      <c r="E95" s="43"/>
+      <c r="F95" s="43"/>
+      <c r="G95" s="43"/>
+      <c r="H95" s="43"/>
+      <c r="I95" s="43"/>
+      <c r="J95" s="43"/>
+      <c r="K95" s="43"/>
+      <c r="L95" s="43"/>
+      <c r="M95" s="43"/>
+      <c r="N95" s="43"/>
+      <c r="O95" s="43"/>
+      <c r="P95" s="43"/>
+      <c r="Q95" s="43"/>
+      <c r="R95" s="43"/>
+      <c r="S95" s="43"/>
+      <c r="T95" s="43"/>
+      <c r="U95" s="43"/>
+      <c r="V95" s="43"/>
+      <c r="W95" s="43"/>
+      <c r="X95" s="43"/>
+      <c r="Y95" s="43"/>
+      <c r="Z95" s="43"/>
+      <c r="AA95" s="43"/>
+    </row>
+    <row r="96" spans="1:27" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A96" s="43"/>
+      <c r="B96" s="43"/>
+      <c r="C96" s="43"/>
+      <c r="D96" s="43"/>
+      <c r="E96" s="43"/>
+      <c r="F96" s="43"/>
+      <c r="G96" s="43"/>
+      <c r="H96" s="43"/>
+      <c r="I96" s="43"/>
+      <c r="J96" s="43"/>
+      <c r="K96" s="43"/>
+      <c r="L96" s="43"/>
+      <c r="M96" s="43"/>
+      <c r="N96" s="43"/>
+      <c r="O96" s="43"/>
+      <c r="P96" s="43"/>
+      <c r="Q96" s="43"/>
+      <c r="R96" s="43"/>
+      <c r="S96" s="43"/>
+      <c r="T96" s="43"/>
+      <c r="U96" s="43"/>
+      <c r="V96" s="43"/>
+      <c r="W96" s="43"/>
+      <c r="X96" s="43"/>
+      <c r="Y96" s="43"/>
+      <c r="Z96" s="43"/>
+      <c r="AA96" s="43"/>
+    </row>
+    <row r="97" spans="1:27" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A97" s="43"/>
+      <c r="B97" s="43"/>
+      <c r="C97" s="43"/>
+      <c r="D97" s="43"/>
+      <c r="E97" s="43"/>
+      <c r="F97" s="43"/>
+      <c r="G97" s="43"/>
+      <c r="H97" s="43"/>
+      <c r="I97" s="43"/>
+      <c r="J97" s="43"/>
+      <c r="K97" s="43"/>
+      <c r="L97" s="43"/>
+      <c r="M97" s="43"/>
+      <c r="N97" s="43"/>
+      <c r="O97" s="43"/>
+      <c r="P97" s="43"/>
+      <c r="Q97" s="43"/>
+      <c r="R97" s="43"/>
+      <c r="S97" s="43"/>
+      <c r="T97" s="43"/>
+      <c r="U97" s="43"/>
+      <c r="V97" s="43"/>
+      <c r="W97" s="43"/>
+      <c r="X97" s="43"/>
+      <c r="Y97" s="43"/>
+      <c r="Z97" s="43"/>
+      <c r="AA97" s="43"/>
+    </row>
+    <row r="98" spans="1:27" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A98" s="43"/>
+      <c r="B98" s="43"/>
+      <c r="C98" s="43"/>
+      <c r="D98" s="43"/>
+      <c r="E98" s="43"/>
+      <c r="F98" s="43"/>
+      <c r="G98" s="43"/>
+      <c r="H98" s="43"/>
+      <c r="I98" s="43"/>
+      <c r="J98" s="43"/>
+      <c r="K98" s="43"/>
+      <c r="L98" s="43"/>
+      <c r="M98" s="43"/>
+      <c r="N98" s="43"/>
+      <c r="O98" s="43"/>
+      <c r="P98" s="43"/>
+      <c r="Q98" s="43"/>
+      <c r="R98" s="43"/>
+      <c r="S98" s="43"/>
+      <c r="T98" s="43"/>
+      <c r="U98" s="43"/>
+      <c r="V98" s="43"/>
+      <c r="W98" s="43"/>
+      <c r="X98" s="43"/>
+      <c r="Y98" s="43"/>
+      <c r="Z98" s="43"/>
+      <c r="AA98" s="43"/>
+    </row>
+    <row r="99" spans="1:27" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A99" s="43"/>
+      <c r="B99" s="43"/>
+      <c r="C99" s="43"/>
+      <c r="D99" s="43"/>
+      <c r="E99" s="43"/>
+      <c r="F99" s="43"/>
+      <c r="G99" s="43"/>
+      <c r="H99" s="43"/>
+      <c r="I99" s="43"/>
+      <c r="J99" s="43"/>
+      <c r="K99" s="43"/>
+      <c r="L99" s="43"/>
+      <c r="M99" s="43"/>
+      <c r="N99" s="43"/>
+      <c r="O99" s="43"/>
+      <c r="P99" s="43"/>
+      <c r="Q99" s="43"/>
+      <c r="R99" s="43"/>
+      <c r="S99" s="43"/>
+      <c r="T99" s="43"/>
+      <c r="U99" s="43"/>
+      <c r="V99" s="43"/>
+      <c r="W99" s="43"/>
+      <c r="X99" s="43"/>
+      <c r="Y99" s="43"/>
+      <c r="Z99" s="43"/>
+      <c r="AA99" s="43"/>
+    </row>
+    <row r="100" spans="1:27" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A100" s="43"/>
+      <c r="B100" s="43"/>
+      <c r="C100" s="43"/>
+      <c r="D100" s="43"/>
+      <c r="E100" s="43"/>
+      <c r="F100" s="43"/>
+      <c r="G100" s="43"/>
+      <c r="H100" s="43"/>
+      <c r="I100" s="43"/>
+      <c r="J100" s="43"/>
+      <c r="K100" s="43"/>
+      <c r="L100" s="43"/>
+      <c r="M100" s="43"/>
+      <c r="N100" s="43"/>
+      <c r="O100" s="43"/>
+      <c r="P100" s="43"/>
+      <c r="Q100" s="43"/>
+      <c r="R100" s="43"/>
+      <c r="S100" s="43"/>
+      <c r="T100" s="43"/>
+      <c r="U100" s="43"/>
+      <c r="V100" s="43"/>
+      <c r="W100" s="43"/>
+      <c r="X100" s="43"/>
+      <c r="Y100" s="43"/>
+      <c r="Z100" s="43"/>
+      <c r="AA100" s="43"/>
+    </row>
+    <row r="101" spans="1:27" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A101" s="43"/>
+      <c r="B101" s="43"/>
+      <c r="C101" s="43"/>
+      <c r="D101" s="43"/>
+      <c r="E101" s="43"/>
+      <c r="F101" s="43"/>
+      <c r="G101" s="43"/>
+      <c r="H101" s="43"/>
+      <c r="I101" s="43"/>
+      <c r="J101" s="43"/>
+      <c r="K101" s="43"/>
+      <c r="L101" s="43"/>
+      <c r="M101" s="43"/>
+      <c r="N101" s="43"/>
+      <c r="O101" s="43"/>
+      <c r="P101" s="43"/>
+      <c r="Q101" s="43"/>
+      <c r="R101" s="43"/>
+      <c r="S101" s="43"/>
+      <c r="T101" s="43"/>
+      <c r="U101" s="43"/>
+      <c r="V101" s="43"/>
+      <c r="W101" s="43"/>
+      <c r="X101" s="43"/>
+      <c r="Y101" s="43"/>
+      <c r="Z101" s="43"/>
+      <c r="AA101" s="43"/>
+    </row>
+    <row r="102" spans="1:27" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A102" s="43"/>
+      <c r="B102" s="43"/>
+      <c r="C102" s="43"/>
+      <c r="D102" s="43"/>
+      <c r="E102" s="43"/>
+      <c r="F102" s="43"/>
+      <c r="G102" s="43"/>
+      <c r="H102" s="43"/>
+      <c r="I102" s="43"/>
+      <c r="J102" s="43"/>
+      <c r="K102" s="43"/>
+      <c r="L102" s="43"/>
+      <c r="M102" s="43"/>
+      <c r="N102" s="43"/>
+      <c r="O102" s="43"/>
+      <c r="P102" s="43"/>
+      <c r="Q102" s="43"/>
+      <c r="R102" s="43"/>
+      <c r="S102" s="43"/>
+      <c r="T102" s="43"/>
+      <c r="U102" s="43"/>
+      <c r="V102" s="43"/>
+      <c r="W102" s="43"/>
+      <c r="X102" s="43"/>
+      <c r="Y102" s="43"/>
+      <c r="Z102" s="43"/>
+      <c r="AA102" s="43"/>
+    </row>
+    <row r="103" spans="1:27" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A103" s="43"/>
+      <c r="B103" s="43"/>
+      <c r="C103" s="43"/>
+      <c r="D103" s="43"/>
+      <c r="E103" s="43"/>
+      <c r="F103" s="43"/>
+      <c r="G103" s="43"/>
+      <c r="H103" s="43"/>
+      <c r="I103" s="43"/>
+      <c r="J103" s="43"/>
+      <c r="K103" s="43"/>
+      <c r="L103" s="43"/>
+      <c r="M103" s="43"/>
+      <c r="N103" s="43"/>
+      <c r="O103" s="43"/>
+      <c r="P103" s="43"/>
+      <c r="Q103" s="43"/>
+      <c r="R103" s="43"/>
+      <c r="S103" s="43"/>
+      <c r="T103" s="43"/>
+      <c r="U103" s="43"/>
+      <c r="V103" s="43"/>
+      <c r="W103" s="43"/>
+      <c r="X103" s="43"/>
+      <c r="Y103" s="43"/>
+      <c r="Z103" s="43"/>
+      <c r="AA103" s="43"/>
+    </row>
+    <row r="104" spans="1:27" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A104" s="43"/>
+      <c r="B104" s="43"/>
+      <c r="C104" s="43"/>
+      <c r="D104" s="43"/>
+      <c r="E104" s="43"/>
+      <c r="F104" s="43"/>
+      <c r="G104" s="43"/>
+      <c r="H104" s="43"/>
+      <c r="I104" s="43"/>
+      <c r="J104" s="43"/>
+      <c r="K104" s="43"/>
+      <c r="L104" s="43"/>
+      <c r="M104" s="43"/>
+      <c r="N104" s="43"/>
+      <c r="O104" s="43"/>
+      <c r="P104" s="43"/>
+      <c r="Q104" s="43"/>
+      <c r="R104" s="43"/>
+      <c r="S104" s="43"/>
+      <c r="T104" s="43"/>
+      <c r="U104" s="43"/>
+      <c r="V104" s="43"/>
+      <c r="W104" s="43"/>
+      <c r="X104" s="43"/>
+      <c r="Y104" s="43"/>
+      <c r="Z104" s="43"/>
+      <c r="AA104" s="43"/>
+    </row>
+    <row r="105" spans="1:27" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A105" s="43"/>
+      <c r="B105" s="43"/>
+      <c r="C105" s="43"/>
+      <c r="D105" s="43"/>
+      <c r="E105" s="43"/>
+      <c r="F105" s="43"/>
+      <c r="G105" s="43"/>
+      <c r="H105" s="43"/>
+      <c r="I105" s="43"/>
+      <c r="J105" s="43"/>
+      <c r="K105" s="43"/>
+      <c r="L105" s="43"/>
+      <c r="M105" s="43"/>
+      <c r="N105" s="43"/>
+      <c r="O105" s="43"/>
+      <c r="P105" s="43"/>
+      <c r="Q105" s="43"/>
+      <c r="R105" s="43"/>
+      <c r="S105" s="43"/>
+      <c r="T105" s="43"/>
+      <c r="U105" s="43"/>
+      <c r="V105" s="43"/>
+      <c r="W105" s="43"/>
+      <c r="X105" s="43"/>
+      <c r="Y105" s="43"/>
+      <c r="Z105" s="43"/>
+      <c r="AA105" s="43"/>
+    </row>
+    <row r="106" spans="1:27" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A106" s="43"/>
+      <c r="B106" s="43"/>
+      <c r="C106" s="43"/>
+      <c r="D106" s="43"/>
+      <c r="E106" s="43"/>
+      <c r="F106" s="43"/>
+      <c r="G106" s="43"/>
+      <c r="H106" s="43"/>
+      <c r="I106" s="43"/>
+      <c r="J106" s="43"/>
+      <c r="K106" s="43"/>
+      <c r="L106" s="43"/>
+      <c r="M106" s="43"/>
+      <c r="N106" s="43"/>
+      <c r="O106" s="43"/>
+      <c r="P106" s="43"/>
+      <c r="Q106" s="43"/>
+      <c r="R106" s="43"/>
+      <c r="S106" s="43"/>
+      <c r="T106" s="43"/>
+      <c r="U106" s="43"/>
+      <c r="V106" s="43"/>
+      <c r="W106" s="43"/>
+      <c r="X106" s="43"/>
+      <c r="Y106" s="43"/>
+      <c r="Z106" s="43"/>
+      <c r="AA106" s="43"/>
+    </row>
+    <row r="107" spans="1:27" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A107" s="43"/>
+      <c r="B107" s="43"/>
+      <c r="C107" s="43"/>
+      <c r="D107" s="43"/>
+      <c r="E107" s="43"/>
+      <c r="F107" s="43"/>
+      <c r="G107" s="43"/>
+      <c r="H107" s="43"/>
+      <c r="I107" s="43"/>
+      <c r="J107" s="43"/>
+      <c r="K107" s="43"/>
+      <c r="L107" s="43"/>
+      <c r="M107" s="43"/>
+      <c r="N107" s="43"/>
+      <c r="O107" s="43"/>
+      <c r="P107" s="43"/>
+      <c r="Q107" s="43"/>
+      <c r="R107" s="43"/>
+      <c r="S107" s="43"/>
+      <c r="T107" s="43"/>
+      <c r="U107" s="43"/>
+      <c r="V107" s="43"/>
+      <c r="W107" s="43"/>
+      <c r="X107" s="43"/>
+      <c r="Y107" s="43"/>
+      <c r="Z107" s="43"/>
+      <c r="AA107" s="43"/>
+    </row>
+    <row r="108" spans="1:27" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A108" s="43"/>
+      <c r="B108" s="43"/>
+      <c r="C108" s="43"/>
+      <c r="D108" s="43"/>
+      <c r="E108" s="43"/>
+      <c r="F108" s="43"/>
+      <c r="G108" s="43"/>
+      <c r="H108" s="43"/>
+      <c r="I108" s="43"/>
+      <c r="J108" s="43"/>
+      <c r="K108" s="43"/>
+      <c r="L108" s="43"/>
+      <c r="M108" s="43"/>
+      <c r="N108" s="43"/>
+      <c r="O108" s="43"/>
+      <c r="P108" s="43"/>
+      <c r="Q108" s="43"/>
+      <c r="R108" s="43"/>
+      <c r="S108" s="43"/>
+      <c r="T108" s="43"/>
+      <c r="U108" s="43"/>
+      <c r="V108" s="43"/>
+      <c r="W108" s="43"/>
+      <c r="X108" s="43"/>
+      <c r="Y108" s="43"/>
+      <c r="Z108" s="43"/>
+      <c r="AA108" s="43"/>
+    </row>
+    <row r="109" spans="1:27" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A109" s="43"/>
+      <c r="B109" s="43"/>
+      <c r="C109" s="43"/>
+      <c r="D109" s="43"/>
+      <c r="E109" s="43"/>
+      <c r="F109" s="43"/>
+      <c r="G109" s="43"/>
+      <c r="H109" s="43"/>
+      <c r="I109" s="43"/>
+      <c r="J109" s="43"/>
+      <c r="K109" s="43"/>
+      <c r="L109" s="43"/>
+      <c r="M109" s="43"/>
+      <c r="N109" s="43"/>
+      <c r="O109" s="43"/>
+      <c r="P109" s="43"/>
+      <c r="Q109" s="43"/>
+      <c r="R109" s="43"/>
+      <c r="S109" s="43"/>
+      <c r="T109" s="43"/>
+      <c r="U109" s="43"/>
+      <c r="V109" s="43"/>
+      <c r="W109" s="43"/>
+      <c r="X109" s="43"/>
+      <c r="Y109" s="43"/>
+      <c r="Z109" s="43"/>
+      <c r="AA109" s="43"/>
+    </row>
+    <row r="110" spans="1:27" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A110" s="43"/>
+      <c r="B110" s="43"/>
+      <c r="C110" s="43"/>
+      <c r="D110" s="43"/>
+      <c r="E110" s="43"/>
+      <c r="F110" s="43"/>
+      <c r="G110" s="43"/>
+      <c r="H110" s="43"/>
+      <c r="I110" s="43"/>
+      <c r="J110" s="43"/>
+      <c r="K110" s="43"/>
+      <c r="L110" s="43"/>
+      <c r="M110" s="43"/>
+      <c r="N110" s="43"/>
+      <c r="O110" s="43"/>
+      <c r="P110" s="43"/>
+      <c r="Q110" s="43"/>
+      <c r="R110" s="43"/>
+      <c r="S110" s="43"/>
+      <c r="T110" s="43"/>
+      <c r="U110" s="43"/>
+      <c r="V110" s="43"/>
+      <c r="W110" s="43"/>
+      <c r="X110" s="43"/>
+      <c r="Y110" s="43"/>
+      <c r="Z110" s="43"/>
+      <c r="AA110" s="43"/>
+    </row>
+    <row r="111" spans="1:27" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A111" s="43"/>
+      <c r="B111" s="43"/>
+      <c r="C111" s="43"/>
+      <c r="D111" s="43"/>
+      <c r="E111" s="43"/>
+      <c r="F111" s="43"/>
+      <c r="G111" s="43"/>
+      <c r="H111" s="43"/>
+      <c r="I111" s="43"/>
+      <c r="J111" s="43"/>
+      <c r="K111" s="43"/>
+      <c r="L111" s="43"/>
+      <c r="M111" s="43"/>
+      <c r="N111" s="43"/>
+      <c r="O111" s="43"/>
+      <c r="P111" s="43"/>
+      <c r="Q111" s="43"/>
+      <c r="R111" s="43"/>
+      <c r="S111" s="43"/>
+      <c r="T111" s="43"/>
+      <c r="U111" s="43"/>
+      <c r="V111" s="43"/>
+      <c r="W111" s="43"/>
+      <c r="X111" s="43"/>
+      <c r="Y111" s="43"/>
+      <c r="Z111" s="43"/>
+      <c r="AA111" s="43"/>
+    </row>
+    <row r="112" spans="1:27" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A112" s="43"/>
+      <c r="B112" s="43"/>
+      <c r="C112" s="43"/>
+      <c r="D112" s="43"/>
+      <c r="E112" s="43"/>
+      <c r="F112" s="43"/>
+      <c r="G112" s="43"/>
+      <c r="H112" s="43"/>
+      <c r="I112" s="43"/>
+      <c r="J112" s="43"/>
+      <c r="K112" s="43"/>
+      <c r="L112" s="43"/>
+      <c r="M112" s="43"/>
+      <c r="N112" s="43"/>
+      <c r="O112" s="43"/>
+      <c r="P112" s="43"/>
+      <c r="Q112" s="43"/>
+      <c r="R112" s="43"/>
+      <c r="S112" s="43"/>
+      <c r="T112" s="43"/>
+      <c r="U112" s="43"/>
+      <c r="V112" s="43"/>
+      <c r="W112" s="43"/>
+      <c r="X112" s="43"/>
+      <c r="Y112" s="43"/>
+      <c r="Z112" s="43"/>
+      <c r="AA112" s="43"/>
+    </row>
+    <row r="113" spans="1:27" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A113" s="43"/>
+      <c r="B113" s="43"/>
+      <c r="C113" s="43"/>
+      <c r="D113" s="43"/>
+      <c r="E113" s="43"/>
+      <c r="F113" s="43"/>
+      <c r="G113" s="43"/>
+      <c r="H113" s="43"/>
+      <c r="I113" s="43"/>
+      <c r="J113" s="43"/>
+      <c r="K113" s="43"/>
+      <c r="L113" s="43"/>
+      <c r="M113" s="43"/>
+      <c r="N113" s="43"/>
+      <c r="O113" s="43"/>
+      <c r="P113" s="43"/>
+      <c r="Q113" s="43"/>
+      <c r="R113" s="43"/>
+      <c r="S113" s="43"/>
+      <c r="T113" s="43"/>
+      <c r="U113" s="43"/>
+      <c r="V113" s="43"/>
+      <c r="W113" s="43"/>
+      <c r="X113" s="43"/>
+      <c r="Y113" s="43"/>
+      <c r="Z113" s="43"/>
+      <c r="AA113" s="43"/>
+    </row>
+    <row r="114" spans="1:27" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A114" s="43"/>
+      <c r="B114" s="43"/>
+      <c r="C114" s="43"/>
+      <c r="D114" s="43"/>
+      <c r="E114" s="43"/>
+      <c r="F114" s="43"/>
+      <c r="G114" s="43"/>
+      <c r="H114" s="43"/>
+      <c r="I114" s="43"/>
+      <c r="J114" s="43"/>
+      <c r="K114" s="43"/>
+      <c r="L114" s="43"/>
+      <c r="M114" s="43"/>
+      <c r="N114" s="43"/>
+      <c r="O114" s="43"/>
+      <c r="P114" s="43"/>
+      <c r="Q114" s="43"/>
+      <c r="R114" s="43"/>
+      <c r="S114" s="43"/>
+      <c r="T114" s="43"/>
+      <c r="U114" s="43"/>
+      <c r="V114" s="43"/>
+      <c r="W114" s="43"/>
+      <c r="X114" s="43"/>
+      <c r="Y114" s="43"/>
+      <c r="Z114" s="43"/>
+      <c r="AA114" s="43"/>
+    </row>
+    <row r="115" spans="1:27" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A115" s="43"/>
+      <c r="B115" s="43"/>
+      <c r="C115" s="43"/>
+      <c r="D115" s="43"/>
+      <c r="E115" s="43"/>
+      <c r="F115" s="43"/>
+      <c r="G115" s="43"/>
+      <c r="H115" s="43"/>
+      <c r="I115" s="43"/>
+      <c r="J115" s="43"/>
+      <c r="K115" s="43"/>
+      <c r="L115" s="43"/>
+      <c r="M115" s="43"/>
+      <c r="N115" s="43"/>
+      <c r="O115" s="43"/>
+      <c r="P115" s="43"/>
+      <c r="Q115" s="43"/>
+      <c r="R115" s="43"/>
+      <c r="S115" s="43"/>
+      <c r="T115" s="43"/>
+      <c r="U115" s="43"/>
+      <c r="V115" s="43"/>
+      <c r="W115" s="43"/>
+      <c r="X115" s="43"/>
+      <c r="Y115" s="43"/>
+      <c r="Z115" s="43"/>
+      <c r="AA115" s="43"/>
+    </row>
+    <row r="116" spans="1:27" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A116" s="43"/>
+      <c r="B116" s="43"/>
+      <c r="C116" s="43"/>
+      <c r="D116" s="43"/>
+      <c r="E116" s="43"/>
+      <c r="F116" s="43"/>
+      <c r="G116" s="43"/>
+      <c r="H116" s="43"/>
+      <c r="I116" s="43"/>
+      <c r="J116" s="43"/>
+      <c r="K116" s="43"/>
+      <c r="L116" s="43"/>
+      <c r="M116" s="43"/>
+      <c r="N116" s="43"/>
+      <c r="O116" s="43"/>
+      <c r="P116" s="43"/>
+      <c r="Q116" s="43"/>
+      <c r="R116" s="43"/>
+      <c r="S116" s="43"/>
+      <c r="T116" s="43"/>
+      <c r="U116" s="43"/>
+      <c r="V116" s="43"/>
+      <c r="W116" s="43"/>
+      <c r="X116" s="43"/>
+      <c r="Y116" s="43"/>
+      <c r="Z116" s="43"/>
+      <c r="AA116" s="43"/>
+    </row>
+    <row r="117" spans="1:27" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A117" s="43"/>
+      <c r="B117" s="43"/>
+      <c r="C117" s="43"/>
+      <c r="D117" s="43"/>
+      <c r="E117" s="43"/>
+      <c r="F117" s="43"/>
+      <c r="G117" s="43"/>
+      <c r="H117" s="43"/>
+      <c r="I117" s="43"/>
+      <c r="J117" s="43"/>
+      <c r="K117" s="43"/>
+      <c r="L117" s="43"/>
+      <c r="M117" s="43"/>
+      <c r="N117" s="43"/>
+      <c r="O117" s="43"/>
+      <c r="P117" s="43"/>
+      <c r="Q117" s="43"/>
+      <c r="R117" s="43"/>
+      <c r="S117" s="43"/>
+      <c r="T117" s="43"/>
+      <c r="U117" s="43"/>
+      <c r="V117" s="43"/>
+      <c r="W117" s="43"/>
+      <c r="X117" s="43"/>
+      <c r="Y117" s="43"/>
+      <c r="Z117" s="43"/>
+      <c r="AA117" s="43"/>
+    </row>
+    <row r="118" spans="1:27" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A118" s="43"/>
+      <c r="B118" s="43"/>
+      <c r="C118" s="43"/>
+      <c r="D118" s="43"/>
+      <c r="E118" s="43"/>
+      <c r="F118" s="43"/>
+      <c r="G118" s="43"/>
+      <c r="H118" s="43"/>
+      <c r="I118" s="43"/>
+      <c r="J118" s="43"/>
+      <c r="K118" s="43"/>
+      <c r="L118" s="43"/>
+      <c r="M118" s="43"/>
+      <c r="N118" s="43"/>
+      <c r="O118" s="43"/>
+      <c r="P118" s="43"/>
+      <c r="Q118" s="43"/>
+      <c r="R118" s="43"/>
+      <c r="S118" s="43"/>
+      <c r="T118" s="43"/>
+      <c r="U118" s="43"/>
+      <c r="V118" s="43"/>
+      <c r="W118" s="43"/>
+      <c r="X118" s="43"/>
+      <c r="Y118" s="43"/>
+      <c r="Z118" s="43"/>
+      <c r="AA118" s="43"/>
+    </row>
+    <row r="119" spans="1:27" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="120" spans="1:27" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="121" spans="1:27" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="122" spans="1:27" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="123" spans="1:27" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="124" spans="1:27" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="125" spans="1:27" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="126" spans="1:27" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="127" spans="1:27" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="128" spans="1:27" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="129" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="130" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="131" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="132" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="133" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="134" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="135" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="136" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="137" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="138" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="139" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="140" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="141" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="142" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="143" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="144" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="145" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="146" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="147" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="148" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="149" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="150" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="151" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="152" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="153" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="154" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="155" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="156" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="157" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="158" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="159" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="160" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="161" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="162" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="163" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="164" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="165" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="166" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="167" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="168" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="169" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="170" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="171" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="172" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="173" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="174" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="175" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="176" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="177" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="178" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="179" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="180" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="181" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="182" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="183" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="184" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="185" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="186" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="187" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="188" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="189" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="190" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="191" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="192" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="193" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="194" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="195" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="196" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="197" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="198" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="199" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="200" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="201" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="202" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="203" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="204" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="205" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="206" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="207" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="208" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="209" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="210" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="211" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="212" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="213" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="214" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="215" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="216" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="217" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="218" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="219" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="220" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="221" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="222" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="223" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="224" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="225" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="226" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="227" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="228" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="229" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="230" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="231" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="232" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="233" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="234" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="235" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="236" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="237" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="238" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="239" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="240" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="241" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="242" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="243" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="244" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="245" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="246" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="247" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="248" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="249" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="250" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="251" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="252" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="253" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="254" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="255" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="256" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="257" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="258" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="259" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="260" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="261" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="262" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="263" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="264" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="265" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="266" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="267" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="268" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="269" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="270" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="271" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="272" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="273" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="274" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="275" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="276" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="277" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="278" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="279" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="280" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="281" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="282" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="283" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="284" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="285" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="286" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="287" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="288" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="289" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="290" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="291" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="292" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="293" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="294" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="295" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="296" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="297" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="298" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="299" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="300" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="301" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="302" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="303" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="304" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="305" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="306" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="307" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="308" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="309" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="310" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="311" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="312" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="313" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="314" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="315" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="316" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="317" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="318" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="319" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="320" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="321" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="322" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="323" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="324" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="325" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="326" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="327" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="328" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="329" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="330" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="331" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="332" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="333" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="334" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="335" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="336" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="337" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="338" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="339" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="340" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="341" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="342" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="343" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="344" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="345" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="346" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="347" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="348" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="349" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="350" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="351" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="352" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="353" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="354" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="355" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="356" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="357" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="358" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="359" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="360" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="361" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="362" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="363" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="364" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="365" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="366" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="367" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="368" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="369" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="370" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="371" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="372" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="373" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="374" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="375" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="376" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="377" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="378" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="379" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="380" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="381" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="382" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="383" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="384" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="385" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="386" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="387" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="388" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="389" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="390" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="391" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="392" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="393" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="394" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="395" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="396" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="397" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="398" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="399" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="400" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="401" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="402" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="403" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="404" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="405" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="406" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="407" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="408" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="409" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="410" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="411" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="412" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="413" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="414" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="415" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="416" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="417" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="418" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="419" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="420" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="421" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="422" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="423" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="424" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="425" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="426" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="427" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="428" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="429" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="430" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="431" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="432" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="433" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="434" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="435" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="436" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="437" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="438" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="439" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="440" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="441" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="442" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="443" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="444" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="445" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="446" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="447" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="448" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="449" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="450" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="451" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="452" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="453" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="454" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="455" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="456" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="457" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="458" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="459" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="460" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="461" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="462" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="463" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="464" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="465" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="466" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="467" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="468" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="469" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="470" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="471" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="472" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="473" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="474" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="475" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="476" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="477" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="478" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="479" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="480" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="481" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="482" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="483" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="484" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="485" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="486" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="487" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="488" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="489" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="490" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="491" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="492" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="493" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="494" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="495" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="496" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="497" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="498" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="499" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="500" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="501" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="502" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="503" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="504" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="505" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="506" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="507" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="508" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="509" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="510" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="511" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="512" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="513" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="514" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="515" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="516" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="517" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="518" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="519" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="520" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="521" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="522" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="523" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="524" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="525" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="526" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="527" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="528" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="529" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="530" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="531" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="532" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="533" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="534" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="535" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="536" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="537" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="538" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="539" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="540" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="541" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="542" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="543" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="544" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="545" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="546" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="547" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="548" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="549" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="550" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="551" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="552" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="553" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="554" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="555" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="556" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="557" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="558" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="559" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="560" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="561" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="562" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="563" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="564" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="565" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="566" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="567" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="568" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="569" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="570" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="571" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="572" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="573" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="574" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="575" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="576" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="577" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="578" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="579" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="580" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="581" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="582" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="583" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="584" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="585" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="586" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="587" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="588" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="589" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="590" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="591" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="592" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="593" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="594" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="595" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
   </sheetData>
   <autoFilter ref="A12:T112" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="9">

--- a/UCATS/pages/猫咪档案.xlsx
+++ b/UCATS/pages/猫咪档案.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD6EAE88-9EFB-4320-B833-0A96C8486112}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEDAE6FF-CCF9-4D8E-8F57-6F298AEE9405}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -615,10 +615,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>2022年12月28号</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>2022年12月01号</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -803,6 +799,10 @@
   </si>
   <si>
     <t>纯黑色，经常搞同性恋情 🤣🤣🤣</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022年10月28号</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1305,6 +1305,39 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1325,39 +1358,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="20">
@@ -1661,8 +1661,8 @@
   <dimension ref="A1:AC595"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="111" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="12" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K16" sqref="K16"/>
+      <pane ySplit="12" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N38" sqref="N38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -1721,21 +1721,21 @@
       <c r="A3" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="59" t="s">
+      <c r="B3" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="60"/>
+      <c r="C3" s="56"/>
       <c r="D3" s="2"/>
-      <c r="F3" s="56" t="s">
+      <c r="F3" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="57"/>
-      <c r="H3" s="58"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="69"/>
       <c r="I3" s="5"/>
-      <c r="J3" s="61" t="s">
+      <c r="J3" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="K3" s="62"/>
+      <c r="K3" s="58"/>
       <c r="L3" s="4"/>
       <c r="M3" s="13" t="s">
         <v>20</v>
@@ -1758,7 +1758,7 @@
       <c r="T3" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="U3" s="54" t="s">
+      <c r="U3" s="65" t="s">
         <v>36</v>
       </c>
       <c r="V3" s="7" t="s">
@@ -1798,7 +1798,7 @@
       <c r="T4" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="U4" s="55"/>
+      <c r="U4" s="66"/>
       <c r="X4" s="23" t="s">
         <v>52</v>
       </c>
@@ -1807,18 +1807,18 @@
       </c>
     </row>
     <row r="5" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="63" t="s">
+      <c r="B5" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="64"/>
-      <c r="D5" s="64"/>
-      <c r="E5" s="65"/>
-      <c r="H5" s="59" t="s">
+      <c r="C5" s="60"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="61"/>
+      <c r="H5" s="55" t="s">
         <v>41</v>
       </c>
-      <c r="I5" s="66"/>
-      <c r="J5" s="66"/>
-      <c r="K5" s="60"/>
+      <c r="I5" s="62"/>
+      <c r="J5" s="62"/>
+      <c r="K5" s="56"/>
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
       <c r="N5" s="25" t="s">
@@ -1833,7 +1833,7 @@
       <c r="T5" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="U5" s="55"/>
+      <c r="U5" s="66"/>
       <c r="X5" s="3"/>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.15">
@@ -1847,7 +1847,7 @@
       <c r="T6" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="U6" s="55" t="s">
+      <c r="U6" s="66" t="s">
         <v>37</v>
       </c>
       <c r="V6" s="7" t="s">
@@ -1894,7 +1894,7 @@
       <c r="T7" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="U7" s="55"/>
+      <c r="U7" s="66"/>
       <c r="X7" s="21">
         <v>2</v>
       </c>
@@ -1923,7 +1923,7 @@
       <c r="T8" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="U8" s="55" t="s">
+      <c r="U8" s="66" t="s">
         <v>38</v>
       </c>
       <c r="X8" s="21">
@@ -1954,7 +1954,7 @@
       <c r="T9" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="U9" s="55"/>
+      <c r="U9" s="66"/>
       <c r="X9" s="21">
         <v>4</v>
       </c>
@@ -1976,7 +1976,7 @@
         <v>80</v>
       </c>
       <c r="M10" s="4"/>
-      <c r="P10" s="52" t="s">
+      <c r="P10" s="63" t="s">
         <v>73</v>
       </c>
       <c r="Q10" s="31" t="s">
@@ -2010,7 +2010,7 @@
         <v>81</v>
       </c>
       <c r="M11" s="4"/>
-      <c r="P11" s="53"/>
+      <c r="P11" s="64"/>
       <c r="Q11" s="4"/>
       <c r="U11" s="34" t="s">
         <v>76</v>
@@ -2095,8 +2095,8 @@
       </c>
     </row>
     <row r="13" spans="1:29" ht="33" x14ac:dyDescent="0.3">
-      <c r="A13" s="67"/>
-      <c r="B13" s="68">
+      <c r="A13" s="52"/>
+      <c r="B13" s="53">
         <v>1</v>
       </c>
       <c r="C13" s="39" t="s">
@@ -2127,7 +2127,7 @@
       <c r="L13" s="41"/>
       <c r="M13" s="42"/>
       <c r="N13" s="39" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="O13" s="43">
         <v>2</v>
@@ -2135,7 +2135,7 @@
       <c r="P13" s="44"/>
       <c r="Q13" s="43"/>
       <c r="R13" s="39" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="S13" s="39"/>
       <c r="T13" s="38"/>
@@ -2148,8 +2148,8 @@
       <c r="AA13" s="38"/>
     </row>
     <row r="14" spans="1:29" ht="66" x14ac:dyDescent="0.3">
-      <c r="A14" s="67"/>
-      <c r="B14" s="68">
+      <c r="A14" s="52"/>
+      <c r="B14" s="53">
         <v>2</v>
       </c>
       <c r="C14" s="39" t="s">
@@ -2184,7 +2184,7 @@
         <v>43831</v>
       </c>
       <c r="N14" s="39" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O14" s="43">
         <v>6</v>
@@ -2192,10 +2192,10 @@
       <c r="P14" s="44"/>
       <c r="Q14" s="43"/>
       <c r="R14" s="39" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="S14" s="39" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="T14" s="38"/>
       <c r="U14" s="38"/>
@@ -2207,8 +2207,8 @@
       <c r="AA14" s="38"/>
     </row>
     <row r="15" spans="1:29" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A15" s="67"/>
-      <c r="B15" s="68">
+      <c r="A15" s="52"/>
+      <c r="B15" s="53">
         <v>3</v>
       </c>
       <c r="C15" s="39" t="s">
@@ -2239,7 +2239,7 @@
       <c r="L15" s="48"/>
       <c r="M15" s="42"/>
       <c r="N15" s="39" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="O15" s="38">
         <v>-1</v>
@@ -2247,7 +2247,7 @@
       <c r="P15" s="44"/>
       <c r="Q15" s="43"/>
       <c r="R15" s="39" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="S15" s="39"/>
       <c r="T15" s="38"/>
@@ -2260,8 +2260,8 @@
       <c r="AA15" s="38"/>
     </row>
     <row r="16" spans="1:29" ht="66" x14ac:dyDescent="0.3">
-      <c r="A16" s="67"/>
-      <c r="B16" s="68">
+      <c r="A16" s="52"/>
+      <c r="B16" s="53">
         <v>4</v>
       </c>
       <c r="C16" s="39" t="s">
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="J16" s="39" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="K16" s="38">
         <v>0</v>
@@ -2292,7 +2292,7 @@
       <c r="L16" s="42"/>
       <c r="M16" s="42"/>
       <c r="N16" s="39" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="O16" s="38">
         <v>0</v>
@@ -2300,10 +2300,10 @@
       <c r="P16" s="44"/>
       <c r="Q16" s="43"/>
       <c r="R16" s="39" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="S16" s="39" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="T16" s="38"/>
       <c r="U16" s="38"/>
@@ -2315,8 +2315,8 @@
       <c r="AA16" s="38"/>
     </row>
     <row r="17" spans="1:27" ht="33" x14ac:dyDescent="0.3">
-      <c r="A17" s="67"/>
-      <c r="B17" s="68">
+      <c r="A17" s="52"/>
+      <c r="B17" s="53">
         <v>5</v>
       </c>
       <c r="C17" s="39" t="s">
@@ -2347,7 +2347,7 @@
       <c r="L17" s="42"/>
       <c r="M17" s="42"/>
       <c r="N17" s="39" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="O17" s="47">
         <v>6</v>
@@ -2355,7 +2355,7 @@
       <c r="P17" s="44"/>
       <c r="Q17" s="43"/>
       <c r="R17" s="39" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="S17" s="39"/>
       <c r="T17" s="38"/>
@@ -2368,8 +2368,8 @@
       <c r="AA17" s="38"/>
     </row>
     <row r="18" spans="1:27" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A18" s="67"/>
-      <c r="B18" s="68">
+      <c r="A18" s="52"/>
+      <c r="B18" s="53">
         <v>6</v>
       </c>
       <c r="C18" s="39" t="s">
@@ -2398,11 +2398,11 @@
         <v>1</v>
       </c>
       <c r="L18" s="43" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M18" s="42"/>
       <c r="N18" s="39" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="O18" s="47">
         <v>6</v>
@@ -2410,12 +2410,12 @@
       <c r="P18" s="44"/>
       <c r="Q18" s="43"/>
       <c r="R18" s="39" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="S18" s="39"/>
       <c r="T18" s="38"/>
       <c r="U18" s="38" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="V18" s="38"/>
       <c r="W18" s="38"/>
@@ -2426,7 +2426,7 @@
     </row>
     <row r="19" spans="1:27" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A19" s="43"/>
-      <c r="B19" s="68">
+      <c r="B19" s="53">
         <v>7</v>
       </c>
       <c r="C19" s="39" t="s">
@@ -2465,7 +2465,7 @@
       <c r="P19" s="43"/>
       <c r="Q19" s="43"/>
       <c r="R19" s="39" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="S19" s="39"/>
       <c r="T19" s="43"/>
@@ -2479,7 +2479,7 @@
     </row>
     <row r="20" spans="1:27" customFormat="1" ht="66" x14ac:dyDescent="0.3">
       <c r="A20" s="43"/>
-      <c r="B20" s="68">
+      <c r="B20" s="53">
         <v>8</v>
       </c>
       <c r="C20" s="39" t="s">
@@ -2502,7 +2502,7 @@
         <v>0</v>
       </c>
       <c r="J20" s="39" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="K20" s="38">
         <v>0</v>
@@ -2518,7 +2518,7 @@
       <c r="P20" s="43"/>
       <c r="Q20" s="43"/>
       <c r="R20" s="39" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="S20" s="39"/>
       <c r="T20" s="43"/>
@@ -2532,7 +2532,7 @@
     </row>
     <row r="21" spans="1:27" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A21" s="43"/>
-      <c r="B21" s="68">
+      <c r="B21" s="53">
         <v>9</v>
       </c>
       <c r="C21" s="39" t="s">
@@ -2571,12 +2571,12 @@
       <c r="P21" s="43"/>
       <c r="Q21" s="43"/>
       <c r="R21" s="39" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="S21" s="39"/>
       <c r="T21" s="43"/>
       <c r="U21" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="V21" s="43"/>
       <c r="W21" s="43"/>
@@ -2587,7 +2587,7 @@
     </row>
     <row r="22" spans="1:27" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A22" s="43"/>
-      <c r="B22" s="68">
+      <c r="B22" s="53">
         <v>10</v>
       </c>
       <c r="C22" s="39" t="s">
@@ -2596,7 +2596,7 @@
       <c r="D22" s="38">
         <v>1</v>
       </c>
-      <c r="E22" s="69" t="s">
+      <c r="E22" s="54" t="s">
         <v>145</v>
       </c>
       <c r="F22" s="43" t="s">
@@ -2609,7 +2609,7 @@
         <v>128</v>
       </c>
       <c r="I22" s="46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22" s="39" t="s">
         <v>50</v>
@@ -2618,11 +2618,11 @@
         <v>1</v>
       </c>
       <c r="L22" s="43" t="s">
-        <v>146</v>
+        <v>194</v>
       </c>
       <c r="M22" s="43"/>
       <c r="N22" s="39" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="O22" s="43">
         <v>6</v>
@@ -2630,14 +2630,14 @@
       <c r="P22" s="43"/>
       <c r="Q22" s="43"/>
       <c r="R22" s="39" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="S22" s="39" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="T22" s="43"/>
       <c r="U22" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="V22" s="43"/>
       <c r="W22" s="43"/>
@@ -2648,7 +2648,7 @@
     </row>
     <row r="23" spans="1:27" customFormat="1" ht="66" x14ac:dyDescent="0.3">
       <c r="A23" s="43"/>
-      <c r="B23" s="68">
+      <c r="B23" s="53">
         <v>11</v>
       </c>
       <c r="C23" s="39" t="s">
@@ -2679,7 +2679,7 @@
       <c r="L23" s="43"/>
       <c r="M23" s="43"/>
       <c r="N23" s="39" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="O23" s="43">
         <v>0</v>
@@ -2687,7 +2687,7 @@
       <c r="P23" s="43"/>
       <c r="Q23" s="43"/>
       <c r="R23" s="39" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="S23" s="39"/>
       <c r="T23" s="43"/>
@@ -2701,7 +2701,7 @@
     </row>
     <row r="24" spans="1:27" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A24" s="43"/>
-      <c r="B24" s="68">
+      <c r="B24" s="53">
         <v>12</v>
       </c>
       <c r="C24" s="39" t="s">
@@ -2730,13 +2730,13 @@
         <v>1</v>
       </c>
       <c r="L24" s="43" t="s">
-        <v>146</v>
+        <v>194</v>
       </c>
       <c r="M24" s="50">
         <v>44713</v>
       </c>
       <c r="N24" s="39" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="O24" s="43">
         <v>6</v>
@@ -2744,12 +2744,12 @@
       <c r="P24" s="43"/>
       <c r="Q24" s="43"/>
       <c r="R24" s="39" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="S24" s="39"/>
       <c r="T24" s="43"/>
       <c r="U24" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="V24" s="43"/>
       <c r="W24" s="43"/>
@@ -2760,7 +2760,7 @@
     </row>
     <row r="25" spans="1:27" customFormat="1" ht="33" x14ac:dyDescent="0.3">
       <c r="A25" s="43"/>
-      <c r="B25" s="68">
+      <c r="B25" s="53">
         <v>13</v>
       </c>
       <c r="C25" s="51" t="s">
@@ -2791,7 +2791,7 @@
       <c r="L25" s="43"/>
       <c r="M25" s="43"/>
       <c r="N25" s="39" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="O25" s="43">
         <v>6</v>
@@ -2799,7 +2799,7 @@
       <c r="P25" s="43"/>
       <c r="Q25" s="43"/>
       <c r="R25" s="51" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="S25" s="51"/>
       <c r="T25" s="43"/>
@@ -2813,7 +2813,7 @@
     </row>
     <row r="26" spans="1:27" customFormat="1" ht="33" x14ac:dyDescent="0.3">
       <c r="A26" s="43"/>
-      <c r="B26" s="68">
+      <c r="B26" s="53">
         <v>14</v>
       </c>
       <c r="C26" s="39" t="s">
@@ -2852,12 +2852,12 @@
       <c r="P26" s="43"/>
       <c r="Q26" s="43"/>
       <c r="R26" s="51" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="S26" s="39"/>
       <c r="T26" s="43"/>
       <c r="U26" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="V26" s="43"/>
       <c r="W26" s="43"/>
@@ -2868,7 +2868,7 @@
     </row>
     <row r="27" spans="1:27" customFormat="1" ht="33" x14ac:dyDescent="0.3">
       <c r="A27" s="43"/>
-      <c r="B27" s="68">
+      <c r="B27" s="53">
         <v>15</v>
       </c>
       <c r="C27" s="39" t="s">
@@ -2907,7 +2907,7 @@
       <c r="P27" s="43"/>
       <c r="Q27" s="43"/>
       <c r="R27" s="51" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="S27" s="39"/>
       <c r="T27" s="43"/>
@@ -2921,7 +2921,7 @@
     </row>
     <row r="28" spans="1:27" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A28" s="43"/>
-      <c r="B28" s="68">
+      <c r="B28" s="53">
         <v>16</v>
       </c>
       <c r="C28" s="39" t="s">
@@ -2960,7 +2960,7 @@
       <c r="P28" s="43"/>
       <c r="Q28" s="43"/>
       <c r="R28" s="51" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="S28" s="39"/>
       <c r="T28" s="43"/>
@@ -2974,7 +2974,7 @@
     </row>
     <row r="29" spans="1:27" customFormat="1" ht="33" x14ac:dyDescent="0.3">
       <c r="A29" s="43"/>
-      <c r="B29" s="68">
+      <c r="B29" s="53">
         <v>17</v>
       </c>
       <c r="C29" s="39" t="s">
@@ -3005,7 +3005,7 @@
       <c r="L29" s="43"/>
       <c r="M29" s="43"/>
       <c r="N29" s="39" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="O29" s="43">
         <v>6</v>
@@ -3013,7 +3013,7 @@
       <c r="P29" s="43"/>
       <c r="Q29" s="43"/>
       <c r="R29" s="39" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="S29" s="39"/>
       <c r="T29" s="43"/>
@@ -3027,7 +3027,7 @@
     </row>
     <row r="30" spans="1:27" customFormat="1" ht="33" x14ac:dyDescent="0.3">
       <c r="A30" s="43"/>
-      <c r="B30" s="68">
+      <c r="B30" s="53">
         <v>18</v>
       </c>
       <c r="C30" s="39" t="s">
@@ -3058,7 +3058,7 @@
       <c r="L30" s="43"/>
       <c r="M30" s="43"/>
       <c r="N30" s="39" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="O30" s="43">
         <v>6</v>
@@ -3066,7 +3066,7 @@
       <c r="P30" s="43"/>
       <c r="Q30" s="43"/>
       <c r="R30" s="39" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="S30" s="39"/>
       <c r="T30" s="43"/>
@@ -3080,7 +3080,7 @@
     </row>
     <row r="31" spans="1:27" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A31" s="43"/>
-      <c r="B31" s="68">
+      <c r="B31" s="53">
         <v>19</v>
       </c>
       <c r="C31" s="39" t="s">
@@ -3119,12 +3119,12 @@
       <c r="P31" s="43"/>
       <c r="Q31" s="43"/>
       <c r="R31" s="39" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="S31" s="39"/>
       <c r="T31" s="43"/>
       <c r="U31" s="43" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="V31" s="43"/>
       <c r="W31" s="43"/>
@@ -3135,7 +3135,7 @@
     </row>
     <row r="32" spans="1:27" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A32" s="43"/>
-      <c r="B32" s="68">
+      <c r="B32" s="53">
         <v>20</v>
       </c>
       <c r="C32" s="39" t="s">
@@ -3158,7 +3158,7 @@
         <v>-1</v>
       </c>
       <c r="J32" s="39" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="K32" s="38">
         <v>-1</v>
@@ -3166,7 +3166,7 @@
       <c r="L32" s="43"/>
       <c r="M32" s="43"/>
       <c r="N32" s="39" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="O32" s="43">
         <v>-1</v>
@@ -3186,7 +3186,7 @@
     </row>
     <row r="33" spans="1:27" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A33" s="43"/>
-      <c r="B33" s="68">
+      <c r="B33" s="53">
         <v>21</v>
       </c>
       <c r="C33" s="39" t="s">
@@ -3209,7 +3209,7 @@
         <v>-1</v>
       </c>
       <c r="J33" s="39" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="K33" s="38">
         <v>-1</v>
@@ -3217,7 +3217,7 @@
       <c r="L33" s="43"/>
       <c r="M33" s="43"/>
       <c r="N33" s="39" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="O33" s="43">
         <v>-1</v>
@@ -3237,7 +3237,7 @@
     </row>
     <row r="34" spans="1:27" customFormat="1" ht="33" x14ac:dyDescent="0.3">
       <c r="A34" s="43"/>
-      <c r="B34" s="68">
+      <c r="B34" s="53">
         <v>22</v>
       </c>
       <c r="C34" s="39" t="s">
@@ -3268,7 +3268,7 @@
       <c r="L34" s="43"/>
       <c r="M34" s="43"/>
       <c r="N34" s="39" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="O34" s="43">
         <v>6</v>
@@ -3279,7 +3279,7 @@
       <c r="S34" s="39"/>
       <c r="T34" s="43"/>
       <c r="U34" s="43" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="V34" s="43"/>
       <c r="W34" s="43"/>
@@ -3290,7 +3290,7 @@
     </row>
     <row r="35" spans="1:27" customFormat="1" ht="33" x14ac:dyDescent="0.3">
       <c r="A35" s="43"/>
-      <c r="B35" s="68">
+      <c r="B35" s="53">
         <v>23</v>
       </c>
       <c r="C35" s="39" t="s">
@@ -3321,7 +3321,7 @@
       <c r="L35" s="43"/>
       <c r="M35" s="43"/>
       <c r="N35" s="39" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="O35" s="43">
         <v>6</v>
@@ -3332,7 +3332,7 @@
       <c r="S35" s="39"/>
       <c r="T35" s="43"/>
       <c r="U35" s="43" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="V35" s="43"/>
       <c r="W35" s="43"/>
@@ -3343,7 +3343,7 @@
     </row>
     <row r="36" spans="1:27" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A36" s="43"/>
-      <c r="B36" s="68">
+      <c r="B36" s="53">
         <v>24</v>
       </c>
       <c r="C36" s="39" t="s">
@@ -3394,7 +3394,7 @@
     </row>
     <row r="37" spans="1:27" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A37" s="43"/>
-      <c r="B37" s="68">
+      <c r="B37" s="53">
         <v>25</v>
       </c>
       <c r="C37" s="39" t="s">
@@ -3423,7 +3423,7 @@
         <v>1</v>
       </c>
       <c r="L37" s="43" t="s">
-        <v>146</v>
+        <v>194</v>
       </c>
       <c r="M37" s="43"/>
       <c r="N37" s="39" t="s">
@@ -3438,7 +3438,7 @@
       <c r="S37" s="39"/>
       <c r="T37" s="43"/>
       <c r="U37" s="43" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="V37" s="43"/>
       <c r="W37" s="43"/>
@@ -3449,7 +3449,7 @@
     </row>
     <row r="38" spans="1:27" customFormat="1" ht="33" x14ac:dyDescent="0.3">
       <c r="A38" s="43"/>
-      <c r="B38" s="68">
+      <c r="B38" s="53">
         <v>26</v>
       </c>
       <c r="C38" s="39" t="s">
@@ -3493,7 +3493,7 @@
       <c r="S38" s="39"/>
       <c r="T38" s="43"/>
       <c r="U38" s="43" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="V38" s="43"/>
       <c r="W38" s="43"/>
@@ -3504,7 +3504,7 @@
     </row>
     <row r="39" spans="1:27" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A39" s="43"/>
-      <c r="B39" s="68">
+      <c r="B39" s="53">
         <v>27</v>
       </c>
       <c r="C39" s="39" t="s">
@@ -3514,7 +3514,7 @@
         <v>0</v>
       </c>
       <c r="E39" s="43" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F39" s="43" t="s">
         <v>124</v>
@@ -3548,7 +3548,7 @@
       <c r="S39" s="39"/>
       <c r="T39" s="43"/>
       <c r="U39" s="43" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="V39" s="43"/>
       <c r="W39" s="43"/>
@@ -3559,7 +3559,7 @@
     </row>
     <row r="40" spans="1:27" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A40" s="43"/>
-      <c r="B40" s="68">
+      <c r="B40" s="53">
         <v>28</v>
       </c>
       <c r="C40" s="39" t="s">
@@ -3590,7 +3590,7 @@
       <c r="L40" s="43"/>
       <c r="M40" s="43"/>
       <c r="N40" s="39" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="O40" s="43">
         <v>6</v>
@@ -3610,7 +3610,7 @@
     </row>
     <row r="41" spans="1:27" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A41" s="43"/>
-      <c r="B41" s="68">
+      <c r="B41" s="53">
         <v>29</v>
       </c>
       <c r="C41" s="39" t="s">
@@ -3641,7 +3641,7 @@
       <c r="L41" s="43"/>
       <c r="M41" s="43"/>
       <c r="N41" s="39" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="O41" s="43">
         <v>0</v>
@@ -3661,7 +3661,7 @@
     </row>
     <row r="42" spans="1:27" customFormat="1" ht="33" x14ac:dyDescent="0.3">
       <c r="A42" s="43"/>
-      <c r="B42" s="68">
+      <c r="B42" s="53">
         <v>30</v>
       </c>
       <c r="C42" s="39" t="s">
@@ -3692,7 +3692,7 @@
       <c r="L42" s="43"/>
       <c r="M42" s="43"/>
       <c r="N42" s="39" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="O42" s="43">
         <v>5</v>
@@ -3701,7 +3701,7 @@
       <c r="Q42" s="43"/>
       <c r="R42" s="43"/>
       <c r="S42" s="39" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="T42" s="43"/>
       <c r="U42" s="43"/>
@@ -6396,15 +6396,15 @@
   </sheetData>
   <autoFilter ref="A12:T112" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="9">
+    <mergeCell ref="U3:U5"/>
+    <mergeCell ref="U6:U7"/>
+    <mergeCell ref="U8:U9"/>
+    <mergeCell ref="F3:H3"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="J3:K3"/>
     <mergeCell ref="B5:E5"/>
     <mergeCell ref="H5:K5"/>
     <mergeCell ref="P10:P11"/>
-    <mergeCell ref="U3:U5"/>
-    <mergeCell ref="U6:U7"/>
-    <mergeCell ref="U8:U9"/>
-    <mergeCell ref="F3:H3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/UCATS/pages/猫咪档案.xlsx
+++ b/UCATS/pages/猫咪档案.xlsx
@@ -3,15 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEDAE6FF-CCF9-4D8E-8F57-6F298AEE9405}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10C46E77-F3DA-41FB-BB7C-A4FF23323BC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-30" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="校内喵" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">校内喵!$A$12:$T$112</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">校内喵!$A$12:$U$114</definedName>
   </definedNames>
   <calcPr calcId="150001"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="204">
   <si>
     <t>ID</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -622,15 +622,6 @@
     <t>疑似菜菜 格力高 憨八嘎的兄弟</t>
   </si>
   <si>
-    <t>爆米花、一点白的兄弟</t>
-  </si>
-  <si>
-    <t>爆米花、脸谱的兄弟</t>
-  </si>
-  <si>
-    <t>脸谱、一点白的兄弟</t>
-  </si>
-  <si>
     <t>大黑被送到救助站，随时接受领养</t>
   </si>
   <si>
@@ -803,6 +794,54 @@
   </si>
   <si>
     <t>2022年10月28号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>疫苗</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>汉堡</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>贴地走</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>橘白</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>许久未见</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">西区 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>花纹橘猫。白围脖，很胖哒。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>花纹橘猫。白手套，很胖很胆小，贴着地走路。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>爆米花、一点白、汉堡的兄弟</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>爆米花、脸谱、汉堡的兄弟</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>脸谱、一点白、汉堡的兄弟</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>爆米花、脸谱、一点白的兄弟</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1314,6 +1353,27 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1336,27 +1396,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1658,11 +1697,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AC595"/>
+  <dimension ref="A1:AD597"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="111" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="12" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N38" sqref="N38"/>
+      <selection pane="bottomLeft" activeCell="T12" sqref="T12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -1680,25 +1719,26 @@
     <col min="11" max="11" width="8.875" style="3"/>
     <col min="12" max="12" width="13.5" style="8" customWidth="1"/>
     <col min="13" max="13" width="12.875" style="8" customWidth="1"/>
-    <col min="14" max="14" width="40.375" style="3" customWidth="1"/>
-    <col min="15" max="15" width="7.125" style="3" customWidth="1"/>
-    <col min="16" max="16" width="7.625" style="4" customWidth="1"/>
-    <col min="17" max="17" width="7.125" style="3" customWidth="1"/>
-    <col min="18" max="18" width="29" style="3" customWidth="1"/>
-    <col min="19" max="19" width="33" style="3" customWidth="1"/>
-    <col min="20" max="20" width="18.875" style="3" customWidth="1"/>
-    <col min="21" max="21" width="20.125" style="3" customWidth="1"/>
-    <col min="22" max="23" width="17.625" style="3" customWidth="1"/>
-    <col min="24" max="24" width="15.5" style="12" customWidth="1"/>
-    <col min="25" max="25" width="12.5" style="3" customWidth="1"/>
-    <col min="26" max="26" width="8.875" style="3"/>
-    <col min="27" max="27" width="13.5" style="3" customWidth="1"/>
-    <col min="28" max="28" width="8.875" style="3"/>
-    <col min="29" max="29" width="10.625" style="3" customWidth="1"/>
-    <col min="30" max="16384" width="8.875" style="3"/>
+    <col min="14" max="14" width="6.625" style="8" customWidth="1"/>
+    <col min="15" max="15" width="40.375" style="3" customWidth="1"/>
+    <col min="16" max="16" width="7.125" style="3" customWidth="1"/>
+    <col min="17" max="17" width="7.625" style="4" customWidth="1"/>
+    <col min="18" max="18" width="7.125" style="3" customWidth="1"/>
+    <col min="19" max="19" width="29" style="3" customWidth="1"/>
+    <col min="20" max="20" width="33" style="3" customWidth="1"/>
+    <col min="21" max="21" width="18.875" style="3" customWidth="1"/>
+    <col min="22" max="22" width="20.125" style="3" customWidth="1"/>
+    <col min="23" max="24" width="17.625" style="3" customWidth="1"/>
+    <col min="25" max="25" width="15.5" style="12" customWidth="1"/>
+    <col min="26" max="26" width="12.5" style="3" customWidth="1"/>
+    <col min="27" max="27" width="8.875" style="3"/>
+    <col min="28" max="28" width="13.5" style="3" customWidth="1"/>
+    <col min="29" max="29" width="8.875" style="3"/>
+    <col min="30" max="30" width="10.625" style="3" customWidth="1"/>
+    <col min="31" max="16384" width="8.875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>43</v>
       </c>
@@ -1712,165 +1752,169 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
       <c r="E2" s="1"/>
       <c r="I2" s="5"/>
       <c r="K2" s="1"/>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="55" t="s">
+      <c r="B3" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="56"/>
+      <c r="C3" s="63"/>
       <c r="D3" s="2"/>
-      <c r="F3" s="67" t="s">
+      <c r="F3" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="68"/>
-      <c r="H3" s="69"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="61"/>
       <c r="I3" s="5"/>
-      <c r="J3" s="57" t="s">
+      <c r="J3" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="K3" s="58"/>
+      <c r="K3" s="65"/>
       <c r="L3" s="4"/>
       <c r="M3" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="N3" s="14" t="s">
+      <c r="N3" s="13"/>
+      <c r="O3" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="O3" s="7" t="s">
+      <c r="P3" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="P3" s="15" t="s">
+      <c r="Q3" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="R3" s="7" t="s">
+      <c r="S3" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="S3" s="16">
+      <c r="T3" s="16">
         <v>6</v>
       </c>
-      <c r="T3" s="17" t="s">
+      <c r="U3" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="U3" s="65" t="s">
+      <c r="V3" s="57" t="s">
         <v>36</v>
       </c>
-      <c r="V3" s="7" t="s">
+      <c r="W3" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="W3" s="7"/>
-      <c r="X3" s="16">
-        <v>0</v>
-      </c>
-      <c r="Y3" s="18" t="s">
+      <c r="X3" s="7"/>
+      <c r="Y3" s="16">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="AA3" s="7" t="s">
+      <c r="AB3" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="AB3" s="9" t="s">
+      <c r="AC3" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="AC3" s="10" t="s">
+      <c r="AD3" s="10" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
       <c r="E4" s="1"/>
       <c r="I4" s="5"/>
       <c r="L4" s="4"/>
       <c r="M4" s="4"/>
-      <c r="N4" s="19" t="s">
+      <c r="N4" s="4"/>
+      <c r="O4" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="P4" s="20" t="s">
+      <c r="Q4" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="S4" s="21">
+      <c r="T4" s="21">
         <v>5</v>
       </c>
-      <c r="T4" s="22" t="s">
+      <c r="U4" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="U4" s="66"/>
-      <c r="X4" s="23" t="s">
+      <c r="V4" s="58"/>
+      <c r="Y4" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="Y4" s="24" t="s">
+      <c r="Z4" s="24" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="59" t="s">
+    <row r="5" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="66" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="60"/>
-      <c r="D5" s="60"/>
-      <c r="E5" s="61"/>
-      <c r="H5" s="55" t="s">
+      <c r="C5" s="67"/>
+      <c r="D5" s="67"/>
+      <c r="E5" s="68"/>
+      <c r="H5" s="62" t="s">
         <v>41</v>
       </c>
-      <c r="I5" s="62"/>
-      <c r="J5" s="62"/>
-      <c r="K5" s="56"/>
+      <c r="I5" s="69"/>
+      <c r="J5" s="69"/>
+      <c r="K5" s="63"/>
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
-      <c r="N5" s="25" t="s">
+      <c r="N5" s="4"/>
+      <c r="O5" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="P5" s="26" t="s">
+      <c r="Q5" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="S5" s="21">
+      <c r="T5" s="21">
         <v>4</v>
       </c>
-      <c r="T5" s="22" t="s">
+      <c r="U5" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="U5" s="66"/>
-      <c r="X5" s="3"/>
-    </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="V5" s="58"/>
+      <c r="Y5" s="3"/>
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.15">
       <c r="F6" s="11"/>
       <c r="G6" s="11"/>
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
-      <c r="S6" s="21">
+      <c r="N6" s="4"/>
+      <c r="T6" s="21">
         <v>3</v>
       </c>
-      <c r="T6" s="22" t="s">
+      <c r="U6" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="U6" s="66" t="s">
+      <c r="V6" s="58" t="s">
         <v>37</v>
       </c>
-      <c r="V6" s="7" t="s">
+      <c r="W6" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="W6" s="7"/>
-      <c r="X6" s="16">
+      <c r="X6" s="7"/>
+      <c r="Y6" s="16">
         <v>1</v>
       </c>
-      <c r="Y6" s="18" t="s">
+      <c r="Z6" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="AA6" s="7" t="s">
+      <c r="AB6" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="AB6" s="9" t="s">
+      <c r="AC6" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="AC6" s="10" t="s">
+      <c r="AD6" s="10" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.15">
       <c r="C7" s="11"/>
       <c r="D7" s="11"/>
       <c r="E7" s="11"/>
@@ -1879,30 +1923,31 @@
       <c r="I7" s="4"/>
       <c r="L7" s="4"/>
       <c r="M7" s="4"/>
-      <c r="O7" s="7" t="s">
+      <c r="N7" s="4"/>
+      <c r="P7" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="P7" s="27" t="s">
+      <c r="Q7" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="Q7" s="28" t="s">
+      <c r="R7" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="S7" s="21">
+      <c r="T7" s="21">
         <v>2</v>
       </c>
-      <c r="T7" s="22" t="s">
+      <c r="U7" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="U7" s="66"/>
-      <c r="X7" s="21">
+      <c r="V7" s="58"/>
+      <c r="Y7" s="21">
         <v>2</v>
       </c>
-      <c r="Y7" s="29" t="s">
+      <c r="Z7" s="29" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.15">
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
@@ -1911,29 +1956,30 @@
       <c r="I8" s="4"/>
       <c r="L8" s="4"/>
       <c r="M8" s="4"/>
-      <c r="P8" s="30" t="s">
+      <c r="N8" s="4"/>
+      <c r="Q8" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="Q8" s="35" t="s">
+      <c r="R8" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="S8" s="21">
+      <c r="T8" s="21">
         <v>1</v>
       </c>
-      <c r="T8" s="22" t="s">
+      <c r="U8" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="U8" s="66" t="s">
+      <c r="V8" s="58" t="s">
         <v>38</v>
       </c>
-      <c r="X8" s="21">
+      <c r="Y8" s="21">
         <v>3</v>
       </c>
-      <c r="Y8" s="29" t="s">
+      <c r="Z8" s="29" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.15">
       <c r="C9" s="11"/>
       <c r="D9" s="11"/>
       <c r="E9" s="11"/>
@@ -1942,27 +1988,28 @@
       <c r="I9" s="4"/>
       <c r="L9" s="4"/>
       <c r="M9" s="4"/>
-      <c r="P9" s="30" t="s">
+      <c r="N9" s="4"/>
+      <c r="Q9" s="30" t="s">
         <v>70</v>
       </c>
-      <c r="Q9" s="36" t="s">
+      <c r="R9" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="S9" s="21">
-        <v>0</v>
-      </c>
-      <c r="T9" s="22" t="s">
+      <c r="T9" s="21">
+        <v>0</v>
+      </c>
+      <c r="U9" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="U9" s="66"/>
-      <c r="X9" s="21">
+      <c r="V9" s="58"/>
+      <c r="Y9" s="21">
         <v>4</v>
       </c>
-      <c r="Y9" s="29" t="s">
+      <c r="Z9" s="29" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="10" spans="1:29" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:30" ht="15.75" x14ac:dyDescent="0.15">
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
       <c r="E10" s="11"/>
@@ -1976,27 +2023,28 @@
         <v>80</v>
       </c>
       <c r="M10" s="4"/>
-      <c r="P10" s="63" t="s">
+      <c r="N10" s="4"/>
+      <c r="Q10" s="55" t="s">
         <v>73</v>
       </c>
-      <c r="Q10" s="31" t="s">
+      <c r="R10" s="31" t="s">
         <v>74</v>
       </c>
-      <c r="S10" s="23">
+      <c r="T10" s="23">
         <v>-1</v>
       </c>
-      <c r="T10" s="32" t="s">
+      <c r="U10" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="U10" s="33"/>
-      <c r="X10" s="23">
+      <c r="V10" s="33"/>
+      <c r="Y10" s="23">
         <v>5</v>
       </c>
-      <c r="Y10" s="24" t="s">
+      <c r="Z10" s="24" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="11" spans="1:29" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" ht="15.75" x14ac:dyDescent="0.2">
       <c r="F11" s="34" t="s">
         <v>67</v>
       </c>
@@ -2010,14 +2058,15 @@
         <v>81</v>
       </c>
       <c r="M11" s="4"/>
-      <c r="P11" s="64"/>
-      <c r="Q11" s="4"/>
-      <c r="U11" s="34" t="s">
+      <c r="N11" s="4"/>
+      <c r="Q11" s="56"/>
+      <c r="R11" s="4"/>
+      <c r="V11" s="34" t="s">
         <v>76</v>
       </c>
-      <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
@@ -2057,44 +2106,47 @@
       <c r="M12" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="N12" s="3" t="s">
+      <c r="N12" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="O12" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="O12" s="3" t="s">
+      <c r="P12" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="P12" s="4" t="s">
+      <c r="Q12" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="Q12" s="22" t="s">
+      <c r="R12" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="R12" s="3" t="s">
+      <c r="S12" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="S12" s="3" t="s">
+      <c r="T12" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="T12" s="3" t="s">
+      <c r="U12" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="U12" s="3" t="s">
+      <c r="V12" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="V12" s="3" t="s">
+      <c r="W12" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="W12" s="3" t="s">
+      <c r="X12" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="X12" s="3" t="s">
+      <c r="Y12" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="Y12" s="3" t="s">
+      <c r="Z12" s="3" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="13" spans="1:29" ht="33" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:30" ht="33" x14ac:dyDescent="0.3">
       <c r="A13" s="52"/>
       <c r="B13" s="53">
         <v>1</v>
@@ -2126,19 +2178,21 @@
       </c>
       <c r="L13" s="41"/>
       <c r="M13" s="42"/>
-      <c r="N13" s="39" t="s">
-        <v>166</v>
-      </c>
-      <c r="O13" s="43">
+      <c r="N13" s="42">
+        <v>0</v>
+      </c>
+      <c r="O13" s="39" t="s">
+        <v>163</v>
+      </c>
+      <c r="P13" s="43">
         <v>2</v>
       </c>
-      <c r="P13" s="44"/>
-      <c r="Q13" s="43"/>
-      <c r="R13" s="39" t="s">
-        <v>161</v>
-      </c>
-      <c r="S13" s="39"/>
-      <c r="T13" s="38"/>
+      <c r="Q13" s="44"/>
+      <c r="R13" s="43"/>
+      <c r="S13" s="39" t="s">
+        <v>158</v>
+      </c>
+      <c r="T13" s="39"/>
       <c r="U13" s="38"/>
       <c r="V13" s="38"/>
       <c r="W13" s="38"/>
@@ -2146,8 +2200,9 @@
       <c r="Y13" s="38"/>
       <c r="Z13" s="38"/>
       <c r="AA13" s="38"/>
-    </row>
-    <row r="14" spans="1:29" ht="66" x14ac:dyDescent="0.3">
+      <c r="AB13" s="38"/>
+    </row>
+    <row r="14" spans="1:30" ht="66" x14ac:dyDescent="0.3">
       <c r="A14" s="52"/>
       <c r="B14" s="53">
         <v>2</v>
@@ -2183,21 +2238,23 @@
       <c r="M14" s="45">
         <v>43831</v>
       </c>
-      <c r="N14" s="39" t="s">
-        <v>162</v>
-      </c>
-      <c r="O14" s="43">
+      <c r="N14" s="42">
+        <v>0</v>
+      </c>
+      <c r="O14" s="39" t="s">
+        <v>159</v>
+      </c>
+      <c r="P14" s="43">
         <v>6</v>
       </c>
-      <c r="P14" s="44"/>
-      <c r="Q14" s="43"/>
-      <c r="R14" s="39" t="s">
-        <v>171</v>
-      </c>
+      <c r="Q14" s="44"/>
+      <c r="R14" s="43"/>
       <c r="S14" s="39" t="s">
-        <v>188</v>
-      </c>
-      <c r="T14" s="38"/>
+        <v>168</v>
+      </c>
+      <c r="T14" s="39" t="s">
+        <v>185</v>
+      </c>
       <c r="U14" s="38"/>
       <c r="V14" s="38"/>
       <c r="W14" s="38"/>
@@ -2205,8 +2262,9 @@
       <c r="Y14" s="38"/>
       <c r="Z14" s="38"/>
       <c r="AA14" s="38"/>
-    </row>
-    <row r="15" spans="1:29" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="AB14" s="38"/>
+    </row>
+    <row r="15" spans="1:30" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A15" s="52"/>
       <c r="B15" s="53">
         <v>3</v>
@@ -2238,19 +2296,21 @@
       </c>
       <c r="L15" s="48"/>
       <c r="M15" s="42"/>
-      <c r="N15" s="39" t="s">
-        <v>165</v>
-      </c>
-      <c r="O15" s="38">
+      <c r="N15" s="42">
+        <v>0</v>
+      </c>
+      <c r="O15" s="39" t="s">
+        <v>162</v>
+      </c>
+      <c r="P15" s="38">
         <v>-1</v>
       </c>
-      <c r="P15" s="44"/>
-      <c r="Q15" s="43"/>
-      <c r="R15" s="39" t="s">
-        <v>172</v>
-      </c>
-      <c r="S15" s="39"/>
-      <c r="T15" s="38"/>
+      <c r="Q15" s="44"/>
+      <c r="R15" s="43"/>
+      <c r="S15" s="39" t="s">
+        <v>169</v>
+      </c>
+      <c r="T15" s="39"/>
       <c r="U15" s="38"/>
       <c r="V15" s="38"/>
       <c r="W15" s="38"/>
@@ -2258,8 +2318,9 @@
       <c r="Y15" s="38"/>
       <c r="Z15" s="38"/>
       <c r="AA15" s="38"/>
-    </row>
-    <row r="16" spans="1:29" ht="66" x14ac:dyDescent="0.3">
+      <c r="AB15" s="38"/>
+    </row>
+    <row r="16" spans="1:30" ht="66" x14ac:dyDescent="0.3">
       <c r="A16" s="52"/>
       <c r="B16" s="53">
         <v>4</v>
@@ -2284,28 +2345,30 @@
         <v>0</v>
       </c>
       <c r="J16" s="39" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="K16" s="38">
         <v>0</v>
       </c>
       <c r="L16" s="42"/>
       <c r="M16" s="42"/>
-      <c r="N16" s="39" t="s">
-        <v>164</v>
-      </c>
-      <c r="O16" s="38">
-        <v>0</v>
-      </c>
-      <c r="P16" s="44"/>
-      <c r="Q16" s="43"/>
-      <c r="R16" s="39" t="s">
-        <v>173</v>
-      </c>
+      <c r="N16" s="42">
+        <v>0</v>
+      </c>
+      <c r="O16" s="39" t="s">
+        <v>161</v>
+      </c>
+      <c r="P16" s="38">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="44"/>
+      <c r="R16" s="43"/>
       <c r="S16" s="39" t="s">
-        <v>163</v>
-      </c>
-      <c r="T16" s="38"/>
+        <v>170</v>
+      </c>
+      <c r="T16" s="39" t="s">
+        <v>160</v>
+      </c>
       <c r="U16" s="38"/>
       <c r="V16" s="38"/>
       <c r="W16" s="38"/>
@@ -2313,8 +2376,9 @@
       <c r="Y16" s="38"/>
       <c r="Z16" s="38"/>
       <c r="AA16" s="38"/>
-    </row>
-    <row r="17" spans="1:27" ht="33" x14ac:dyDescent="0.3">
+      <c r="AB16" s="38"/>
+    </row>
+    <row r="17" spans="1:28" ht="33" x14ac:dyDescent="0.3">
       <c r="A17" s="52"/>
       <c r="B17" s="53">
         <v>5</v>
@@ -2346,19 +2410,21 @@
       </c>
       <c r="L17" s="42"/>
       <c r="M17" s="42"/>
-      <c r="N17" s="39" t="s">
-        <v>167</v>
-      </c>
-      <c r="O17" s="47">
+      <c r="N17" s="42">
+        <v>0</v>
+      </c>
+      <c r="O17" s="39" t="s">
+        <v>164</v>
+      </c>
+      <c r="P17" s="47">
         <v>6</v>
       </c>
-      <c r="P17" s="44"/>
-      <c r="Q17" s="43"/>
-      <c r="R17" s="39" t="s">
-        <v>174</v>
-      </c>
-      <c r="S17" s="39"/>
-      <c r="T17" s="38"/>
+      <c r="Q17" s="44"/>
+      <c r="R17" s="43"/>
+      <c r="S17" s="39" t="s">
+        <v>171</v>
+      </c>
+      <c r="T17" s="39"/>
       <c r="U17" s="38"/>
       <c r="V17" s="38"/>
       <c r="W17" s="38"/>
@@ -2366,8 +2432,9 @@
       <c r="Y17" s="38"/>
       <c r="Z17" s="38"/>
       <c r="AA17" s="38"/>
-    </row>
-    <row r="18" spans="1:27" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="AB17" s="38"/>
+    </row>
+    <row r="18" spans="1:28" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A18" s="52"/>
       <c r="B18" s="53">
         <v>6</v>
@@ -2401,30 +2468,33 @@
         <v>146</v>
       </c>
       <c r="M18" s="42"/>
-      <c r="N18" s="39" t="s">
-        <v>168</v>
-      </c>
-      <c r="O18" s="47">
+      <c r="N18" s="42">
+        <v>0</v>
+      </c>
+      <c r="O18" s="39" t="s">
+        <v>165</v>
+      </c>
+      <c r="P18" s="47">
         <v>6</v>
       </c>
-      <c r="P18" s="44"/>
-      <c r="Q18" s="43"/>
-      <c r="R18" s="39" t="s">
-        <v>175</v>
-      </c>
-      <c r="S18" s="39"/>
-      <c r="T18" s="38"/>
-      <c r="U18" s="38" t="s">
-        <v>152</v>
-      </c>
-      <c r="V18" s="38"/>
+      <c r="Q18" s="44"/>
+      <c r="R18" s="43"/>
+      <c r="S18" s="39" t="s">
+        <v>172</v>
+      </c>
+      <c r="T18" s="39"/>
+      <c r="U18" s="38"/>
+      <c r="V18" s="38" t="s">
+        <v>149</v>
+      </c>
       <c r="W18" s="38"/>
       <c r="X18" s="38"/>
       <c r="Y18" s="38"/>
       <c r="Z18" s="38"/>
       <c r="AA18" s="38"/>
-    </row>
-    <row r="19" spans="1:27" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="AB18" s="38"/>
+    </row>
+    <row r="19" spans="1:28" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A19" s="43"/>
       <c r="B19" s="53">
         <v>7</v>
@@ -2456,19 +2526,21 @@
       </c>
       <c r="L19" s="43"/>
       <c r="M19" s="43"/>
-      <c r="N19" s="39" t="s">
+      <c r="N19" s="42">
+        <v>0</v>
+      </c>
+      <c r="O19" s="39" t="s">
         <v>134</v>
       </c>
-      <c r="O19" s="43">
+      <c r="P19" s="43">
         <v>6</v>
       </c>
-      <c r="P19" s="43"/>
       <c r="Q19" s="43"/>
-      <c r="R19" s="39" t="s">
-        <v>176</v>
-      </c>
-      <c r="S19" s="39"/>
-      <c r="T19" s="43"/>
+      <c r="R19" s="43"/>
+      <c r="S19" s="39" t="s">
+        <v>173</v>
+      </c>
+      <c r="T19" s="39"/>
       <c r="U19" s="43"/>
       <c r="V19" s="43"/>
       <c r="W19" s="43"/>
@@ -2476,8 +2548,9 @@
       <c r="Y19" s="43"/>
       <c r="Z19" s="43"/>
       <c r="AA19" s="43"/>
-    </row>
-    <row r="20" spans="1:27" customFormat="1" ht="66" x14ac:dyDescent="0.3">
+      <c r="AB19" s="43"/>
+    </row>
+    <row r="20" spans="1:28" customFormat="1" ht="66" x14ac:dyDescent="0.3">
       <c r="A20" s="43"/>
       <c r="B20" s="53">
         <v>8</v>
@@ -2502,26 +2575,28 @@
         <v>0</v>
       </c>
       <c r="J20" s="39" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="K20" s="38">
         <v>0</v>
       </c>
       <c r="L20" s="43"/>
       <c r="M20" s="43"/>
-      <c r="N20" s="39" t="s">
+      <c r="N20" s="42">
+        <v>0</v>
+      </c>
+      <c r="O20" s="39" t="s">
         <v>117</v>
       </c>
-      <c r="O20" s="43">
+      <c r="P20" s="43">
         <v>4</v>
       </c>
-      <c r="P20" s="43"/>
       <c r="Q20" s="43"/>
-      <c r="R20" s="39" t="s">
-        <v>177</v>
-      </c>
-      <c r="S20" s="39"/>
-      <c r="T20" s="43"/>
+      <c r="R20" s="43"/>
+      <c r="S20" s="39" t="s">
+        <v>174</v>
+      </c>
+      <c r="T20" s="39"/>
       <c r="U20" s="43"/>
       <c r="V20" s="43"/>
       <c r="W20" s="43"/>
@@ -2529,8 +2604,9 @@
       <c r="Y20" s="43"/>
       <c r="Z20" s="43"/>
       <c r="AA20" s="43"/>
-    </row>
-    <row r="21" spans="1:27" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="AB20" s="43"/>
+    </row>
+    <row r="21" spans="1:28" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A21" s="43"/>
       <c r="B21" s="53">
         <v>9</v>
@@ -2562,30 +2638,33 @@
       </c>
       <c r="L21" s="43"/>
       <c r="M21" s="43"/>
-      <c r="N21" s="39" t="s">
+      <c r="N21" s="42">
+        <v>0</v>
+      </c>
+      <c r="O21" s="39" t="s">
         <v>135</v>
       </c>
-      <c r="O21" s="43">
+      <c r="P21" s="43">
         <v>6</v>
       </c>
-      <c r="P21" s="43"/>
       <c r="Q21" s="43"/>
-      <c r="R21" s="39" t="s">
-        <v>178</v>
-      </c>
-      <c r="S21" s="39"/>
-      <c r="T21" s="43"/>
-      <c r="U21" s="38" t="s">
+      <c r="R21" s="43"/>
+      <c r="S21" s="39" t="s">
+        <v>175</v>
+      </c>
+      <c r="T21" s="39"/>
+      <c r="U21" s="43"/>
+      <c r="V21" s="38" t="s">
         <v>146</v>
       </c>
-      <c r="V21" s="43"/>
       <c r="W21" s="43"/>
       <c r="X21" s="43"/>
       <c r="Y21" s="43"/>
       <c r="Z21" s="43"/>
       <c r="AA21" s="43"/>
-    </row>
-    <row r="22" spans="1:27" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="AB21" s="43"/>
+    </row>
+    <row r="22" spans="1:28" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A22" s="43"/>
       <c r="B22" s="53">
         <v>10</v>
@@ -2618,35 +2697,38 @@
         <v>1</v>
       </c>
       <c r="L22" s="43" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="M22" s="43"/>
-      <c r="N22" s="39" t="s">
-        <v>169</v>
-      </c>
-      <c r="O22" s="43">
+      <c r="N22" s="42">
+        <v>0</v>
+      </c>
+      <c r="O22" s="39" t="s">
+        <v>166</v>
+      </c>
+      <c r="P22" s="43">
         <v>6</v>
       </c>
-      <c r="P22" s="43"/>
       <c r="Q22" s="43"/>
-      <c r="R22" s="39" t="s">
-        <v>178</v>
-      </c>
+      <c r="R22" s="43"/>
       <c r="S22" s="39" t="s">
-        <v>170</v>
-      </c>
-      <c r="T22" s="43"/>
-      <c r="U22" s="38" t="s">
+        <v>175</v>
+      </c>
+      <c r="T22" s="39" t="s">
+        <v>167</v>
+      </c>
+      <c r="U22" s="43"/>
+      <c r="V22" s="38" t="s">
         <v>146</v>
       </c>
-      <c r="V22" s="43"/>
       <c r="W22" s="43"/>
       <c r="X22" s="43"/>
       <c r="Y22" s="43"/>
       <c r="Z22" s="43"/>
       <c r="AA22" s="43"/>
-    </row>
-    <row r="23" spans="1:27" customFormat="1" ht="66" x14ac:dyDescent="0.3">
+      <c r="AB22" s="43"/>
+    </row>
+    <row r="23" spans="1:28" customFormat="1" ht="66" x14ac:dyDescent="0.3">
       <c r="A23" s="43"/>
       <c r="B23" s="53">
         <v>11</v>
@@ -2678,19 +2760,21 @@
       </c>
       <c r="L23" s="43"/>
       <c r="M23" s="43"/>
-      <c r="N23" s="39" t="s">
-        <v>180</v>
-      </c>
-      <c r="O23" s="43">
-        <v>0</v>
-      </c>
-      <c r="P23" s="43"/>
+      <c r="N23" s="42">
+        <v>0</v>
+      </c>
+      <c r="O23" s="39" t="s">
+        <v>177</v>
+      </c>
+      <c r="P23" s="43">
+        <v>0</v>
+      </c>
       <c r="Q23" s="43"/>
-      <c r="R23" s="39" t="s">
-        <v>179</v>
-      </c>
-      <c r="S23" s="39"/>
-      <c r="T23" s="43"/>
+      <c r="R23" s="43"/>
+      <c r="S23" s="39" t="s">
+        <v>176</v>
+      </c>
+      <c r="T23" s="39"/>
       <c r="U23" s="43"/>
       <c r="V23" s="43"/>
       <c r="W23" s="43"/>
@@ -2698,8 +2782,9 @@
       <c r="Y23" s="43"/>
       <c r="Z23" s="43"/>
       <c r="AA23" s="43"/>
-    </row>
-    <row r="24" spans="1:27" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="AB23" s="43"/>
+    </row>
+    <row r="24" spans="1:28" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A24" s="43"/>
       <c r="B24" s="53">
         <v>12</v>
@@ -2730,35 +2815,38 @@
         <v>1</v>
       </c>
       <c r="L24" s="43" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="M24" s="50">
         <v>44713</v>
       </c>
-      <c r="N24" s="39" t="s">
-        <v>181</v>
-      </c>
-      <c r="O24" s="43">
+      <c r="N24" s="42">
+        <v>0</v>
+      </c>
+      <c r="O24" s="39" t="s">
+        <v>178</v>
+      </c>
+      <c r="P24" s="43">
         <v>6</v>
       </c>
-      <c r="P24" s="43"/>
       <c r="Q24" s="43"/>
-      <c r="R24" s="39" t="s">
-        <v>189</v>
-      </c>
-      <c r="S24" s="39"/>
-      <c r="T24" s="43"/>
-      <c r="U24" s="38" t="s">
+      <c r="R24" s="43"/>
+      <c r="S24" s="39" t="s">
+        <v>186</v>
+      </c>
+      <c r="T24" s="39"/>
+      <c r="U24" s="43"/>
+      <c r="V24" s="38" t="s">
         <v>146</v>
       </c>
-      <c r="V24" s="43"/>
       <c r="W24" s="43"/>
       <c r="X24" s="43"/>
       <c r="Y24" s="43"/>
       <c r="Z24" s="43"/>
       <c r="AA24" s="43"/>
-    </row>
-    <row r="25" spans="1:27" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+      <c r="AB24" s="43"/>
+    </row>
+    <row r="25" spans="1:28" customFormat="1" ht="33" x14ac:dyDescent="0.3">
       <c r="A25" s="43"/>
       <c r="B25" s="53">
         <v>13</v>
@@ -2790,19 +2878,21 @@
       </c>
       <c r="L25" s="43"/>
       <c r="M25" s="43"/>
-      <c r="N25" s="39" t="s">
-        <v>182</v>
-      </c>
-      <c r="O25" s="43">
+      <c r="N25" s="42">
+        <v>1</v>
+      </c>
+      <c r="O25" s="39" t="s">
+        <v>179</v>
+      </c>
+      <c r="P25" s="43">
         <v>6</v>
       </c>
-      <c r="P25" s="43"/>
       <c r="Q25" s="43"/>
-      <c r="R25" s="51" t="s">
-        <v>190</v>
-      </c>
-      <c r="S25" s="51"/>
-      <c r="T25" s="43"/>
+      <c r="R25" s="43"/>
+      <c r="S25" s="51" t="s">
+        <v>187</v>
+      </c>
+      <c r="T25" s="51"/>
       <c r="U25" s="43"/>
       <c r="V25" s="43"/>
       <c r="W25" s="43"/>
@@ -2810,8 +2900,9 @@
       <c r="Y25" s="43"/>
       <c r="Z25" s="43"/>
       <c r="AA25" s="43"/>
-    </row>
-    <row r="26" spans="1:27" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+      <c r="AB25" s="43"/>
+    </row>
+    <row r="26" spans="1:28" customFormat="1" ht="33" x14ac:dyDescent="0.3">
       <c r="A26" s="43"/>
       <c r="B26" s="53">
         <v>14</v>
@@ -2843,30 +2934,33 @@
       </c>
       <c r="L26" s="43"/>
       <c r="M26" s="43"/>
-      <c r="N26" s="39" t="s">
+      <c r="N26" s="42">
+        <v>0</v>
+      </c>
+      <c r="O26" s="39" t="s">
         <v>136</v>
       </c>
-      <c r="O26" s="43">
+      <c r="P26" s="43">
         <v>4</v>
       </c>
-      <c r="P26" s="43"/>
       <c r="Q26" s="43"/>
-      <c r="R26" s="51" t="s">
-        <v>191</v>
-      </c>
-      <c r="S26" s="39"/>
-      <c r="T26" s="43"/>
-      <c r="U26" s="38" t="s">
+      <c r="R26" s="43"/>
+      <c r="S26" s="51" t="s">
+        <v>188</v>
+      </c>
+      <c r="T26" s="39"/>
+      <c r="U26" s="43"/>
+      <c r="V26" s="38" t="s">
         <v>146</v>
       </c>
-      <c r="V26" s="43"/>
       <c r="W26" s="43"/>
       <c r="X26" s="43"/>
       <c r="Y26" s="43"/>
       <c r="Z26" s="43"/>
       <c r="AA26" s="43"/>
-    </row>
-    <row r="27" spans="1:27" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+      <c r="AB26" s="43"/>
+    </row>
+    <row r="27" spans="1:28" customFormat="1" ht="33" x14ac:dyDescent="0.3">
       <c r="A27" s="43"/>
       <c r="B27" s="53">
         <v>15</v>
@@ -2898,19 +2992,21 @@
       </c>
       <c r="L27" s="43"/>
       <c r="M27" s="43"/>
-      <c r="N27" s="39" t="s">
+      <c r="N27" s="42">
+        <v>0</v>
+      </c>
+      <c r="O27" s="39" t="s">
         <v>137</v>
       </c>
-      <c r="O27" s="43">
-        <v>0</v>
-      </c>
-      <c r="P27" s="43"/>
+      <c r="P27" s="43">
+        <v>0</v>
+      </c>
       <c r="Q27" s="43"/>
-      <c r="R27" s="51" t="s">
-        <v>183</v>
-      </c>
-      <c r="S27" s="39"/>
-      <c r="T27" s="43"/>
+      <c r="R27" s="43"/>
+      <c r="S27" s="51" t="s">
+        <v>180</v>
+      </c>
+      <c r="T27" s="39"/>
       <c r="U27" s="43"/>
       <c r="V27" s="43"/>
       <c r="W27" s="43"/>
@@ -2918,8 +3014,9 @@
       <c r="Y27" s="43"/>
       <c r="Z27" s="43"/>
       <c r="AA27" s="43"/>
-    </row>
-    <row r="28" spans="1:27" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AB27" s="43"/>
+    </row>
+    <row r="28" spans="1:28" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A28" s="43"/>
       <c r="B28" s="53">
         <v>16</v>
@@ -2951,19 +3048,21 @@
       </c>
       <c r="L28" s="43"/>
       <c r="M28" s="43"/>
-      <c r="N28" s="39" t="s">
+      <c r="N28" s="42">
+        <v>0</v>
+      </c>
+      <c r="O28" s="39" t="s">
         <v>138</v>
       </c>
-      <c r="O28" s="43">
+      <c r="P28" s="43">
         <v>1</v>
       </c>
-      <c r="P28" s="43"/>
       <c r="Q28" s="43"/>
-      <c r="R28" s="51" t="s">
+      <c r="R28" s="43"/>
+      <c r="S28" s="51" t="s">
         <v>147</v>
       </c>
-      <c r="S28" s="39"/>
-      <c r="T28" s="43"/>
+      <c r="T28" s="39"/>
       <c r="U28" s="43"/>
       <c r="V28" s="43"/>
       <c r="W28" s="43"/>
@@ -2971,8 +3070,9 @@
       <c r="Y28" s="43"/>
       <c r="Z28" s="43"/>
       <c r="AA28" s="43"/>
-    </row>
-    <row r="29" spans="1:27" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+      <c r="AB28" s="43"/>
+    </row>
+    <row r="29" spans="1:28" customFormat="1" ht="33" x14ac:dyDescent="0.3">
       <c r="A29" s="43"/>
       <c r="B29" s="53">
         <v>17</v>
@@ -3004,19 +3104,21 @@
       </c>
       <c r="L29" s="43"/>
       <c r="M29" s="43"/>
-      <c r="N29" s="39" t="s">
-        <v>184</v>
-      </c>
-      <c r="O29" s="43">
+      <c r="N29" s="42">
+        <v>0</v>
+      </c>
+      <c r="O29" s="39" t="s">
+        <v>181</v>
+      </c>
+      <c r="P29" s="43">
         <v>6</v>
       </c>
-      <c r="P29" s="43"/>
       <c r="Q29" s="43"/>
-      <c r="R29" s="39" t="s">
-        <v>148</v>
-      </c>
-      <c r="S29" s="39"/>
-      <c r="T29" s="43"/>
+      <c r="R29" s="43"/>
+      <c r="S29" s="39" t="s">
+        <v>200</v>
+      </c>
+      <c r="T29" s="39"/>
       <c r="U29" s="43"/>
       <c r="V29" s="43"/>
       <c r="W29" s="43"/>
@@ -3024,8 +3126,9 @@
       <c r="Y29" s="43"/>
       <c r="Z29" s="43"/>
       <c r="AA29" s="43"/>
-    </row>
-    <row r="30" spans="1:27" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+      <c r="AB29" s="43"/>
+    </row>
+    <row r="30" spans="1:28" customFormat="1" ht="33" x14ac:dyDescent="0.3">
       <c r="A30" s="43"/>
       <c r="B30" s="53">
         <v>18</v>
@@ -3057,19 +3160,21 @@
       </c>
       <c r="L30" s="43"/>
       <c r="M30" s="43"/>
-      <c r="N30" s="39" t="s">
-        <v>185</v>
-      </c>
-      <c r="O30" s="43">
+      <c r="N30" s="42">
+        <v>0</v>
+      </c>
+      <c r="O30" s="39" t="s">
+        <v>182</v>
+      </c>
+      <c r="P30" s="43">
         <v>6</v>
       </c>
-      <c r="P30" s="43"/>
       <c r="Q30" s="43"/>
-      <c r="R30" s="39" t="s">
-        <v>149</v>
-      </c>
-      <c r="S30" s="39"/>
-      <c r="T30" s="43"/>
+      <c r="R30" s="43"/>
+      <c r="S30" s="39" t="s">
+        <v>201</v>
+      </c>
+      <c r="T30" s="39"/>
       <c r="U30" s="43"/>
       <c r="V30" s="43"/>
       <c r="W30" s="43"/>
@@ -3077,8 +3182,9 @@
       <c r="Y30" s="43"/>
       <c r="Z30" s="43"/>
       <c r="AA30" s="43"/>
-    </row>
-    <row r="31" spans="1:27" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AB30" s="43"/>
+    </row>
+    <row r="31" spans="1:28" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A31" s="43"/>
       <c r="B31" s="53">
         <v>19</v>
@@ -3110,72 +3216,79 @@
       </c>
       <c r="L31" s="43"/>
       <c r="M31" s="43"/>
-      <c r="N31" s="39" t="s">
+      <c r="N31" s="42">
+        <v>0</v>
+      </c>
+      <c r="O31" s="39" t="s">
         <v>139</v>
       </c>
-      <c r="O31" s="43">
+      <c r="P31" s="43">
         <v>6</v>
       </c>
-      <c r="P31" s="43"/>
       <c r="Q31" s="43"/>
-      <c r="R31" s="39" t="s">
-        <v>150</v>
-      </c>
-      <c r="S31" s="39"/>
-      <c r="T31" s="43"/>
-      <c r="U31" s="43" t="s">
+      <c r="R31" s="43"/>
+      <c r="S31" s="39" t="s">
+        <v>202</v>
+      </c>
+      <c r="T31" s="39"/>
+      <c r="U31" s="43"/>
+      <c r="V31" s="43" t="s">
         <v>146</v>
       </c>
-      <c r="V31" s="43"/>
       <c r="W31" s="43"/>
       <c r="X31" s="43"/>
       <c r="Y31" s="43"/>
       <c r="Z31" s="43"/>
       <c r="AA31" s="43"/>
-    </row>
-    <row r="32" spans="1:27" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AB31" s="43"/>
+    </row>
+    <row r="32" spans="1:28" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A32" s="43"/>
       <c r="B32" s="53">
         <v>20</v>
       </c>
       <c r="C32" s="39" t="s">
-        <v>101</v>
+        <v>193</v>
       </c>
       <c r="D32" s="38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E32" s="43"/>
       <c r="F32" s="43" t="s">
-        <v>121</v>
+        <v>195</v>
       </c>
       <c r="G32" s="43">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H32" s="39" t="s">
-        <v>130</v>
+        <v>197</v>
       </c>
       <c r="I32" s="46">
         <v>-1</v>
       </c>
       <c r="J32" s="39" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="K32" s="38">
         <v>-1</v>
       </c>
       <c r="L32" s="43"/>
       <c r="M32" s="43"/>
-      <c r="N32" s="39" t="s">
-        <v>158</v>
-      </c>
-      <c r="O32" s="43">
-        <v>-1</v>
-      </c>
-      <c r="P32" s="43"/>
+      <c r="N32" s="42">
+        <v>0</v>
+      </c>
+      <c r="O32" s="39" t="s">
+        <v>198</v>
+      </c>
+      <c r="P32" s="43">
+        <v>0</v>
+      </c>
       <c r="Q32" s="43"/>
       <c r="R32" s="43"/>
-      <c r="S32" s="39"/>
-      <c r="T32" s="43"/>
+      <c r="S32" s="39" t="s">
+        <v>203</v>
+      </c>
+      <c r="T32" s="39"/>
       <c r="U32" s="43"/>
       <c r="V32" s="43"/>
       <c r="W32" s="43"/>
@@ -3183,24 +3296,25 @@
       <c r="Y32" s="43"/>
       <c r="Z32" s="43"/>
       <c r="AA32" s="43"/>
-    </row>
-    <row r="33" spans="1:27" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AB32" s="43"/>
+    </row>
+    <row r="33" spans="1:28" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A33" s="43"/>
       <c r="B33" s="53">
         <v>21</v>
       </c>
       <c r="C33" s="39" t="s">
-        <v>102</v>
+        <v>194</v>
       </c>
       <c r="D33" s="38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E33" s="43"/>
       <c r="F33" s="43" t="s">
-        <v>121</v>
+        <v>195</v>
       </c>
       <c r="G33" s="43">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H33" s="39" t="s">
         <v>130</v>
@@ -3209,24 +3323,26 @@
         <v>-1</v>
       </c>
       <c r="J33" s="39" t="s">
-        <v>157</v>
+        <v>196</v>
       </c>
       <c r="K33" s="38">
         <v>-1</v>
       </c>
       <c r="L33" s="43"/>
       <c r="M33" s="43"/>
-      <c r="N33" s="39" t="s">
-        <v>159</v>
-      </c>
-      <c r="O33" s="43">
-        <v>-1</v>
-      </c>
-      <c r="P33" s="43"/>
+      <c r="N33" s="42">
+        <v>0</v>
+      </c>
+      <c r="O33" s="39" t="s">
+        <v>199</v>
+      </c>
+      <c r="P33" s="43">
+        <v>0</v>
+      </c>
       <c r="Q33" s="43"/>
       <c r="R33" s="43"/>
       <c r="S33" s="39"/>
-      <c r="T33" s="43"/>
+      <c r="T33" s="39"/>
       <c r="U33" s="43"/>
       <c r="V33" s="43"/>
       <c r="W33" s="43"/>
@@ -3234,187 +3350,195 @@
       <c r="Y33" s="43"/>
       <c r="Z33" s="43"/>
       <c r="AA33" s="43"/>
-    </row>
-    <row r="34" spans="1:27" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+      <c r="AB33" s="43"/>
+    </row>
+    <row r="34" spans="1:28" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A34" s="43"/>
       <c r="B34" s="53">
         <v>22</v>
       </c>
       <c r="C34" s="39" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D34" s="38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E34" s="43"/>
       <c r="F34" s="43" t="s">
-        <v>19</v>
+        <v>121</v>
       </c>
       <c r="G34" s="43">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H34" s="39" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="I34" s="46">
         <v>-1</v>
       </c>
       <c r="J34" s="39" t="s">
-        <v>50</v>
+        <v>154</v>
       </c>
       <c r="K34" s="38">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="L34" s="43"/>
       <c r="M34" s="43"/>
-      <c r="N34" s="39" t="s">
-        <v>186</v>
-      </c>
-      <c r="O34" s="43">
-        <v>6</v>
-      </c>
-      <c r="P34" s="43"/>
+      <c r="N34" s="42">
+        <v>0</v>
+      </c>
+      <c r="O34" s="39" t="s">
+        <v>155</v>
+      </c>
+      <c r="P34" s="43">
+        <v>-1</v>
+      </c>
       <c r="Q34" s="43"/>
       <c r="R34" s="43"/>
-      <c r="S34" s="39"/>
-      <c r="T34" s="43"/>
-      <c r="U34" s="43" t="s">
-        <v>153</v>
-      </c>
+      <c r="S34" s="43"/>
+      <c r="T34" s="39"/>
+      <c r="U34" s="43"/>
       <c r="V34" s="43"/>
       <c r="W34" s="43"/>
       <c r="X34" s="43"/>
       <c r="Y34" s="43"/>
       <c r="Z34" s="43"/>
       <c r="AA34" s="43"/>
-    </row>
-    <row r="35" spans="1:27" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+      <c r="AB34" s="43"/>
+    </row>
+    <row r="35" spans="1:28" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A35" s="43"/>
       <c r="B35" s="53">
         <v>23</v>
       </c>
       <c r="C35" s="39" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D35" s="38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E35" s="43"/>
       <c r="F35" s="43" t="s">
-        <v>19</v>
+        <v>121</v>
       </c>
       <c r="G35" s="43">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H35" s="39" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="I35" s="46">
         <v>-1</v>
       </c>
       <c r="J35" s="39" t="s">
-        <v>50</v>
+        <v>154</v>
       </c>
       <c r="K35" s="38">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="L35" s="43"/>
       <c r="M35" s="43"/>
-      <c r="N35" s="39" t="s">
-        <v>187</v>
-      </c>
-      <c r="O35" s="43">
-        <v>6</v>
-      </c>
-      <c r="P35" s="43"/>
+      <c r="N35" s="42">
+        <v>0</v>
+      </c>
+      <c r="O35" s="39" t="s">
+        <v>156</v>
+      </c>
+      <c r="P35" s="43">
+        <v>-1</v>
+      </c>
       <c r="Q35" s="43"/>
       <c r="R35" s="43"/>
-      <c r="S35" s="39"/>
-      <c r="T35" s="43"/>
-      <c r="U35" s="43" t="s">
-        <v>154</v>
-      </c>
+      <c r="S35" s="43"/>
+      <c r="T35" s="39"/>
+      <c r="U35" s="43"/>
       <c r="V35" s="43"/>
       <c r="W35" s="43"/>
       <c r="X35" s="43"/>
       <c r="Y35" s="43"/>
       <c r="Z35" s="43"/>
       <c r="AA35" s="43"/>
-    </row>
-    <row r="36" spans="1:27" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AB35" s="43"/>
+    </row>
+    <row r="36" spans="1:28" customFormat="1" ht="33" x14ac:dyDescent="0.3">
       <c r="A36" s="43"/>
       <c r="B36" s="53">
         <v>24</v>
       </c>
       <c r="C36" s="39" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D36" s="38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E36" s="43"/>
       <c r="F36" s="43" t="s">
-        <v>113</v>
+        <v>19</v>
       </c>
       <c r="G36" s="43">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H36" s="39" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="I36" s="46">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="J36" s="39" t="s">
-        <v>131</v>
+        <v>50</v>
       </c>
       <c r="K36" s="38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L36" s="43"/>
       <c r="M36" s="43"/>
-      <c r="N36" s="39" t="s">
-        <v>140</v>
-      </c>
-      <c r="O36" s="43">
+      <c r="N36" s="42">
+        <v>0</v>
+      </c>
+      <c r="O36" s="39" t="s">
+        <v>183</v>
+      </c>
+      <c r="P36" s="43">
         <v>6</v>
       </c>
-      <c r="P36" s="43"/>
       <c r="Q36" s="43"/>
       <c r="R36" s="43"/>
-      <c r="S36" s="39"/>
-      <c r="T36" s="43"/>
+      <c r="S36" s="43"/>
+      <c r="T36" s="39"/>
       <c r="U36" s="43"/>
-      <c r="V36" s="43"/>
+      <c r="V36" s="43" t="s">
+        <v>150</v>
+      </c>
       <c r="W36" s="43"/>
       <c r="X36" s="43"/>
       <c r="Y36" s="43"/>
       <c r="Z36" s="43"/>
       <c r="AA36" s="43"/>
-    </row>
-    <row r="37" spans="1:27" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AB36" s="43"/>
+    </row>
+    <row r="37" spans="1:28" customFormat="1" ht="33" x14ac:dyDescent="0.3">
       <c r="A37" s="43"/>
       <c r="B37" s="53">
         <v>25</v>
       </c>
       <c r="C37" s="39" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D37" s="38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E37" s="43"/>
       <c r="F37" s="43" t="s">
-        <v>122</v>
+        <v>19</v>
       </c>
       <c r="G37" s="43">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H37" s="39" t="s">
         <v>128</v>
       </c>
       <c r="I37" s="46">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="J37" s="39" t="s">
         <v>50</v>
@@ -3422,105 +3546,103 @@
       <c r="K37" s="38">
         <v>1</v>
       </c>
-      <c r="L37" s="43" t="s">
-        <v>194</v>
-      </c>
+      <c r="L37" s="43"/>
       <c r="M37" s="43"/>
-      <c r="N37" s="39" t="s">
-        <v>141</v>
-      </c>
-      <c r="O37" s="43">
+      <c r="N37" s="42">
+        <v>0</v>
+      </c>
+      <c r="O37" s="39" t="s">
+        <v>184</v>
+      </c>
+      <c r="P37" s="43">
         <v>6</v>
       </c>
-      <c r="P37" s="43"/>
       <c r="Q37" s="43"/>
       <c r="R37" s="43"/>
-      <c r="S37" s="39"/>
-      <c r="T37" s="43"/>
-      <c r="U37" s="43" t="s">
-        <v>155</v>
-      </c>
-      <c r="V37" s="43"/>
+      <c r="S37" s="43"/>
+      <c r="T37" s="39"/>
+      <c r="U37" s="43"/>
+      <c r="V37" s="43" t="s">
+        <v>151</v>
+      </c>
       <c r="W37" s="43"/>
       <c r="X37" s="43"/>
       <c r="Y37" s="43"/>
       <c r="Z37" s="43"/>
       <c r="AA37" s="43"/>
-    </row>
-    <row r="38" spans="1:27" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+      <c r="AB37" s="43"/>
+    </row>
+    <row r="38" spans="1:28" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A38" s="43"/>
       <c r="B38" s="53">
         <v>26</v>
       </c>
       <c r="C38" s="39" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D38" s="38">
         <v>0</v>
       </c>
-      <c r="E38" s="43" t="s">
-        <v>123</v>
-      </c>
+      <c r="E38" s="43"/>
       <c r="F38" s="43" t="s">
-        <v>57</v>
+        <v>113</v>
       </c>
       <c r="G38" s="43">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H38" s="39" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="I38" s="46">
         <v>0</v>
       </c>
       <c r="J38" s="39" t="s">
-        <v>50</v>
+        <v>131</v>
       </c>
       <c r="K38" s="38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L38" s="43"/>
       <c r="M38" s="43"/>
-      <c r="N38" s="39" t="s">
-        <v>142</v>
-      </c>
-      <c r="O38" s="43">
+      <c r="N38" s="42">
+        <v>0</v>
+      </c>
+      <c r="O38" s="39" t="s">
+        <v>140</v>
+      </c>
+      <c r="P38" s="43">
         <v>6</v>
       </c>
-      <c r="P38" s="43"/>
       <c r="Q38" s="43"/>
       <c r="R38" s="43"/>
-      <c r="S38" s="39"/>
-      <c r="T38" s="43"/>
-      <c r="U38" s="43" t="s">
-        <v>153</v>
-      </c>
+      <c r="S38" s="43"/>
+      <c r="T38" s="39"/>
+      <c r="U38" s="43"/>
       <c r="V38" s="43"/>
       <c r="W38" s="43"/>
       <c r="X38" s="43"/>
       <c r="Y38" s="43"/>
       <c r="Z38" s="43"/>
       <c r="AA38" s="43"/>
-    </row>
-    <row r="39" spans="1:27" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AB38" s="43"/>
+    </row>
+    <row r="39" spans="1:28" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A39" s="43"/>
       <c r="B39" s="53">
         <v>27</v>
       </c>
       <c r="C39" s="39" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D39" s="38">
-        <v>0</v>
-      </c>
-      <c r="E39" s="43" t="s">
-        <v>160</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="E39" s="43"/>
       <c r="F39" s="43" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G39" s="43">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H39" s="39" t="s">
         <v>128</v>
@@ -3529,57 +3651,64 @@
         <v>0</v>
       </c>
       <c r="J39" s="39" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="K39" s="38">
         <v>1</v>
       </c>
-      <c r="L39" s="43"/>
+      <c r="L39" s="43" t="s">
+        <v>191</v>
+      </c>
       <c r="M39" s="43"/>
-      <c r="N39" s="39" t="s">
-        <v>143</v>
-      </c>
-      <c r="O39" s="43">
+      <c r="N39" s="42">
+        <v>0</v>
+      </c>
+      <c r="O39" s="39" t="s">
+        <v>141</v>
+      </c>
+      <c r="P39" s="43">
         <v>6</v>
       </c>
-      <c r="P39" s="43"/>
       <c r="Q39" s="43"/>
       <c r="R39" s="43"/>
-      <c r="S39" s="39"/>
-      <c r="T39" s="43"/>
-      <c r="U39" s="43" t="s">
-        <v>153</v>
-      </c>
-      <c r="V39" s="43"/>
+      <c r="S39" s="43"/>
+      <c r="T39" s="39"/>
+      <c r="U39" s="43"/>
+      <c r="V39" s="43" t="s">
+        <v>152</v>
+      </c>
       <c r="W39" s="43"/>
       <c r="X39" s="43"/>
       <c r="Y39" s="43"/>
       <c r="Z39" s="43"/>
       <c r="AA39" s="43"/>
-    </row>
-    <row r="40" spans="1:27" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AB39" s="43"/>
+    </row>
+    <row r="40" spans="1:28" customFormat="1" ht="33" x14ac:dyDescent="0.3">
       <c r="A40" s="43"/>
       <c r="B40" s="53">
         <v>28</v>
       </c>
       <c r="C40" s="39" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D40" s="38">
         <v>0</v>
       </c>
-      <c r="E40" s="43"/>
+      <c r="E40" s="43" t="s">
+        <v>123</v>
+      </c>
       <c r="F40" s="43" t="s">
-        <v>125</v>
+        <v>57</v>
       </c>
       <c r="G40" s="43">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H40" s="39" t="s">
         <v>128</v>
       </c>
       <c r="I40" s="46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J40" s="39" t="s">
         <v>50</v>
@@ -3589,121 +3718,133 @@
       </c>
       <c r="L40" s="43"/>
       <c r="M40" s="43"/>
-      <c r="N40" s="39" t="s">
-        <v>192</v>
-      </c>
-      <c r="O40" s="43">
+      <c r="N40" s="42">
+        <v>0</v>
+      </c>
+      <c r="O40" s="39" t="s">
+        <v>142</v>
+      </c>
+      <c r="P40" s="43">
         <v>6</v>
       </c>
-      <c r="P40" s="43"/>
       <c r="Q40" s="43"/>
       <c r="R40" s="43"/>
-      <c r="S40" s="39"/>
-      <c r="T40" s="43"/>
+      <c r="S40" s="43"/>
+      <c r="T40" s="39"/>
       <c r="U40" s="43"/>
-      <c r="V40" s="43"/>
+      <c r="V40" s="43" t="s">
+        <v>150</v>
+      </c>
       <c r="W40" s="43"/>
       <c r="X40" s="43"/>
       <c r="Y40" s="43"/>
       <c r="Z40" s="43"/>
       <c r="AA40" s="43"/>
-    </row>
-    <row r="41" spans="1:27" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AB40" s="43"/>
+    </row>
+    <row r="41" spans="1:28" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A41" s="43"/>
       <c r="B41" s="53">
         <v>29</v>
       </c>
       <c r="C41" s="39" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D41" s="38">
         <v>0</v>
       </c>
-      <c r="E41" s="43"/>
+      <c r="E41" s="43" t="s">
+        <v>157</v>
+      </c>
       <c r="F41" s="43" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G41" s="43">
         <v>5</v>
       </c>
       <c r="H41" s="39" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="I41" s="46">
+        <v>0</v>
+      </c>
+      <c r="J41" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="K41" s="38">
         <v>1</v>
-      </c>
-      <c r="J41" s="39" t="s">
-        <v>131</v>
-      </c>
-      <c r="K41" s="38">
-        <v>0</v>
       </c>
       <c r="L41" s="43"/>
       <c r="M41" s="43"/>
-      <c r="N41" s="39" t="s">
-        <v>193</v>
-      </c>
-      <c r="O41" s="43">
-        <v>0</v>
-      </c>
-      <c r="P41" s="43"/>
+      <c r="N41" s="42">
+        <v>0</v>
+      </c>
+      <c r="O41" s="39" t="s">
+        <v>143</v>
+      </c>
+      <c r="P41" s="43">
+        <v>6</v>
+      </c>
       <c r="Q41" s="43"/>
       <c r="R41" s="43"/>
-      <c r="S41" s="39"/>
-      <c r="T41" s="43"/>
+      <c r="S41" s="43"/>
+      <c r="T41" s="39"/>
       <c r="U41" s="43"/>
-      <c r="V41" s="43"/>
+      <c r="V41" s="43" t="s">
+        <v>150</v>
+      </c>
       <c r="W41" s="43"/>
       <c r="X41" s="43"/>
       <c r="Y41" s="43"/>
       <c r="Z41" s="43"/>
       <c r="AA41" s="43"/>
-    </row>
-    <row r="42" spans="1:27" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+      <c r="AB41" s="43"/>
+    </row>
+    <row r="42" spans="1:28" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A42" s="43"/>
       <c r="B42" s="53">
         <v>30</v>
       </c>
       <c r="C42" s="39" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D42" s="38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E42" s="43"/>
       <c r="F42" s="43" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G42" s="43">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H42" s="39" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="I42" s="46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J42" s="39" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="K42" s="38">
         <v>1</v>
       </c>
       <c r="L42" s="43"/>
       <c r="M42" s="43"/>
-      <c r="N42" s="39" t="s">
-        <v>156</v>
-      </c>
-      <c r="O42" s="43">
-        <v>5</v>
-      </c>
-      <c r="P42" s="43"/>
+      <c r="N42" s="42">
+        <v>0</v>
+      </c>
+      <c r="O42" s="39" t="s">
+        <v>189</v>
+      </c>
+      <c r="P42" s="43">
+        <v>6</v>
+      </c>
       <c r="Q42" s="43"/>
       <c r="R42" s="43"/>
-      <c r="S42" s="39" t="s">
-        <v>151</v>
-      </c>
-      <c r="T42" s="43"/>
+      <c r="S42" s="43"/>
+      <c r="T42" s="39"/>
       <c r="U42" s="43"/>
       <c r="V42" s="43"/>
       <c r="W42" s="43"/>
@@ -3711,28 +3852,53 @@
       <c r="Y42" s="43"/>
       <c r="Z42" s="43"/>
       <c r="AA42" s="43"/>
-    </row>
-    <row r="43" spans="1:27" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AB42" s="43"/>
+    </row>
+    <row r="43" spans="1:28" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A43" s="43"/>
-      <c r="B43" s="43"/>
-      <c r="C43" s="43"/>
-      <c r="D43" s="43"/>
+      <c r="B43" s="53">
+        <v>31</v>
+      </c>
+      <c r="C43" s="39" t="s">
+        <v>110</v>
+      </c>
+      <c r="D43" s="38">
+        <v>0</v>
+      </c>
       <c r="E43" s="43"/>
-      <c r="F43" s="43"/>
-      <c r="G43" s="43"/>
-      <c r="H43" s="43"/>
-      <c r="I43" s="43"/>
-      <c r="J43" s="43"/>
-      <c r="K43" s="43"/>
+      <c r="F43" s="43" t="s">
+        <v>126</v>
+      </c>
+      <c r="G43" s="43">
+        <v>5</v>
+      </c>
+      <c r="H43" s="39" t="s">
+        <v>130</v>
+      </c>
+      <c r="I43" s="46">
+        <v>1</v>
+      </c>
+      <c r="J43" s="39" t="s">
+        <v>131</v>
+      </c>
+      <c r="K43" s="38">
+        <v>0</v>
+      </c>
       <c r="L43" s="43"/>
       <c r="M43" s="43"/>
-      <c r="N43" s="43"/>
-      <c r="O43" s="43"/>
-      <c r="P43" s="43"/>
+      <c r="N43" s="42">
+        <v>0</v>
+      </c>
+      <c r="O43" s="39" t="s">
+        <v>190</v>
+      </c>
+      <c r="P43" s="43">
+        <v>0</v>
+      </c>
       <c r="Q43" s="43"/>
       <c r="R43" s="43"/>
-      <c r="S43" s="39"/>
-      <c r="T43" s="43"/>
+      <c r="S43" s="43"/>
+      <c r="T43" s="39"/>
       <c r="U43" s="43"/>
       <c r="V43" s="43"/>
       <c r="W43" s="43"/>
@@ -3740,28 +3906,55 @@
       <c r="Y43" s="43"/>
       <c r="Z43" s="43"/>
       <c r="AA43" s="43"/>
-    </row>
-    <row r="44" spans="1:27" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AB43" s="43"/>
+    </row>
+    <row r="44" spans="1:28" customFormat="1" ht="33" x14ac:dyDescent="0.3">
       <c r="A44" s="43"/>
-      <c r="B44" s="43"/>
-      <c r="C44" s="43"/>
-      <c r="D44" s="43"/>
+      <c r="B44" s="53">
+        <v>32</v>
+      </c>
+      <c r="C44" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="D44" s="38">
+        <v>1</v>
+      </c>
       <c r="E44" s="43"/>
-      <c r="F44" s="43"/>
-      <c r="G44" s="43"/>
-      <c r="H44" s="43"/>
-      <c r="I44" s="43"/>
-      <c r="J44" s="43"/>
-      <c r="K44" s="43"/>
+      <c r="F44" s="43" t="s">
+        <v>127</v>
+      </c>
+      <c r="G44" s="43">
+        <v>5</v>
+      </c>
+      <c r="H44" s="39" t="s">
+        <v>144</v>
+      </c>
+      <c r="I44" s="46">
+        <v>0</v>
+      </c>
+      <c r="J44" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="K44" s="38">
+        <v>1</v>
+      </c>
       <c r="L44" s="43"/>
       <c r="M44" s="43"/>
-      <c r="N44" s="43"/>
-      <c r="O44" s="43"/>
-      <c r="P44" s="43"/>
+      <c r="N44" s="42">
+        <v>0</v>
+      </c>
+      <c r="O44" s="39" t="s">
+        <v>153</v>
+      </c>
+      <c r="P44" s="43">
+        <v>5</v>
+      </c>
       <c r="Q44" s="43"/>
       <c r="R44" s="43"/>
-      <c r="S44" s="39"/>
-      <c r="T44" s="43"/>
+      <c r="S44" s="43"/>
+      <c r="T44" s="39" t="s">
+        <v>148</v>
+      </c>
       <c r="U44" s="43"/>
       <c r="V44" s="43"/>
       <c r="W44" s="43"/>
@@ -3769,8 +3962,9 @@
       <c r="Y44" s="43"/>
       <c r="Z44" s="43"/>
       <c r="AA44" s="43"/>
-    </row>
-    <row r="45" spans="1:27" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AB44" s="43"/>
+    </row>
+    <row r="45" spans="1:28" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A45" s="43"/>
       <c r="B45" s="43"/>
       <c r="C45" s="43"/>
@@ -3789,8 +3983,8 @@
       <c r="P45" s="43"/>
       <c r="Q45" s="43"/>
       <c r="R45" s="43"/>
-      <c r="S45" s="39"/>
-      <c r="T45" s="43"/>
+      <c r="S45" s="43"/>
+      <c r="T45" s="39"/>
       <c r="U45" s="43"/>
       <c r="V45" s="43"/>
       <c r="W45" s="43"/>
@@ -3798,8 +3992,9 @@
       <c r="Y45" s="43"/>
       <c r="Z45" s="43"/>
       <c r="AA45" s="43"/>
-    </row>
-    <row r="46" spans="1:27" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AB45" s="43"/>
+    </row>
+    <row r="46" spans="1:28" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A46" s="43"/>
       <c r="B46" s="43"/>
       <c r="C46" s="43"/>
@@ -3818,8 +4013,8 @@
       <c r="P46" s="43"/>
       <c r="Q46" s="43"/>
       <c r="R46" s="43"/>
-      <c r="S46" s="39"/>
-      <c r="T46" s="43"/>
+      <c r="S46" s="43"/>
+      <c r="T46" s="39"/>
       <c r="U46" s="43"/>
       <c r="V46" s="43"/>
       <c r="W46" s="43"/>
@@ -3827,8 +4022,9 @@
       <c r="Y46" s="43"/>
       <c r="Z46" s="43"/>
       <c r="AA46" s="43"/>
-    </row>
-    <row r="47" spans="1:27" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AB46" s="43"/>
+    </row>
+    <row r="47" spans="1:28" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A47" s="43"/>
       <c r="B47" s="43"/>
       <c r="C47" s="43"/>
@@ -3847,8 +4043,8 @@
       <c r="P47" s="43"/>
       <c r="Q47" s="43"/>
       <c r="R47" s="43"/>
-      <c r="S47" s="38"/>
-      <c r="T47" s="43"/>
+      <c r="S47" s="43"/>
+      <c r="T47" s="39"/>
       <c r="U47" s="43"/>
       <c r="V47" s="43"/>
       <c r="W47" s="43"/>
@@ -3856,8 +4052,9 @@
       <c r="Y47" s="43"/>
       <c r="Z47" s="43"/>
       <c r="AA47" s="43"/>
-    </row>
-    <row r="48" spans="1:27" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AB47" s="43"/>
+    </row>
+    <row r="48" spans="1:28" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A48" s="43"/>
       <c r="B48" s="43"/>
       <c r="C48" s="43"/>
@@ -3877,7 +4074,7 @@
       <c r="Q48" s="43"/>
       <c r="R48" s="43"/>
       <c r="S48" s="43"/>
-      <c r="T48" s="43"/>
+      <c r="T48" s="39"/>
       <c r="U48" s="43"/>
       <c r="V48" s="43"/>
       <c r="W48" s="43"/>
@@ -3885,8 +4082,9 @@
       <c r="Y48" s="43"/>
       <c r="Z48" s="43"/>
       <c r="AA48" s="43"/>
-    </row>
-    <row r="49" spans="1:27" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AB48" s="43"/>
+    </row>
+    <row r="49" spans="1:28" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A49" s="43"/>
       <c r="B49" s="43"/>
       <c r="C49" s="43"/>
@@ -3906,7 +4104,7 @@
       <c r="Q49" s="43"/>
       <c r="R49" s="43"/>
       <c r="S49" s="43"/>
-      <c r="T49" s="43"/>
+      <c r="T49" s="38"/>
       <c r="U49" s="43"/>
       <c r="V49" s="43"/>
       <c r="W49" s="43"/>
@@ -3914,8 +4112,9 @@
       <c r="Y49" s="43"/>
       <c r="Z49" s="43"/>
       <c r="AA49" s="43"/>
-    </row>
-    <row r="50" spans="1:27" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AB49" s="43"/>
+    </row>
+    <row r="50" spans="1:28" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A50" s="43"/>
       <c r="B50" s="43"/>
       <c r="C50" s="43"/>
@@ -3943,8 +4142,9 @@
       <c r="Y50" s="43"/>
       <c r="Z50" s="43"/>
       <c r="AA50" s="43"/>
-    </row>
-    <row r="51" spans="1:27" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AB50" s="43"/>
+    </row>
+    <row r="51" spans="1:28" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A51" s="43"/>
       <c r="B51" s="43"/>
       <c r="C51" s="43"/>
@@ -3972,8 +4172,9 @@
       <c r="Y51" s="43"/>
       <c r="Z51" s="43"/>
       <c r="AA51" s="43"/>
-    </row>
-    <row r="52" spans="1:27" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AB51" s="43"/>
+    </row>
+    <row r="52" spans="1:28" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A52" s="43"/>
       <c r="B52" s="43"/>
       <c r="C52" s="43"/>
@@ -4001,8 +4202,9 @@
       <c r="Y52" s="43"/>
       <c r="Z52" s="43"/>
       <c r="AA52" s="43"/>
-    </row>
-    <row r="53" spans="1:27" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AB52" s="43"/>
+    </row>
+    <row r="53" spans="1:28" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A53" s="43"/>
       <c r="B53" s="43"/>
       <c r="C53" s="43"/>
@@ -4030,8 +4232,9 @@
       <c r="Y53" s="43"/>
       <c r="Z53" s="43"/>
       <c r="AA53" s="43"/>
-    </row>
-    <row r="54" spans="1:27" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AB53" s="43"/>
+    </row>
+    <row r="54" spans="1:28" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A54" s="43"/>
       <c r="B54" s="43"/>
       <c r="C54" s="43"/>
@@ -4059,8 +4262,9 @@
       <c r="Y54" s="43"/>
       <c r="Z54" s="43"/>
       <c r="AA54" s="43"/>
-    </row>
-    <row r="55" spans="1:27" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AB54" s="43"/>
+    </row>
+    <row r="55" spans="1:28" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A55" s="43"/>
       <c r="B55" s="43"/>
       <c r="C55" s="43"/>
@@ -4088,8 +4292,9 @@
       <c r="Y55" s="43"/>
       <c r="Z55" s="43"/>
       <c r="AA55" s="43"/>
-    </row>
-    <row r="56" spans="1:27" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AB55" s="43"/>
+    </row>
+    <row r="56" spans="1:28" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A56" s="43"/>
       <c r="B56" s="43"/>
       <c r="C56" s="43"/>
@@ -4117,8 +4322,9 @@
       <c r="Y56" s="43"/>
       <c r="Z56" s="43"/>
       <c r="AA56" s="43"/>
-    </row>
-    <row r="57" spans="1:27" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AB56" s="43"/>
+    </row>
+    <row r="57" spans="1:28" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A57" s="43"/>
       <c r="B57" s="43"/>
       <c r="C57" s="43"/>
@@ -4146,8 +4352,9 @@
       <c r="Y57" s="43"/>
       <c r="Z57" s="43"/>
       <c r="AA57" s="43"/>
-    </row>
-    <row r="58" spans="1:27" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AB57" s="43"/>
+    </row>
+    <row r="58" spans="1:28" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A58" s="43"/>
       <c r="B58" s="43"/>
       <c r="C58" s="43"/>
@@ -4175,8 +4382,9 @@
       <c r="Y58" s="43"/>
       <c r="Z58" s="43"/>
       <c r="AA58" s="43"/>
-    </row>
-    <row r="59" spans="1:27" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AB58" s="43"/>
+    </row>
+    <row r="59" spans="1:28" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A59" s="43"/>
       <c r="B59" s="43"/>
       <c r="C59" s="43"/>
@@ -4204,8 +4412,9 @@
       <c r="Y59" s="43"/>
       <c r="Z59" s="43"/>
       <c r="AA59" s="43"/>
-    </row>
-    <row r="60" spans="1:27" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AB59" s="43"/>
+    </row>
+    <row r="60" spans="1:28" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A60" s="43"/>
       <c r="B60" s="43"/>
       <c r="C60" s="43"/>
@@ -4233,8 +4442,9 @@
       <c r="Y60" s="43"/>
       <c r="Z60" s="43"/>
       <c r="AA60" s="43"/>
-    </row>
-    <row r="61" spans="1:27" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AB60" s="43"/>
+    </row>
+    <row r="61" spans="1:28" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A61" s="43"/>
       <c r="B61" s="43"/>
       <c r="C61" s="43"/>
@@ -4262,8 +4472,9 @@
       <c r="Y61" s="43"/>
       <c r="Z61" s="43"/>
       <c r="AA61" s="43"/>
-    </row>
-    <row r="62" spans="1:27" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AB61" s="43"/>
+    </row>
+    <row r="62" spans="1:28" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A62" s="43"/>
       <c r="B62" s="43"/>
       <c r="C62" s="43"/>
@@ -4291,8 +4502,9 @@
       <c r="Y62" s="43"/>
       <c r="Z62" s="43"/>
       <c r="AA62" s="43"/>
-    </row>
-    <row r="63" spans="1:27" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AB62" s="43"/>
+    </row>
+    <row r="63" spans="1:28" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A63" s="43"/>
       <c r="B63" s="43"/>
       <c r="C63" s="43"/>
@@ -4320,8 +4532,9 @@
       <c r="Y63" s="43"/>
       <c r="Z63" s="43"/>
       <c r="AA63" s="43"/>
-    </row>
-    <row r="64" spans="1:27" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AB63" s="43"/>
+    </row>
+    <row r="64" spans="1:28" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A64" s="43"/>
       <c r="B64" s="43"/>
       <c r="C64" s="43"/>
@@ -4349,8 +4562,9 @@
       <c r="Y64" s="43"/>
       <c r="Z64" s="43"/>
       <c r="AA64" s="43"/>
-    </row>
-    <row r="65" spans="1:27" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AB64" s="43"/>
+    </row>
+    <row r="65" spans="1:28" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A65" s="43"/>
       <c r="B65" s="43"/>
       <c r="C65" s="43"/>
@@ -4378,8 +4592,9 @@
       <c r="Y65" s="43"/>
       <c r="Z65" s="43"/>
       <c r="AA65" s="43"/>
-    </row>
-    <row r="66" spans="1:27" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AB65" s="43"/>
+    </row>
+    <row r="66" spans="1:28" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A66" s="43"/>
       <c r="B66" s="43"/>
       <c r="C66" s="43"/>
@@ -4407,8 +4622,9 @@
       <c r="Y66" s="43"/>
       <c r="Z66" s="43"/>
       <c r="AA66" s="43"/>
-    </row>
-    <row r="67" spans="1:27" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AB66" s="43"/>
+    </row>
+    <row r="67" spans="1:28" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A67" s="43"/>
       <c r="B67" s="43"/>
       <c r="C67" s="43"/>
@@ -4436,8 +4652,9 @@
       <c r="Y67" s="43"/>
       <c r="Z67" s="43"/>
       <c r="AA67" s="43"/>
-    </row>
-    <row r="68" spans="1:27" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AB67" s="43"/>
+    </row>
+    <row r="68" spans="1:28" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A68" s="43"/>
       <c r="B68" s="43"/>
       <c r="C68" s="43"/>
@@ -4465,8 +4682,9 @@
       <c r="Y68" s="43"/>
       <c r="Z68" s="43"/>
       <c r="AA68" s="43"/>
-    </row>
-    <row r="69" spans="1:27" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AB68" s="43"/>
+    </row>
+    <row r="69" spans="1:28" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A69" s="43"/>
       <c r="B69" s="43"/>
       <c r="C69" s="43"/>
@@ -4494,8 +4712,9 @@
       <c r="Y69" s="43"/>
       <c r="Z69" s="43"/>
       <c r="AA69" s="43"/>
-    </row>
-    <row r="70" spans="1:27" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AB69" s="43"/>
+    </row>
+    <row r="70" spans="1:28" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A70" s="43"/>
       <c r="B70" s="43"/>
       <c r="C70" s="43"/>
@@ -4523,8 +4742,9 @@
       <c r="Y70" s="43"/>
       <c r="Z70" s="43"/>
       <c r="AA70" s="43"/>
-    </row>
-    <row r="71" spans="1:27" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AB70" s="43"/>
+    </row>
+    <row r="71" spans="1:28" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A71" s="43"/>
       <c r="B71" s="43"/>
       <c r="C71" s="43"/>
@@ -4552,8 +4772,9 @@
       <c r="Y71" s="43"/>
       <c r="Z71" s="43"/>
       <c r="AA71" s="43"/>
-    </row>
-    <row r="72" spans="1:27" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AB71" s="43"/>
+    </row>
+    <row r="72" spans="1:28" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A72" s="43"/>
       <c r="B72" s="43"/>
       <c r="C72" s="43"/>
@@ -4581,8 +4802,9 @@
       <c r="Y72" s="43"/>
       <c r="Z72" s="43"/>
       <c r="AA72" s="43"/>
-    </row>
-    <row r="73" spans="1:27" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AB72" s="43"/>
+    </row>
+    <row r="73" spans="1:28" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A73" s="43"/>
       <c r="B73" s="43"/>
       <c r="C73" s="43"/>
@@ -4610,8 +4832,9 @@
       <c r="Y73" s="43"/>
       <c r="Z73" s="43"/>
       <c r="AA73" s="43"/>
-    </row>
-    <row r="74" spans="1:27" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AB73" s="43"/>
+    </row>
+    <row r="74" spans="1:28" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A74" s="43"/>
       <c r="B74" s="43"/>
       <c r="C74" s="43"/>
@@ -4639,8 +4862,9 @@
       <c r="Y74" s="43"/>
       <c r="Z74" s="43"/>
       <c r="AA74" s="43"/>
-    </row>
-    <row r="75" spans="1:27" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AB74" s="43"/>
+    </row>
+    <row r="75" spans="1:28" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A75" s="43"/>
       <c r="B75" s="43"/>
       <c r="C75" s="43"/>
@@ -4668,8 +4892,9 @@
       <c r="Y75" s="43"/>
       <c r="Z75" s="43"/>
       <c r="AA75" s="43"/>
-    </row>
-    <row r="76" spans="1:27" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AB75" s="43"/>
+    </row>
+    <row r="76" spans="1:28" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A76" s="43"/>
       <c r="B76" s="43"/>
       <c r="C76" s="43"/>
@@ -4697,8 +4922,9 @@
       <c r="Y76" s="43"/>
       <c r="Z76" s="43"/>
       <c r="AA76" s="43"/>
-    </row>
-    <row r="77" spans="1:27" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AB76" s="43"/>
+    </row>
+    <row r="77" spans="1:28" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A77" s="43"/>
       <c r="B77" s="43"/>
       <c r="C77" s="43"/>
@@ -4726,8 +4952,9 @@
       <c r="Y77" s="43"/>
       <c r="Z77" s="43"/>
       <c r="AA77" s="43"/>
-    </row>
-    <row r="78" spans="1:27" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AB77" s="43"/>
+    </row>
+    <row r="78" spans="1:28" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A78" s="43"/>
       <c r="B78" s="43"/>
       <c r="C78" s="43"/>
@@ -4755,8 +4982,9 @@
       <c r="Y78" s="43"/>
       <c r="Z78" s="43"/>
       <c r="AA78" s="43"/>
-    </row>
-    <row r="79" spans="1:27" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AB78" s="43"/>
+    </row>
+    <row r="79" spans="1:28" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A79" s="43"/>
       <c r="B79" s="43"/>
       <c r="C79" s="43"/>
@@ -4784,8 +5012,9 @@
       <c r="Y79" s="43"/>
       <c r="Z79" s="43"/>
       <c r="AA79" s="43"/>
-    </row>
-    <row r="80" spans="1:27" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AB79" s="43"/>
+    </row>
+    <row r="80" spans="1:28" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A80" s="43"/>
       <c r="B80" s="43"/>
       <c r="C80" s="43"/>
@@ -4813,8 +5042,9 @@
       <c r="Y80" s="43"/>
       <c r="Z80" s="43"/>
       <c r="AA80" s="43"/>
-    </row>
-    <row r="81" spans="1:27" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AB80" s="43"/>
+    </row>
+    <row r="81" spans="1:28" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A81" s="43"/>
       <c r="B81" s="43"/>
       <c r="C81" s="43"/>
@@ -4842,8 +5072,9 @@
       <c r="Y81" s="43"/>
       <c r="Z81" s="43"/>
       <c r="AA81" s="43"/>
-    </row>
-    <row r="82" spans="1:27" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AB81" s="43"/>
+    </row>
+    <row r="82" spans="1:28" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A82" s="43"/>
       <c r="B82" s="43"/>
       <c r="C82" s="43"/>
@@ -4871,8 +5102,9 @@
       <c r="Y82" s="43"/>
       <c r="Z82" s="43"/>
       <c r="AA82" s="43"/>
-    </row>
-    <row r="83" spans="1:27" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AB82" s="43"/>
+    </row>
+    <row r="83" spans="1:28" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A83" s="43"/>
       <c r="B83" s="43"/>
       <c r="C83" s="43"/>
@@ -4900,8 +5132,9 @@
       <c r="Y83" s="43"/>
       <c r="Z83" s="43"/>
       <c r="AA83" s="43"/>
-    </row>
-    <row r="84" spans="1:27" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AB83" s="43"/>
+    </row>
+    <row r="84" spans="1:28" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A84" s="43"/>
       <c r="B84" s="43"/>
       <c r="C84" s="43"/>
@@ -4929,8 +5162,9 @@
       <c r="Y84" s="43"/>
       <c r="Z84" s="43"/>
       <c r="AA84" s="43"/>
-    </row>
-    <row r="85" spans="1:27" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AB84" s="43"/>
+    </row>
+    <row r="85" spans="1:28" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A85" s="43"/>
       <c r="B85" s="43"/>
       <c r="C85" s="43"/>
@@ -4958,8 +5192,9 @@
       <c r="Y85" s="43"/>
       <c r="Z85" s="43"/>
       <c r="AA85" s="43"/>
-    </row>
-    <row r="86" spans="1:27" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AB85" s="43"/>
+    </row>
+    <row r="86" spans="1:28" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A86" s="43"/>
       <c r="B86" s="43"/>
       <c r="C86" s="43"/>
@@ -4987,8 +5222,9 @@
       <c r="Y86" s="43"/>
       <c r="Z86" s="43"/>
       <c r="AA86" s="43"/>
-    </row>
-    <row r="87" spans="1:27" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AB86" s="43"/>
+    </row>
+    <row r="87" spans="1:28" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A87" s="43"/>
       <c r="B87" s="43"/>
       <c r="C87" s="43"/>
@@ -5016,8 +5252,9 @@
       <c r="Y87" s="43"/>
       <c r="Z87" s="43"/>
       <c r="AA87" s="43"/>
-    </row>
-    <row r="88" spans="1:27" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AB87" s="43"/>
+    </row>
+    <row r="88" spans="1:28" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A88" s="43"/>
       <c r="B88" s="43"/>
       <c r="C88" s="43"/>
@@ -5045,8 +5282,9 @@
       <c r="Y88" s="43"/>
       <c r="Z88" s="43"/>
       <c r="AA88" s="43"/>
-    </row>
-    <row r="89" spans="1:27" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AB88" s="43"/>
+    </row>
+    <row r="89" spans="1:28" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A89" s="43"/>
       <c r="B89" s="43"/>
       <c r="C89" s="43"/>
@@ -5074,8 +5312,9 @@
       <c r="Y89" s="43"/>
       <c r="Z89" s="43"/>
       <c r="AA89" s="43"/>
-    </row>
-    <row r="90" spans="1:27" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AB89" s="43"/>
+    </row>
+    <row r="90" spans="1:28" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A90" s="43"/>
       <c r="B90" s="43"/>
       <c r="C90" s="43"/>
@@ -5103,8 +5342,9 @@
       <c r="Y90" s="43"/>
       <c r="Z90" s="43"/>
       <c r="AA90" s="43"/>
-    </row>
-    <row r="91" spans="1:27" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AB90" s="43"/>
+    </row>
+    <row r="91" spans="1:28" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A91" s="43"/>
       <c r="B91" s="43"/>
       <c r="C91" s="43"/>
@@ -5132,8 +5372,9 @@
       <c r="Y91" s="43"/>
       <c r="Z91" s="43"/>
       <c r="AA91" s="43"/>
-    </row>
-    <row r="92" spans="1:27" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AB91" s="43"/>
+    </row>
+    <row r="92" spans="1:28" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A92" s="43"/>
       <c r="B92" s="43"/>
       <c r="C92" s="43"/>
@@ -5161,8 +5402,9 @@
       <c r="Y92" s="43"/>
       <c r="Z92" s="43"/>
       <c r="AA92" s="43"/>
-    </row>
-    <row r="93" spans="1:27" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AB92" s="43"/>
+    </row>
+    <row r="93" spans="1:28" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A93" s="43"/>
       <c r="B93" s="43"/>
       <c r="C93" s="43"/>
@@ -5190,8 +5432,9 @@
       <c r="Y93" s="43"/>
       <c r="Z93" s="43"/>
       <c r="AA93" s="43"/>
-    </row>
-    <row r="94" spans="1:27" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AB93" s="43"/>
+    </row>
+    <row r="94" spans="1:28" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A94" s="43"/>
       <c r="B94" s="43"/>
       <c r="C94" s="43"/>
@@ -5219,8 +5462,9 @@
       <c r="Y94" s="43"/>
       <c r="Z94" s="43"/>
       <c r="AA94" s="43"/>
-    </row>
-    <row r="95" spans="1:27" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AB94" s="43"/>
+    </row>
+    <row r="95" spans="1:28" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A95" s="43"/>
       <c r="B95" s="43"/>
       <c r="C95" s="43"/>
@@ -5248,8 +5492,9 @@
       <c r="Y95" s="43"/>
       <c r="Z95" s="43"/>
       <c r="AA95" s="43"/>
-    </row>
-    <row r="96" spans="1:27" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AB95" s="43"/>
+    </row>
+    <row r="96" spans="1:28" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A96" s="43"/>
       <c r="B96" s="43"/>
       <c r="C96" s="43"/>
@@ -5277,8 +5522,9 @@
       <c r="Y96" s="43"/>
       <c r="Z96" s="43"/>
       <c r="AA96" s="43"/>
-    </row>
-    <row r="97" spans="1:27" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AB96" s="43"/>
+    </row>
+    <row r="97" spans="1:28" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A97" s="43"/>
       <c r="B97" s="43"/>
       <c r="C97" s="43"/>
@@ -5306,8 +5552,9 @@
       <c r="Y97" s="43"/>
       <c r="Z97" s="43"/>
       <c r="AA97" s="43"/>
-    </row>
-    <row r="98" spans="1:27" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AB97" s="43"/>
+    </row>
+    <row r="98" spans="1:28" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A98" s="43"/>
       <c r="B98" s="43"/>
       <c r="C98" s="43"/>
@@ -5335,8 +5582,9 @@
       <c r="Y98" s="43"/>
       <c r="Z98" s="43"/>
       <c r="AA98" s="43"/>
-    </row>
-    <row r="99" spans="1:27" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AB98" s="43"/>
+    </row>
+    <row r="99" spans="1:28" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A99" s="43"/>
       <c r="B99" s="43"/>
       <c r="C99" s="43"/>
@@ -5364,8 +5612,9 @@
       <c r="Y99" s="43"/>
       <c r="Z99" s="43"/>
       <c r="AA99" s="43"/>
-    </row>
-    <row r="100" spans="1:27" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AB99" s="43"/>
+    </row>
+    <row r="100" spans="1:28" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A100" s="43"/>
       <c r="B100" s="43"/>
       <c r="C100" s="43"/>
@@ -5393,8 +5642,9 @@
       <c r="Y100" s="43"/>
       <c r="Z100" s="43"/>
       <c r="AA100" s="43"/>
-    </row>
-    <row r="101" spans="1:27" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AB100" s="43"/>
+    </row>
+    <row r="101" spans="1:28" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A101" s="43"/>
       <c r="B101" s="43"/>
       <c r="C101" s="43"/>
@@ -5422,8 +5672,9 @@
       <c r="Y101" s="43"/>
       <c r="Z101" s="43"/>
       <c r="AA101" s="43"/>
-    </row>
-    <row r="102" spans="1:27" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AB101" s="43"/>
+    </row>
+    <row r="102" spans="1:28" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A102" s="43"/>
       <c r="B102" s="43"/>
       <c r="C102" s="43"/>
@@ -5451,8 +5702,9 @@
       <c r="Y102" s="43"/>
       <c r="Z102" s="43"/>
       <c r="AA102" s="43"/>
-    </row>
-    <row r="103" spans="1:27" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AB102" s="43"/>
+    </row>
+    <row r="103" spans="1:28" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A103" s="43"/>
       <c r="B103" s="43"/>
       <c r="C103" s="43"/>
@@ -5480,8 +5732,9 @@
       <c r="Y103" s="43"/>
       <c r="Z103" s="43"/>
       <c r="AA103" s="43"/>
-    </row>
-    <row r="104" spans="1:27" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AB103" s="43"/>
+    </row>
+    <row r="104" spans="1:28" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A104" s="43"/>
       <c r="B104" s="43"/>
       <c r="C104" s="43"/>
@@ -5509,8 +5762,9 @@
       <c r="Y104" s="43"/>
       <c r="Z104" s="43"/>
       <c r="AA104" s="43"/>
-    </row>
-    <row r="105" spans="1:27" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AB104" s="43"/>
+    </row>
+    <row r="105" spans="1:28" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A105" s="43"/>
       <c r="B105" s="43"/>
       <c r="C105" s="43"/>
@@ -5538,8 +5792,9 @@
       <c r="Y105" s="43"/>
       <c r="Z105" s="43"/>
       <c r="AA105" s="43"/>
-    </row>
-    <row r="106" spans="1:27" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AB105" s="43"/>
+    </row>
+    <row r="106" spans="1:28" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A106" s="43"/>
       <c r="B106" s="43"/>
       <c r="C106" s="43"/>
@@ -5567,8 +5822,9 @@
       <c r="Y106" s="43"/>
       <c r="Z106" s="43"/>
       <c r="AA106" s="43"/>
-    </row>
-    <row r="107" spans="1:27" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AB106" s="43"/>
+    </row>
+    <row r="107" spans="1:28" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A107" s="43"/>
       <c r="B107" s="43"/>
       <c r="C107" s="43"/>
@@ -5596,8 +5852,9 @@
       <c r="Y107" s="43"/>
       <c r="Z107" s="43"/>
       <c r="AA107" s="43"/>
-    </row>
-    <row r="108" spans="1:27" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AB107" s="43"/>
+    </row>
+    <row r="108" spans="1:28" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A108" s="43"/>
       <c r="B108" s="43"/>
       <c r="C108" s="43"/>
@@ -5625,8 +5882,9 @@
       <c r="Y108" s="43"/>
       <c r="Z108" s="43"/>
       <c r="AA108" s="43"/>
-    </row>
-    <row r="109" spans="1:27" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AB108" s="43"/>
+    </row>
+    <row r="109" spans="1:28" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A109" s="43"/>
       <c r="B109" s="43"/>
       <c r="C109" s="43"/>
@@ -5654,8 +5912,9 @@
       <c r="Y109" s="43"/>
       <c r="Z109" s="43"/>
       <c r="AA109" s="43"/>
-    </row>
-    <row r="110" spans="1:27" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AB109" s="43"/>
+    </row>
+    <row r="110" spans="1:28" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A110" s="43"/>
       <c r="B110" s="43"/>
       <c r="C110" s="43"/>
@@ -5683,8 +5942,9 @@
       <c r="Y110" s="43"/>
       <c r="Z110" s="43"/>
       <c r="AA110" s="43"/>
-    </row>
-    <row r="111" spans="1:27" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AB110" s="43"/>
+    </row>
+    <row r="111" spans="1:28" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A111" s="43"/>
       <c r="B111" s="43"/>
       <c r="C111" s="43"/>
@@ -5712,8 +5972,9 @@
       <c r="Y111" s="43"/>
       <c r="Z111" s="43"/>
       <c r="AA111" s="43"/>
-    </row>
-    <row r="112" spans="1:27" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AB111" s="43"/>
+    </row>
+    <row r="112" spans="1:28" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A112" s="43"/>
       <c r="B112" s="43"/>
       <c r="C112" s="43"/>
@@ -5741,8 +6002,9 @@
       <c r="Y112" s="43"/>
       <c r="Z112" s="43"/>
       <c r="AA112" s="43"/>
-    </row>
-    <row r="113" spans="1:27" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AB112" s="43"/>
+    </row>
+    <row r="113" spans="1:28" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A113" s="43"/>
       <c r="B113" s="43"/>
       <c r="C113" s="43"/>
@@ -5770,8 +6032,9 @@
       <c r="Y113" s="43"/>
       <c r="Z113" s="43"/>
       <c r="AA113" s="43"/>
-    </row>
-    <row r="114" spans="1:27" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AB113" s="43"/>
+    </row>
+    <row r="114" spans="1:28" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A114" s="43"/>
       <c r="B114" s="43"/>
       <c r="C114" s="43"/>
@@ -5799,8 +6062,9 @@
       <c r="Y114" s="43"/>
       <c r="Z114" s="43"/>
       <c r="AA114" s="43"/>
-    </row>
-    <row r="115" spans="1:27" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AB114" s="43"/>
+    </row>
+    <row r="115" spans="1:28" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A115" s="43"/>
       <c r="B115" s="43"/>
       <c r="C115" s="43"/>
@@ -5828,8 +6092,9 @@
       <c r="Y115" s="43"/>
       <c r="Z115" s="43"/>
       <c r="AA115" s="43"/>
-    </row>
-    <row r="116" spans="1:27" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AB115" s="43"/>
+    </row>
+    <row r="116" spans="1:28" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A116" s="43"/>
       <c r="B116" s="43"/>
       <c r="C116" s="43"/>
@@ -5857,8 +6122,9 @@
       <c r="Y116" s="43"/>
       <c r="Z116" s="43"/>
       <c r="AA116" s="43"/>
-    </row>
-    <row r="117" spans="1:27" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AB116" s="43"/>
+    </row>
+    <row r="117" spans="1:28" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A117" s="43"/>
       <c r="B117" s="43"/>
       <c r="C117" s="43"/>
@@ -5886,8 +6152,9 @@
       <c r="Y117" s="43"/>
       <c r="Z117" s="43"/>
       <c r="AA117" s="43"/>
-    </row>
-    <row r="118" spans="1:27" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AB117" s="43"/>
+    </row>
+    <row r="118" spans="1:28" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A118" s="43"/>
       <c r="B118" s="43"/>
       <c r="C118" s="43"/>
@@ -5915,17 +6182,76 @@
       <c r="Y118" s="43"/>
       <c r="Z118" s="43"/>
       <c r="AA118" s="43"/>
-    </row>
-    <row r="119" spans="1:27" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="120" spans="1:27" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="121" spans="1:27" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="122" spans="1:27" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="123" spans="1:27" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="124" spans="1:27" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="125" spans="1:27" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="126" spans="1:27" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="127" spans="1:27" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="128" spans="1:27" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+      <c r="AB118" s="43"/>
+    </row>
+    <row r="119" spans="1:28" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A119" s="43"/>
+      <c r="B119" s="43"/>
+      <c r="C119" s="43"/>
+      <c r="D119" s="43"/>
+      <c r="E119" s="43"/>
+      <c r="F119" s="43"/>
+      <c r="G119" s="43"/>
+      <c r="H119" s="43"/>
+      <c r="I119" s="43"/>
+      <c r="J119" s="43"/>
+      <c r="K119" s="43"/>
+      <c r="L119" s="43"/>
+      <c r="M119" s="43"/>
+      <c r="N119" s="43"/>
+      <c r="O119" s="43"/>
+      <c r="P119" s="43"/>
+      <c r="Q119" s="43"/>
+      <c r="R119" s="43"/>
+      <c r="S119" s="43"/>
+      <c r="T119" s="43"/>
+      <c r="U119" s="43"/>
+      <c r="V119" s="43"/>
+      <c r="W119" s="43"/>
+      <c r="X119" s="43"/>
+      <c r="Y119" s="43"/>
+      <c r="Z119" s="43"/>
+      <c r="AA119" s="43"/>
+      <c r="AB119" s="43"/>
+    </row>
+    <row r="120" spans="1:28" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A120" s="43"/>
+      <c r="B120" s="43"/>
+      <c r="C120" s="43"/>
+      <c r="D120" s="43"/>
+      <c r="E120" s="43"/>
+      <c r="F120" s="43"/>
+      <c r="G120" s="43"/>
+      <c r="H120" s="43"/>
+      <c r="I120" s="43"/>
+      <c r="J120" s="43"/>
+      <c r="K120" s="43"/>
+      <c r="L120" s="43"/>
+      <c r="M120" s="43"/>
+      <c r="N120" s="43"/>
+      <c r="O120" s="43"/>
+      <c r="P120" s="43"/>
+      <c r="Q120" s="43"/>
+      <c r="R120" s="43"/>
+      <c r="S120" s="43"/>
+      <c r="T120" s="43"/>
+      <c r="U120" s="43"/>
+      <c r="V120" s="43"/>
+      <c r="W120" s="43"/>
+      <c r="X120" s="43"/>
+      <c r="Y120" s="43"/>
+      <c r="Z120" s="43"/>
+      <c r="AA120" s="43"/>
+      <c r="AB120" s="43"/>
+    </row>
+    <row r="121" spans="1:28" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="122" spans="1:28" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="123" spans="1:28" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="124" spans="1:28" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="125" spans="1:28" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="126" spans="1:28" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="127" spans="1:28" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="128" spans="1:28" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
     <row r="129" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
     <row r="130" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
     <row r="131" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
@@ -6393,18 +6719,20 @@
     <row r="593" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
     <row r="594" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
     <row r="595" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="596" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="597" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <autoFilter ref="A12:T112" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A12:U114" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="9">
-    <mergeCell ref="U3:U5"/>
-    <mergeCell ref="U6:U7"/>
-    <mergeCell ref="U8:U9"/>
-    <mergeCell ref="F3:H3"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="J3:K3"/>
     <mergeCell ref="B5:E5"/>
     <mergeCell ref="H5:K5"/>
-    <mergeCell ref="P10:P11"/>
+    <mergeCell ref="Q10:Q11"/>
+    <mergeCell ref="V3:V5"/>
+    <mergeCell ref="V6:V7"/>
+    <mergeCell ref="V8:V9"/>
+    <mergeCell ref="F3:H3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/UCATS/pages/猫咪档案.xlsx
+++ b/UCATS/pages/猫咪档案.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10C46E77-F3DA-41FB-BB7C-A4FF23323BC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5957CEF-24D8-45A8-A86C-494C4EDF57A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-30" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="校内喵" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="203">
   <si>
     <t>ID</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -620,9 +620,6 @@
   </si>
   <si>
     <t>疑似菜菜 格力高 憨八嘎的兄弟</t>
-  </si>
-  <si>
-    <t>大黑被送到救助站，随时接受领养</t>
   </si>
   <si>
     <t>2022年11月01号</t>
@@ -1353,27 +1350,6 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1396,6 +1372,27 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1699,9 +1696,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AD597"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="111" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="12" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T12" sqref="T12"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="111" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="12" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="T44" sqref="T44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -1761,21 +1758,21 @@
       <c r="A3" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="62" t="s">
+      <c r="B3" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="63"/>
+      <c r="C3" s="56"/>
       <c r="D3" s="2"/>
-      <c r="F3" s="59" t="s">
+      <c r="F3" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="60"/>
-      <c r="H3" s="61"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="69"/>
       <c r="I3" s="5"/>
-      <c r="J3" s="64" t="s">
+      <c r="J3" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="K3" s="65"/>
+      <c r="K3" s="58"/>
       <c r="L3" s="4"/>
       <c r="M3" s="13" t="s">
         <v>20</v>
@@ -1799,7 +1796,7 @@
       <c r="U3" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="V3" s="57" t="s">
+      <c r="V3" s="65" t="s">
         <v>36</v>
       </c>
       <c r="W3" s="7" t="s">
@@ -1840,7 +1837,7 @@
       <c r="U4" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="V4" s="58"/>
+      <c r="V4" s="66"/>
       <c r="Y4" s="23" t="s">
         <v>52</v>
       </c>
@@ -1849,18 +1846,18 @@
       </c>
     </row>
     <row r="5" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="66" t="s">
+      <c r="B5" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="67"/>
-      <c r="D5" s="67"/>
-      <c r="E5" s="68"/>
-      <c r="H5" s="62" t="s">
+      <c r="C5" s="60"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="61"/>
+      <c r="H5" s="55" t="s">
         <v>41</v>
       </c>
-      <c r="I5" s="69"/>
-      <c r="J5" s="69"/>
-      <c r="K5" s="63"/>
+      <c r="I5" s="62"/>
+      <c r="J5" s="62"/>
+      <c r="K5" s="56"/>
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
@@ -1876,7 +1873,7 @@
       <c r="U5" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="V5" s="58"/>
+      <c r="V5" s="66"/>
       <c r="Y5" s="3"/>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.15">
@@ -1891,7 +1888,7 @@
       <c r="U6" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="V6" s="58" t="s">
+      <c r="V6" s="66" t="s">
         <v>37</v>
       </c>
       <c r="W6" s="7" t="s">
@@ -1939,7 +1936,7 @@
       <c r="U7" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="V7" s="58"/>
+      <c r="V7" s="66"/>
       <c r="Y7" s="21">
         <v>2</v>
       </c>
@@ -1969,7 +1966,7 @@
       <c r="U8" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="V8" s="58" t="s">
+      <c r="V8" s="66" t="s">
         <v>38</v>
       </c>
       <c r="Y8" s="21">
@@ -2001,7 +1998,7 @@
       <c r="U9" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="V9" s="58"/>
+      <c r="V9" s="66"/>
       <c r="Y9" s="21">
         <v>4</v>
       </c>
@@ -2024,7 +2021,7 @@
       </c>
       <c r="M10" s="4"/>
       <c r="N10" s="4"/>
-      <c r="Q10" s="55" t="s">
+      <c r="Q10" s="63" t="s">
         <v>73</v>
       </c>
       <c r="R10" s="31" t="s">
@@ -2059,7 +2056,7 @@
       </c>
       <c r="M11" s="4"/>
       <c r="N11" s="4"/>
-      <c r="Q11" s="56"/>
+      <c r="Q11" s="64"/>
       <c r="R11" s="4"/>
       <c r="V11" s="34" t="s">
         <v>76</v>
@@ -2107,7 +2104,7 @@
         <v>40</v>
       </c>
       <c r="N12" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O12" s="3" t="s">
         <v>9</v>
@@ -2182,7 +2179,7 @@
         <v>0</v>
       </c>
       <c r="O13" s="39" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P13" s="43">
         <v>2</v>
@@ -2190,7 +2187,7 @@
       <c r="Q13" s="44"/>
       <c r="R13" s="43"/>
       <c r="S13" s="39" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="T13" s="39"/>
       <c r="U13" s="38"/>
@@ -2242,7 +2239,7 @@
         <v>0</v>
       </c>
       <c r="O14" s="39" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="P14" s="43">
         <v>6</v>
@@ -2250,10 +2247,10 @@
       <c r="Q14" s="44"/>
       <c r="R14" s="43"/>
       <c r="S14" s="39" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="T14" s="39" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="U14" s="38"/>
       <c r="V14" s="38"/>
@@ -2300,7 +2297,7 @@
         <v>0</v>
       </c>
       <c r="O15" s="39" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="P15" s="38">
         <v>-1</v>
@@ -2308,7 +2305,7 @@
       <c r="Q15" s="44"/>
       <c r="R15" s="43"/>
       <c r="S15" s="39" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="T15" s="39"/>
       <c r="U15" s="38"/>
@@ -2345,7 +2342,7 @@
         <v>0</v>
       </c>
       <c r="J16" s="39" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K16" s="38">
         <v>0</v>
@@ -2356,7 +2353,7 @@
         <v>0</v>
       </c>
       <c r="O16" s="39" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="P16" s="38">
         <v>0</v>
@@ -2364,10 +2361,10 @@
       <c r="Q16" s="44"/>
       <c r="R16" s="43"/>
       <c r="S16" s="39" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="T16" s="39" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="U16" s="38"/>
       <c r="V16" s="38"/>
@@ -2414,7 +2411,7 @@
         <v>0</v>
       </c>
       <c r="O17" s="39" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="P17" s="47">
         <v>6</v>
@@ -2422,7 +2419,7 @@
       <c r="Q17" s="44"/>
       <c r="R17" s="43"/>
       <c r="S17" s="39" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="T17" s="39"/>
       <c r="U17" s="38"/>
@@ -2472,7 +2469,7 @@
         <v>0</v>
       </c>
       <c r="O18" s="39" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="P18" s="47">
         <v>6</v>
@@ -2480,12 +2477,12 @@
       <c r="Q18" s="44"/>
       <c r="R18" s="43"/>
       <c r="S18" s="39" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="T18" s="39"/>
       <c r="U18" s="38"/>
       <c r="V18" s="38" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="W18" s="38"/>
       <c r="X18" s="38"/>
@@ -2538,7 +2535,7 @@
       <c r="Q19" s="43"/>
       <c r="R19" s="43"/>
       <c r="S19" s="39" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="T19" s="39"/>
       <c r="U19" s="43"/>
@@ -2575,7 +2572,7 @@
         <v>0</v>
       </c>
       <c r="J20" s="39" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K20" s="38">
         <v>0</v>
@@ -2594,7 +2591,7 @@
       <c r="Q20" s="43"/>
       <c r="R20" s="43"/>
       <c r="S20" s="39" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="T20" s="39"/>
       <c r="U20" s="43"/>
@@ -2650,7 +2647,7 @@
       <c r="Q21" s="43"/>
       <c r="R21" s="43"/>
       <c r="S21" s="39" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="T21" s="39"/>
       <c r="U21" s="43"/>
@@ -2697,14 +2694,14 @@
         <v>1</v>
       </c>
       <c r="L22" s="43" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="M22" s="43"/>
       <c r="N22" s="42">
         <v>0</v>
       </c>
       <c r="O22" s="39" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="P22" s="43">
         <v>6</v>
@@ -2712,10 +2709,10 @@
       <c r="Q22" s="43"/>
       <c r="R22" s="43"/>
       <c r="S22" s="39" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="T22" s="39" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="U22" s="43"/>
       <c r="V22" s="38" t="s">
@@ -2764,7 +2761,7 @@
         <v>0</v>
       </c>
       <c r="O23" s="39" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="P23" s="43">
         <v>0</v>
@@ -2772,7 +2769,7 @@
       <c r="Q23" s="43"/>
       <c r="R23" s="43"/>
       <c r="S23" s="39" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="T23" s="39"/>
       <c r="U23" s="43"/>
@@ -2815,7 +2812,7 @@
         <v>1</v>
       </c>
       <c r="L24" s="43" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="M24" s="50">
         <v>44713</v>
@@ -2824,7 +2821,7 @@
         <v>0</v>
       </c>
       <c r="O24" s="39" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="P24" s="43">
         <v>6</v>
@@ -2832,7 +2829,7 @@
       <c r="Q24" s="43"/>
       <c r="R24" s="43"/>
       <c r="S24" s="39" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="T24" s="39"/>
       <c r="U24" s="43"/>
@@ -2882,7 +2879,7 @@
         <v>1</v>
       </c>
       <c r="O25" s="39" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="P25" s="43">
         <v>6</v>
@@ -2890,7 +2887,7 @@
       <c r="Q25" s="43"/>
       <c r="R25" s="43"/>
       <c r="S25" s="51" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="T25" s="51"/>
       <c r="U25" s="43"/>
@@ -2946,7 +2943,7 @@
       <c r="Q26" s="43"/>
       <c r="R26" s="43"/>
       <c r="S26" s="51" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="T26" s="39"/>
       <c r="U26" s="43"/>
@@ -3004,7 +3001,7 @@
       <c r="Q27" s="43"/>
       <c r="R27" s="43"/>
       <c r="S27" s="51" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="T27" s="39"/>
       <c r="U27" s="43"/>
@@ -3108,7 +3105,7 @@
         <v>0</v>
       </c>
       <c r="O29" s="39" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="P29" s="43">
         <v>6</v>
@@ -3116,7 +3113,7 @@
       <c r="Q29" s="43"/>
       <c r="R29" s="43"/>
       <c r="S29" s="39" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="T29" s="39"/>
       <c r="U29" s="43"/>
@@ -3164,7 +3161,7 @@
         <v>0</v>
       </c>
       <c r="O30" s="39" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="P30" s="43">
         <v>6</v>
@@ -3172,7 +3169,7 @@
       <c r="Q30" s="43"/>
       <c r="R30" s="43"/>
       <c r="S30" s="39" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="T30" s="39"/>
       <c r="U30" s="43"/>
@@ -3228,7 +3225,7 @@
       <c r="Q31" s="43"/>
       <c r="R31" s="43"/>
       <c r="S31" s="39" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="T31" s="39"/>
       <c r="U31" s="43"/>
@@ -3248,26 +3245,26 @@
         <v>20</v>
       </c>
       <c r="C32" s="39" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D32" s="38">
         <v>1</v>
       </c>
       <c r="E32" s="43"/>
       <c r="F32" s="43" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G32" s="43">
         <v>2</v>
       </c>
       <c r="H32" s="39" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I32" s="46">
         <v>-1</v>
       </c>
       <c r="J32" s="39" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K32" s="38">
         <v>-1</v>
@@ -3278,7 +3275,7 @@
         <v>0</v>
       </c>
       <c r="O32" s="39" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="P32" s="43">
         <v>0</v>
@@ -3286,7 +3283,7 @@
       <c r="Q32" s="43"/>
       <c r="R32" s="43"/>
       <c r="S32" s="39" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="T32" s="39"/>
       <c r="U32" s="43"/>
@@ -3304,14 +3301,14 @@
         <v>21</v>
       </c>
       <c r="C33" s="39" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D33" s="38">
         <v>0</v>
       </c>
       <c r="E33" s="43"/>
       <c r="F33" s="43" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G33" s="43">
         <v>2</v>
@@ -3323,7 +3320,7 @@
         <v>-1</v>
       </c>
       <c r="J33" s="39" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K33" s="38">
         <v>-1</v>
@@ -3334,7 +3331,7 @@
         <v>0</v>
       </c>
       <c r="O33" s="39" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="P33" s="43">
         <v>0</v>
@@ -3377,7 +3374,7 @@
         <v>-1</v>
       </c>
       <c r="J34" s="39" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K34" s="38">
         <v>-1</v>
@@ -3388,7 +3385,7 @@
         <v>0</v>
       </c>
       <c r="O34" s="39" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="P34" s="43">
         <v>-1</v>
@@ -3431,7 +3428,7 @@
         <v>-1</v>
       </c>
       <c r="J35" s="39" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K35" s="38">
         <v>-1</v>
@@ -3442,7 +3439,7 @@
         <v>0</v>
       </c>
       <c r="O35" s="39" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="P35" s="43">
         <v>-1</v>
@@ -3496,7 +3493,7 @@
         <v>0</v>
       </c>
       <c r="O36" s="39" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="P36" s="43">
         <v>6</v>
@@ -3507,7 +3504,7 @@
       <c r="T36" s="39"/>
       <c r="U36" s="43"/>
       <c r="V36" s="43" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="W36" s="43"/>
       <c r="X36" s="43"/>
@@ -3552,7 +3549,7 @@
         <v>0</v>
       </c>
       <c r="O37" s="39" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="P37" s="43">
         <v>6</v>
@@ -3563,7 +3560,7 @@
       <c r="T37" s="39"/>
       <c r="U37" s="43"/>
       <c r="V37" s="43" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="W37" s="43"/>
       <c r="X37" s="43"/>
@@ -3657,7 +3654,7 @@
         <v>1</v>
       </c>
       <c r="L39" s="43" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="M39" s="43"/>
       <c r="N39" s="42">
@@ -3675,7 +3672,7 @@
       <c r="T39" s="39"/>
       <c r="U39" s="43"/>
       <c r="V39" s="43" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="W39" s="43"/>
       <c r="X39" s="43"/>
@@ -3733,7 +3730,7 @@
       <c r="T40" s="39"/>
       <c r="U40" s="43"/>
       <c r="V40" s="43" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="W40" s="43"/>
       <c r="X40" s="43"/>
@@ -3754,7 +3751,7 @@
         <v>0</v>
       </c>
       <c r="E41" s="43" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F41" s="43" t="s">
         <v>124</v>
@@ -3791,7 +3788,7 @@
       <c r="T41" s="39"/>
       <c r="U41" s="43"/>
       <c r="V41" s="43" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="W41" s="43"/>
       <c r="X41" s="43"/>
@@ -3836,7 +3833,7 @@
         <v>0</v>
       </c>
       <c r="O42" s="39" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="P42" s="43">
         <v>6</v>
@@ -3890,7 +3887,7 @@
         <v>0</v>
       </c>
       <c r="O43" s="39" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="P43" s="43">
         <v>0</v>
@@ -3944,7 +3941,7 @@
         <v>0</v>
       </c>
       <c r="O44" s="39" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="P44" s="43">
         <v>5</v>
@@ -3952,9 +3949,7 @@
       <c r="Q44" s="43"/>
       <c r="R44" s="43"/>
       <c r="S44" s="43"/>
-      <c r="T44" s="39" t="s">
-        <v>148</v>
-      </c>
+      <c r="T44" s="39"/>
       <c r="U44" s="43"/>
       <c r="V44" s="43"/>
       <c r="W44" s="43"/>
@@ -6724,15 +6719,15 @@
   </sheetData>
   <autoFilter ref="A12:U114" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="9">
+    <mergeCell ref="V3:V5"/>
+    <mergeCell ref="V6:V7"/>
+    <mergeCell ref="V8:V9"/>
+    <mergeCell ref="F3:H3"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="J3:K3"/>
     <mergeCell ref="B5:E5"/>
     <mergeCell ref="H5:K5"/>
     <mergeCell ref="Q10:Q11"/>
-    <mergeCell ref="V3:V5"/>
-    <mergeCell ref="V6:V7"/>
-    <mergeCell ref="V8:V9"/>
-    <mergeCell ref="F3:H3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/UCATS/pages/猫咪档案.xlsx
+++ b/UCATS/pages/猫咪档案.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5957CEF-24D8-45A8-A86C-494C4EDF57A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC596574-C5AB-4B32-A21D-239F483809DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="校内喵" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">校内喵!$A$12:$U$114</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">校内喵!$A$12:$U$116</definedName>
   </definedNames>
   <calcPr calcId="150001"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="213">
   <si>
     <t>ID</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -839,6 +839,46 @@
   </si>
   <si>
     <t>爆米花、脸谱、一点白的兄弟</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>小小狸</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>猪仔</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>狸白</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>离世</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>东区四公寓</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>可爱狸白</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>大猫灰曾经因为一张照片（呐，就这张嫉妒别的猫猫被摸的照片）走红全网，最终被一位北京小姐姐领养。现在成为了京城阔少，关于大猫灰的动态可以在各平台搜索 [大猫灰]。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>眼上两颗卧蚕橘色眉毛，看起来有一丢丢可怜，亿丢丢可爱。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022-10-01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020年10月1号</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1192,7 +1232,7 @@
     <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1350,6 +1390,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1694,48 +1735,48 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD597"/>
+  <dimension ref="A1:AD599"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="111" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="12" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T44" sqref="T44"/>
+    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="111" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="12" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="V45" sqref="V45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.75" style="1" customWidth="1"/>
-    <col min="2" max="2" width="8.875" style="2"/>
-    <col min="3" max="3" width="8.875" style="3"/>
-    <col min="4" max="4" width="8.625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="9.875" style="3" customWidth="1"/>
-    <col min="6" max="6" width="8.875" style="3"/>
-    <col min="7" max="7" width="7.5" style="3" customWidth="1"/>
-    <col min="8" max="8" width="11.625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="5.125" style="6" customWidth="1"/>
-    <col min="10" max="10" width="10.375" style="3" customWidth="1"/>
-    <col min="11" max="11" width="8.875" style="3"/>
-    <col min="12" max="12" width="13.5" style="8" customWidth="1"/>
-    <col min="13" max="13" width="12.875" style="8" customWidth="1"/>
-    <col min="14" max="14" width="6.625" style="8" customWidth="1"/>
-    <col min="15" max="15" width="40.375" style="3" customWidth="1"/>
-    <col min="16" max="16" width="7.125" style="3" customWidth="1"/>
-    <col min="17" max="17" width="7.625" style="4" customWidth="1"/>
-    <col min="18" max="18" width="7.125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="4.77734375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.88671875" style="2"/>
+    <col min="3" max="3" width="8.88671875" style="3"/>
+    <col min="4" max="4" width="8.6640625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="9.88671875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="8.88671875" style="3"/>
+    <col min="7" max="7" width="7.44140625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="11.6640625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="5.109375" style="6" customWidth="1"/>
+    <col min="10" max="10" width="10.33203125" style="3" customWidth="1"/>
+    <col min="11" max="11" width="8.88671875" style="3"/>
+    <col min="12" max="12" width="13.44140625" style="8" customWidth="1"/>
+    <col min="13" max="13" width="12.88671875" style="8" customWidth="1"/>
+    <col min="14" max="14" width="6.6640625" style="8" customWidth="1"/>
+    <col min="15" max="15" width="40.33203125" style="3" customWidth="1"/>
+    <col min="16" max="16" width="7.109375" style="3" customWidth="1"/>
+    <col min="17" max="17" width="7.6640625" style="4" customWidth="1"/>
+    <col min="18" max="18" width="7.109375" style="3" customWidth="1"/>
     <col min="19" max="19" width="29" style="3" customWidth="1"/>
     <col min="20" max="20" width="33" style="3" customWidth="1"/>
-    <col min="21" max="21" width="18.875" style="3" customWidth="1"/>
-    <col min="22" max="22" width="20.125" style="3" customWidth="1"/>
-    <col min="23" max="24" width="17.625" style="3" customWidth="1"/>
-    <col min="25" max="25" width="15.5" style="12" customWidth="1"/>
-    <col min="26" max="26" width="12.5" style="3" customWidth="1"/>
-    <col min="27" max="27" width="8.875" style="3"/>
-    <col min="28" max="28" width="13.5" style="3" customWidth="1"/>
-    <col min="29" max="29" width="8.875" style="3"/>
-    <col min="30" max="30" width="10.625" style="3" customWidth="1"/>
-    <col min="31" max="16384" width="8.875" style="3"/>
+    <col min="21" max="21" width="18.88671875" style="3" customWidth="1"/>
+    <col min="22" max="22" width="20.109375" style="3" customWidth="1"/>
+    <col min="23" max="24" width="17.6640625" style="3" customWidth="1"/>
+    <col min="25" max="25" width="15.44140625" style="12" customWidth="1"/>
+    <col min="26" max="26" width="12.44140625" style="3" customWidth="1"/>
+    <col min="27" max="27" width="8.88671875" style="3"/>
+    <col min="28" max="28" width="13.44140625" style="3" customWidth="1"/>
+    <col min="29" max="29" width="8.88671875" style="3"/>
+    <col min="30" max="30" width="10.6640625" style="3" customWidth="1"/>
+    <col min="31" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>43</v>
       </c>
@@ -1749,30 +1790,30 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="E2" s="1"/>
       <c r="I2" s="5"/>
       <c r="K2" s="1"/>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="55" t="s">
+      <c r="B3" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="56"/>
+      <c r="C3" s="57"/>
       <c r="D3" s="2"/>
-      <c r="F3" s="67" t="s">
+      <c r="F3" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="68"/>
-      <c r="H3" s="69"/>
+      <c r="G3" s="69"/>
+      <c r="H3" s="70"/>
       <c r="I3" s="5"/>
-      <c r="J3" s="57" t="s">
+      <c r="J3" s="58" t="s">
         <v>17</v>
       </c>
-      <c r="K3" s="58"/>
+      <c r="K3" s="59"/>
       <c r="L3" s="4"/>
       <c r="M3" s="13" t="s">
         <v>20</v>
@@ -1796,7 +1837,7 @@
       <c r="U3" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="V3" s="65" t="s">
+      <c r="V3" s="66" t="s">
         <v>36</v>
       </c>
       <c r="W3" s="7" t="s">
@@ -1819,7 +1860,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="E4" s="1"/>
       <c r="I4" s="5"/>
       <c r="L4" s="4"/>
@@ -1837,7 +1878,7 @@
       <c r="U4" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="V4" s="66"/>
+      <c r="V4" s="67"/>
       <c r="Y4" s="23" t="s">
         <v>52</v>
       </c>
@@ -1845,19 +1886,19 @@
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="59" t="s">
+    <row r="5" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="60"/>
-      <c r="D5" s="60"/>
-      <c r="E5" s="61"/>
-      <c r="H5" s="55" t="s">
+      <c r="C5" s="61"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="62"/>
+      <c r="H5" s="56" t="s">
         <v>41</v>
       </c>
-      <c r="I5" s="62"/>
-      <c r="J5" s="62"/>
-      <c r="K5" s="56"/>
+      <c r="I5" s="63"/>
+      <c r="J5" s="63"/>
+      <c r="K5" s="57"/>
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
@@ -1873,10 +1914,10 @@
       <c r="U5" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="V5" s="66"/>
+      <c r="V5" s="67"/>
       <c r="Y5" s="3"/>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
       <c r="F6" s="11"/>
       <c r="G6" s="11"/>
       <c r="L6" s="4"/>
@@ -1888,7 +1929,7 @@
       <c r="U6" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="V6" s="66" t="s">
+      <c r="V6" s="67" t="s">
         <v>37</v>
       </c>
       <c r="W6" s="7" t="s">
@@ -1911,7 +1952,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
       <c r="C7" s="11"/>
       <c r="D7" s="11"/>
       <c r="E7" s="11"/>
@@ -1936,7 +1977,7 @@
       <c r="U7" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="V7" s="66"/>
+      <c r="V7" s="67"/>
       <c r="Y7" s="21">
         <v>2</v>
       </c>
@@ -1944,7 +1985,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
@@ -1966,7 +2007,7 @@
       <c r="U8" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="V8" s="66" t="s">
+      <c r="V8" s="67" t="s">
         <v>38</v>
       </c>
       <c r="Y8" s="21">
@@ -1976,7 +2017,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
       <c r="C9" s="11"/>
       <c r="D9" s="11"/>
       <c r="E9" s="11"/>
@@ -1998,7 +2039,7 @@
       <c r="U9" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="V9" s="66"/>
+      <c r="V9" s="67"/>
       <c r="Y9" s="21">
         <v>4</v>
       </c>
@@ -2006,7 +2047,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="10" spans="1:30" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:30" ht="15.6" x14ac:dyDescent="0.25">
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
       <c r="E10" s="11"/>
@@ -2021,7 +2062,7 @@
       </c>
       <c r="M10" s="4"/>
       <c r="N10" s="4"/>
-      <c r="Q10" s="63" t="s">
+      <c r="Q10" s="64" t="s">
         <v>73</v>
       </c>
       <c r="R10" s="31" t="s">
@@ -2041,7 +2082,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="11" spans="1:30" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" ht="15.6" x14ac:dyDescent="0.25">
       <c r="F11" s="34" t="s">
         <v>67</v>
       </c>
@@ -2056,14 +2097,14 @@
       </c>
       <c r="M11" s="4"/>
       <c r="N11" s="4"/>
-      <c r="Q11" s="64"/>
+      <c r="Q11" s="65"/>
       <c r="R11" s="4"/>
       <c r="V11" s="34" t="s">
         <v>76</v>
       </c>
       <c r="Y11" s="3"/>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
@@ -2143,7 +2184,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="13" spans="1:30" ht="33" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:30" ht="31.2" x14ac:dyDescent="0.35">
       <c r="A13" s="52"/>
       <c r="B13" s="53">
         <v>1</v>
@@ -2199,7 +2240,7 @@
       <c r="AA13" s="38"/>
       <c r="AB13" s="38"/>
     </row>
-    <row r="14" spans="1:30" ht="66" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:30" ht="62.4" x14ac:dyDescent="0.35">
       <c r="A14" s="52"/>
       <c r="B14" s="53">
         <v>2</v>
@@ -2261,7 +2302,7 @@
       <c r="AA14" s="38"/>
       <c r="AB14" s="38"/>
     </row>
-    <row r="15" spans="1:30" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:30" ht="46.8" x14ac:dyDescent="0.35">
       <c r="A15" s="52"/>
       <c r="B15" s="53">
         <v>3</v>
@@ -2317,7 +2358,7 @@
       <c r="AA15" s="38"/>
       <c r="AB15" s="38"/>
     </row>
-    <row r="16" spans="1:30" ht="66" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:30" ht="78" x14ac:dyDescent="0.35">
       <c r="A16" s="52"/>
       <c r="B16" s="53">
         <v>4</v>
@@ -2375,7 +2416,7 @@
       <c r="AA16" s="38"/>
       <c r="AB16" s="38"/>
     </row>
-    <row r="17" spans="1:28" ht="33" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:28" ht="31.2" x14ac:dyDescent="0.35">
       <c r="A17" s="52"/>
       <c r="B17" s="53">
         <v>5</v>
@@ -2431,7 +2472,7 @@
       <c r="AA17" s="38"/>
       <c r="AB17" s="38"/>
     </row>
-    <row r="18" spans="1:28" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:28" ht="46.8" x14ac:dyDescent="0.35">
       <c r="A18" s="52"/>
       <c r="B18" s="53">
         <v>6</v>
@@ -2491,7 +2532,7 @@
       <c r="AA18" s="38"/>
       <c r="AB18" s="38"/>
     </row>
-    <row r="19" spans="1:28" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:28" customFormat="1" ht="46.8" x14ac:dyDescent="0.35">
       <c r="A19" s="43"/>
       <c r="B19" s="53">
         <v>7</v>
@@ -2547,7 +2588,7 @@
       <c r="AA19" s="43"/>
       <c r="AB19" s="43"/>
     </row>
-    <row r="20" spans="1:28" customFormat="1" ht="66" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:28" customFormat="1" ht="62.4" x14ac:dyDescent="0.35">
       <c r="A20" s="43"/>
       <c r="B20" s="53">
         <v>8</v>
@@ -2603,7 +2644,7 @@
       <c r="AA20" s="43"/>
       <c r="AB20" s="43"/>
     </row>
-    <row r="21" spans="1:28" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:28" customFormat="1" ht="46.8" x14ac:dyDescent="0.35">
       <c r="A21" s="43"/>
       <c r="B21" s="53">
         <v>9</v>
@@ -2661,7 +2702,7 @@
       <c r="AA21" s="43"/>
       <c r="AB21" s="43"/>
     </row>
-    <row r="22" spans="1:28" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:28" customFormat="1" ht="46.8" x14ac:dyDescent="0.35">
       <c r="A22" s="43"/>
       <c r="B22" s="53">
         <v>10</v>
@@ -2725,7 +2766,7 @@
       <c r="AA22" s="43"/>
       <c r="AB22" s="43"/>
     </row>
-    <row r="23" spans="1:28" customFormat="1" ht="66" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:28" customFormat="1" ht="62.4" x14ac:dyDescent="0.35">
       <c r="A23" s="43"/>
       <c r="B23" s="53">
         <v>11</v>
@@ -2781,7 +2822,7 @@
       <c r="AA23" s="43"/>
       <c r="AB23" s="43"/>
     </row>
-    <row r="24" spans="1:28" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:28" customFormat="1" ht="46.8" x14ac:dyDescent="0.35">
       <c r="A24" s="43"/>
       <c r="B24" s="53">
         <v>12</v>
@@ -2843,7 +2884,7 @@
       <c r="AA24" s="43"/>
       <c r="AB24" s="43"/>
     </row>
-    <row r="25" spans="1:28" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:28" customFormat="1" ht="31.2" x14ac:dyDescent="0.35">
       <c r="A25" s="43"/>
       <c r="B25" s="53">
         <v>13</v>
@@ -2899,7 +2940,7 @@
       <c r="AA25" s="43"/>
       <c r="AB25" s="43"/>
     </row>
-    <row r="26" spans="1:28" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:28" customFormat="1" ht="31.2" x14ac:dyDescent="0.35">
       <c r="A26" s="43"/>
       <c r="B26" s="53">
         <v>14</v>
@@ -2957,7 +2998,7 @@
       <c r="AA26" s="43"/>
       <c r="AB26" s="43"/>
     </row>
-    <row r="27" spans="1:28" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:28" customFormat="1" ht="31.2" x14ac:dyDescent="0.35">
       <c r="A27" s="43"/>
       <c r="B27" s="53">
         <v>15</v>
@@ -3013,7 +3054,7 @@
       <c r="AA27" s="43"/>
       <c r="AB27" s="43"/>
     </row>
-    <row r="28" spans="1:28" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:28" customFormat="1" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A28" s="43"/>
       <c r="B28" s="53">
         <v>16</v>
@@ -3069,7 +3110,7 @@
       <c r="AA28" s="43"/>
       <c r="AB28" s="43"/>
     </row>
-    <row r="29" spans="1:28" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:28" customFormat="1" ht="31.2" x14ac:dyDescent="0.35">
       <c r="A29" s="43"/>
       <c r="B29" s="53">
         <v>17</v>
@@ -3125,7 +3166,7 @@
       <c r="AA29" s="43"/>
       <c r="AB29" s="43"/>
     </row>
-    <row r="30" spans="1:28" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:28" customFormat="1" ht="31.2" x14ac:dyDescent="0.35">
       <c r="A30" s="43"/>
       <c r="B30" s="53">
         <v>18</v>
@@ -3181,7 +3222,7 @@
       <c r="AA30" s="43"/>
       <c r="AB30" s="43"/>
     </row>
-    <row r="31" spans="1:28" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:28" customFormat="1" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A31" s="43"/>
       <c r="B31" s="53">
         <v>19</v>
@@ -3239,7 +3280,7 @@
       <c r="AA31" s="43"/>
       <c r="AB31" s="43"/>
     </row>
-    <row r="32" spans="1:28" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:28" customFormat="1" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A32" s="43"/>
       <c r="B32" s="53">
         <v>20</v>
@@ -3295,7 +3336,7 @@
       <c r="AA32" s="43"/>
       <c r="AB32" s="43"/>
     </row>
-    <row r="33" spans="1:28" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:28" customFormat="1" ht="31.2" x14ac:dyDescent="0.35">
       <c r="A33" s="43"/>
       <c r="B33" s="53">
         <v>21</v>
@@ -3349,7 +3390,7 @@
       <c r="AA33" s="43"/>
       <c r="AB33" s="43"/>
     </row>
-    <row r="34" spans="1:28" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:28" customFormat="1" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A34" s="43"/>
       <c r="B34" s="53">
         <v>22</v>
@@ -3403,7 +3444,7 @@
       <c r="AA34" s="43"/>
       <c r="AB34" s="43"/>
     </row>
-    <row r="35" spans="1:28" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:28" customFormat="1" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A35" s="43"/>
       <c r="B35" s="53">
         <v>23</v>
@@ -3457,7 +3498,7 @@
       <c r="AA35" s="43"/>
       <c r="AB35" s="43"/>
     </row>
-    <row r="36" spans="1:28" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:28" customFormat="1" ht="31.2" x14ac:dyDescent="0.35">
       <c r="A36" s="43"/>
       <c r="B36" s="53">
         <v>24</v>
@@ -3513,7 +3554,7 @@
       <c r="AA36" s="43"/>
       <c r="AB36" s="43"/>
     </row>
-    <row r="37" spans="1:28" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:28" customFormat="1" ht="46.8" x14ac:dyDescent="0.35">
       <c r="A37" s="43"/>
       <c r="B37" s="53">
         <v>25</v>
@@ -3569,7 +3610,7 @@
       <c r="AA37" s="43"/>
       <c r="AB37" s="43"/>
     </row>
-    <row r="38" spans="1:28" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:28" customFormat="1" ht="31.2" x14ac:dyDescent="0.35">
       <c r="A38" s="43"/>
       <c r="B38" s="53">
         <v>26</v>
@@ -3623,7 +3664,7 @@
       <c r="AA38" s="43"/>
       <c r="AB38" s="43"/>
     </row>
-    <row r="39" spans="1:28" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:28" customFormat="1" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A39" s="43"/>
       <c r="B39" s="53">
         <v>27</v>
@@ -3681,7 +3722,7 @@
       <c r="AA39" s="43"/>
       <c r="AB39" s="43"/>
     </row>
-    <row r="40" spans="1:28" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:28" customFormat="1" ht="31.2" x14ac:dyDescent="0.35">
       <c r="A40" s="43"/>
       <c r="B40" s="53">
         <v>28</v>
@@ -3739,7 +3780,7 @@
       <c r="AA40" s="43"/>
       <c r="AB40" s="43"/>
     </row>
-    <row r="41" spans="1:28" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:28" customFormat="1" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A41" s="43"/>
       <c r="B41" s="53">
         <v>29</v>
@@ -3797,7 +3838,7 @@
       <c r="AA41" s="43"/>
       <c r="AB41" s="43"/>
     </row>
-    <row r="42" spans="1:28" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:28" customFormat="1" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A42" s="43"/>
       <c r="B42" s="53">
         <v>30</v>
@@ -3851,7 +3892,7 @@
       <c r="AA42" s="43"/>
       <c r="AB42" s="43"/>
     </row>
-    <row r="43" spans="1:28" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:28" customFormat="1" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A43" s="43"/>
       <c r="B43" s="53">
         <v>31</v>
@@ -3905,46 +3946,44 @@
       <c r="AA43" s="43"/>
       <c r="AB43" s="43"/>
     </row>
-    <row r="44" spans="1:28" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:28" customFormat="1" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A44" s="43"/>
       <c r="B44" s="53">
         <v>32</v>
       </c>
       <c r="C44" s="39" t="s">
-        <v>111</v>
+        <v>203</v>
       </c>
       <c r="D44" s="38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E44" s="43"/>
       <c r="F44" s="43" t="s">
-        <v>127</v>
+        <v>205</v>
       </c>
       <c r="G44" s="43">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H44" s="39" t="s">
-        <v>144</v>
+        <v>207</v>
       </c>
       <c r="I44" s="46">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="J44" s="39" t="s">
-        <v>44</v>
+        <v>206</v>
       </c>
       <c r="K44" s="38">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="L44" s="43"/>
       <c r="M44" s="43"/>
-      <c r="N44" s="42">
-        <v>0</v>
-      </c>
+      <c r="N44" s="42"/>
       <c r="O44" s="39" t="s">
-        <v>152</v>
+        <v>208</v>
       </c>
       <c r="P44" s="43">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="Q44" s="43"/>
       <c r="R44" s="43"/>
@@ -3952,36 +3991,62 @@
       <c r="T44" s="39"/>
       <c r="U44" s="43"/>
       <c r="V44" s="43"/>
-      <c r="W44" s="43"/>
+      <c r="W44" s="55" t="s">
+        <v>211</v>
+      </c>
       <c r="X44" s="43"/>
       <c r="Y44" s="43"/>
       <c r="Z44" s="43"/>
       <c r="AA44" s="43"/>
       <c r="AB44" s="43"/>
     </row>
-    <row r="45" spans="1:28" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:28" customFormat="1" ht="78" x14ac:dyDescent="0.35">
       <c r="A45" s="43"/>
-      <c r="B45" s="43"/>
-      <c r="C45" s="43"/>
-      <c r="D45" s="43"/>
+      <c r="B45" s="53">
+        <v>33</v>
+      </c>
+      <c r="C45" s="39" t="s">
+        <v>204</v>
+      </c>
+      <c r="D45" s="38">
+        <v>1</v>
+      </c>
       <c r="E45" s="43"/>
-      <c r="F45" s="43"/>
-      <c r="G45" s="43"/>
-      <c r="H45" s="43"/>
-      <c r="I45" s="43"/>
-      <c r="J45" s="43"/>
-      <c r="K45" s="43"/>
+      <c r="F45" s="43" t="s">
+        <v>194</v>
+      </c>
+      <c r="G45" s="43">
+        <v>2</v>
+      </c>
+      <c r="H45" s="39"/>
+      <c r="I45" s="46">
+        <v>-1</v>
+      </c>
+      <c r="J45" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="K45" s="38">
+        <v>1</v>
+      </c>
       <c r="L45" s="43"/>
       <c r="M45" s="43"/>
-      <c r="N45" s="43"/>
-      <c r="O45" s="43"/>
-      <c r="P45" s="43"/>
+      <c r="N45" s="42"/>
+      <c r="O45" s="39" t="s">
+        <v>210</v>
+      </c>
+      <c r="P45" s="43">
+        <v>6</v>
+      </c>
       <c r="Q45" s="43"/>
       <c r="R45" s="43"/>
       <c r="S45" s="43"/>
-      <c r="T45" s="39"/>
+      <c r="T45" s="39" t="s">
+        <v>209</v>
+      </c>
       <c r="U45" s="43"/>
-      <c r="V45" s="43"/>
+      <c r="V45" s="43" t="s">
+        <v>212</v>
+      </c>
       <c r="W45" s="43"/>
       <c r="X45" s="43"/>
       <c r="Y45" s="43"/>
@@ -3989,23 +4054,47 @@
       <c r="AA45" s="43"/>
       <c r="AB45" s="43"/>
     </row>
-    <row r="46" spans="1:28" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:28" customFormat="1" ht="31.2" x14ac:dyDescent="0.35">
       <c r="A46" s="43"/>
-      <c r="B46" s="43"/>
-      <c r="C46" s="43"/>
-      <c r="D46" s="43"/>
+      <c r="B46" s="53">
+        <v>34</v>
+      </c>
+      <c r="C46" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="D46" s="38">
+        <v>1</v>
+      </c>
       <c r="E46" s="43"/>
-      <c r="F46" s="43"/>
-      <c r="G46" s="43"/>
-      <c r="H46" s="43"/>
-      <c r="I46" s="43"/>
-      <c r="J46" s="43"/>
-      <c r="K46" s="43"/>
+      <c r="F46" s="43" t="s">
+        <v>127</v>
+      </c>
+      <c r="G46" s="43">
+        <v>5</v>
+      </c>
+      <c r="H46" s="39" t="s">
+        <v>144</v>
+      </c>
+      <c r="I46" s="46">
+        <v>0</v>
+      </c>
+      <c r="J46" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="K46" s="38">
+        <v>1</v>
+      </c>
       <c r="L46" s="43"/>
       <c r="M46" s="43"/>
-      <c r="N46" s="43"/>
-      <c r="O46" s="43"/>
-      <c r="P46" s="43"/>
+      <c r="N46" s="42">
+        <v>0</v>
+      </c>
+      <c r="O46" s="39" t="s">
+        <v>152</v>
+      </c>
+      <c r="P46" s="43">
+        <v>5</v>
+      </c>
       <c r="Q46" s="43"/>
       <c r="R46" s="43"/>
       <c r="S46" s="43"/>
@@ -4019,7 +4108,7 @@
       <c r="AA46" s="43"/>
       <c r="AB46" s="43"/>
     </row>
-    <row r="47" spans="1:28" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:28" customFormat="1" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A47" s="43"/>
       <c r="B47" s="43"/>
       <c r="C47" s="43"/>
@@ -4049,7 +4138,7 @@
       <c r="AA47" s="43"/>
       <c r="AB47" s="43"/>
     </row>
-    <row r="48" spans="1:28" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:28" customFormat="1" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A48" s="43"/>
       <c r="B48" s="43"/>
       <c r="C48" s="43"/>
@@ -4079,7 +4168,7 @@
       <c r="AA48" s="43"/>
       <c r="AB48" s="43"/>
     </row>
-    <row r="49" spans="1:28" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:28" customFormat="1" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A49" s="43"/>
       <c r="B49" s="43"/>
       <c r="C49" s="43"/>
@@ -4099,7 +4188,7 @@
       <c r="Q49" s="43"/>
       <c r="R49" s="43"/>
       <c r="S49" s="43"/>
-      <c r="T49" s="38"/>
+      <c r="T49" s="39"/>
       <c r="U49" s="43"/>
       <c r="V49" s="43"/>
       <c r="W49" s="43"/>
@@ -4109,7 +4198,7 @@
       <c r="AA49" s="43"/>
       <c r="AB49" s="43"/>
     </row>
-    <row r="50" spans="1:28" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:28" customFormat="1" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A50" s="43"/>
       <c r="B50" s="43"/>
       <c r="C50" s="43"/>
@@ -4129,7 +4218,7 @@
       <c r="Q50" s="43"/>
       <c r="R50" s="43"/>
       <c r="S50" s="43"/>
-      <c r="T50" s="43"/>
+      <c r="T50" s="39"/>
       <c r="U50" s="43"/>
       <c r="V50" s="43"/>
       <c r="W50" s="43"/>
@@ -4139,7 +4228,7 @@
       <c r="AA50" s="43"/>
       <c r="AB50" s="43"/>
     </row>
-    <row r="51" spans="1:28" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:28" customFormat="1" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A51" s="43"/>
       <c r="B51" s="43"/>
       <c r="C51" s="43"/>
@@ -4159,7 +4248,7 @@
       <c r="Q51" s="43"/>
       <c r="R51" s="43"/>
       <c r="S51" s="43"/>
-      <c r="T51" s="43"/>
+      <c r="T51" s="38"/>
       <c r="U51" s="43"/>
       <c r="V51" s="43"/>
       <c r="W51" s="43"/>
@@ -4169,7 +4258,7 @@
       <c r="AA51" s="43"/>
       <c r="AB51" s="43"/>
     </row>
-    <row r="52" spans="1:28" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:28" customFormat="1" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A52" s="43"/>
       <c r="B52" s="43"/>
       <c r="C52" s="43"/>
@@ -4199,7 +4288,7 @@
       <c r="AA52" s="43"/>
       <c r="AB52" s="43"/>
     </row>
-    <row r="53" spans="1:28" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:28" customFormat="1" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A53" s="43"/>
       <c r="B53" s="43"/>
       <c r="C53" s="43"/>
@@ -4229,7 +4318,7 @@
       <c r="AA53" s="43"/>
       <c r="AB53" s="43"/>
     </row>
-    <row r="54" spans="1:28" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:28" customFormat="1" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A54" s="43"/>
       <c r="B54" s="43"/>
       <c r="C54" s="43"/>
@@ -4259,7 +4348,7 @@
       <c r="AA54" s="43"/>
       <c r="AB54" s="43"/>
     </row>
-    <row r="55" spans="1:28" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:28" customFormat="1" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A55" s="43"/>
       <c r="B55" s="43"/>
       <c r="C55" s="43"/>
@@ -4289,7 +4378,7 @@
       <c r="AA55" s="43"/>
       <c r="AB55" s="43"/>
     </row>
-    <row r="56" spans="1:28" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:28" customFormat="1" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A56" s="43"/>
       <c r="B56" s="43"/>
       <c r="C56" s="43"/>
@@ -4319,7 +4408,7 @@
       <c r="AA56" s="43"/>
       <c r="AB56" s="43"/>
     </row>
-    <row r="57" spans="1:28" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:28" customFormat="1" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A57" s="43"/>
       <c r="B57" s="43"/>
       <c r="C57" s="43"/>
@@ -4349,7 +4438,7 @@
       <c r="AA57" s="43"/>
       <c r="AB57" s="43"/>
     </row>
-    <row r="58" spans="1:28" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:28" customFormat="1" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A58" s="43"/>
       <c r="B58" s="43"/>
       <c r="C58" s="43"/>
@@ -4379,7 +4468,7 @@
       <c r="AA58" s="43"/>
       <c r="AB58" s="43"/>
     </row>
-    <row r="59" spans="1:28" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:28" customFormat="1" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A59" s="43"/>
       <c r="B59" s="43"/>
       <c r="C59" s="43"/>
@@ -4409,7 +4498,7 @@
       <c r="AA59" s="43"/>
       <c r="AB59" s="43"/>
     </row>
-    <row r="60" spans="1:28" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:28" customFormat="1" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A60" s="43"/>
       <c r="B60" s="43"/>
       <c r="C60" s="43"/>
@@ -4439,7 +4528,7 @@
       <c r="AA60" s="43"/>
       <c r="AB60" s="43"/>
     </row>
-    <row r="61" spans="1:28" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:28" customFormat="1" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A61" s="43"/>
       <c r="B61" s="43"/>
       <c r="C61" s="43"/>
@@ -4469,7 +4558,7 @@
       <c r="AA61" s="43"/>
       <c r="AB61" s="43"/>
     </row>
-    <row r="62" spans="1:28" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:28" customFormat="1" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A62" s="43"/>
       <c r="B62" s="43"/>
       <c r="C62" s="43"/>
@@ -4499,7 +4588,7 @@
       <c r="AA62" s="43"/>
       <c r="AB62" s="43"/>
     </row>
-    <row r="63" spans="1:28" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:28" customFormat="1" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A63" s="43"/>
       <c r="B63" s="43"/>
       <c r="C63" s="43"/>
@@ -4529,7 +4618,7 @@
       <c r="AA63" s="43"/>
       <c r="AB63" s="43"/>
     </row>
-    <row r="64" spans="1:28" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:28" customFormat="1" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A64" s="43"/>
       <c r="B64" s="43"/>
       <c r="C64" s="43"/>
@@ -4559,7 +4648,7 @@
       <c r="AA64" s="43"/>
       <c r="AB64" s="43"/>
     </row>
-    <row r="65" spans="1:28" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:28" customFormat="1" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A65" s="43"/>
       <c r="B65" s="43"/>
       <c r="C65" s="43"/>
@@ -4589,7 +4678,7 @@
       <c r="AA65" s="43"/>
       <c r="AB65" s="43"/>
     </row>
-    <row r="66" spans="1:28" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:28" customFormat="1" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A66" s="43"/>
       <c r="B66" s="43"/>
       <c r="C66" s="43"/>
@@ -4619,7 +4708,7 @@
       <c r="AA66" s="43"/>
       <c r="AB66" s="43"/>
     </row>
-    <row r="67" spans="1:28" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:28" customFormat="1" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A67" s="43"/>
       <c r="B67" s="43"/>
       <c r="C67" s="43"/>
@@ -4649,7 +4738,7 @@
       <c r="AA67" s="43"/>
       <c r="AB67" s="43"/>
     </row>
-    <row r="68" spans="1:28" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:28" customFormat="1" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A68" s="43"/>
       <c r="B68" s="43"/>
       <c r="C68" s="43"/>
@@ -4679,7 +4768,7 @@
       <c r="AA68" s="43"/>
       <c r="AB68" s="43"/>
     </row>
-    <row r="69" spans="1:28" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:28" customFormat="1" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A69" s="43"/>
       <c r="B69" s="43"/>
       <c r="C69" s="43"/>
@@ -4709,7 +4798,7 @@
       <c r="AA69" s="43"/>
       <c r="AB69" s="43"/>
     </row>
-    <row r="70" spans="1:28" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:28" customFormat="1" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A70" s="43"/>
       <c r="B70" s="43"/>
       <c r="C70" s="43"/>
@@ -4739,7 +4828,7 @@
       <c r="AA70" s="43"/>
       <c r="AB70" s="43"/>
     </row>
-    <row r="71" spans="1:28" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:28" customFormat="1" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A71" s="43"/>
       <c r="B71" s="43"/>
       <c r="C71" s="43"/>
@@ -4769,7 +4858,7 @@
       <c r="AA71" s="43"/>
       <c r="AB71" s="43"/>
     </row>
-    <row r="72" spans="1:28" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:28" customFormat="1" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A72" s="43"/>
       <c r="B72" s="43"/>
       <c r="C72" s="43"/>
@@ -4799,7 +4888,7 @@
       <c r="AA72" s="43"/>
       <c r="AB72" s="43"/>
     </row>
-    <row r="73" spans="1:28" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:28" customFormat="1" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A73" s="43"/>
       <c r="B73" s="43"/>
       <c r="C73" s="43"/>
@@ -4829,7 +4918,7 @@
       <c r="AA73" s="43"/>
       <c r="AB73" s="43"/>
     </row>
-    <row r="74" spans="1:28" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:28" customFormat="1" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A74" s="43"/>
       <c r="B74" s="43"/>
       <c r="C74" s="43"/>
@@ -4859,7 +4948,7 @@
       <c r="AA74" s="43"/>
       <c r="AB74" s="43"/>
     </row>
-    <row r="75" spans="1:28" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:28" customFormat="1" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A75" s="43"/>
       <c r="B75" s="43"/>
       <c r="C75" s="43"/>
@@ -4889,7 +4978,7 @@
       <c r="AA75" s="43"/>
       <c r="AB75" s="43"/>
     </row>
-    <row r="76" spans="1:28" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:28" customFormat="1" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A76" s="43"/>
       <c r="B76" s="43"/>
       <c r="C76" s="43"/>
@@ -4919,7 +5008,7 @@
       <c r="AA76" s="43"/>
       <c r="AB76" s="43"/>
     </row>
-    <row r="77" spans="1:28" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:28" customFormat="1" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A77" s="43"/>
       <c r="B77" s="43"/>
       <c r="C77" s="43"/>
@@ -4949,7 +5038,7 @@
       <c r="AA77" s="43"/>
       <c r="AB77" s="43"/>
     </row>
-    <row r="78" spans="1:28" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:28" customFormat="1" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A78" s="43"/>
       <c r="B78" s="43"/>
       <c r="C78" s="43"/>
@@ -4979,7 +5068,7 @@
       <c r="AA78" s="43"/>
       <c r="AB78" s="43"/>
     </row>
-    <row r="79" spans="1:28" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:28" customFormat="1" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A79" s="43"/>
       <c r="B79" s="43"/>
       <c r="C79" s="43"/>
@@ -5009,7 +5098,7 @@
       <c r="AA79" s="43"/>
       <c r="AB79" s="43"/>
     </row>
-    <row r="80" spans="1:28" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:28" customFormat="1" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A80" s="43"/>
       <c r="B80" s="43"/>
       <c r="C80" s="43"/>
@@ -5039,7 +5128,7 @@
       <c r="AA80" s="43"/>
       <c r="AB80" s="43"/>
     </row>
-    <row r="81" spans="1:28" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:28" customFormat="1" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A81" s="43"/>
       <c r="B81" s="43"/>
       <c r="C81" s="43"/>
@@ -5069,7 +5158,7 @@
       <c r="AA81" s="43"/>
       <c r="AB81" s="43"/>
     </row>
-    <row r="82" spans="1:28" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:28" customFormat="1" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A82" s="43"/>
       <c r="B82" s="43"/>
       <c r="C82" s="43"/>
@@ -5099,7 +5188,7 @@
       <c r="AA82" s="43"/>
       <c r="AB82" s="43"/>
     </row>
-    <row r="83" spans="1:28" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:28" customFormat="1" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A83" s="43"/>
       <c r="B83" s="43"/>
       <c r="C83" s="43"/>
@@ -5129,7 +5218,7 @@
       <c r="AA83" s="43"/>
       <c r="AB83" s="43"/>
     </row>
-    <row r="84" spans="1:28" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:28" customFormat="1" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A84" s="43"/>
       <c r="B84" s="43"/>
       <c r="C84" s="43"/>
@@ -5159,7 +5248,7 @@
       <c r="AA84" s="43"/>
       <c r="AB84" s="43"/>
     </row>
-    <row r="85" spans="1:28" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:28" customFormat="1" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A85" s="43"/>
       <c r="B85" s="43"/>
       <c r="C85" s="43"/>
@@ -5189,7 +5278,7 @@
       <c r="AA85" s="43"/>
       <c r="AB85" s="43"/>
     </row>
-    <row r="86" spans="1:28" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:28" customFormat="1" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A86" s="43"/>
       <c r="B86" s="43"/>
       <c r="C86" s="43"/>
@@ -5219,7 +5308,7 @@
       <c r="AA86" s="43"/>
       <c r="AB86" s="43"/>
     </row>
-    <row r="87" spans="1:28" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:28" customFormat="1" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A87" s="43"/>
       <c r="B87" s="43"/>
       <c r="C87" s="43"/>
@@ -5249,7 +5338,7 @@
       <c r="AA87" s="43"/>
       <c r="AB87" s="43"/>
     </row>
-    <row r="88" spans="1:28" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:28" customFormat="1" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A88" s="43"/>
       <c r="B88" s="43"/>
       <c r="C88" s="43"/>
@@ -5279,7 +5368,7 @@
       <c r="AA88" s="43"/>
       <c r="AB88" s="43"/>
     </row>
-    <row r="89" spans="1:28" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:28" customFormat="1" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A89" s="43"/>
       <c r="B89" s="43"/>
       <c r="C89" s="43"/>
@@ -5309,7 +5398,7 @@
       <c r="AA89" s="43"/>
       <c r="AB89" s="43"/>
     </row>
-    <row r="90" spans="1:28" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:28" customFormat="1" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A90" s="43"/>
       <c r="B90" s="43"/>
       <c r="C90" s="43"/>
@@ -5339,7 +5428,7 @@
       <c r="AA90" s="43"/>
       <c r="AB90" s="43"/>
     </row>
-    <row r="91" spans="1:28" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:28" customFormat="1" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A91" s="43"/>
       <c r="B91" s="43"/>
       <c r="C91" s="43"/>
@@ -5369,7 +5458,7 @@
       <c r="AA91" s="43"/>
       <c r="AB91" s="43"/>
     </row>
-    <row r="92" spans="1:28" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:28" customFormat="1" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A92" s="43"/>
       <c r="B92" s="43"/>
       <c r="C92" s="43"/>
@@ -5399,7 +5488,7 @@
       <c r="AA92" s="43"/>
       <c r="AB92" s="43"/>
     </row>
-    <row r="93" spans="1:28" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:28" customFormat="1" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A93" s="43"/>
       <c r="B93" s="43"/>
       <c r="C93" s="43"/>
@@ -5429,7 +5518,7 @@
       <c r="AA93" s="43"/>
       <c r="AB93" s="43"/>
     </row>
-    <row r="94" spans="1:28" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:28" customFormat="1" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A94" s="43"/>
       <c r="B94" s="43"/>
       <c r="C94" s="43"/>
@@ -5459,7 +5548,7 @@
       <c r="AA94" s="43"/>
       <c r="AB94" s="43"/>
     </row>
-    <row r="95" spans="1:28" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:28" customFormat="1" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A95" s="43"/>
       <c r="B95" s="43"/>
       <c r="C95" s="43"/>
@@ -5489,7 +5578,7 @@
       <c r="AA95" s="43"/>
       <c r="AB95" s="43"/>
     </row>
-    <row r="96" spans="1:28" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:28" customFormat="1" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A96" s="43"/>
       <c r="B96" s="43"/>
       <c r="C96" s="43"/>
@@ -5519,7 +5608,7 @@
       <c r="AA96" s="43"/>
       <c r="AB96" s="43"/>
     </row>
-    <row r="97" spans="1:28" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:28" customFormat="1" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A97" s="43"/>
       <c r="B97" s="43"/>
       <c r="C97" s="43"/>
@@ -5549,7 +5638,7 @@
       <c r="AA97" s="43"/>
       <c r="AB97" s="43"/>
     </row>
-    <row r="98" spans="1:28" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:28" customFormat="1" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A98" s="43"/>
       <c r="B98" s="43"/>
       <c r="C98" s="43"/>
@@ -5579,7 +5668,7 @@
       <c r="AA98" s="43"/>
       <c r="AB98" s="43"/>
     </row>
-    <row r="99" spans="1:28" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:28" customFormat="1" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A99" s="43"/>
       <c r="B99" s="43"/>
       <c r="C99" s="43"/>
@@ -5609,7 +5698,7 @@
       <c r="AA99" s="43"/>
       <c r="AB99" s="43"/>
     </row>
-    <row r="100" spans="1:28" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:28" customFormat="1" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A100" s="43"/>
       <c r="B100" s="43"/>
       <c r="C100" s="43"/>
@@ -5639,7 +5728,7 @@
       <c r="AA100" s="43"/>
       <c r="AB100" s="43"/>
     </row>
-    <row r="101" spans="1:28" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:28" customFormat="1" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A101" s="43"/>
       <c r="B101" s="43"/>
       <c r="C101" s="43"/>
@@ -5669,7 +5758,7 @@
       <c r="AA101" s="43"/>
       <c r="AB101" s="43"/>
     </row>
-    <row r="102" spans="1:28" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:28" customFormat="1" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A102" s="43"/>
       <c r="B102" s="43"/>
       <c r="C102" s="43"/>
@@ -5699,7 +5788,7 @@
       <c r="AA102" s="43"/>
       <c r="AB102" s="43"/>
     </row>
-    <row r="103" spans="1:28" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:28" customFormat="1" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A103" s="43"/>
       <c r="B103" s="43"/>
       <c r="C103" s="43"/>
@@ -5729,7 +5818,7 @@
       <c r="AA103" s="43"/>
       <c r="AB103" s="43"/>
     </row>
-    <row r="104" spans="1:28" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:28" customFormat="1" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A104" s="43"/>
       <c r="B104" s="43"/>
       <c r="C104" s="43"/>
@@ -5759,7 +5848,7 @@
       <c r="AA104" s="43"/>
       <c r="AB104" s="43"/>
     </row>
-    <row r="105" spans="1:28" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:28" customFormat="1" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A105" s="43"/>
       <c r="B105" s="43"/>
       <c r="C105" s="43"/>
@@ -5789,7 +5878,7 @@
       <c r="AA105" s="43"/>
       <c r="AB105" s="43"/>
     </row>
-    <row r="106" spans="1:28" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:28" customFormat="1" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A106" s="43"/>
       <c r="B106" s="43"/>
       <c r="C106" s="43"/>
@@ -5819,7 +5908,7 @@
       <c r="AA106" s="43"/>
       <c r="AB106" s="43"/>
     </row>
-    <row r="107" spans="1:28" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:28" customFormat="1" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A107" s="43"/>
       <c r="B107" s="43"/>
       <c r="C107" s="43"/>
@@ -5849,7 +5938,7 @@
       <c r="AA107" s="43"/>
       <c r="AB107" s="43"/>
     </row>
-    <row r="108" spans="1:28" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:28" customFormat="1" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A108" s="43"/>
       <c r="B108" s="43"/>
       <c r="C108" s="43"/>
@@ -5879,7 +5968,7 @@
       <c r="AA108" s="43"/>
       <c r="AB108" s="43"/>
     </row>
-    <row r="109" spans="1:28" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:28" customFormat="1" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A109" s="43"/>
       <c r="B109" s="43"/>
       <c r="C109" s="43"/>
@@ -5909,7 +5998,7 @@
       <c r="AA109" s="43"/>
       <c r="AB109" s="43"/>
     </row>
-    <row r="110" spans="1:28" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:28" customFormat="1" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A110" s="43"/>
       <c r="B110" s="43"/>
       <c r="C110" s="43"/>
@@ -5939,7 +6028,7 @@
       <c r="AA110" s="43"/>
       <c r="AB110" s="43"/>
     </row>
-    <row r="111" spans="1:28" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:28" customFormat="1" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A111" s="43"/>
       <c r="B111" s="43"/>
       <c r="C111" s="43"/>
@@ -5969,7 +6058,7 @@
       <c r="AA111" s="43"/>
       <c r="AB111" s="43"/>
     </row>
-    <row r="112" spans="1:28" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:28" customFormat="1" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A112" s="43"/>
       <c r="B112" s="43"/>
       <c r="C112" s="43"/>
@@ -5999,7 +6088,7 @@
       <c r="AA112" s="43"/>
       <c r="AB112" s="43"/>
     </row>
-    <row r="113" spans="1:28" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:28" customFormat="1" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A113" s="43"/>
       <c r="B113" s="43"/>
       <c r="C113" s="43"/>
@@ -6029,7 +6118,7 @@
       <c r="AA113" s="43"/>
       <c r="AB113" s="43"/>
     </row>
-    <row r="114" spans="1:28" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:28" customFormat="1" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A114" s="43"/>
       <c r="B114" s="43"/>
       <c r="C114" s="43"/>
@@ -6059,7 +6148,7 @@
       <c r="AA114" s="43"/>
       <c r="AB114" s="43"/>
     </row>
-    <row r="115" spans="1:28" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:28" customFormat="1" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A115" s="43"/>
       <c r="B115" s="43"/>
       <c r="C115" s="43"/>
@@ -6089,7 +6178,7 @@
       <c r="AA115" s="43"/>
       <c r="AB115" s="43"/>
     </row>
-    <row r="116" spans="1:28" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:28" customFormat="1" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A116" s="43"/>
       <c r="B116" s="43"/>
       <c r="C116" s="43"/>
@@ -6119,7 +6208,7 @@
       <c r="AA116" s="43"/>
       <c r="AB116" s="43"/>
     </row>
-    <row r="117" spans="1:28" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:28" customFormat="1" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A117" s="43"/>
       <c r="B117" s="43"/>
       <c r="C117" s="43"/>
@@ -6149,7 +6238,7 @@
       <c r="AA117" s="43"/>
       <c r="AB117" s="43"/>
     </row>
-    <row r="118" spans="1:28" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:28" customFormat="1" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A118" s="43"/>
       <c r="B118" s="43"/>
       <c r="C118" s="43"/>
@@ -6179,7 +6268,7 @@
       <c r="AA118" s="43"/>
       <c r="AB118" s="43"/>
     </row>
-    <row r="119" spans="1:28" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:28" customFormat="1" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A119" s="43"/>
       <c r="B119" s="43"/>
       <c r="C119" s="43"/>
@@ -6209,7 +6298,7 @@
       <c r="AA119" s="43"/>
       <c r="AB119" s="43"/>
     </row>
-    <row r="120" spans="1:28" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:28" customFormat="1" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A120" s="43"/>
       <c r="B120" s="43"/>
       <c r="C120" s="43"/>
@@ -6239,485 +6328,545 @@
       <c r="AA120" s="43"/>
       <c r="AB120" s="43"/>
     </row>
-    <row r="121" spans="1:28" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="122" spans="1:28" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="123" spans="1:28" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="124" spans="1:28" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="125" spans="1:28" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="126" spans="1:28" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="127" spans="1:28" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="128" spans="1:28" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="129" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="130" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="131" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="132" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="133" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="134" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="135" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="136" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="137" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="138" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="139" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="140" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="141" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="142" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="143" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="144" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="145" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="146" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="147" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="148" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="149" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="150" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="151" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="152" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="153" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="154" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="155" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="156" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="157" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="158" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="159" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="160" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="161" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="162" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="163" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="164" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="165" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="166" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="167" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="168" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="169" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="170" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="171" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="172" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="173" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="174" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="175" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="176" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="177" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="178" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="179" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="180" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="181" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="182" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="183" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="184" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="185" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="186" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="187" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="188" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="189" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="190" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="191" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="192" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="193" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="194" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="195" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="196" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="197" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="198" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="199" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="200" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="201" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="202" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="203" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="204" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="205" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="206" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="207" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="208" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="209" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="210" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="211" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="212" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="213" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="214" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="215" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="216" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="217" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="218" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="219" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="220" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="221" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="222" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="223" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="224" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="225" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="226" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="227" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="228" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="229" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="230" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="231" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="232" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="233" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="234" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="235" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="236" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="237" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="238" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="239" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="240" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="241" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="242" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="243" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="244" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="245" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="246" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="247" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="248" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="249" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="250" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="251" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="252" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="253" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="254" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="255" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="256" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="257" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="258" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="259" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="260" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="261" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="262" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="263" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="264" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="265" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="266" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="267" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="268" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="269" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="270" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="271" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="272" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="273" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="274" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="275" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="276" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="277" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="278" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="279" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="280" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="281" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="282" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="283" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="284" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="285" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="286" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="287" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="288" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="289" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="290" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="291" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="292" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="293" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="294" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="295" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="296" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="297" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="298" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="299" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="300" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="301" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="302" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="303" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="304" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="305" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="306" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="307" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="308" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="309" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="310" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="311" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="312" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="313" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="314" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="315" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="316" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="317" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="318" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="319" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="320" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="321" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="322" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="323" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="324" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="325" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="326" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="327" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="328" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="329" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="330" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="331" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="332" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="333" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="334" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="335" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="336" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="337" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="338" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="339" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="340" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="341" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="342" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="343" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="344" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="345" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="346" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="347" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="348" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="349" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="350" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="351" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="352" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="353" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="354" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="355" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="356" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="357" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="358" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="359" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="360" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="361" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="362" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="363" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="364" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="365" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="366" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="367" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="368" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="369" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="370" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="371" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="372" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="373" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="374" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="375" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="376" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="377" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="378" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="379" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="380" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="381" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="382" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="383" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="384" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="385" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="386" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="387" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="388" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="389" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="390" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="391" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="392" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="393" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="394" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="395" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="396" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="397" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="398" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="399" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="400" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="401" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="402" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="403" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="404" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="405" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="406" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="407" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="408" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="409" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="410" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="411" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="412" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="413" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="414" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="415" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="416" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="417" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="418" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="419" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="420" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="421" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="422" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="423" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="424" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="425" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="426" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="427" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="428" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="429" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="430" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="431" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="432" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="433" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="434" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="435" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="436" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="437" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="438" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="439" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="440" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="441" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="442" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="443" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="444" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="445" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="446" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="447" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="448" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="449" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="450" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="451" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="452" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="453" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="454" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="455" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="456" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="457" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="458" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="459" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="460" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="461" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="462" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="463" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="464" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="465" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="466" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="467" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="468" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="469" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="470" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="471" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="472" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="473" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="474" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="475" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="476" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="477" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="478" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="479" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="480" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="481" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="482" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="483" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="484" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="485" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="486" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="487" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="488" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="489" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="490" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="491" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="492" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="493" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="494" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="495" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="496" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="497" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="498" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="499" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="500" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="501" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="502" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="503" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="504" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="505" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="506" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="507" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="508" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="509" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="510" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="511" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="512" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="513" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="514" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="515" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="516" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="517" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="518" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="519" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="520" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="521" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="522" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="523" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="524" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="525" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="526" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="527" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="528" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="529" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="530" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="531" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="532" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="533" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="534" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="535" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="536" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="537" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="538" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="539" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="540" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="541" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="542" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="543" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="544" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="545" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="546" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="547" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="548" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="549" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="550" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="551" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="552" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="553" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="554" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="555" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="556" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="557" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="558" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="559" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="560" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="561" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="562" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="563" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="564" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="565" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="566" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="567" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="568" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="569" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="570" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="571" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="572" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="573" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="574" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="575" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="576" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="577" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="578" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="579" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="580" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="581" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="582" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="583" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="584" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="585" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="586" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="587" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="588" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="589" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="590" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="591" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="592" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="593" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="594" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="595" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="596" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="597" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="121" spans="1:28" customFormat="1" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A121" s="43"/>
+      <c r="B121" s="43"/>
+      <c r="C121" s="43"/>
+      <c r="D121" s="43"/>
+      <c r="E121" s="43"/>
+      <c r="F121" s="43"/>
+      <c r="G121" s="43"/>
+      <c r="H121" s="43"/>
+      <c r="I121" s="43"/>
+      <c r="J121" s="43"/>
+      <c r="K121" s="43"/>
+      <c r="L121" s="43"/>
+      <c r="M121" s="43"/>
+      <c r="N121" s="43"/>
+      <c r="O121" s="43"/>
+      <c r="P121" s="43"/>
+      <c r="Q121" s="43"/>
+      <c r="R121" s="43"/>
+      <c r="S121" s="43"/>
+      <c r="T121" s="43"/>
+      <c r="U121" s="43"/>
+      <c r="V121" s="43"/>
+      <c r="W121" s="43"/>
+      <c r="X121" s="43"/>
+      <c r="Y121" s="43"/>
+      <c r="Z121" s="43"/>
+      <c r="AA121" s="43"/>
+      <c r="AB121" s="43"/>
+    </row>
+    <row r="122" spans="1:28" customFormat="1" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A122" s="43"/>
+      <c r="B122" s="43"/>
+      <c r="C122" s="43"/>
+      <c r="D122" s="43"/>
+      <c r="E122" s="43"/>
+      <c r="F122" s="43"/>
+      <c r="G122" s="43"/>
+      <c r="H122" s="43"/>
+      <c r="I122" s="43"/>
+      <c r="J122" s="43"/>
+      <c r="K122" s="43"/>
+      <c r="L122" s="43"/>
+      <c r="M122" s="43"/>
+      <c r="N122" s="43"/>
+      <c r="O122" s="43"/>
+      <c r="P122" s="43"/>
+      <c r="Q122" s="43"/>
+      <c r="R122" s="43"/>
+      <c r="S122" s="43"/>
+      <c r="T122" s="43"/>
+      <c r="U122" s="43"/>
+      <c r="V122" s="43"/>
+      <c r="W122" s="43"/>
+      <c r="X122" s="43"/>
+      <c r="Y122" s="43"/>
+      <c r="Z122" s="43"/>
+      <c r="AA122" s="43"/>
+      <c r="AB122" s="43"/>
+    </row>
+    <row r="123" spans="1:28" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="124" spans="1:28" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="125" spans="1:28" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="126" spans="1:28" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="127" spans="1:28" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="128" spans="1:28" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="129" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="130" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="131" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="132" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="133" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="134" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="135" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="136" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="137" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="138" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="139" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="140" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="141" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="142" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="143" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="144" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="145" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="146" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="147" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="148" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="149" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="150" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="151" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="152" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="153" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="154" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="155" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="156" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="157" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="158" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="159" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="160" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="161" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="162" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="163" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="164" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="165" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="166" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="167" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="168" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="169" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="170" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="171" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="172" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="173" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="174" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="175" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="176" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="177" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="178" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="179" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="180" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="181" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="182" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="183" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="184" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="185" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="186" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="187" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="188" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="189" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="190" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="191" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="192" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="193" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="194" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="195" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="196" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="197" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="198" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="199" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="200" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="201" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="202" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="203" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="204" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="205" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="206" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="207" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="208" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="209" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="210" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="211" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="212" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="213" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="214" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="215" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="216" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="217" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="218" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="219" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="220" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="221" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="222" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="223" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="224" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="225" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="226" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="227" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="228" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="229" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="230" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="231" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="232" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="233" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="234" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="235" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="236" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="237" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="238" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="239" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="240" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="241" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="242" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="243" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="244" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="245" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="246" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="247" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="248" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="249" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="250" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="251" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="252" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="253" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="254" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="255" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="256" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="257" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="258" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="259" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="260" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="261" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="262" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="263" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="264" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="265" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="266" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="267" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="268" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="269" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="270" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="271" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="272" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="273" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="274" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="275" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="276" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="277" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="278" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="279" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="280" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="281" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="282" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="283" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="284" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="285" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="286" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="287" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="288" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="289" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="290" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="291" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="292" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="293" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="294" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="295" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="296" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="297" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="298" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="299" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="300" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="301" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="302" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="303" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="304" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="305" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="306" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="307" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="308" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="309" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="310" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="311" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="312" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="313" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="314" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="315" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="316" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="317" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="318" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="319" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="320" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="321" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="322" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="323" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="324" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="325" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="326" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="327" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="328" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="329" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="330" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="331" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="332" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="333" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="334" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="335" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="336" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="337" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="338" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="339" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="340" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="341" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="342" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="343" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="344" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="345" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="346" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="347" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="348" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="349" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="350" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="351" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="352" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="353" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="354" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="355" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="356" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="357" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="358" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="359" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="360" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="361" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="362" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="363" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="364" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="365" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="366" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="367" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="368" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="369" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="370" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="371" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="372" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="373" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="374" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="375" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="376" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="377" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="378" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="379" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="380" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="381" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="382" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="383" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="384" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="385" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="386" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="387" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="388" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="389" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="390" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="391" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="392" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="393" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="394" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="395" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="396" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="397" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="398" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="399" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="400" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="401" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="402" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="403" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="404" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="405" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="406" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="407" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="408" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="409" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="410" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="411" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="412" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="413" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="414" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="415" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="416" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="417" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="418" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="419" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="420" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="421" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="422" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="423" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="424" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="425" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="426" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="427" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="428" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="429" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="430" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="431" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="432" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="433" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="434" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="435" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="436" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="437" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="438" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="439" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="440" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="441" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="442" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="443" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="444" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="445" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="446" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="447" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="448" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="449" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="450" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="451" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="452" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="453" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="454" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="455" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="456" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="457" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="458" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="459" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="460" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="461" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="462" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="463" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="464" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="465" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="466" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="467" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="468" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="469" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="470" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="471" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="472" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="473" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="474" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="475" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="476" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="477" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="478" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="479" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="480" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="481" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="482" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="483" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="484" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="485" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="486" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="487" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="488" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="489" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="490" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="491" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="492" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="493" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="494" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="495" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="496" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="497" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="498" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="499" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="500" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="501" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="502" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="503" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="504" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="505" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="506" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="507" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="508" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="509" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="510" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="511" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="512" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="513" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="514" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="515" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="516" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="517" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="518" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="519" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="520" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="521" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="522" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="523" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="524" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="525" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="526" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="527" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="528" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="529" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="530" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="531" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="532" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="533" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="534" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="535" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="536" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="537" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="538" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="539" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="540" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="541" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="542" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="543" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="544" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="545" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="546" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="547" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="548" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="549" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="550" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="551" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="552" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="553" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="554" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="555" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="556" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="557" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="558" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="559" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="560" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="561" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="562" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="563" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="564" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="565" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="566" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="567" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="568" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="569" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="570" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="571" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="572" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="573" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="574" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="575" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="576" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="577" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="578" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="579" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="580" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="581" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="582" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="583" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="584" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="585" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="586" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="587" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="588" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="589" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="590" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="591" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="592" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="593" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="594" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="595" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="596" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="597" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="598" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="599" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <autoFilter ref="A12:U114" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A12:U116" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="9">
     <mergeCell ref="V3:V5"/>
     <mergeCell ref="V6:V7"/>

--- a/UCATS/pages/猫咪档案.xlsx
+++ b/UCATS/pages/猫咪档案.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC596574-C5AB-4B32-A21D-239F483809DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7523CB45-E507-446B-809D-D3C5CAF0896F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,7 +11,7 @@
     <sheet name="校内喵" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">校内喵!$A$12:$U$116</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">校内喵!$A$12:$U$121</definedName>
   </definedNames>
   <calcPr calcId="150001"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="241">
   <si>
     <t>ID</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -180,9 +180,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>建立档案：2019-03-30</t>
-  </si>
-  <si>
     <t>送养</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -242,15 +239,6 @@
   </si>
   <si>
     <t>离世原因</t>
-  </si>
-  <si>
-    <t>第21次更新</t>
-  </si>
-  <si>
-    <t>最近更新时间：2020-05-13</t>
-  </si>
-  <si>
-    <t>本次更新简要说明by czj：添加毕业猫2只，更新杰希送养状态</t>
   </si>
   <si>
     <t>必填</t>
@@ -476,12 +464,6 @@
     <t>爆米花</t>
   </si>
   <si>
-    <t>小白</t>
-  </si>
-  <si>
-    <t>异瞳白</t>
-  </si>
-  <si>
     <t>长毛黑点</t>
   </si>
   <si>
@@ -646,10 +628,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>纯白色，最近出现</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>纯白色，异瞳狮子猫，绝美</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -694,10 +672,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>没猫德的时候让好多果壳er打了疫苗，真气人。好在现在有了猫德也找到了长期饭票。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>😸 脸脸的老公 |  😸😸 疑似东区众多猫猫的生父</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -710,10 +684,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>😸丑丑的孩子 | 😸😸是亲人小橘、白围巾的妹妹</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>😸丑丑的孩子 | 😸😸亲人小橘、白围巾是同一窝的兄弟姐妹 | 😸😸😸是小三花的姐姐</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -826,22 +796,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>爆米花、一点白、汉堡的兄弟</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>爆米花、脸谱、汉堡的兄弟</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>脸谱、一点白、汉堡的兄弟</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>爆米花、脸谱、一点白的兄弟</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>小小狸</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -866,10 +824,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>大猫灰曾经因为一张照片（呐，就这张嫉妒别的猫猫被摸的照片）走红全网，最终被一位北京小姐姐领养。现在成为了京城阔少，关于大猫灰的动态可以在各平台搜索 [大猫灰]。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>眼上两颗卧蚕橘色眉毛，看起来有一丢丢可怜，亿丢丢可爱。</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -879,6 +833,321 @@
   </si>
   <si>
     <t>2020年10月1号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>健康</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>仙女</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>女明星</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>纯白色，上学期出现后，最近不见了。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>朵朵</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>猪仔曾经因为一张照片（呐，就上面这张嫉妒别的猫猫被摸的照片）走红全网，最终被一位北京小姐姐领养。现在成为了京城阔少，关于猪仔的动态可以在各平台搜索 [大猫灰]。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI Emoji"/>
+        <family val="2"/>
+      </rPr>
+      <t>😸</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">丑丑的孩子 | </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI Emoji"/>
+        <family val="2"/>
+      </rPr>
+      <t>😸😸</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">是亲人小橘、白围巾的妹妹 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">| </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>🐱🐱🐱</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 和齐刘海关系很好</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>大佐</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>大佑</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>nature</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>乖乖</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>呆呆</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>刀哥</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>爆米花、一点白、汉堡的兄弟，除去爆米花，剩下他们三个有点难分，可以看看猫猫关系图谱</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>脸谱、一点白、汉堡的兄弟，除去爆米花，剩下他们三个有点难分，可以看看猫猫关系图谱</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>爆米花、脸谱、一点白的兄弟，除去爆米花，剩下他们三个有点难分，可以看看猫猫关系图谱</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>和脸谱、汉堡、呆呆关系很好。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023-04-12</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>奶牛</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>建立档案：202301</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>最近更新时间：2023-04-23</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>第3次更新</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>西区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>离世</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>脸颊两侧有黑色条纹，鼻子右侧黑点</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>脸颊左侧有黑团，鼻子左侧有黑点</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>整个鼻子上部都是黑团，像一把刀</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>橘白</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>全橘</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>送养</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022年3月5号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>上半身橘色 下半身白色</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023年4月首次出现，因为性格超好，马上就被人领养了。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>和脸谱、汉堡、朵朵关系很好</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>绝育之后就没咋出现了</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>没猫德的时候让好多果壳er打了疫苗，真气人。齐刘海历经多次轮转现在又回到了果壳，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>😔</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，命途多舛的毛孩子。</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI Emoji"/>
+        <family val="2"/>
+      </rPr>
+      <t>😸</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">刘海妈的孩子 | </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI Emoji"/>
+        <family val="2"/>
+      </rPr>
+      <t>😸😸</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">齐刘海、斜刘海、不亲人小橘是同一窝的兄弟姐妹 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">| </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>😸😸😸</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>和小三花关系很好，现在天天晚上私会小三花。</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>demo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>脸谱认人，与熟的人很亲</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>西区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>东区</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -889,7 +1158,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1003,6 +1272,24 @@
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Segoe UI Emoji"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Segoe UI Symbol"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="8">
@@ -1232,7 +1519,7 @@
     <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1391,6 +1678,17 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="31" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1735,11 +2033,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD599"/>
+  <dimension ref="A1:AD604"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="111" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="12" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="V45" sqref="V45"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="111" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="12" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1766,7 +2064,8 @@
     <col min="20" max="20" width="33" style="3" customWidth="1"/>
     <col min="21" max="21" width="18.88671875" style="3" customWidth="1"/>
     <col min="22" max="22" width="20.109375" style="3" customWidth="1"/>
-    <col min="23" max="24" width="17.6640625" style="3" customWidth="1"/>
+    <col min="23" max="23" width="17.6640625" style="56" customWidth="1"/>
+    <col min="24" max="24" width="17.6640625" style="3" customWidth="1"/>
     <col min="25" max="25" width="15.44140625" style="12" customWidth="1"/>
     <col min="26" max="26" width="12.44140625" style="3" customWidth="1"/>
     <col min="27" max="27" width="8.88671875" style="3"/>
@@ -1778,16 +2077,13 @@
   <sheetData>
     <row r="1" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>43</v>
+        <v>219</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>65</v>
+        <v>220</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>66</v>
+        <v>221</v>
       </c>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.25">
@@ -1799,21 +2095,21 @@
       <c r="A3" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="56" t="s">
+      <c r="B3" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="57"/>
+      <c r="C3" s="62"/>
       <c r="D3" s="2"/>
-      <c r="F3" s="68" t="s">
+      <c r="F3" s="73" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="69"/>
-      <c r="H3" s="70"/>
+      <c r="G3" s="74"/>
+      <c r="H3" s="75"/>
       <c r="I3" s="5"/>
-      <c r="J3" s="58" t="s">
+      <c r="J3" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="K3" s="59"/>
+      <c r="K3" s="64"/>
       <c r="L3" s="4"/>
       <c r="M3" s="13" t="s">
         <v>20</v>
@@ -1837,27 +2133,27 @@
       <c r="U3" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="V3" s="66" t="s">
+      <c r="V3" s="71" t="s">
         <v>36</v>
       </c>
-      <c r="W3" s="7" t="s">
-        <v>46</v>
+      <c r="W3" s="57" t="s">
+        <v>45</v>
       </c>
       <c r="X3" s="7"/>
       <c r="Y3" s="16">
         <v>0</v>
       </c>
       <c r="Z3" s="18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AB3" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="AC3" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD3" s="10" t="s">
         <v>60</v>
-      </c>
-      <c r="AC3" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="AD3" s="10" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.25">
@@ -1878,27 +2174,27 @@
       <c r="U4" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="V4" s="67"/>
+      <c r="V4" s="72"/>
       <c r="Y4" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z4" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="Z4" s="24" t="s">
-        <v>53</v>
-      </c>
     </row>
     <row r="5" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="60" t="s">
+      <c r="B5" s="65" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="61"/>
-      <c r="D5" s="61"/>
-      <c r="E5" s="62"/>
-      <c r="H5" s="56" t="s">
+      <c r="C5" s="66"/>
+      <c r="D5" s="66"/>
+      <c r="E5" s="67"/>
+      <c r="H5" s="61" t="s">
         <v>41</v>
       </c>
-      <c r="I5" s="63"/>
-      <c r="J5" s="63"/>
-      <c r="K5" s="57"/>
+      <c r="I5" s="68"/>
+      <c r="J5" s="68"/>
+      <c r="K5" s="62"/>
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
@@ -1914,7 +2210,7 @@
       <c r="U5" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="V5" s="67"/>
+      <c r="V5" s="72"/>
       <c r="Y5" s="3"/>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.25">
@@ -1929,27 +2225,27 @@
       <c r="U6" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="V6" s="67" t="s">
+      <c r="V6" s="72" t="s">
         <v>37</v>
       </c>
-      <c r="W6" s="7" t="s">
-        <v>55</v>
+      <c r="W6" s="57" t="s">
+        <v>54</v>
       </c>
       <c r="X6" s="7"/>
       <c r="Y6" s="16">
         <v>1</v>
       </c>
       <c r="Z6" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB6" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="AC6" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="AB6" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="AC6" s="9" t="s">
-        <v>52</v>
-      </c>
       <c r="AD6" s="10" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.25">
@@ -1966,10 +2262,10 @@
         <v>42</v>
       </c>
       <c r="Q7" s="27" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="R7" s="28" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="T7" s="21">
         <v>2</v>
@@ -1977,12 +2273,12 @@
       <c r="U7" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="V7" s="67"/>
+      <c r="V7" s="72"/>
       <c r="Y7" s="21">
         <v>2</v>
       </c>
       <c r="Z7" s="29" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.25">
@@ -1996,10 +2292,10 @@
       <c r="M8" s="4"/>
       <c r="N8" s="4"/>
       <c r="Q8" s="30" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="R8" s="35" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="T8" s="21">
         <v>1</v>
@@ -2007,14 +2303,14 @@
       <c r="U8" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="V8" s="67" t="s">
+      <c r="V8" s="72" t="s">
         <v>38</v>
       </c>
       <c r="Y8" s="21">
         <v>3</v>
       </c>
       <c r="Z8" s="29" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.25">
@@ -2028,10 +2324,10 @@
       <c r="M9" s="4"/>
       <c r="N9" s="4"/>
       <c r="Q9" s="30" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="R9" s="36" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="T9" s="21">
         <v>0</v>
@@ -2039,12 +2335,12 @@
       <c r="U9" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="V9" s="67"/>
+      <c r="V9" s="72"/>
       <c r="Y9" s="21">
         <v>4</v>
       </c>
       <c r="Z9" s="29" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:30" ht="15.6" x14ac:dyDescent="0.25">
@@ -2055,18 +2351,18 @@
       <c r="G10" s="11"/>
       <c r="I10" s="4"/>
       <c r="J10" s="3" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="L10" s="37" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="M10" s="4"/>
       <c r="N10" s="4"/>
-      <c r="Q10" s="64" t="s">
-        <v>73</v>
+      <c r="Q10" s="69" t="s">
+        <v>69</v>
       </c>
       <c r="R10" s="31" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="T10" s="23">
         <v>-1</v>
@@ -2079,28 +2375,28 @@
         <v>5</v>
       </c>
       <c r="Z10" s="24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:30" ht="15.6" x14ac:dyDescent="0.25">
       <c r="F11" s="34" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G11" s="34" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="J11" s="34" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="L11" s="37" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="M11" s="4"/>
       <c r="N11" s="4"/>
-      <c r="Q11" s="65"/>
+      <c r="Q11" s="70"/>
       <c r="R11" s="4"/>
       <c r="V11" s="34" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="Y11" s="3"/>
     </row>
@@ -2115,7 +2411,7 @@
         <v>1</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>2</v>
@@ -2124,7 +2420,7 @@
         <v>3</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>4</v>
@@ -2145,7 +2441,7 @@
         <v>40</v>
       </c>
       <c r="N12" s="4" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="O12" s="3" t="s">
         <v>9</v>
@@ -2154,16 +2450,16 @@
         <v>27</v>
       </c>
       <c r="Q12" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="R12" s="22" t="s">
         <v>48</v>
-      </c>
-      <c r="R12" s="22" t="s">
-        <v>49</v>
       </c>
       <c r="S12" s="3" t="s">
         <v>10</v>
       </c>
       <c r="T12" s="3" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="U12" s="3" t="s">
         <v>12</v>
@@ -2171,17 +2467,17 @@
       <c r="V12" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="W12" s="3" t="s">
+      <c r="W12" s="56" t="s">
+        <v>61</v>
+      </c>
+      <c r="X12" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="X12" s="3" t="s">
-        <v>63</v>
-      </c>
       <c r="Y12" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Z12" s="3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:30" ht="31.2" x14ac:dyDescent="0.35">
@@ -2190,26 +2486,26 @@
         <v>1</v>
       </c>
       <c r="C13" s="39" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D13" s="38">
         <v>2</v>
       </c>
       <c r="E13" s="38"/>
       <c r="F13" s="43" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="G13" s="38">
         <v>4</v>
       </c>
       <c r="H13" s="39" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="I13" s="40">
         <v>0</v>
       </c>
       <c r="J13" s="39" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="K13" s="38">
         <v>0</v>
@@ -2220,7 +2516,7 @@
         <v>0</v>
       </c>
       <c r="O13" s="39" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="P13" s="43">
         <v>2</v>
@@ -2228,12 +2524,12 @@
       <c r="Q13" s="44"/>
       <c r="R13" s="43"/>
       <c r="S13" s="39" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="T13" s="39"/>
       <c r="U13" s="38"/>
       <c r="V13" s="38"/>
-      <c r="W13" s="38"/>
+      <c r="W13" s="58"/>
       <c r="X13" s="38"/>
       <c r="Y13" s="38"/>
       <c r="Z13" s="38"/>
@@ -2246,28 +2542,28 @@
         <v>2</v>
       </c>
       <c r="C14" s="39" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D14" s="38">
         <v>1</v>
       </c>
       <c r="E14" s="38" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="F14" s="43" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="G14" s="43">
         <v>2</v>
       </c>
       <c r="H14" s="39" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="I14" s="40">
         <v>1</v>
       </c>
       <c r="J14" s="39" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="K14" s="38">
         <v>0</v>
@@ -2280,7 +2576,7 @@
         <v>0</v>
       </c>
       <c r="O14" s="39" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="P14" s="43">
         <v>6</v>
@@ -2288,14 +2584,14 @@
       <c r="Q14" s="44"/>
       <c r="R14" s="43"/>
       <c r="S14" s="39" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="T14" s="39" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="U14" s="38"/>
       <c r="V14" s="38"/>
-      <c r="W14" s="38"/>
+      <c r="W14" s="58"/>
       <c r="X14" s="38"/>
       <c r="Y14" s="38"/>
       <c r="Z14" s="38"/>
@@ -2308,26 +2604,26 @@
         <v>3</v>
       </c>
       <c r="C15" s="39" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D15" s="38">
         <v>1</v>
       </c>
       <c r="E15" s="38"/>
       <c r="F15" s="38" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="G15" s="38">
         <v>4</v>
       </c>
       <c r="H15" s="39" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="I15" s="46">
         <v>-1</v>
       </c>
       <c r="J15" s="39" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="K15" s="47">
         <v>0</v>
@@ -2338,7 +2634,7 @@
         <v>0</v>
       </c>
       <c r="O15" s="39" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="P15" s="38">
         <v>-1</v>
@@ -2346,12 +2642,12 @@
       <c r="Q15" s="44"/>
       <c r="R15" s="43"/>
       <c r="S15" s="39" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="T15" s="39"/>
       <c r="U15" s="38"/>
       <c r="V15" s="38"/>
-      <c r="W15" s="38"/>
+      <c r="W15" s="58"/>
       <c r="X15" s="38"/>
       <c r="Y15" s="38"/>
       <c r="Z15" s="38"/>
@@ -2364,26 +2660,26 @@
         <v>4</v>
       </c>
       <c r="C16" s="39" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D16" s="38">
         <v>1</v>
       </c>
       <c r="E16" s="38"/>
       <c r="F16" s="49" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="G16" s="49">
         <v>4</v>
       </c>
       <c r="H16" s="39" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="I16" s="46">
         <v>0</v>
       </c>
       <c r="J16" s="39" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="K16" s="38">
         <v>0</v>
@@ -2394,7 +2690,7 @@
         <v>0</v>
       </c>
       <c r="O16" s="39" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="P16" s="38">
         <v>0</v>
@@ -2402,46 +2698,46 @@
       <c r="Q16" s="44"/>
       <c r="R16" s="43"/>
       <c r="S16" s="39" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="T16" s="39" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="U16" s="38"/>
       <c r="V16" s="38"/>
-      <c r="W16" s="38"/>
+      <c r="W16" s="58"/>
       <c r="X16" s="38"/>
       <c r="Y16" s="38"/>
       <c r="Z16" s="38"/>
       <c r="AA16" s="38"/>
       <c r="AB16" s="38"/>
     </row>
-    <row r="17" spans="1:28" ht="31.2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:28" ht="48" x14ac:dyDescent="0.35">
       <c r="A17" s="52"/>
       <c r="B17" s="53">
         <v>5</v>
       </c>
       <c r="C17" s="39" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D17" s="38">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E17" s="38"/>
       <c r="F17" s="38" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="G17" s="38">
         <v>4</v>
       </c>
       <c r="H17" s="39" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="I17" s="46">
         <v>0</v>
       </c>
       <c r="J17" s="39" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="K17" s="38">
         <v>0</v>
@@ -2452,7 +2748,7 @@
         <v>0</v>
       </c>
       <c r="O17" s="39" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="P17" s="47">
         <v>6</v>
@@ -2460,12 +2756,12 @@
       <c r="Q17" s="44"/>
       <c r="R17" s="43"/>
       <c r="S17" s="39" t="s">
-        <v>170</v>
+        <v>206</v>
       </c>
       <c r="T17" s="39"/>
       <c r="U17" s="38"/>
       <c r="V17" s="38"/>
-      <c r="W17" s="38"/>
+      <c r="W17" s="58"/>
       <c r="X17" s="38"/>
       <c r="Y17" s="38"/>
       <c r="Z17" s="38"/>
@@ -2478,39 +2774,39 @@
         <v>6</v>
       </c>
       <c r="C18" s="39" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D18" s="38">
         <v>1</v>
       </c>
       <c r="E18" s="38"/>
       <c r="F18" s="43" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="G18" s="43">
         <v>2</v>
       </c>
       <c r="H18" s="39" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="I18" s="46">
         <v>0</v>
       </c>
       <c r="J18" s="39" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K18" s="38">
         <v>1</v>
       </c>
       <c r="L18" s="43" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="M18" s="42"/>
       <c r="N18" s="42">
         <v>0</v>
       </c>
       <c r="O18" s="39" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="P18" s="47">
         <v>6</v>
@@ -2518,14 +2814,14 @@
       <c r="Q18" s="44"/>
       <c r="R18" s="43"/>
       <c r="S18" s="39" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="T18" s="39"/>
       <c r="U18" s="38"/>
       <c r="V18" s="38" t="s">
-        <v>148</v>
-      </c>
-      <c r="W18" s="38"/>
+        <v>142</v>
+      </c>
+      <c r="W18" s="58"/>
       <c r="X18" s="38"/>
       <c r="Y18" s="38"/>
       <c r="Z18" s="38"/>
@@ -2538,26 +2834,26 @@
         <v>7</v>
       </c>
       <c r="C19" s="39" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D19" s="38">
         <v>2</v>
       </c>
       <c r="E19" s="43"/>
       <c r="F19" s="43" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="G19" s="43">
         <v>2</v>
       </c>
       <c r="H19" s="39" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="I19" s="46">
         <v>0</v>
       </c>
       <c r="J19" s="39" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="K19" s="38">
         <v>0</v>
@@ -2568,7 +2864,7 @@
         <v>0</v>
       </c>
       <c r="O19" s="39" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="P19" s="43">
         <v>6</v>
@@ -2576,12 +2872,12 @@
       <c r="Q19" s="43"/>
       <c r="R19" s="43"/>
       <c r="S19" s="39" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="T19" s="39"/>
       <c r="U19" s="43"/>
       <c r="V19" s="43"/>
-      <c r="W19" s="43"/>
+      <c r="W19" s="55"/>
       <c r="X19" s="43"/>
       <c r="Y19" s="43"/>
       <c r="Z19" s="43"/>
@@ -2594,26 +2890,26 @@
         <v>8</v>
       </c>
       <c r="C20" s="39" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D20" s="38">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E20" s="43"/>
       <c r="F20" s="43" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="G20" s="43">
         <v>2</v>
       </c>
       <c r="H20" s="39" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="I20" s="46">
         <v>0</v>
       </c>
       <c r="J20" s="39" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="K20" s="38">
         <v>0</v>
@@ -2624,7 +2920,7 @@
         <v>0</v>
       </c>
       <c r="O20" s="39" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="P20" s="43">
         <v>4</v>
@@ -2632,12 +2928,12 @@
       <c r="Q20" s="43"/>
       <c r="R20" s="43"/>
       <c r="S20" s="39" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="T20" s="39"/>
       <c r="U20" s="43"/>
       <c r="V20" s="43"/>
-      <c r="W20" s="43"/>
+      <c r="W20" s="55"/>
       <c r="X20" s="43"/>
       <c r="Y20" s="43"/>
       <c r="Z20" s="43"/>
@@ -2650,26 +2946,26 @@
         <v>9</v>
       </c>
       <c r="C21" s="39" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D21" s="38">
         <v>2</v>
       </c>
       <c r="E21" s="43"/>
       <c r="F21" s="43" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="G21" s="43">
         <v>2</v>
       </c>
       <c r="H21" s="39" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="I21" s="46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21" s="39" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K21" s="38">
         <v>1</v>
@@ -2680,7 +2976,7 @@
         <v>0</v>
       </c>
       <c r="O21" s="39" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="P21" s="43">
         <v>6</v>
@@ -2688,61 +2984,61 @@
       <c r="Q21" s="43"/>
       <c r="R21" s="43"/>
       <c r="S21" s="39" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="T21" s="39"/>
       <c r="U21" s="43"/>
       <c r="V21" s="38" t="s">
-        <v>146</v>
-      </c>
-      <c r="W21" s="43"/>
+        <v>140</v>
+      </c>
+      <c r="W21" s="55"/>
       <c r="X21" s="43"/>
       <c r="Y21" s="43"/>
       <c r="Z21" s="43"/>
       <c r="AA21" s="43"/>
       <c r="AB21" s="43"/>
     </row>
-    <row r="22" spans="1:28" customFormat="1" ht="46.8" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:28" customFormat="1" ht="79.2" x14ac:dyDescent="0.35">
       <c r="A22" s="43"/>
       <c r="B22" s="53">
         <v>10</v>
       </c>
       <c r="C22" s="39" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D22" s="38">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E22" s="54" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="F22" s="43" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="G22" s="43">
         <v>2</v>
       </c>
       <c r="H22" s="39" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="I22" s="46">
         <v>1</v>
       </c>
       <c r="J22" s="39" t="s">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="K22" s="38">
         <v>1</v>
       </c>
       <c r="L22" s="43" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="M22" s="43"/>
       <c r="N22" s="42">
         <v>0</v>
       </c>
       <c r="O22" s="39" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="P22" s="43">
         <v>6</v>
@@ -2750,16 +3046,14 @@
       <c r="Q22" s="43"/>
       <c r="R22" s="43"/>
       <c r="S22" s="39" t="s">
-        <v>174</v>
+        <v>236</v>
       </c>
       <c r="T22" s="39" t="s">
-        <v>166</v>
+        <v>235</v>
       </c>
       <c r="U22" s="43"/>
-      <c r="V22" s="38" t="s">
-        <v>146</v>
-      </c>
-      <c r="W22" s="43"/>
+      <c r="V22" s="38"/>
+      <c r="W22" s="55"/>
       <c r="X22" s="43"/>
       <c r="Y22" s="43"/>
       <c r="Z22" s="43"/>
@@ -2772,26 +3066,26 @@
         <v>11</v>
       </c>
       <c r="C23" s="39" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D23" s="38">
         <v>1</v>
       </c>
       <c r="E23" s="43"/>
       <c r="F23" s="43" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="G23" s="43">
         <v>2</v>
       </c>
       <c r="H23" s="39" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="I23" s="46">
         <v>-1</v>
       </c>
       <c r="J23" s="39" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="K23" s="38">
         <v>0</v>
@@ -2802,7 +3096,7 @@
         <v>0</v>
       </c>
       <c r="O23" s="39" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="P23" s="43">
         <v>0</v>
@@ -2810,12 +3104,12 @@
       <c r="Q23" s="43"/>
       <c r="R23" s="43"/>
       <c r="S23" s="39" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="T23" s="39"/>
       <c r="U23" s="43"/>
       <c r="V23" s="43"/>
-      <c r="W23" s="43"/>
+      <c r="W23" s="55"/>
       <c r="X23" s="43"/>
       <c r="Y23" s="43"/>
       <c r="Z23" s="43"/>
@@ -2828,32 +3122,32 @@
         <v>12</v>
       </c>
       <c r="C24" s="39" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D24" s="38">
         <v>2</v>
       </c>
       <c r="E24" s="43"/>
       <c r="F24" s="43" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G24" s="43">
         <v>1</v>
       </c>
       <c r="H24" s="39" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="I24" s="46">
         <v>0</v>
       </c>
       <c r="J24" s="39" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K24" s="38">
         <v>1</v>
       </c>
       <c r="L24" s="43" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="M24" s="50">
         <v>44713</v>
@@ -2862,7 +3156,7 @@
         <v>0</v>
       </c>
       <c r="O24" s="39" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="P24" s="43">
         <v>6</v>
@@ -2870,14 +3164,14 @@
       <c r="Q24" s="43"/>
       <c r="R24" s="43"/>
       <c r="S24" s="39" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="T24" s="39"/>
       <c r="U24" s="43"/>
       <c r="V24" s="38" t="s">
-        <v>146</v>
-      </c>
-      <c r="W24" s="43"/>
+        <v>140</v>
+      </c>
+      <c r="W24" s="55"/>
       <c r="X24" s="43"/>
       <c r="Y24" s="43"/>
       <c r="Z24" s="43"/>
@@ -2890,26 +3184,26 @@
         <v>13</v>
       </c>
       <c r="C25" s="51" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D25" s="38">
         <v>2</v>
       </c>
       <c r="E25" s="43"/>
       <c r="F25" s="43" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="G25" s="43">
         <v>2</v>
       </c>
       <c r="H25" s="39" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="I25" s="46">
         <v>1</v>
       </c>
       <c r="J25" s="39" t="s">
-        <v>131</v>
+        <v>200</v>
       </c>
       <c r="K25" s="38">
         <v>1</v>
@@ -2920,7 +3214,7 @@
         <v>1</v>
       </c>
       <c r="O25" s="39" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="P25" s="43">
         <v>6</v>
@@ -2928,12 +3222,12 @@
       <c r="Q25" s="43"/>
       <c r="R25" s="43"/>
       <c r="S25" s="51" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="T25" s="51"/>
       <c r="U25" s="43"/>
       <c r="V25" s="43"/>
-      <c r="W25" s="43"/>
+      <c r="W25" s="55"/>
       <c r="X25" s="43"/>
       <c r="Y25" s="43"/>
       <c r="Z25" s="43"/>
@@ -2946,26 +3240,26 @@
         <v>14</v>
       </c>
       <c r="C26" s="39" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D26" s="38">
         <v>0</v>
       </c>
       <c r="E26" s="43"/>
       <c r="F26" s="43" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="G26" s="43">
         <v>2</v>
       </c>
       <c r="H26" s="39" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="I26" s="46">
         <v>1</v>
       </c>
       <c r="J26" s="39" t="s">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="K26" s="38">
         <v>1</v>
@@ -2976,7 +3270,7 @@
         <v>0</v>
       </c>
       <c r="O26" s="39" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="P26" s="43">
         <v>4</v>
@@ -2984,14 +3278,12 @@
       <c r="Q26" s="43"/>
       <c r="R26" s="43"/>
       <c r="S26" s="51" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="T26" s="39"/>
       <c r="U26" s="43"/>
-      <c r="V26" s="38" t="s">
-        <v>146</v>
-      </c>
-      <c r="W26" s="43"/>
+      <c r="V26" s="38"/>
+      <c r="W26" s="55"/>
       <c r="X26" s="43"/>
       <c r="Y26" s="43"/>
       <c r="Z26" s="43"/>
@@ -3004,26 +3296,26 @@
         <v>15</v>
       </c>
       <c r="C27" s="39" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D27" s="38">
         <v>0</v>
       </c>
       <c r="E27" s="43"/>
       <c r="F27" s="43" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="G27" s="43">
         <v>2</v>
       </c>
       <c r="H27" s="39" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="I27" s="46">
         <v>-1</v>
       </c>
       <c r="J27" s="39" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="K27" s="38">
         <v>0</v>
@@ -3034,7 +3326,7 @@
         <v>0</v>
       </c>
       <c r="O27" s="39" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="P27" s="43">
         <v>0</v>
@@ -3042,12 +3334,12 @@
       <c r="Q27" s="43"/>
       <c r="R27" s="43"/>
       <c r="S27" s="51" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="T27" s="39"/>
       <c r="U27" s="43"/>
       <c r="V27" s="43"/>
-      <c r="W27" s="43"/>
+      <c r="W27" s="55"/>
       <c r="X27" s="43"/>
       <c r="Y27" s="43"/>
       <c r="Z27" s="43"/>
@@ -3060,26 +3352,26 @@
         <v>16</v>
       </c>
       <c r="C28" s="39" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D28" s="38">
         <v>1</v>
       </c>
       <c r="E28" s="43"/>
       <c r="F28" s="43" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="G28" s="43">
         <v>2</v>
       </c>
       <c r="H28" s="39" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="I28" s="46">
         <v>1</v>
       </c>
       <c r="J28" s="39" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="K28" s="38">
         <v>0</v>
@@ -3090,7 +3382,7 @@
         <v>0</v>
       </c>
       <c r="O28" s="39" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="P28" s="43">
         <v>1</v>
@@ -3098,44 +3390,46 @@
       <c r="Q28" s="43"/>
       <c r="R28" s="43"/>
       <c r="S28" s="51" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="T28" s="39"/>
       <c r="U28" s="43"/>
       <c r="V28" s="43"/>
-      <c r="W28" s="43"/>
+      <c r="W28" s="55"/>
       <c r="X28" s="43"/>
       <c r="Y28" s="43"/>
-      <c r="Z28" s="43"/>
+      <c r="Z28" s="43">
+        <v>1</v>
+      </c>
       <c r="AA28" s="43"/>
       <c r="AB28" s="43"/>
     </row>
-    <row r="29" spans="1:28" customFormat="1" ht="31.2" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:28" customFormat="1" ht="46.8" x14ac:dyDescent="0.35">
       <c r="A29" s="43"/>
       <c r="B29" s="53">
         <v>17</v>
       </c>
       <c r="C29" s="39" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D29" s="38">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E29" s="43"/>
       <c r="F29" s="43" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="G29" s="43">
         <v>2</v>
       </c>
       <c r="H29" s="39" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="I29" s="46">
         <v>1</v>
       </c>
       <c r="J29" s="39" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="K29" s="38">
         <v>0</v>
@@ -3146,7 +3440,7 @@
         <v>0</v>
       </c>
       <c r="O29" s="39" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="P29" s="43">
         <v>6</v>
@@ -3154,12 +3448,14 @@
       <c r="Q29" s="43"/>
       <c r="R29" s="43"/>
       <c r="S29" s="39" t="s">
-        <v>199</v>
-      </c>
-      <c r="T29" s="39"/>
+        <v>213</v>
+      </c>
+      <c r="T29" s="39" t="s">
+        <v>238</v>
+      </c>
       <c r="U29" s="43"/>
       <c r="V29" s="43"/>
-      <c r="W29" s="43"/>
+      <c r="W29" s="55"/>
       <c r="X29" s="43"/>
       <c r="Y29" s="43"/>
       <c r="Z29" s="43"/>
@@ -3172,26 +3468,26 @@
         <v>18</v>
       </c>
       <c r="C30" s="39" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D30" s="38">
         <v>1</v>
       </c>
       <c r="E30" s="43"/>
       <c r="F30" s="43" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="G30" s="43">
         <v>2</v>
       </c>
       <c r="H30" s="39" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="I30" s="46">
         <v>-1</v>
       </c>
       <c r="J30" s="39" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="K30" s="38">
         <v>0</v>
@@ -3202,7 +3498,7 @@
         <v>0</v>
       </c>
       <c r="O30" s="39" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="P30" s="43">
         <v>6</v>
@@ -3210,44 +3506,44 @@
       <c r="Q30" s="43"/>
       <c r="R30" s="43"/>
       <c r="S30" s="39" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="T30" s="39"/>
       <c r="U30" s="43"/>
       <c r="V30" s="43"/>
-      <c r="W30" s="43"/>
+      <c r="W30" s="55"/>
       <c r="X30" s="43"/>
       <c r="Y30" s="43"/>
       <c r="Z30" s="43"/>
       <c r="AA30" s="43"/>
       <c r="AB30" s="43"/>
     </row>
-    <row r="31" spans="1:28" customFormat="1" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:28" customFormat="1" ht="46.8" x14ac:dyDescent="0.35">
       <c r="A31" s="43"/>
       <c r="B31" s="53">
         <v>19</v>
       </c>
       <c r="C31" s="39" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D31" s="38">
         <v>1</v>
       </c>
       <c r="E31" s="43"/>
       <c r="F31" s="43" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="G31" s="43">
         <v>2</v>
       </c>
       <c r="H31" s="39" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="I31" s="46">
         <v>1</v>
       </c>
       <c r="J31" s="39" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K31" s="38">
         <v>1</v>
@@ -3258,7 +3554,7 @@
         <v>0</v>
       </c>
       <c r="O31" s="39" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="P31" s="43">
         <v>6</v>
@@ -3266,57 +3562,59 @@
       <c r="Q31" s="43"/>
       <c r="R31" s="43"/>
       <c r="S31" s="39" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="T31" s="39"/>
       <c r="U31" s="43"/>
       <c r="V31" s="43" t="s">
-        <v>146</v>
-      </c>
-      <c r="W31" s="43"/>
+        <v>140</v>
+      </c>
+      <c r="W31" s="55"/>
       <c r="X31" s="43"/>
       <c r="Y31" s="43"/>
       <c r="Z31" s="43"/>
       <c r="AA31" s="43"/>
       <c r="AB31" s="43"/>
     </row>
-    <row r="32" spans="1:28" customFormat="1" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:28" customFormat="1" ht="46.8" x14ac:dyDescent="0.35">
       <c r="A32" s="43"/>
       <c r="B32" s="53">
         <v>20</v>
       </c>
       <c r="C32" s="39" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="D32" s="38">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E32" s="43"/>
       <c r="F32" s="43" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="G32" s="43">
         <v>2</v>
       </c>
       <c r="H32" s="39" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="I32" s="46">
         <v>-1</v>
       </c>
       <c r="J32" s="39" t="s">
-        <v>153</v>
+        <v>43</v>
       </c>
       <c r="K32" s="38">
-        <v>-1</v>
-      </c>
-      <c r="L32" s="43"/>
+        <v>1</v>
+      </c>
+      <c r="L32" s="43" t="s">
+        <v>230</v>
+      </c>
       <c r="M32" s="43"/>
       <c r="N32" s="42">
         <v>0</v>
       </c>
       <c r="O32" s="39" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="P32" s="43">
         <v>0</v>
@@ -3324,15 +3622,17 @@
       <c r="Q32" s="43"/>
       <c r="R32" s="43"/>
       <c r="S32" s="39" t="s">
-        <v>202</v>
+        <v>215</v>
       </c>
       <c r="T32" s="39"/>
       <c r="U32" s="43"/>
       <c r="V32" s="43"/>
-      <c r="W32" s="43"/>
+      <c r="W32" s="55"/>
       <c r="X32" s="43"/>
       <c r="Y32" s="43"/>
-      <c r="Z32" s="43"/>
+      <c r="Z32" s="43">
+        <v>1</v>
+      </c>
       <c r="AA32" s="43"/>
       <c r="AB32" s="43"/>
     </row>
@@ -3342,26 +3642,26 @@
         <v>21</v>
       </c>
       <c r="C33" s="39" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="D33" s="38">
         <v>0</v>
       </c>
       <c r="E33" s="43"/>
       <c r="F33" s="43" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="G33" s="43">
         <v>2</v>
       </c>
       <c r="H33" s="39" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="I33" s="46">
         <v>-1</v>
       </c>
       <c r="J33" s="39" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="K33" s="38">
         <v>-1</v>
@@ -3372,7 +3672,7 @@
         <v>0</v>
       </c>
       <c r="O33" s="39" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="P33" s="43">
         <v>0</v>
@@ -3383,7 +3683,7 @@
       <c r="T33" s="39"/>
       <c r="U33" s="43"/>
       <c r="V33" s="43"/>
-      <c r="W33" s="43"/>
+      <c r="W33" s="55"/>
       <c r="X33" s="43"/>
       <c r="Y33" s="43"/>
       <c r="Z33" s="43"/>
@@ -3396,26 +3696,28 @@
         <v>22</v>
       </c>
       <c r="C34" s="39" t="s">
-        <v>101</v>
+        <v>201</v>
       </c>
       <c r="D34" s="38">
-        <v>0</v>
-      </c>
-      <c r="E34" s="43"/>
+        <v>1</v>
+      </c>
+      <c r="E34" s="43" t="s">
+        <v>202</v>
+      </c>
       <c r="F34" s="43" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="G34" s="43">
         <v>5</v>
       </c>
       <c r="H34" s="39" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="I34" s="46">
         <v>-1</v>
       </c>
       <c r="J34" s="39" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="K34" s="38">
         <v>-1</v>
@@ -3426,7 +3728,7 @@
         <v>0</v>
       </c>
       <c r="O34" s="39" t="s">
-        <v>154</v>
+        <v>203</v>
       </c>
       <c r="P34" s="43">
         <v>-1</v>
@@ -3437,7 +3739,7 @@
       <c r="T34" s="39"/>
       <c r="U34" s="43"/>
       <c r="V34" s="43"/>
-      <c r="W34" s="43"/>
+      <c r="W34" s="55"/>
       <c r="X34" s="43"/>
       <c r="Y34" s="43"/>
       <c r="Z34" s="43"/>
@@ -3450,26 +3752,26 @@
         <v>23</v>
       </c>
       <c r="C35" s="39" t="s">
-        <v>102</v>
+        <v>204</v>
       </c>
       <c r="D35" s="38">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E35" s="43"/>
       <c r="F35" s="43" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="G35" s="43">
         <v>5</v>
       </c>
       <c r="H35" s="39" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="I35" s="46">
         <v>-1</v>
       </c>
       <c r="J35" s="39" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="K35" s="38">
         <v>-1</v>
@@ -3480,21 +3782,25 @@
         <v>0</v>
       </c>
       <c r="O35" s="39" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="P35" s="43">
         <v>-1</v>
       </c>
       <c r="Q35" s="43"/>
       <c r="R35" s="43"/>
-      <c r="S35" s="43"/>
+      <c r="S35" s="43" t="s">
+        <v>216</v>
+      </c>
       <c r="T35" s="39"/>
       <c r="U35" s="43"/>
       <c r="V35" s="43"/>
-      <c r="W35" s="43"/>
+      <c r="W35" s="55"/>
       <c r="X35" s="43"/>
       <c r="Y35" s="43"/>
-      <c r="Z35" s="43"/>
+      <c r="Z35" s="43">
+        <v>1</v>
+      </c>
       <c r="AA35" s="43"/>
       <c r="AB35" s="43"/>
     </row>
@@ -3504,7 +3810,7 @@
         <v>24</v>
       </c>
       <c r="C36" s="39" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D36" s="38">
         <v>1</v>
@@ -3517,13 +3823,13 @@
         <v>3</v>
       </c>
       <c r="H36" s="39" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="I36" s="46">
         <v>-1</v>
       </c>
       <c r="J36" s="39" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K36" s="38">
         <v>1</v>
@@ -3534,7 +3840,7 @@
         <v>0</v>
       </c>
       <c r="O36" s="39" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="P36" s="43">
         <v>6</v>
@@ -3545,9 +3851,9 @@
       <c r="T36" s="39"/>
       <c r="U36" s="43"/>
       <c r="V36" s="43" t="s">
-        <v>149</v>
-      </c>
-      <c r="W36" s="43"/>
+        <v>143</v>
+      </c>
+      <c r="W36" s="55"/>
       <c r="X36" s="43"/>
       <c r="Y36" s="43"/>
       <c r="Z36" s="43"/>
@@ -3560,7 +3866,7 @@
         <v>25</v>
       </c>
       <c r="C37" s="39" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="D37" s="38">
         <v>0</v>
@@ -3573,13 +3879,13 @@
         <v>3</v>
       </c>
       <c r="H37" s="39" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="I37" s="46">
         <v>-1</v>
       </c>
       <c r="J37" s="39" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K37" s="38">
         <v>1</v>
@@ -3590,7 +3896,7 @@
         <v>0</v>
       </c>
       <c r="O37" s="39" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="P37" s="43">
         <v>6</v>
@@ -3601,52 +3907,54 @@
       <c r="T37" s="39"/>
       <c r="U37" s="43"/>
       <c r="V37" s="43" t="s">
-        <v>150</v>
-      </c>
-      <c r="W37" s="43"/>
+        <v>144</v>
+      </c>
+      <c r="W37" s="55"/>
       <c r="X37" s="43"/>
       <c r="Y37" s="43"/>
       <c r="Z37" s="43"/>
       <c r="AA37" s="43"/>
       <c r="AB37" s="43"/>
     </row>
-    <row r="38" spans="1:28" customFormat="1" ht="31.2" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:28" customFormat="1" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A38" s="43"/>
       <c r="B38" s="53">
         <v>26</v>
       </c>
       <c r="C38" s="39" t="s">
-        <v>105</v>
+        <v>237</v>
       </c>
       <c r="D38" s="38">
         <v>0</v>
       </c>
-      <c r="E38" s="43"/>
+      <c r="E38" s="43" t="s">
+        <v>99</v>
+      </c>
       <c r="F38" s="43" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="G38" s="43">
         <v>4</v>
       </c>
       <c r="H38" s="39" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="I38" s="46">
         <v>0</v>
       </c>
       <c r="J38" s="39" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="K38" s="38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L38" s="43"/>
       <c r="M38" s="43"/>
       <c r="N38" s="42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O38" s="39" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="P38" s="43">
         <v>6</v>
@@ -3657,7 +3965,7 @@
       <c r="T38" s="39"/>
       <c r="U38" s="43"/>
       <c r="V38" s="43"/>
-      <c r="W38" s="43"/>
+      <c r="W38" s="55"/>
       <c r="X38" s="43"/>
       <c r="Y38" s="43"/>
       <c r="Z38" s="43"/>
@@ -3670,39 +3978,39 @@
         <v>27</v>
       </c>
       <c r="C39" s="39" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="D39" s="38">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E39" s="43"/>
       <c r="F39" s="43" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="G39" s="43">
         <v>1</v>
       </c>
       <c r="H39" s="39" t="s">
-        <v>128</v>
+        <v>239</v>
       </c>
       <c r="I39" s="46">
         <v>0</v>
       </c>
       <c r="J39" s="39" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K39" s="38">
         <v>1</v>
       </c>
       <c r="L39" s="43" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="M39" s="43"/>
       <c r="N39" s="42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O39" s="39" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="P39" s="43">
         <v>6</v>
@@ -3713,9 +4021,9 @@
       <c r="T39" s="39"/>
       <c r="U39" s="43"/>
       <c r="V39" s="43" t="s">
-        <v>151</v>
-      </c>
-      <c r="W39" s="43"/>
+        <v>145</v>
+      </c>
+      <c r="W39" s="55"/>
       <c r="X39" s="43"/>
       <c r="Y39" s="43"/>
       <c r="Z39" s="43"/>
@@ -3728,28 +4036,28 @@
         <v>28</v>
       </c>
       <c r="C40" s="39" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="D40" s="38">
         <v>0</v>
       </c>
       <c r="E40" s="43" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="F40" s="43" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G40" s="43">
         <v>3</v>
       </c>
       <c r="H40" s="39" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="I40" s="46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J40" s="39" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K40" s="38">
         <v>1</v>
@@ -3760,7 +4068,7 @@
         <v>0</v>
       </c>
       <c r="O40" s="39" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="P40" s="43">
         <v>6</v>
@@ -3771,9 +4079,9 @@
       <c r="T40" s="39"/>
       <c r="U40" s="43"/>
       <c r="V40" s="43" t="s">
-        <v>149</v>
-      </c>
-      <c r="W40" s="43"/>
+        <v>143</v>
+      </c>
+      <c r="W40" s="55"/>
       <c r="X40" s="43"/>
       <c r="Y40" s="43"/>
       <c r="Z40" s="43"/>
@@ -3786,28 +4094,28 @@
         <v>29</v>
       </c>
       <c r="C41" s="39" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="D41" s="38">
         <v>0</v>
       </c>
       <c r="E41" s="43" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="F41" s="43" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="G41" s="43">
         <v>5</v>
       </c>
       <c r="H41" s="39" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="I41" s="46">
         <v>0</v>
       </c>
       <c r="J41" s="39" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K41" s="38">
         <v>1</v>
@@ -3818,7 +4126,7 @@
         <v>0</v>
       </c>
       <c r="O41" s="39" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="P41" s="43">
         <v>6</v>
@@ -3829,9 +4137,9 @@
       <c r="T41" s="39"/>
       <c r="U41" s="43"/>
       <c r="V41" s="43" t="s">
-        <v>149</v>
-      </c>
-      <c r="W41" s="43"/>
+        <v>143</v>
+      </c>
+      <c r="W41" s="55"/>
       <c r="X41" s="43"/>
       <c r="Y41" s="43"/>
       <c r="Z41" s="43"/>
@@ -3844,26 +4152,26 @@
         <v>30</v>
       </c>
       <c r="C42" s="39" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D42" s="38">
         <v>0</v>
       </c>
       <c r="E42" s="43"/>
       <c r="F42" s="43" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="G42" s="43">
         <v>1</v>
       </c>
       <c r="H42" s="39" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="I42" s="46">
         <v>1</v>
       </c>
       <c r="J42" s="39" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K42" s="38">
         <v>1</v>
@@ -3874,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="O42" s="39" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="P42" s="43">
         <v>6</v>
@@ -3885,7 +4193,7 @@
       <c r="T42" s="39"/>
       <c r="U42" s="43"/>
       <c r="V42" s="43"/>
-      <c r="W42" s="43"/>
+      <c r="W42" s="55"/>
       <c r="X42" s="43"/>
       <c r="Y42" s="43"/>
       <c r="Z42" s="43"/>
@@ -3898,26 +4206,26 @@
         <v>31</v>
       </c>
       <c r="C43" s="39" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="D43" s="38">
         <v>0</v>
       </c>
       <c r="E43" s="43"/>
       <c r="F43" s="43" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="G43" s="43">
         <v>5</v>
       </c>
       <c r="H43" s="39" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="I43" s="46">
         <v>1</v>
       </c>
       <c r="J43" s="39" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="K43" s="38">
         <v>0</v>
@@ -3928,7 +4236,7 @@
         <v>0</v>
       </c>
       <c r="O43" s="39" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="P43" s="43">
         <v>0</v>
@@ -3939,7 +4247,7 @@
       <c r="T43" s="39"/>
       <c r="U43" s="43"/>
       <c r="V43" s="43"/>
-      <c r="W43" s="43"/>
+      <c r="W43" s="55"/>
       <c r="X43" s="43"/>
       <c r="Y43" s="43"/>
       <c r="Z43" s="43"/>
@@ -3952,26 +4260,26 @@
         <v>32</v>
       </c>
       <c r="C44" s="39" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="D44" s="38">
         <v>0</v>
       </c>
       <c r="E44" s="43"/>
       <c r="F44" s="43" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="G44" s="43">
         <v>1</v>
       </c>
       <c r="H44" s="39" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="I44" s="46">
         <v>-1</v>
       </c>
       <c r="J44" s="39" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="K44" s="38">
         <v>-1</v>
@@ -3980,7 +4288,7 @@
       <c r="M44" s="43"/>
       <c r="N44" s="42"/>
       <c r="O44" s="39" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="P44" s="43">
         <v>-1</v>
@@ -3992,7 +4300,7 @@
       <c r="U44" s="43"/>
       <c r="V44" s="43"/>
       <c r="W44" s="55" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
       <c r="X44" s="43"/>
       <c r="Y44" s="43"/>
@@ -4006,24 +4314,24 @@
         <v>33</v>
       </c>
       <c r="C45" s="39" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="D45" s="38">
         <v>1</v>
       </c>
       <c r="E45" s="43"/>
       <c r="F45" s="43" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="G45" s="43">
         <v>2</v>
       </c>
       <c r="H45" s="39"/>
       <c r="I45" s="46">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="J45" s="39" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K45" s="38">
         <v>1</v>
@@ -4032,7 +4340,7 @@
       <c r="M45" s="43"/>
       <c r="N45" s="42"/>
       <c r="O45" s="39" t="s">
-        <v>210</v>
+        <v>197</v>
       </c>
       <c r="P45" s="43">
         <v>6</v>
@@ -4041,48 +4349,48 @@
       <c r="R45" s="43"/>
       <c r="S45" s="43"/>
       <c r="T45" s="39" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="U45" s="43"/>
       <c r="V45" s="43" t="s">
-        <v>212</v>
-      </c>
-      <c r="W45" s="43"/>
+        <v>199</v>
+      </c>
+      <c r="W45" s="55"/>
       <c r="X45" s="43"/>
       <c r="Y45" s="43"/>
       <c r="Z45" s="43"/>
       <c r="AA45" s="43"/>
       <c r="AB45" s="43"/>
     </row>
-    <row r="46" spans="1:28" customFormat="1" ht="31.2" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:28" customFormat="1" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A46" s="43"/>
       <c r="B46" s="53">
         <v>34</v>
       </c>
       <c r="C46" s="39" t="s">
-        <v>111</v>
+        <v>207</v>
       </c>
       <c r="D46" s="38">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E46" s="43"/>
       <c r="F46" s="43" t="s">
-        <v>127</v>
+        <v>218</v>
       </c>
       <c r="G46" s="43">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H46" s="39" t="s">
-        <v>144</v>
+        <v>222</v>
       </c>
       <c r="I46" s="46">
         <v>0</v>
       </c>
       <c r="J46" s="39" t="s">
-        <v>44</v>
+        <v>223</v>
       </c>
       <c r="K46" s="38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L46" s="43"/>
       <c r="M46" s="43"/>
@@ -4090,7 +4398,7 @@
         <v>0</v>
       </c>
       <c r="O46" s="39" t="s">
-        <v>152</v>
+        <v>224</v>
       </c>
       <c r="P46" s="43">
         <v>5</v>
@@ -4101,37 +4409,65 @@
       <c r="T46" s="39"/>
       <c r="U46" s="43"/>
       <c r="V46" s="43"/>
-      <c r="W46" s="43"/>
+      <c r="W46" s="55" t="s">
+        <v>217</v>
+      </c>
       <c r="X46" s="43"/>
       <c r="Y46" s="43"/>
-      <c r="Z46" s="43"/>
+      <c r="Z46" s="43">
+        <v>1</v>
+      </c>
       <c r="AA46" s="43"/>
       <c r="AB46" s="43"/>
     </row>
     <row r="47" spans="1:28" customFormat="1" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A47" s="43"/>
-      <c r="B47" s="43"/>
-      <c r="C47" s="43"/>
-      <c r="D47" s="43"/>
+      <c r="B47" s="53">
+        <v>35</v>
+      </c>
+      <c r="C47" s="39" t="s">
+        <v>208</v>
+      </c>
+      <c r="D47" s="38">
+        <v>1</v>
+      </c>
       <c r="E47" s="43"/>
-      <c r="F47" s="43"/>
-      <c r="G47" s="43"/>
-      <c r="H47" s="43"/>
-      <c r="I47" s="43"/>
-      <c r="J47" s="43"/>
-      <c r="K47" s="43"/>
+      <c r="F47" s="43" t="s">
+        <v>218</v>
+      </c>
+      <c r="G47" s="43">
+        <v>3</v>
+      </c>
+      <c r="H47" s="39" t="s">
+        <v>222</v>
+      </c>
+      <c r="I47" s="46">
+        <v>-1</v>
+      </c>
+      <c r="J47" s="39" t="s">
+        <v>147</v>
+      </c>
+      <c r="K47" s="38">
+        <v>0</v>
+      </c>
       <c r="L47" s="43"/>
       <c r="M47" s="43"/>
-      <c r="N47" s="43"/>
-      <c r="O47" s="43"/>
-      <c r="P47" s="43"/>
+      <c r="N47" s="42">
+        <v>0</v>
+      </c>
+      <c r="O47" s="39" t="s">
+        <v>225</v>
+      </c>
+      <c r="P47" s="43">
+        <v>0</v>
+      </c>
       <c r="Q47" s="43"/>
       <c r="R47" s="43"/>
       <c r="S47" s="43"/>
       <c r="T47" s="39"/>
       <c r="U47" s="43"/>
       <c r="V47" s="43"/>
-      <c r="W47" s="43"/>
+      <c r="W47" s="55"/>
       <c r="X47" s="43"/>
       <c r="Y47" s="43"/>
       <c r="Z47" s="43"/>
@@ -4140,58 +4476,112 @@
     </row>
     <row r="48" spans="1:28" customFormat="1" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A48" s="43"/>
-      <c r="B48" s="43"/>
-      <c r="C48" s="43"/>
-      <c r="D48" s="43"/>
+      <c r="B48" s="53">
+        <v>36</v>
+      </c>
+      <c r="C48" s="39" t="s">
+        <v>212</v>
+      </c>
+      <c r="D48" s="38">
+        <v>0</v>
+      </c>
       <c r="E48" s="43"/>
-      <c r="F48" s="43"/>
-      <c r="G48" s="43"/>
-      <c r="H48" s="43"/>
-      <c r="I48" s="43"/>
-      <c r="J48" s="43"/>
-      <c r="K48" s="43"/>
+      <c r="F48" s="43" t="s">
+        <v>218</v>
+      </c>
+      <c r="G48" s="43">
+        <v>3</v>
+      </c>
+      <c r="H48" s="39" t="s">
+        <v>222</v>
+      </c>
+      <c r="I48" s="46">
+        <v>-1</v>
+      </c>
+      <c r="J48" s="39" t="s">
+        <v>147</v>
+      </c>
+      <c r="K48" s="38">
+        <v>0</v>
+      </c>
       <c r="L48" s="43"/>
       <c r="M48" s="43"/>
-      <c r="N48" s="43"/>
-      <c r="O48" s="43"/>
-      <c r="P48" s="43"/>
+      <c r="N48" s="42">
+        <v>0</v>
+      </c>
+      <c r="O48" s="39" t="s">
+        <v>226</v>
+      </c>
+      <c r="P48" s="43">
+        <v>0</v>
+      </c>
       <c r="Q48" s="43"/>
       <c r="R48" s="43"/>
       <c r="S48" s="43"/>
       <c r="T48" s="39"/>
       <c r="U48" s="43"/>
       <c r="V48" s="43"/>
-      <c r="W48" s="43"/>
+      <c r="W48" s="55"/>
       <c r="X48" s="43"/>
       <c r="Y48" s="43"/>
       <c r="Z48" s="43"/>
       <c r="AA48" s="43"/>
       <c r="AB48" s="43"/>
     </row>
-    <row r="49" spans="1:28" customFormat="1" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:28" customFormat="1" ht="31.2" x14ac:dyDescent="0.35">
       <c r="A49" s="43"/>
-      <c r="B49" s="43"/>
-      <c r="C49" s="43"/>
-      <c r="D49" s="43"/>
-      <c r="E49" s="43"/>
-      <c r="F49" s="43"/>
-      <c r="G49" s="43"/>
-      <c r="H49" s="43"/>
-      <c r="I49" s="43"/>
-      <c r="J49" s="43"/>
-      <c r="K49" s="43"/>
+      <c r="B49" s="53">
+        <v>37</v>
+      </c>
+      <c r="C49" s="39" t="s">
+        <v>209</v>
+      </c>
+      <c r="D49" s="38">
+        <v>4</v>
+      </c>
+      <c r="E49" s="43" t="s">
+        <v>210</v>
+      </c>
+      <c r="F49" s="43" t="s">
+        <v>227</v>
+      </c>
+      <c r="G49" s="43">
+        <v>2</v>
+      </c>
+      <c r="H49" s="39" t="s">
+        <v>240</v>
+      </c>
+      <c r="I49" s="46">
+        <v>1</v>
+      </c>
+      <c r="J49" s="39" t="s">
+        <v>229</v>
+      </c>
+      <c r="K49" s="38">
+        <v>0</v>
+      </c>
       <c r="L49" s="43"/>
       <c r="M49" s="43"/>
-      <c r="N49" s="43"/>
-      <c r="O49" s="43"/>
-      <c r="P49" s="43"/>
+      <c r="N49" s="42">
+        <v>0</v>
+      </c>
+      <c r="O49" s="39" t="s">
+        <v>231</v>
+      </c>
+      <c r="P49" s="43">
+        <v>6</v>
+      </c>
       <c r="Q49" s="43"/>
       <c r="R49" s="43"/>
       <c r="S49" s="43"/>
-      <c r="T49" s="39"/>
+      <c r="T49" s="39" t="s">
+        <v>232</v>
+      </c>
       <c r="U49" s="43"/>
-      <c r="V49" s="43"/>
-      <c r="W49" s="43"/>
+      <c r="V49" s="60">
+        <v>45047</v>
+      </c>
+      <c r="W49" s="55"/>
       <c r="X49" s="43"/>
       <c r="Y49" s="43"/>
       <c r="Z49" s="43"/>
@@ -4200,58 +4590,112 @@
     </row>
     <row r="50" spans="1:28" customFormat="1" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A50" s="43"/>
-      <c r="B50" s="43"/>
-      <c r="C50" s="43"/>
-      <c r="D50" s="43"/>
+      <c r="B50" s="53">
+        <v>38</v>
+      </c>
+      <c r="C50" s="39" t="s">
+        <v>211</v>
+      </c>
+      <c r="D50" s="38">
+        <v>1</v>
+      </c>
       <c r="E50" s="43"/>
-      <c r="F50" s="43"/>
-      <c r="G50" s="43"/>
-      <c r="H50" s="43"/>
-      <c r="I50" s="43"/>
-      <c r="J50" s="43"/>
-      <c r="K50" s="43"/>
-      <c r="L50" s="43"/>
+      <c r="F50" s="43" t="s">
+        <v>228</v>
+      </c>
+      <c r="G50" s="43">
+        <v>2</v>
+      </c>
+      <c r="H50" s="39" t="s">
+        <v>222</v>
+      </c>
+      <c r="I50" s="46">
+        <v>1</v>
+      </c>
+      <c r="J50" s="39" t="s">
+        <v>147</v>
+      </c>
+      <c r="K50" s="38">
+        <v>1</v>
+      </c>
+      <c r="L50" s="43" t="s">
+        <v>230</v>
+      </c>
       <c r="M50" s="43"/>
-      <c r="N50" s="43"/>
-      <c r="O50" s="43"/>
-      <c r="P50" s="43"/>
+      <c r="N50" s="42">
+        <v>0</v>
+      </c>
+      <c r="O50" s="39" t="s">
+        <v>228</v>
+      </c>
+      <c r="P50" s="43">
+        <v>2</v>
+      </c>
       <c r="Q50" s="43"/>
       <c r="R50" s="43"/>
-      <c r="S50" s="43"/>
-      <c r="T50" s="39"/>
+      <c r="S50" s="43" t="s">
+        <v>233</v>
+      </c>
+      <c r="T50" s="39" t="s">
+        <v>234</v>
+      </c>
       <c r="U50" s="43"/>
       <c r="V50" s="43"/>
-      <c r="W50" s="43"/>
+      <c r="W50" s="55"/>
       <c r="X50" s="43"/>
       <c r="Y50" s="43"/>
       <c r="Z50" s="43"/>
       <c r="AA50" s="43"/>
       <c r="AB50" s="43"/>
     </row>
-    <row r="51" spans="1:28" customFormat="1" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:28" customFormat="1" ht="31.2" x14ac:dyDescent="0.35">
       <c r="A51" s="43"/>
-      <c r="B51" s="43"/>
-      <c r="C51" s="43"/>
-      <c r="D51" s="43"/>
+      <c r="B51" s="53">
+        <v>39</v>
+      </c>
+      <c r="C51" s="39" t="s">
+        <v>105</v>
+      </c>
+      <c r="D51" s="38">
+        <v>1</v>
+      </c>
       <c r="E51" s="43"/>
-      <c r="F51" s="43"/>
-      <c r="G51" s="43"/>
-      <c r="H51" s="43"/>
-      <c r="I51" s="43"/>
-      <c r="J51" s="43"/>
-      <c r="K51" s="43"/>
+      <c r="F51" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="G51" s="43">
+        <v>5</v>
+      </c>
+      <c r="H51" s="39" t="s">
+        <v>138</v>
+      </c>
+      <c r="I51" s="46">
+        <v>0</v>
+      </c>
+      <c r="J51" s="39" t="s">
+        <v>43</v>
+      </c>
+      <c r="K51" s="38">
+        <v>1</v>
+      </c>
       <c r="L51" s="43"/>
       <c r="M51" s="43"/>
-      <c r="N51" s="43"/>
-      <c r="O51" s="43"/>
-      <c r="P51" s="43"/>
+      <c r="N51" s="42">
+        <v>0</v>
+      </c>
+      <c r="O51" s="39" t="s">
+        <v>146</v>
+      </c>
+      <c r="P51" s="43">
+        <v>5</v>
+      </c>
       <c r="Q51" s="43"/>
       <c r="R51" s="43"/>
       <c r="S51" s="43"/>
-      <c r="T51" s="38"/>
+      <c r="T51" s="39"/>
       <c r="U51" s="43"/>
       <c r="V51" s="43"/>
-      <c r="W51" s="43"/>
+      <c r="W51" s="55"/>
       <c r="X51" s="43"/>
       <c r="Y51" s="43"/>
       <c r="Z51" s="43"/>
@@ -4308,10 +4752,10 @@
       <c r="Q53" s="43"/>
       <c r="R53" s="43"/>
       <c r="S53" s="43"/>
-      <c r="T53" s="43"/>
+      <c r="T53" s="39"/>
       <c r="U53" s="43"/>
       <c r="V53" s="43"/>
-      <c r="W53" s="43"/>
+      <c r="W53" s="55"/>
       <c r="X53" s="43"/>
       <c r="Y53" s="43"/>
       <c r="Z53" s="43"/>
@@ -4338,10 +4782,10 @@
       <c r="Q54" s="43"/>
       <c r="R54" s="43"/>
       <c r="S54" s="43"/>
-      <c r="T54" s="43"/>
+      <c r="T54" s="39"/>
       <c r="U54" s="43"/>
       <c r="V54" s="43"/>
-      <c r="W54" s="43"/>
+      <c r="W54" s="55"/>
       <c r="X54" s="43"/>
       <c r="Y54" s="43"/>
       <c r="Z54" s="43"/>
@@ -4368,10 +4812,10 @@
       <c r="Q55" s="43"/>
       <c r="R55" s="43"/>
       <c r="S55" s="43"/>
-      <c r="T55" s="43"/>
+      <c r="T55" s="39"/>
       <c r="U55" s="43"/>
       <c r="V55" s="43"/>
-      <c r="W55" s="43"/>
+      <c r="W55" s="55"/>
       <c r="X55" s="43"/>
       <c r="Y55" s="43"/>
       <c r="Z55" s="43"/>
@@ -4398,10 +4842,10 @@
       <c r="Q56" s="43"/>
       <c r="R56" s="43"/>
       <c r="S56" s="43"/>
-      <c r="T56" s="43"/>
+      <c r="T56" s="38"/>
       <c r="U56" s="43"/>
       <c r="V56" s="43"/>
-      <c r="W56" s="43"/>
+      <c r="W56" s="55"/>
       <c r="X56" s="43"/>
       <c r="Y56" s="43"/>
       <c r="Z56" s="43"/>
@@ -4431,7 +4875,7 @@
       <c r="T57" s="43"/>
       <c r="U57" s="43"/>
       <c r="V57" s="43"/>
-      <c r="W57" s="43"/>
+      <c r="W57" s="55"/>
       <c r="X57" s="43"/>
       <c r="Y57" s="43"/>
       <c r="Z57" s="43"/>
@@ -4461,7 +4905,7 @@
       <c r="T58" s="43"/>
       <c r="U58" s="43"/>
       <c r="V58" s="43"/>
-      <c r="W58" s="43"/>
+      <c r="W58" s="55"/>
       <c r="X58" s="43"/>
       <c r="Y58" s="43"/>
       <c r="Z58" s="43"/>
@@ -4491,7 +4935,7 @@
       <c r="T59" s="43"/>
       <c r="U59" s="43"/>
       <c r="V59" s="43"/>
-      <c r="W59" s="43"/>
+      <c r="W59" s="55"/>
       <c r="X59" s="43"/>
       <c r="Y59" s="43"/>
       <c r="Z59" s="43"/>
@@ -4521,7 +4965,7 @@
       <c r="T60" s="43"/>
       <c r="U60" s="43"/>
       <c r="V60" s="43"/>
-      <c r="W60" s="43"/>
+      <c r="W60" s="55"/>
       <c r="X60" s="43"/>
       <c r="Y60" s="43"/>
       <c r="Z60" s="43"/>
@@ -4551,7 +4995,7 @@
       <c r="T61" s="43"/>
       <c r="U61" s="43"/>
       <c r="V61" s="43"/>
-      <c r="W61" s="43"/>
+      <c r="W61" s="55"/>
       <c r="X61" s="43"/>
       <c r="Y61" s="43"/>
       <c r="Z61" s="43"/>
@@ -4581,7 +5025,7 @@
       <c r="T62" s="43"/>
       <c r="U62" s="43"/>
       <c r="V62" s="43"/>
-      <c r="W62" s="43"/>
+      <c r="W62" s="55"/>
       <c r="X62" s="43"/>
       <c r="Y62" s="43"/>
       <c r="Z62" s="43"/>
@@ -4611,7 +5055,7 @@
       <c r="T63" s="43"/>
       <c r="U63" s="43"/>
       <c r="V63" s="43"/>
-      <c r="W63" s="43"/>
+      <c r="W63" s="55"/>
       <c r="X63" s="43"/>
       <c r="Y63" s="43"/>
       <c r="Z63" s="43"/>
@@ -4641,7 +5085,7 @@
       <c r="T64" s="43"/>
       <c r="U64" s="43"/>
       <c r="V64" s="43"/>
-      <c r="W64" s="43"/>
+      <c r="W64" s="55"/>
       <c r="X64" s="43"/>
       <c r="Y64" s="43"/>
       <c r="Z64" s="43"/>
@@ -4671,7 +5115,7 @@
       <c r="T65" s="43"/>
       <c r="U65" s="43"/>
       <c r="V65" s="43"/>
-      <c r="W65" s="43"/>
+      <c r="W65" s="55"/>
       <c r="X65" s="43"/>
       <c r="Y65" s="43"/>
       <c r="Z65" s="43"/>
@@ -4701,7 +5145,7 @@
       <c r="T66" s="43"/>
       <c r="U66" s="43"/>
       <c r="V66" s="43"/>
-      <c r="W66" s="43"/>
+      <c r="W66" s="55"/>
       <c r="X66" s="43"/>
       <c r="Y66" s="43"/>
       <c r="Z66" s="43"/>
@@ -4731,7 +5175,7 @@
       <c r="T67" s="43"/>
       <c r="U67" s="43"/>
       <c r="V67" s="43"/>
-      <c r="W67" s="43"/>
+      <c r="W67" s="55"/>
       <c r="X67" s="43"/>
       <c r="Y67" s="43"/>
       <c r="Z67" s="43"/>
@@ -4761,7 +5205,7 @@
       <c r="T68" s="43"/>
       <c r="U68" s="43"/>
       <c r="V68" s="43"/>
-      <c r="W68" s="43"/>
+      <c r="W68" s="55"/>
       <c r="X68" s="43"/>
       <c r="Y68" s="43"/>
       <c r="Z68" s="43"/>
@@ -4791,7 +5235,7 @@
       <c r="T69" s="43"/>
       <c r="U69" s="43"/>
       <c r="V69" s="43"/>
-      <c r="W69" s="43"/>
+      <c r="W69" s="55"/>
       <c r="X69" s="43"/>
       <c r="Y69" s="43"/>
       <c r="Z69" s="43"/>
@@ -4821,7 +5265,7 @@
       <c r="T70" s="43"/>
       <c r="U70" s="43"/>
       <c r="V70" s="43"/>
-      <c r="W70" s="43"/>
+      <c r="W70" s="55"/>
       <c r="X70" s="43"/>
       <c r="Y70" s="43"/>
       <c r="Z70" s="43"/>
@@ -4851,7 +5295,7 @@
       <c r="T71" s="43"/>
       <c r="U71" s="43"/>
       <c r="V71" s="43"/>
-      <c r="W71" s="43"/>
+      <c r="W71" s="55"/>
       <c r="X71" s="43"/>
       <c r="Y71" s="43"/>
       <c r="Z71" s="43"/>
@@ -4881,7 +5325,7 @@
       <c r="T72" s="43"/>
       <c r="U72" s="43"/>
       <c r="V72" s="43"/>
-      <c r="W72" s="43"/>
+      <c r="W72" s="55"/>
       <c r="X72" s="43"/>
       <c r="Y72" s="43"/>
       <c r="Z72" s="43"/>
@@ -4911,7 +5355,7 @@
       <c r="T73" s="43"/>
       <c r="U73" s="43"/>
       <c r="V73" s="43"/>
-      <c r="W73" s="43"/>
+      <c r="W73" s="55"/>
       <c r="X73" s="43"/>
       <c r="Y73" s="43"/>
       <c r="Z73" s="43"/>
@@ -4941,7 +5385,7 @@
       <c r="T74" s="43"/>
       <c r="U74" s="43"/>
       <c r="V74" s="43"/>
-      <c r="W74" s="43"/>
+      <c r="W74" s="55"/>
       <c r="X74" s="43"/>
       <c r="Y74" s="43"/>
       <c r="Z74" s="43"/>
@@ -4971,7 +5415,7 @@
       <c r="T75" s="43"/>
       <c r="U75" s="43"/>
       <c r="V75" s="43"/>
-      <c r="W75" s="43"/>
+      <c r="W75" s="55"/>
       <c r="X75" s="43"/>
       <c r="Y75" s="43"/>
       <c r="Z75" s="43"/>
@@ -5001,7 +5445,7 @@
       <c r="T76" s="43"/>
       <c r="U76" s="43"/>
       <c r="V76" s="43"/>
-      <c r="W76" s="43"/>
+      <c r="W76" s="55"/>
       <c r="X76" s="43"/>
       <c r="Y76" s="43"/>
       <c r="Z76" s="43"/>
@@ -5031,7 +5475,7 @@
       <c r="T77" s="43"/>
       <c r="U77" s="43"/>
       <c r="V77" s="43"/>
-      <c r="W77" s="43"/>
+      <c r="W77" s="55"/>
       <c r="X77" s="43"/>
       <c r="Y77" s="43"/>
       <c r="Z77" s="43"/>
@@ -5061,7 +5505,7 @@
       <c r="T78" s="43"/>
       <c r="U78" s="43"/>
       <c r="V78" s="43"/>
-      <c r="W78" s="43"/>
+      <c r="W78" s="55"/>
       <c r="X78" s="43"/>
       <c r="Y78" s="43"/>
       <c r="Z78" s="43"/>
@@ -5091,7 +5535,7 @@
       <c r="T79" s="43"/>
       <c r="U79" s="43"/>
       <c r="V79" s="43"/>
-      <c r="W79" s="43"/>
+      <c r="W79" s="55"/>
       <c r="X79" s="43"/>
       <c r="Y79" s="43"/>
       <c r="Z79" s="43"/>
@@ -5121,7 +5565,7 @@
       <c r="T80" s="43"/>
       <c r="U80" s="43"/>
       <c r="V80" s="43"/>
-      <c r="W80" s="43"/>
+      <c r="W80" s="55"/>
       <c r="X80" s="43"/>
       <c r="Y80" s="43"/>
       <c r="Z80" s="43"/>
@@ -5151,7 +5595,7 @@
       <c r="T81" s="43"/>
       <c r="U81" s="43"/>
       <c r="V81" s="43"/>
-      <c r="W81" s="43"/>
+      <c r="W81" s="55"/>
       <c r="X81" s="43"/>
       <c r="Y81" s="43"/>
       <c r="Z81" s="43"/>
@@ -5181,7 +5625,7 @@
       <c r="T82" s="43"/>
       <c r="U82" s="43"/>
       <c r="V82" s="43"/>
-      <c r="W82" s="43"/>
+      <c r="W82" s="55"/>
       <c r="X82" s="43"/>
       <c r="Y82" s="43"/>
       <c r="Z82" s="43"/>
@@ -5211,7 +5655,7 @@
       <c r="T83" s="43"/>
       <c r="U83" s="43"/>
       <c r="V83" s="43"/>
-      <c r="W83" s="43"/>
+      <c r="W83" s="55"/>
       <c r="X83" s="43"/>
       <c r="Y83" s="43"/>
       <c r="Z83" s="43"/>
@@ -5241,7 +5685,7 @@
       <c r="T84" s="43"/>
       <c r="U84" s="43"/>
       <c r="V84" s="43"/>
-      <c r="W84" s="43"/>
+      <c r="W84" s="55"/>
       <c r="X84" s="43"/>
       <c r="Y84" s="43"/>
       <c r="Z84" s="43"/>
@@ -5271,7 +5715,7 @@
       <c r="T85" s="43"/>
       <c r="U85" s="43"/>
       <c r="V85" s="43"/>
-      <c r="W85" s="43"/>
+      <c r="W85" s="55"/>
       <c r="X85" s="43"/>
       <c r="Y85" s="43"/>
       <c r="Z85" s="43"/>
@@ -5301,7 +5745,7 @@
       <c r="T86" s="43"/>
       <c r="U86" s="43"/>
       <c r="V86" s="43"/>
-      <c r="W86" s="43"/>
+      <c r="W86" s="55"/>
       <c r="X86" s="43"/>
       <c r="Y86" s="43"/>
       <c r="Z86" s="43"/>
@@ -5331,7 +5775,7 @@
       <c r="T87" s="43"/>
       <c r="U87" s="43"/>
       <c r="V87" s="43"/>
-      <c r="W87" s="43"/>
+      <c r="W87" s="55"/>
       <c r="X87" s="43"/>
       <c r="Y87" s="43"/>
       <c r="Z87" s="43"/>
@@ -5361,7 +5805,7 @@
       <c r="T88" s="43"/>
       <c r="U88" s="43"/>
       <c r="V88" s="43"/>
-      <c r="W88" s="43"/>
+      <c r="W88" s="55"/>
       <c r="X88" s="43"/>
       <c r="Y88" s="43"/>
       <c r="Z88" s="43"/>
@@ -5391,7 +5835,7 @@
       <c r="T89" s="43"/>
       <c r="U89" s="43"/>
       <c r="V89" s="43"/>
-      <c r="W89" s="43"/>
+      <c r="W89" s="55"/>
       <c r="X89" s="43"/>
       <c r="Y89" s="43"/>
       <c r="Z89" s="43"/>
@@ -5421,7 +5865,7 @@
       <c r="T90" s="43"/>
       <c r="U90" s="43"/>
       <c r="V90" s="43"/>
-      <c r="W90" s="43"/>
+      <c r="W90" s="55"/>
       <c r="X90" s="43"/>
       <c r="Y90" s="43"/>
       <c r="Z90" s="43"/>
@@ -5451,7 +5895,7 @@
       <c r="T91" s="43"/>
       <c r="U91" s="43"/>
       <c r="V91" s="43"/>
-      <c r="W91" s="43"/>
+      <c r="W91" s="55"/>
       <c r="X91" s="43"/>
       <c r="Y91" s="43"/>
       <c r="Z91" s="43"/>
@@ -5481,7 +5925,7 @@
       <c r="T92" s="43"/>
       <c r="U92" s="43"/>
       <c r="V92" s="43"/>
-      <c r="W92" s="43"/>
+      <c r="W92" s="55"/>
       <c r="X92" s="43"/>
       <c r="Y92" s="43"/>
       <c r="Z92" s="43"/>
@@ -5511,7 +5955,7 @@
       <c r="T93" s="43"/>
       <c r="U93" s="43"/>
       <c r="V93" s="43"/>
-      <c r="W93" s="43"/>
+      <c r="W93" s="55"/>
       <c r="X93" s="43"/>
       <c r="Y93" s="43"/>
       <c r="Z93" s="43"/>
@@ -5541,7 +5985,7 @@
       <c r="T94" s="43"/>
       <c r="U94" s="43"/>
       <c r="V94" s="43"/>
-      <c r="W94" s="43"/>
+      <c r="W94" s="55"/>
       <c r="X94" s="43"/>
       <c r="Y94" s="43"/>
       <c r="Z94" s="43"/>
@@ -5571,7 +6015,7 @@
       <c r="T95" s="43"/>
       <c r="U95" s="43"/>
       <c r="V95" s="43"/>
-      <c r="W95" s="43"/>
+      <c r="W95" s="55"/>
       <c r="X95" s="43"/>
       <c r="Y95" s="43"/>
       <c r="Z95" s="43"/>
@@ -5601,7 +6045,7 @@
       <c r="T96" s="43"/>
       <c r="U96" s="43"/>
       <c r="V96" s="43"/>
-      <c r="W96" s="43"/>
+      <c r="W96" s="55"/>
       <c r="X96" s="43"/>
       <c r="Y96" s="43"/>
       <c r="Z96" s="43"/>
@@ -5631,7 +6075,7 @@
       <c r="T97" s="43"/>
       <c r="U97" s="43"/>
       <c r="V97" s="43"/>
-      <c r="W97" s="43"/>
+      <c r="W97" s="55"/>
       <c r="X97" s="43"/>
       <c r="Y97" s="43"/>
       <c r="Z97" s="43"/>
@@ -5661,7 +6105,7 @@
       <c r="T98" s="43"/>
       <c r="U98" s="43"/>
       <c r="V98" s="43"/>
-      <c r="W98" s="43"/>
+      <c r="W98" s="55"/>
       <c r="X98" s="43"/>
       <c r="Y98" s="43"/>
       <c r="Z98" s="43"/>
@@ -5691,7 +6135,7 @@
       <c r="T99" s="43"/>
       <c r="U99" s="43"/>
       <c r="V99" s="43"/>
-      <c r="W99" s="43"/>
+      <c r="W99" s="55"/>
       <c r="X99" s="43"/>
       <c r="Y99" s="43"/>
       <c r="Z99" s="43"/>
@@ -5721,7 +6165,7 @@
       <c r="T100" s="43"/>
       <c r="U100" s="43"/>
       <c r="V100" s="43"/>
-      <c r="W100" s="43"/>
+      <c r="W100" s="55"/>
       <c r="X100" s="43"/>
       <c r="Y100" s="43"/>
       <c r="Z100" s="43"/>
@@ -5751,7 +6195,7 @@
       <c r="T101" s="43"/>
       <c r="U101" s="43"/>
       <c r="V101" s="43"/>
-      <c r="W101" s="43"/>
+      <c r="W101" s="55"/>
       <c r="X101" s="43"/>
       <c r="Y101" s="43"/>
       <c r="Z101" s="43"/>
@@ -5781,7 +6225,7 @@
       <c r="T102" s="43"/>
       <c r="U102" s="43"/>
       <c r="V102" s="43"/>
-      <c r="W102" s="43"/>
+      <c r="W102" s="55"/>
       <c r="X102" s="43"/>
       <c r="Y102" s="43"/>
       <c r="Z102" s="43"/>
@@ -5811,7 +6255,7 @@
       <c r="T103" s="43"/>
       <c r="U103" s="43"/>
       <c r="V103" s="43"/>
-      <c r="W103" s="43"/>
+      <c r="W103" s="55"/>
       <c r="X103" s="43"/>
       <c r="Y103" s="43"/>
       <c r="Z103" s="43"/>
@@ -5841,7 +6285,7 @@
       <c r="T104" s="43"/>
       <c r="U104" s="43"/>
       <c r="V104" s="43"/>
-      <c r="W104" s="43"/>
+      <c r="W104" s="55"/>
       <c r="X104" s="43"/>
       <c r="Y104" s="43"/>
       <c r="Z104" s="43"/>
@@ -5871,7 +6315,7 @@
       <c r="T105" s="43"/>
       <c r="U105" s="43"/>
       <c r="V105" s="43"/>
-      <c r="W105" s="43"/>
+      <c r="W105" s="55"/>
       <c r="X105" s="43"/>
       <c r="Y105" s="43"/>
       <c r="Z105" s="43"/>
@@ -5901,7 +6345,7 @@
       <c r="T106" s="43"/>
       <c r="U106" s="43"/>
       <c r="V106" s="43"/>
-      <c r="W106" s="43"/>
+      <c r="W106" s="55"/>
       <c r="X106" s="43"/>
       <c r="Y106" s="43"/>
       <c r="Z106" s="43"/>
@@ -5931,7 +6375,7 @@
       <c r="T107" s="43"/>
       <c r="U107" s="43"/>
       <c r="V107" s="43"/>
-      <c r="W107" s="43"/>
+      <c r="W107" s="55"/>
       <c r="X107" s="43"/>
       <c r="Y107" s="43"/>
       <c r="Z107" s="43"/>
@@ -5961,7 +6405,7 @@
       <c r="T108" s="43"/>
       <c r="U108" s="43"/>
       <c r="V108" s="43"/>
-      <c r="W108" s="43"/>
+      <c r="W108" s="55"/>
       <c r="X108" s="43"/>
       <c r="Y108" s="43"/>
       <c r="Z108" s="43"/>
@@ -5991,7 +6435,7 @@
       <c r="T109" s="43"/>
       <c r="U109" s="43"/>
       <c r="V109" s="43"/>
-      <c r="W109" s="43"/>
+      <c r="W109" s="55"/>
       <c r="X109" s="43"/>
       <c r="Y109" s="43"/>
       <c r="Z109" s="43"/>
@@ -6021,7 +6465,7 @@
       <c r="T110" s="43"/>
       <c r="U110" s="43"/>
       <c r="V110" s="43"/>
-      <c r="W110" s="43"/>
+      <c r="W110" s="55"/>
       <c r="X110" s="43"/>
       <c r="Y110" s="43"/>
       <c r="Z110" s="43"/>
@@ -6051,7 +6495,7 @@
       <c r="T111" s="43"/>
       <c r="U111" s="43"/>
       <c r="V111" s="43"/>
-      <c r="W111" s="43"/>
+      <c r="W111" s="55"/>
       <c r="X111" s="43"/>
       <c r="Y111" s="43"/>
       <c r="Z111" s="43"/>
@@ -6081,7 +6525,7 @@
       <c r="T112" s="43"/>
       <c r="U112" s="43"/>
       <c r="V112" s="43"/>
-      <c r="W112" s="43"/>
+      <c r="W112" s="55"/>
       <c r="X112" s="43"/>
       <c r="Y112" s="43"/>
       <c r="Z112" s="43"/>
@@ -6111,7 +6555,7 @@
       <c r="T113" s="43"/>
       <c r="U113" s="43"/>
       <c r="V113" s="43"/>
-      <c r="W113" s="43"/>
+      <c r="W113" s="55"/>
       <c r="X113" s="43"/>
       <c r="Y113" s="43"/>
       <c r="Z113" s="43"/>
@@ -6141,7 +6585,7 @@
       <c r="T114" s="43"/>
       <c r="U114" s="43"/>
       <c r="V114" s="43"/>
-      <c r="W114" s="43"/>
+      <c r="W114" s="55"/>
       <c r="X114" s="43"/>
       <c r="Y114" s="43"/>
       <c r="Z114" s="43"/>
@@ -6171,7 +6615,7 @@
       <c r="T115" s="43"/>
       <c r="U115" s="43"/>
       <c r="V115" s="43"/>
-      <c r="W115" s="43"/>
+      <c r="W115" s="55"/>
       <c r="X115" s="43"/>
       <c r="Y115" s="43"/>
       <c r="Z115" s="43"/>
@@ -6201,7 +6645,7 @@
       <c r="T116" s="43"/>
       <c r="U116" s="43"/>
       <c r="V116" s="43"/>
-      <c r="W116" s="43"/>
+      <c r="W116" s="55"/>
       <c r="X116" s="43"/>
       <c r="Y116" s="43"/>
       <c r="Z116" s="43"/>
@@ -6231,7 +6675,7 @@
       <c r="T117" s="43"/>
       <c r="U117" s="43"/>
       <c r="V117" s="43"/>
-      <c r="W117" s="43"/>
+      <c r="W117" s="55"/>
       <c r="X117" s="43"/>
       <c r="Y117" s="43"/>
       <c r="Z117" s="43"/>
@@ -6261,7 +6705,7 @@
       <c r="T118" s="43"/>
       <c r="U118" s="43"/>
       <c r="V118" s="43"/>
-      <c r="W118" s="43"/>
+      <c r="W118" s="55"/>
       <c r="X118" s="43"/>
       <c r="Y118" s="43"/>
       <c r="Z118" s="43"/>
@@ -6291,7 +6735,7 @@
       <c r="T119" s="43"/>
       <c r="U119" s="43"/>
       <c r="V119" s="43"/>
-      <c r="W119" s="43"/>
+      <c r="W119" s="55"/>
       <c r="X119" s="43"/>
       <c r="Y119" s="43"/>
       <c r="Z119" s="43"/>
@@ -6321,7 +6765,7 @@
       <c r="T120" s="43"/>
       <c r="U120" s="43"/>
       <c r="V120" s="43"/>
-      <c r="W120" s="43"/>
+      <c r="W120" s="55"/>
       <c r="X120" s="43"/>
       <c r="Y120" s="43"/>
       <c r="Z120" s="43"/>
@@ -6351,7 +6795,7 @@
       <c r="T121" s="43"/>
       <c r="U121" s="43"/>
       <c r="V121" s="43"/>
-      <c r="W121" s="43"/>
+      <c r="W121" s="55"/>
       <c r="X121" s="43"/>
       <c r="Y121" s="43"/>
       <c r="Z121" s="43"/>
@@ -6381,492 +6825,1596 @@
       <c r="T122" s="43"/>
       <c r="U122" s="43"/>
       <c r="V122" s="43"/>
-      <c r="W122" s="43"/>
+      <c r="W122" s="55"/>
       <c r="X122" s="43"/>
       <c r="Y122" s="43"/>
       <c r="Z122" s="43"/>
       <c r="AA122" s="43"/>
       <c r="AB122" s="43"/>
     </row>
-    <row r="123" spans="1:28" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="124" spans="1:28" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="125" spans="1:28" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="126" spans="1:28" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="127" spans="1:28" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="128" spans="1:28" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="129" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="130" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="131" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="132" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="133" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="134" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="135" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="136" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="137" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="138" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="139" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="140" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="141" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="142" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="143" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="144" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="145" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="146" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="147" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="148" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="149" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="150" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="151" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="152" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="153" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="154" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="155" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="156" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="157" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="158" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="159" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="160" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="161" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="162" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="163" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="164" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="165" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="166" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="167" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="168" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="169" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="170" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="171" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="172" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="173" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="174" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="175" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="176" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="177" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="178" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="179" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="180" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="181" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="182" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="183" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="184" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="185" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="186" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="187" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="188" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="189" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="190" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="191" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="192" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="193" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="194" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="195" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="196" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="197" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="198" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="199" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="200" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="201" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="202" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="203" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="204" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="205" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="206" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="207" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="208" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="209" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="210" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="211" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="212" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="213" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="214" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="215" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="216" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="217" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="218" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="219" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="220" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="221" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="222" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="223" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="224" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="225" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="226" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="227" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="228" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="229" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="230" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="231" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="232" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="233" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="234" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="235" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="236" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="237" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="238" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="239" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="240" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="241" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="242" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="243" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="244" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="245" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="246" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="247" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="248" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="249" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="250" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="251" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="252" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="253" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="254" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="255" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="256" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="257" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="258" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="259" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="260" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="261" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="262" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="263" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="264" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="265" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="266" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="267" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="268" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="269" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="270" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="271" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="272" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="273" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="274" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="275" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="276" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="277" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="278" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="279" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="280" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="281" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="282" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="283" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="284" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="285" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="286" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="287" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="288" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="289" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="290" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="291" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="292" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="293" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="294" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="295" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="296" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="297" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="298" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="299" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="300" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="301" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="302" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="303" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="304" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="305" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="306" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="307" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="308" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="309" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="310" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="311" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="312" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="313" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="314" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="315" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="316" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="317" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="318" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="319" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="320" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="321" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="322" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="323" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="324" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="325" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="326" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="327" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="328" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="329" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="330" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="331" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="332" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="333" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="334" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="335" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="336" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="337" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="338" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="339" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="340" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="341" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="342" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="343" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="344" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="345" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="346" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="347" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="348" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="349" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="350" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="351" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="352" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="353" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="354" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="355" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="356" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="357" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="358" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="359" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="360" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="361" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="362" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="363" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="364" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="365" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="366" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="367" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="368" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="369" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="370" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="371" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="372" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="373" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="374" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="375" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="376" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="377" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="378" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="379" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="380" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="381" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="382" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="383" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="384" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="385" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="386" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="387" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="388" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="389" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="390" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="391" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="392" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="393" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="394" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="395" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="396" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="397" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="398" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="399" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="400" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="401" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="402" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="403" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="404" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="405" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="406" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="407" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="408" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="409" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="410" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="411" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="412" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="413" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="414" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="415" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="416" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="417" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="418" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="419" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="420" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="421" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="422" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="423" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="424" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="425" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="426" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="427" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="428" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="429" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="430" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="431" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="432" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="433" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="434" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="435" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="436" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="437" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="438" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="439" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="440" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="441" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="442" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="443" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="444" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="445" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="446" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="447" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="448" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="449" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="450" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="451" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="452" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="453" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="454" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="455" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="456" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="457" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="458" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="459" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="460" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="461" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="462" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="463" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="464" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="465" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="466" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="467" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="468" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="469" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="470" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="471" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="472" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="473" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="474" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="475" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="476" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="477" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="478" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="479" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="480" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="481" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="482" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="483" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="484" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="485" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="486" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="487" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="488" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="489" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="490" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="491" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="492" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="493" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="494" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="495" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="496" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="497" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="498" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="499" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="500" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="501" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="502" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="503" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="504" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="505" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="506" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="507" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="508" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="509" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="510" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="511" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="512" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="513" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="514" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="515" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="516" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="517" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="518" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="519" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="520" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="521" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="522" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="523" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="524" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="525" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="526" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="527" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="528" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="529" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="530" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="531" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="532" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="533" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="534" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="535" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="536" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="537" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="538" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="539" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="540" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="541" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="542" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="543" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="544" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="545" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="546" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="547" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="548" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="549" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="550" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="551" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="552" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="553" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="554" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="555" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="556" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="557" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="558" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="559" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="560" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="561" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="562" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="563" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="564" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="565" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="566" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="567" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="568" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="569" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="570" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="571" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="572" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="573" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="574" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="575" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="576" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="577" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="578" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="579" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="580" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="581" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="582" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="583" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="584" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="585" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="586" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="587" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="588" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="589" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="590" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="591" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="592" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="593" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="594" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="595" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="596" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="597" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="598" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="599" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="123" spans="1:28" customFormat="1" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A123" s="43"/>
+      <c r="B123" s="43"/>
+      <c r="C123" s="43"/>
+      <c r="D123" s="43"/>
+      <c r="E123" s="43"/>
+      <c r="F123" s="43"/>
+      <c r="G123" s="43"/>
+      <c r="H123" s="43"/>
+      <c r="I123" s="43"/>
+      <c r="J123" s="43"/>
+      <c r="K123" s="43"/>
+      <c r="L123" s="43"/>
+      <c r="M123" s="43"/>
+      <c r="N123" s="43"/>
+      <c r="O123" s="43"/>
+      <c r="P123" s="43"/>
+      <c r="Q123" s="43"/>
+      <c r="R123" s="43"/>
+      <c r="S123" s="43"/>
+      <c r="T123" s="43"/>
+      <c r="U123" s="43"/>
+      <c r="V123" s="43"/>
+      <c r="W123" s="55"/>
+      <c r="X123" s="43"/>
+      <c r="Y123" s="43"/>
+      <c r="Z123" s="43"/>
+      <c r="AA123" s="43"/>
+      <c r="AB123" s="43"/>
+    </row>
+    <row r="124" spans="1:28" customFormat="1" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A124" s="43"/>
+      <c r="B124" s="43"/>
+      <c r="C124" s="43"/>
+      <c r="D124" s="43"/>
+      <c r="E124" s="43"/>
+      <c r="F124" s="43"/>
+      <c r="G124" s="43"/>
+      <c r="H124" s="43"/>
+      <c r="I124" s="43"/>
+      <c r="J124" s="43"/>
+      <c r="K124" s="43"/>
+      <c r="L124" s="43"/>
+      <c r="M124" s="43"/>
+      <c r="N124" s="43"/>
+      <c r="O124" s="43"/>
+      <c r="P124" s="43"/>
+      <c r="Q124" s="43"/>
+      <c r="R124" s="43"/>
+      <c r="S124" s="43"/>
+      <c r="T124" s="43"/>
+      <c r="U124" s="43"/>
+      <c r="V124" s="43"/>
+      <c r="W124" s="55"/>
+      <c r="X124" s="43"/>
+      <c r="Y124" s="43"/>
+      <c r="Z124" s="43"/>
+      <c r="AA124" s="43"/>
+      <c r="AB124" s="43"/>
+    </row>
+    <row r="125" spans="1:28" customFormat="1" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A125" s="43"/>
+      <c r="B125" s="43"/>
+      <c r="C125" s="43"/>
+      <c r="D125" s="43"/>
+      <c r="E125" s="43"/>
+      <c r="F125" s="43"/>
+      <c r="G125" s="43"/>
+      <c r="H125" s="43"/>
+      <c r="I125" s="43"/>
+      <c r="J125" s="43"/>
+      <c r="K125" s="43"/>
+      <c r="L125" s="43"/>
+      <c r="M125" s="43"/>
+      <c r="N125" s="43"/>
+      <c r="O125" s="43"/>
+      <c r="P125" s="43"/>
+      <c r="Q125" s="43"/>
+      <c r="R125" s="43"/>
+      <c r="S125" s="43"/>
+      <c r="T125" s="43"/>
+      <c r="U125" s="43"/>
+      <c r="V125" s="43"/>
+      <c r="W125" s="55"/>
+      <c r="X125" s="43"/>
+      <c r="Y125" s="43"/>
+      <c r="Z125" s="43"/>
+      <c r="AA125" s="43"/>
+      <c r="AB125" s="43"/>
+    </row>
+    <row r="126" spans="1:28" customFormat="1" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A126" s="43"/>
+      <c r="B126" s="43"/>
+      <c r="C126" s="43"/>
+      <c r="D126" s="43"/>
+      <c r="E126" s="43"/>
+      <c r="F126" s="43"/>
+      <c r="G126" s="43"/>
+      <c r="H126" s="43"/>
+      <c r="I126" s="43"/>
+      <c r="J126" s="43"/>
+      <c r="K126" s="43"/>
+      <c r="L126" s="43"/>
+      <c r="M126" s="43"/>
+      <c r="N126" s="43"/>
+      <c r="O126" s="43"/>
+      <c r="P126" s="43"/>
+      <c r="Q126" s="43"/>
+      <c r="R126" s="43"/>
+      <c r="S126" s="43"/>
+      <c r="T126" s="43"/>
+      <c r="U126" s="43"/>
+      <c r="V126" s="43"/>
+      <c r="W126" s="55"/>
+      <c r="X126" s="43"/>
+      <c r="Y126" s="43"/>
+      <c r="Z126" s="43"/>
+      <c r="AA126" s="43"/>
+      <c r="AB126" s="43"/>
+    </row>
+    <row r="127" spans="1:28" customFormat="1" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A127" s="43"/>
+      <c r="B127" s="43"/>
+      <c r="C127" s="43"/>
+      <c r="D127" s="43"/>
+      <c r="E127" s="43"/>
+      <c r="F127" s="43"/>
+      <c r="G127" s="43"/>
+      <c r="H127" s="43"/>
+      <c r="I127" s="43"/>
+      <c r="J127" s="43"/>
+      <c r="K127" s="43"/>
+      <c r="L127" s="43"/>
+      <c r="M127" s="43"/>
+      <c r="N127" s="43"/>
+      <c r="O127" s="43"/>
+      <c r="P127" s="43"/>
+      <c r="Q127" s="43"/>
+      <c r="R127" s="43"/>
+      <c r="S127" s="43"/>
+      <c r="T127" s="43"/>
+      <c r="U127" s="43"/>
+      <c r="V127" s="43"/>
+      <c r="W127" s="55"/>
+      <c r="X127" s="43"/>
+      <c r="Y127" s="43"/>
+      <c r="Z127" s="43"/>
+      <c r="AA127" s="43"/>
+      <c r="AB127" s="43"/>
+    </row>
+    <row r="128" spans="1:28" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W128" s="59"/>
+    </row>
+    <row r="129" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W129" s="59"/>
+    </row>
+    <row r="130" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W130" s="59"/>
+    </row>
+    <row r="131" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W131" s="59"/>
+    </row>
+    <row r="132" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W132" s="59"/>
+    </row>
+    <row r="133" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W133" s="59"/>
+    </row>
+    <row r="134" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W134" s="59"/>
+    </row>
+    <row r="135" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W135" s="59"/>
+    </row>
+    <row r="136" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W136" s="59"/>
+    </row>
+    <row r="137" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W137" s="59"/>
+    </row>
+    <row r="138" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W138" s="59"/>
+    </row>
+    <row r="139" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W139" s="59"/>
+    </row>
+    <row r="140" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W140" s="59"/>
+    </row>
+    <row r="141" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W141" s="59"/>
+    </row>
+    <row r="142" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W142" s="59"/>
+    </row>
+    <row r="143" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W143" s="59"/>
+    </row>
+    <row r="144" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W144" s="59"/>
+    </row>
+    <row r="145" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W145" s="59"/>
+    </row>
+    <row r="146" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W146" s="59"/>
+    </row>
+    <row r="147" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W147" s="59"/>
+    </row>
+    <row r="148" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W148" s="59"/>
+    </row>
+    <row r="149" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W149" s="59"/>
+    </row>
+    <row r="150" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W150" s="59"/>
+    </row>
+    <row r="151" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W151" s="59"/>
+    </row>
+    <row r="152" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W152" s="59"/>
+    </row>
+    <row r="153" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W153" s="59"/>
+    </row>
+    <row r="154" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W154" s="59"/>
+    </row>
+    <row r="155" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W155" s="59"/>
+    </row>
+    <row r="156" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W156" s="59"/>
+    </row>
+    <row r="157" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W157" s="59"/>
+    </row>
+    <row r="158" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W158" s="59"/>
+    </row>
+    <row r="159" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W159" s="59"/>
+    </row>
+    <row r="160" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W160" s="59"/>
+    </row>
+    <row r="161" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W161" s="59"/>
+    </row>
+    <row r="162" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W162" s="59"/>
+    </row>
+    <row r="163" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W163" s="59"/>
+    </row>
+    <row r="164" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W164" s="59"/>
+    </row>
+    <row r="165" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W165" s="59"/>
+    </row>
+    <row r="166" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W166" s="59"/>
+    </row>
+    <row r="167" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W167" s="59"/>
+    </row>
+    <row r="168" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W168" s="59"/>
+    </row>
+    <row r="169" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W169" s="59"/>
+    </row>
+    <row r="170" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W170" s="59"/>
+    </row>
+    <row r="171" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W171" s="59"/>
+    </row>
+    <row r="172" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W172" s="59"/>
+    </row>
+    <row r="173" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W173" s="59"/>
+    </row>
+    <row r="174" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W174" s="59"/>
+    </row>
+    <row r="175" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W175" s="59"/>
+    </row>
+    <row r="176" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W176" s="59"/>
+    </row>
+    <row r="177" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W177" s="59"/>
+    </row>
+    <row r="178" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W178" s="59"/>
+    </row>
+    <row r="179" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W179" s="59"/>
+    </row>
+    <row r="180" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W180" s="59"/>
+    </row>
+    <row r="181" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W181" s="59"/>
+    </row>
+    <row r="182" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W182" s="59"/>
+    </row>
+    <row r="183" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W183" s="59"/>
+    </row>
+    <row r="184" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W184" s="59"/>
+    </row>
+    <row r="185" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W185" s="59"/>
+    </row>
+    <row r="186" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W186" s="59"/>
+    </row>
+    <row r="187" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W187" s="59"/>
+    </row>
+    <row r="188" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W188" s="59"/>
+    </row>
+    <row r="189" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W189" s="59"/>
+    </row>
+    <row r="190" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W190" s="59"/>
+    </row>
+    <row r="191" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W191" s="59"/>
+    </row>
+    <row r="192" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W192" s="59"/>
+    </row>
+    <row r="193" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W193" s="59"/>
+    </row>
+    <row r="194" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W194" s="59"/>
+    </row>
+    <row r="195" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W195" s="59"/>
+    </row>
+    <row r="196" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W196" s="59"/>
+    </row>
+    <row r="197" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W197" s="59"/>
+    </row>
+    <row r="198" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W198" s="59"/>
+    </row>
+    <row r="199" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W199" s="59"/>
+    </row>
+    <row r="200" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W200" s="59"/>
+    </row>
+    <row r="201" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W201" s="59"/>
+    </row>
+    <row r="202" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W202" s="59"/>
+    </row>
+    <row r="203" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W203" s="59"/>
+    </row>
+    <row r="204" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W204" s="59"/>
+    </row>
+    <row r="205" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W205" s="59"/>
+    </row>
+    <row r="206" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W206" s="59"/>
+    </row>
+    <row r="207" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W207" s="59"/>
+    </row>
+    <row r="208" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W208" s="59"/>
+    </row>
+    <row r="209" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W209" s="59"/>
+    </row>
+    <row r="210" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W210" s="59"/>
+    </row>
+    <row r="211" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W211" s="59"/>
+    </row>
+    <row r="212" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W212" s="59"/>
+    </row>
+    <row r="213" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W213" s="59"/>
+    </row>
+    <row r="214" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W214" s="59"/>
+    </row>
+    <row r="215" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W215" s="59"/>
+    </row>
+    <row r="216" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W216" s="59"/>
+    </row>
+    <row r="217" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W217" s="59"/>
+    </row>
+    <row r="218" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W218" s="59"/>
+    </row>
+    <row r="219" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W219" s="59"/>
+    </row>
+    <row r="220" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W220" s="59"/>
+    </row>
+    <row r="221" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W221" s="59"/>
+    </row>
+    <row r="222" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W222" s="59"/>
+    </row>
+    <row r="223" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W223" s="59"/>
+    </row>
+    <row r="224" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W224" s="59"/>
+    </row>
+    <row r="225" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W225" s="59"/>
+    </row>
+    <row r="226" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W226" s="59"/>
+    </row>
+    <row r="227" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W227" s="59"/>
+    </row>
+    <row r="228" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W228" s="59"/>
+    </row>
+    <row r="229" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W229" s="59"/>
+    </row>
+    <row r="230" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W230" s="59"/>
+    </row>
+    <row r="231" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W231" s="59"/>
+    </row>
+    <row r="232" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W232" s="59"/>
+    </row>
+    <row r="233" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W233" s="59"/>
+    </row>
+    <row r="234" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W234" s="59"/>
+    </row>
+    <row r="235" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W235" s="59"/>
+    </row>
+    <row r="236" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W236" s="59"/>
+    </row>
+    <row r="237" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W237" s="59"/>
+    </row>
+    <row r="238" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W238" s="59"/>
+    </row>
+    <row r="239" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W239" s="59"/>
+    </row>
+    <row r="240" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W240" s="59"/>
+    </row>
+    <row r="241" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W241" s="59"/>
+    </row>
+    <row r="242" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W242" s="59"/>
+    </row>
+    <row r="243" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W243" s="59"/>
+    </row>
+    <row r="244" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W244" s="59"/>
+    </row>
+    <row r="245" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W245" s="59"/>
+    </row>
+    <row r="246" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W246" s="59"/>
+    </row>
+    <row r="247" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W247" s="59"/>
+    </row>
+    <row r="248" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W248" s="59"/>
+    </row>
+    <row r="249" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W249" s="59"/>
+    </row>
+    <row r="250" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W250" s="59"/>
+    </row>
+    <row r="251" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W251" s="59"/>
+    </row>
+    <row r="252" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W252" s="59"/>
+    </row>
+    <row r="253" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W253" s="59"/>
+    </row>
+    <row r="254" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W254" s="59"/>
+    </row>
+    <row r="255" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W255" s="59"/>
+    </row>
+    <row r="256" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W256" s="59"/>
+    </row>
+    <row r="257" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W257" s="59"/>
+    </row>
+    <row r="258" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W258" s="59"/>
+    </row>
+    <row r="259" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W259" s="59"/>
+    </row>
+    <row r="260" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W260" s="59"/>
+    </row>
+    <row r="261" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W261" s="59"/>
+    </row>
+    <row r="262" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W262" s="59"/>
+    </row>
+    <row r="263" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W263" s="59"/>
+    </row>
+    <row r="264" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W264" s="59"/>
+    </row>
+    <row r="265" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W265" s="59"/>
+    </row>
+    <row r="266" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W266" s="59"/>
+    </row>
+    <row r="267" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W267" s="59"/>
+    </row>
+    <row r="268" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W268" s="59"/>
+    </row>
+    <row r="269" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W269" s="59"/>
+    </row>
+    <row r="270" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W270" s="59"/>
+    </row>
+    <row r="271" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W271" s="59"/>
+    </row>
+    <row r="272" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W272" s="59"/>
+    </row>
+    <row r="273" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W273" s="59"/>
+    </row>
+    <row r="274" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W274" s="59"/>
+    </row>
+    <row r="275" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W275" s="59"/>
+    </row>
+    <row r="276" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W276" s="59"/>
+    </row>
+    <row r="277" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W277" s="59"/>
+    </row>
+    <row r="278" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W278" s="59"/>
+    </row>
+    <row r="279" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W279" s="59"/>
+    </row>
+    <row r="280" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W280" s="59"/>
+    </row>
+    <row r="281" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W281" s="59"/>
+    </row>
+    <row r="282" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W282" s="59"/>
+    </row>
+    <row r="283" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W283" s="59"/>
+    </row>
+    <row r="284" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W284" s="59"/>
+    </row>
+    <row r="285" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W285" s="59"/>
+    </row>
+    <row r="286" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W286" s="59"/>
+    </row>
+    <row r="287" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W287" s="59"/>
+    </row>
+    <row r="288" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W288" s="59"/>
+    </row>
+    <row r="289" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W289" s="59"/>
+    </row>
+    <row r="290" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W290" s="59"/>
+    </row>
+    <row r="291" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W291" s="59"/>
+    </row>
+    <row r="292" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W292" s="59"/>
+    </row>
+    <row r="293" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W293" s="59"/>
+    </row>
+    <row r="294" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W294" s="59"/>
+    </row>
+    <row r="295" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W295" s="59"/>
+    </row>
+    <row r="296" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W296" s="59"/>
+    </row>
+    <row r="297" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W297" s="59"/>
+    </row>
+    <row r="298" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W298" s="59"/>
+    </row>
+    <row r="299" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W299" s="59"/>
+    </row>
+    <row r="300" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W300" s="59"/>
+    </row>
+    <row r="301" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W301" s="59"/>
+    </row>
+    <row r="302" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W302" s="59"/>
+    </row>
+    <row r="303" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W303" s="59"/>
+    </row>
+    <row r="304" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W304" s="59"/>
+    </row>
+    <row r="305" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W305" s="59"/>
+    </row>
+    <row r="306" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W306" s="59"/>
+    </row>
+    <row r="307" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W307" s="59"/>
+    </row>
+    <row r="308" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W308" s="59"/>
+    </row>
+    <row r="309" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W309" s="59"/>
+    </row>
+    <row r="310" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W310" s="59"/>
+    </row>
+    <row r="311" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W311" s="59"/>
+    </row>
+    <row r="312" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W312" s="59"/>
+    </row>
+    <row r="313" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W313" s="59"/>
+    </row>
+    <row r="314" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W314" s="59"/>
+    </row>
+    <row r="315" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W315" s="59"/>
+    </row>
+    <row r="316" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W316" s="59"/>
+    </row>
+    <row r="317" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W317" s="59"/>
+    </row>
+    <row r="318" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W318" s="59"/>
+    </row>
+    <row r="319" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W319" s="59"/>
+    </row>
+    <row r="320" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W320" s="59"/>
+    </row>
+    <row r="321" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W321" s="59"/>
+    </row>
+    <row r="322" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W322" s="59"/>
+    </row>
+    <row r="323" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W323" s="59"/>
+    </row>
+    <row r="324" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W324" s="59"/>
+    </row>
+    <row r="325" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W325" s="59"/>
+    </row>
+    <row r="326" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W326" s="59"/>
+    </row>
+    <row r="327" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W327" s="59"/>
+    </row>
+    <row r="328" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W328" s="59"/>
+    </row>
+    <row r="329" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W329" s="59"/>
+    </row>
+    <row r="330" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W330" s="59"/>
+    </row>
+    <row r="331" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W331" s="59"/>
+    </row>
+    <row r="332" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W332" s="59"/>
+    </row>
+    <row r="333" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W333" s="59"/>
+    </row>
+    <row r="334" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W334" s="59"/>
+    </row>
+    <row r="335" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W335" s="59"/>
+    </row>
+    <row r="336" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W336" s="59"/>
+    </row>
+    <row r="337" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W337" s="59"/>
+    </row>
+    <row r="338" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W338" s="59"/>
+    </row>
+    <row r="339" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W339" s="59"/>
+    </row>
+    <row r="340" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W340" s="59"/>
+    </row>
+    <row r="341" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W341" s="59"/>
+    </row>
+    <row r="342" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W342" s="59"/>
+    </row>
+    <row r="343" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W343" s="59"/>
+    </row>
+    <row r="344" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W344" s="59"/>
+    </row>
+    <row r="345" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W345" s="59"/>
+    </row>
+    <row r="346" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W346" s="59"/>
+    </row>
+    <row r="347" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W347" s="59"/>
+    </row>
+    <row r="348" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W348" s="59"/>
+    </row>
+    <row r="349" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W349" s="59"/>
+    </row>
+    <row r="350" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W350" s="59"/>
+    </row>
+    <row r="351" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W351" s="59"/>
+    </row>
+    <row r="352" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W352" s="59"/>
+    </row>
+    <row r="353" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W353" s="59"/>
+    </row>
+    <row r="354" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W354" s="59"/>
+    </row>
+    <row r="355" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W355" s="59"/>
+    </row>
+    <row r="356" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W356" s="59"/>
+    </row>
+    <row r="357" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W357" s="59"/>
+    </row>
+    <row r="358" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W358" s="59"/>
+    </row>
+    <row r="359" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W359" s="59"/>
+    </row>
+    <row r="360" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W360" s="59"/>
+    </row>
+    <row r="361" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W361" s="59"/>
+    </row>
+    <row r="362" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W362" s="59"/>
+    </row>
+    <row r="363" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W363" s="59"/>
+    </row>
+    <row r="364" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W364" s="59"/>
+    </row>
+    <row r="365" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W365" s="59"/>
+    </row>
+    <row r="366" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W366" s="59"/>
+    </row>
+    <row r="367" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W367" s="59"/>
+    </row>
+    <row r="368" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W368" s="59"/>
+    </row>
+    <row r="369" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W369" s="59"/>
+    </row>
+    <row r="370" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W370" s="59"/>
+    </row>
+    <row r="371" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W371" s="59"/>
+    </row>
+    <row r="372" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W372" s="59"/>
+    </row>
+    <row r="373" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W373" s="59"/>
+    </row>
+    <row r="374" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W374" s="59"/>
+    </row>
+    <row r="375" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W375" s="59"/>
+    </row>
+    <row r="376" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W376" s="59"/>
+    </row>
+    <row r="377" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W377" s="59"/>
+    </row>
+    <row r="378" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W378" s="59"/>
+    </row>
+    <row r="379" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W379" s="59"/>
+    </row>
+    <row r="380" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W380" s="59"/>
+    </row>
+    <row r="381" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W381" s="59"/>
+    </row>
+    <row r="382" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W382" s="59"/>
+    </row>
+    <row r="383" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W383" s="59"/>
+    </row>
+    <row r="384" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W384" s="59"/>
+    </row>
+    <row r="385" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W385" s="59"/>
+    </row>
+    <row r="386" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W386" s="59"/>
+    </row>
+    <row r="387" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W387" s="59"/>
+    </row>
+    <row r="388" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W388" s="59"/>
+    </row>
+    <row r="389" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W389" s="59"/>
+    </row>
+    <row r="390" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W390" s="59"/>
+    </row>
+    <row r="391" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W391" s="59"/>
+    </row>
+    <row r="392" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W392" s="59"/>
+    </row>
+    <row r="393" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W393" s="59"/>
+    </row>
+    <row r="394" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W394" s="59"/>
+    </row>
+    <row r="395" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W395" s="59"/>
+    </row>
+    <row r="396" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W396" s="59"/>
+    </row>
+    <row r="397" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W397" s="59"/>
+    </row>
+    <row r="398" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W398" s="59"/>
+    </row>
+    <row r="399" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W399" s="59"/>
+    </row>
+    <row r="400" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W400" s="59"/>
+    </row>
+    <row r="401" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W401" s="59"/>
+    </row>
+    <row r="402" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W402" s="59"/>
+    </row>
+    <row r="403" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W403" s="59"/>
+    </row>
+    <row r="404" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W404" s="59"/>
+    </row>
+    <row r="405" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W405" s="59"/>
+    </row>
+    <row r="406" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W406" s="59"/>
+    </row>
+    <row r="407" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W407" s="59"/>
+    </row>
+    <row r="408" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W408" s="59"/>
+    </row>
+    <row r="409" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W409" s="59"/>
+    </row>
+    <row r="410" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W410" s="59"/>
+    </row>
+    <row r="411" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W411" s="59"/>
+    </row>
+    <row r="412" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W412" s="59"/>
+    </row>
+    <row r="413" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W413" s="59"/>
+    </row>
+    <row r="414" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W414" s="59"/>
+    </row>
+    <row r="415" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W415" s="59"/>
+    </row>
+    <row r="416" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W416" s="59"/>
+    </row>
+    <row r="417" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W417" s="59"/>
+    </row>
+    <row r="418" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W418" s="59"/>
+    </row>
+    <row r="419" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W419" s="59"/>
+    </row>
+    <row r="420" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W420" s="59"/>
+    </row>
+    <row r="421" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W421" s="59"/>
+    </row>
+    <row r="422" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W422" s="59"/>
+    </row>
+    <row r="423" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W423" s="59"/>
+    </row>
+    <row r="424" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W424" s="59"/>
+    </row>
+    <row r="425" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W425" s="59"/>
+    </row>
+    <row r="426" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W426" s="59"/>
+    </row>
+    <row r="427" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W427" s="59"/>
+    </row>
+    <row r="428" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W428" s="59"/>
+    </row>
+    <row r="429" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W429" s="59"/>
+    </row>
+    <row r="430" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W430" s="59"/>
+    </row>
+    <row r="431" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W431" s="59"/>
+    </row>
+    <row r="432" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W432" s="59"/>
+    </row>
+    <row r="433" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W433" s="59"/>
+    </row>
+    <row r="434" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W434" s="59"/>
+    </row>
+    <row r="435" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W435" s="59"/>
+    </row>
+    <row r="436" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W436" s="59"/>
+    </row>
+    <row r="437" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W437" s="59"/>
+    </row>
+    <row r="438" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W438" s="59"/>
+    </row>
+    <row r="439" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W439" s="59"/>
+    </row>
+    <row r="440" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W440" s="59"/>
+    </row>
+    <row r="441" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W441" s="59"/>
+    </row>
+    <row r="442" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W442" s="59"/>
+    </row>
+    <row r="443" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W443" s="59"/>
+    </row>
+    <row r="444" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W444" s="59"/>
+    </row>
+    <row r="445" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W445" s="59"/>
+    </row>
+    <row r="446" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W446" s="59"/>
+    </row>
+    <row r="447" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W447" s="59"/>
+    </row>
+    <row r="448" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W448" s="59"/>
+    </row>
+    <row r="449" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W449" s="59"/>
+    </row>
+    <row r="450" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W450" s="59"/>
+    </row>
+    <row r="451" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W451" s="59"/>
+    </row>
+    <row r="452" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W452" s="59"/>
+    </row>
+    <row r="453" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W453" s="59"/>
+    </row>
+    <row r="454" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W454" s="59"/>
+    </row>
+    <row r="455" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W455" s="59"/>
+    </row>
+    <row r="456" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W456" s="59"/>
+    </row>
+    <row r="457" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W457" s="59"/>
+    </row>
+    <row r="458" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W458" s="59"/>
+    </row>
+    <row r="459" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W459" s="59"/>
+    </row>
+    <row r="460" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W460" s="59"/>
+    </row>
+    <row r="461" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W461" s="59"/>
+    </row>
+    <row r="462" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W462" s="59"/>
+    </row>
+    <row r="463" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W463" s="59"/>
+    </row>
+    <row r="464" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W464" s="59"/>
+    </row>
+    <row r="465" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W465" s="59"/>
+    </row>
+    <row r="466" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W466" s="59"/>
+    </row>
+    <row r="467" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W467" s="59"/>
+    </row>
+    <row r="468" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W468" s="59"/>
+    </row>
+    <row r="469" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W469" s="59"/>
+    </row>
+    <row r="470" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W470" s="59"/>
+    </row>
+    <row r="471" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W471" s="59"/>
+    </row>
+    <row r="472" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W472" s="59"/>
+    </row>
+    <row r="473" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W473" s="59"/>
+    </row>
+    <row r="474" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W474" s="59"/>
+    </row>
+    <row r="475" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W475" s="59"/>
+    </row>
+    <row r="476" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W476" s="59"/>
+    </row>
+    <row r="477" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W477" s="59"/>
+    </row>
+    <row r="478" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W478" s="59"/>
+    </row>
+    <row r="479" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W479" s="59"/>
+    </row>
+    <row r="480" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W480" s="59"/>
+    </row>
+    <row r="481" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W481" s="59"/>
+    </row>
+    <row r="482" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W482" s="59"/>
+    </row>
+    <row r="483" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W483" s="59"/>
+    </row>
+    <row r="484" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W484" s="59"/>
+    </row>
+    <row r="485" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W485" s="59"/>
+    </row>
+    <row r="486" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W486" s="59"/>
+    </row>
+    <row r="487" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W487" s="59"/>
+    </row>
+    <row r="488" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W488" s="59"/>
+    </row>
+    <row r="489" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W489" s="59"/>
+    </row>
+    <row r="490" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W490" s="59"/>
+    </row>
+    <row r="491" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W491" s="59"/>
+    </row>
+    <row r="492" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W492" s="59"/>
+    </row>
+    <row r="493" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W493" s="59"/>
+    </row>
+    <row r="494" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W494" s="59"/>
+    </row>
+    <row r="495" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W495" s="59"/>
+    </row>
+    <row r="496" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W496" s="59"/>
+    </row>
+    <row r="497" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W497" s="59"/>
+    </row>
+    <row r="498" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W498" s="59"/>
+    </row>
+    <row r="499" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W499" s="59"/>
+    </row>
+    <row r="500" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W500" s="59"/>
+    </row>
+    <row r="501" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W501" s="59"/>
+    </row>
+    <row r="502" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W502" s="59"/>
+    </row>
+    <row r="503" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W503" s="59"/>
+    </row>
+    <row r="504" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W504" s="59"/>
+    </row>
+    <row r="505" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W505" s="59"/>
+    </row>
+    <row r="506" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W506" s="59"/>
+    </row>
+    <row r="507" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W507" s="59"/>
+    </row>
+    <row r="508" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W508" s="59"/>
+    </row>
+    <row r="509" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W509" s="59"/>
+    </row>
+    <row r="510" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W510" s="59"/>
+    </row>
+    <row r="511" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W511" s="59"/>
+    </row>
+    <row r="512" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W512" s="59"/>
+    </row>
+    <row r="513" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W513" s="59"/>
+    </row>
+    <row r="514" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W514" s="59"/>
+    </row>
+    <row r="515" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W515" s="59"/>
+    </row>
+    <row r="516" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W516" s="59"/>
+    </row>
+    <row r="517" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W517" s="59"/>
+    </row>
+    <row r="518" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W518" s="59"/>
+    </row>
+    <row r="519" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W519" s="59"/>
+    </row>
+    <row r="520" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W520" s="59"/>
+    </row>
+    <row r="521" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W521" s="59"/>
+    </row>
+    <row r="522" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W522" s="59"/>
+    </row>
+    <row r="523" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W523" s="59"/>
+    </row>
+    <row r="524" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W524" s="59"/>
+    </row>
+    <row r="525" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W525" s="59"/>
+    </row>
+    <row r="526" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W526" s="59"/>
+    </row>
+    <row r="527" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W527" s="59"/>
+    </row>
+    <row r="528" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W528" s="59"/>
+    </row>
+    <row r="529" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W529" s="59"/>
+    </row>
+    <row r="530" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W530" s="59"/>
+    </row>
+    <row r="531" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W531" s="59"/>
+    </row>
+    <row r="532" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W532" s="59"/>
+    </row>
+    <row r="533" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W533" s="59"/>
+    </row>
+    <row r="534" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W534" s="59"/>
+    </row>
+    <row r="535" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W535" s="59"/>
+    </row>
+    <row r="536" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W536" s="59"/>
+    </row>
+    <row r="537" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W537" s="59"/>
+    </row>
+    <row r="538" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W538" s="59"/>
+    </row>
+    <row r="539" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W539" s="59"/>
+    </row>
+    <row r="540" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W540" s="59"/>
+    </row>
+    <row r="541" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W541" s="59"/>
+    </row>
+    <row r="542" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W542" s="59"/>
+    </row>
+    <row r="543" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W543" s="59"/>
+    </row>
+    <row r="544" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W544" s="59"/>
+    </row>
+    <row r="545" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W545" s="59"/>
+    </row>
+    <row r="546" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W546" s="59"/>
+    </row>
+    <row r="547" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W547" s="59"/>
+    </row>
+    <row r="548" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W548" s="59"/>
+    </row>
+    <row r="549" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W549" s="59"/>
+    </row>
+    <row r="550" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W550" s="59"/>
+    </row>
+    <row r="551" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W551" s="59"/>
+    </row>
+    <row r="552" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W552" s="59"/>
+    </row>
+    <row r="553" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W553" s="59"/>
+    </row>
+    <row r="554" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W554" s="59"/>
+    </row>
+    <row r="555" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W555" s="59"/>
+    </row>
+    <row r="556" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W556" s="59"/>
+    </row>
+    <row r="557" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W557" s="59"/>
+    </row>
+    <row r="558" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W558" s="59"/>
+    </row>
+    <row r="559" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W559" s="59"/>
+    </row>
+    <row r="560" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W560" s="59"/>
+    </row>
+    <row r="561" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W561" s="59"/>
+    </row>
+    <row r="562" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W562" s="59"/>
+    </row>
+    <row r="563" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W563" s="59"/>
+    </row>
+    <row r="564" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W564" s="59"/>
+    </row>
+    <row r="565" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W565" s="59"/>
+    </row>
+    <row r="566" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W566" s="59"/>
+    </row>
+    <row r="567" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W567" s="59"/>
+    </row>
+    <row r="568" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W568" s="59"/>
+    </row>
+    <row r="569" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W569" s="59"/>
+    </row>
+    <row r="570" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W570" s="59"/>
+    </row>
+    <row r="571" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W571" s="59"/>
+    </row>
+    <row r="572" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W572" s="59"/>
+    </row>
+    <row r="573" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W573" s="59"/>
+    </row>
+    <row r="574" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W574" s="59"/>
+    </row>
+    <row r="575" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W575" s="59"/>
+    </row>
+    <row r="576" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W576" s="59"/>
+    </row>
+    <row r="577" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W577" s="59"/>
+    </row>
+    <row r="578" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W578" s="59"/>
+    </row>
+    <row r="579" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W579" s="59"/>
+    </row>
+    <row r="580" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W580" s="59"/>
+    </row>
+    <row r="581" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W581" s="59"/>
+    </row>
+    <row r="582" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W582" s="59"/>
+    </row>
+    <row r="583" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W583" s="59"/>
+    </row>
+    <row r="584" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W584" s="59"/>
+    </row>
+    <row r="585" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W585" s="59"/>
+    </row>
+    <row r="586" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W586" s="59"/>
+    </row>
+    <row r="587" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W587" s="59"/>
+    </row>
+    <row r="588" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W588" s="59"/>
+    </row>
+    <row r="589" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W589" s="59"/>
+    </row>
+    <row r="590" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W590" s="59"/>
+    </row>
+    <row r="591" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W591" s="59"/>
+    </row>
+    <row r="592" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W592" s="59"/>
+    </row>
+    <row r="593" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W593" s="59"/>
+    </row>
+    <row r="594" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W594" s="59"/>
+    </row>
+    <row r="595" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W595" s="59"/>
+    </row>
+    <row r="596" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W596" s="59"/>
+    </row>
+    <row r="597" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W597" s="59"/>
+    </row>
+    <row r="598" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W598" s="59"/>
+    </row>
+    <row r="599" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W599" s="59"/>
+    </row>
+    <row r="600" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W600" s="59"/>
+    </row>
+    <row r="601" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W601" s="59"/>
+    </row>
+    <row r="602" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W602" s="59"/>
+    </row>
+    <row r="603" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W603" s="59"/>
+    </row>
+    <row r="604" spans="23:23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W604" s="59"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A12:U116" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A12:U121" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="9">
     <mergeCell ref="V3:V5"/>
     <mergeCell ref="V6:V7"/>
